--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="29430" yWindow="7755" windowWidth="25665" windowHeight="7725" tabRatio="877" firstSheet="8" activeTab="13" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="840" yWindow="3780" windowWidth="21600" windowHeight="11385" tabRatio="877" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -139,13 +139,6 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="12"/>
-      <sz val="10"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="10"/>
@@ -188,7 +181,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -273,6 +266,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -350,7 +355,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -459,33 +464,22 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -495,10 +489,10 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -512,18 +506,40 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="18" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="17" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,103 +852,103 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW2"/>
+  <dimension ref="A1:BV11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="41.85546875" customWidth="1" style="89" min="2" max="2"/>
-    <col width="15.28515625" customWidth="1" style="89" min="3" max="3"/>
-    <col width="9.7109375" customWidth="1" style="89" min="4" max="4"/>
-    <col width="15.42578125" customWidth="1" style="89" min="5" max="5"/>
-    <col width="5.85546875" customWidth="1" style="89" min="6" max="6"/>
-    <col width="31.28515625" customWidth="1" style="89" min="7" max="7"/>
-    <col width="15.28515625" customWidth="1" style="89" min="8" max="8"/>
-    <col width="14.85546875" customWidth="1" style="89" min="9" max="9"/>
-    <col width="19.140625" customWidth="1" style="89" min="10" max="10"/>
-    <col width="19" customWidth="1" style="89" min="11" max="11"/>
-    <col width="11.5703125" customWidth="1" style="89" min="12" max="12"/>
-    <col width="16.7109375" customWidth="1" style="89" min="13" max="13"/>
-    <col width="11.140625" customWidth="1" style="89" min="14" max="14"/>
-    <col width="46.5703125" customWidth="1" style="89" min="15" max="15"/>
-    <col width="15" customWidth="1" style="89" min="16" max="16"/>
-    <col width="16.5703125" customWidth="1" style="89" min="17" max="17"/>
-    <col width="19.140625" customWidth="1" style="89" min="18" max="18"/>
-    <col width="8.5703125" customWidth="1" style="89" min="19" max="19"/>
-    <col width="24.5703125" customWidth="1" style="89" min="20" max="20"/>
-    <col width="13.28515625" customWidth="1" style="89" min="21" max="21"/>
-    <col width="23" customWidth="1" style="89" min="22" max="23"/>
-    <col width="30" customWidth="1" style="89" min="24" max="24"/>
-    <col width="28.5703125" customWidth="1" style="89" min="25" max="25"/>
-    <col width="15.28515625" customWidth="1" style="89" min="26" max="26"/>
-    <col width="14.42578125" customWidth="1" style="89" min="27" max="27"/>
-    <col width="15.5703125" customWidth="1" style="89" min="28" max="30"/>
-    <col width="13.7109375" customWidth="1" style="89" min="31" max="31"/>
-    <col width="15.5703125" customWidth="1" style="89" min="32" max="32"/>
-    <col width="10.5703125" customWidth="1" style="89" min="33" max="33"/>
-    <col width="15.28515625" customWidth="1" style="89" min="34" max="35"/>
-    <col width="10.42578125" customWidth="1" style="89" min="36" max="36"/>
-    <col width="14.85546875" customWidth="1" style="89" min="37" max="37"/>
-    <col width="19.7109375" customWidth="1" style="89" min="38" max="38"/>
-    <col width="14" customWidth="1" style="89" min="39" max="39"/>
-    <col width="14.42578125" customWidth="1" style="89" min="40" max="40"/>
-    <col width="20.7109375" customWidth="1" style="89" min="41" max="41"/>
-    <col width="13.85546875" customWidth="1" style="89" min="42" max="42"/>
-    <col width="10" customWidth="1" style="89" min="43" max="43"/>
-    <col width="38.28515625" customWidth="1" style="89" min="44" max="44"/>
-    <col width="21.140625" customWidth="1" style="89" min="45" max="45"/>
-    <col width="24.28515625" customWidth="1" style="89" min="46" max="46"/>
-    <col width="18.42578125" customWidth="1" style="89" min="47" max="47"/>
-    <col width="16.7109375" customWidth="1" style="89" min="48" max="48"/>
-    <col width="28.85546875" customWidth="1" style="89" min="49" max="49"/>
-    <col width="14.28515625" customWidth="1" style="89" min="50" max="50"/>
-    <col width="23" customWidth="1" style="89" min="51" max="51"/>
-    <col width="19.85546875" customWidth="1" style="89" min="52" max="55"/>
-    <col width="24.7109375" customWidth="1" style="89" min="56" max="57"/>
-    <col width="25" customWidth="1" style="89" min="58" max="58"/>
-    <col width="24.42578125" customWidth="1" style="89" min="59" max="59"/>
-    <col width="30.42578125" customWidth="1" style="89" min="60" max="60"/>
-    <col width="36" customWidth="1" style="89" min="61" max="61"/>
-    <col width="34.42578125" customWidth="1" style="89" min="62" max="62"/>
-    <col width="26.7109375" customWidth="1" style="89" min="63" max="63"/>
-    <col width="17.28515625" customWidth="1" style="89" min="64" max="65"/>
-    <col width="34.140625" customWidth="1" style="89" min="66" max="66"/>
-    <col width="28.42578125" customWidth="1" style="89" min="67" max="67"/>
-    <col width="24.7109375" customWidth="1" style="89" min="68" max="68"/>
-    <col width="30.28515625" customWidth="1" style="89" min="69" max="69"/>
-    <col width="17.5703125" customWidth="1" style="89" min="70" max="70"/>
-    <col width="20.28515625" customWidth="1" style="89" min="71" max="71"/>
-    <col width="12.140625" customWidth="1" style="89" min="72" max="72"/>
-    <col width="21.42578125" customWidth="1" style="89" min="73" max="73"/>
-    <col width="24.140625" customWidth="1" style="89" min="74" max="74"/>
-    <col width="16" customWidth="1" style="89" min="75" max="75"/>
-    <col width="14" customWidth="1" style="89" min="76" max="76"/>
-    <col width="16.7109375" customWidth="1" style="89" min="77" max="77"/>
-    <col width="10.42578125" customWidth="1" style="89" min="78" max="78"/>
-    <col width="37.7109375" customWidth="1" style="89" min="79" max="79"/>
-    <col width="16.7109375" customWidth="1" style="89" min="80" max="81"/>
-    <col width="20.140625" customWidth="1" style="89" min="82" max="84"/>
-    <col width="17.7109375" customWidth="1" style="89" min="85" max="85"/>
-    <col width="24.5703125" customWidth="1" style="89" min="86" max="86"/>
-    <col width="19.42578125" customWidth="1" style="89" min="87" max="89"/>
-    <col width="21.140625" customWidth="1" style="89" min="90" max="90"/>
-    <col width="32.42578125" customWidth="1" style="89" min="91" max="91"/>
-    <col width="17.28515625" customWidth="1" style="89" min="92" max="93"/>
-    <col width="17.5703125" customWidth="1" style="89" min="94" max="96"/>
-    <col width="26.28515625" customWidth="1" style="89" min="97" max="97"/>
-    <col width="35" customWidth="1" style="89" min="98" max="98"/>
-    <col width="26.5703125" customWidth="1" style="89" min="99" max="99"/>
-    <col width="24.85546875" customWidth="1" style="89" min="100" max="100"/>
-    <col width="20" customWidth="1" style="89" min="101" max="101"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="41.85546875" customWidth="1" style="84" min="2" max="2"/>
+    <col width="15.28515625" customWidth="1" style="84" min="3" max="3"/>
+    <col width="9.7109375" customWidth="1" style="84" min="4" max="4"/>
+    <col width="15.42578125" customWidth="1" style="84" min="5" max="5"/>
+    <col width="14.5703125" customWidth="1" style="84" min="6" max="6"/>
+    <col width="31.28515625" customWidth="1" style="84" min="7" max="7"/>
+    <col width="15.28515625" customWidth="1" style="84" min="8" max="8"/>
+    <col width="14.85546875" customWidth="1" style="84" min="9" max="9"/>
+    <col width="19.140625" customWidth="1" style="84" min="10" max="10"/>
+    <col width="19" customWidth="1" style="84" min="11" max="11"/>
+    <col width="11.5703125" customWidth="1" style="84" min="12" max="12"/>
+    <col width="16.7109375" customWidth="1" style="84" min="13" max="13"/>
+    <col width="11.140625" customWidth="1" style="84" min="14" max="14"/>
+    <col width="46.5703125" customWidth="1" style="84" min="15" max="15"/>
+    <col width="15" customWidth="1" style="84" min="16" max="16"/>
+    <col width="16.5703125" customWidth="1" style="84" min="17" max="17"/>
+    <col width="19.140625" customWidth="1" style="84" min="18" max="18"/>
+    <col width="8.5703125" customWidth="1" style="84" min="19" max="19"/>
+    <col width="24.5703125" customWidth="1" style="84" min="20" max="20"/>
+    <col width="13.28515625" customWidth="1" style="84" min="21" max="21"/>
+    <col width="23" customWidth="1" style="84" min="22" max="23"/>
+    <col width="30" customWidth="1" style="84" min="24" max="24"/>
+    <col width="28.5703125" customWidth="1" style="84" min="25" max="25"/>
+    <col width="15.28515625" customWidth="1" style="84" min="26" max="26"/>
+    <col width="14.42578125" customWidth="1" style="84" min="27" max="27"/>
+    <col width="15.5703125" customWidth="1" style="84" min="28" max="30"/>
+    <col width="13.7109375" customWidth="1" style="84" min="31" max="31"/>
+    <col width="15.5703125" customWidth="1" style="84" min="32" max="32"/>
+    <col width="29.5703125" customWidth="1" style="84" min="33" max="33"/>
+    <col width="15.28515625" customWidth="1" style="84" min="34" max="35"/>
+    <col width="10.42578125" customWidth="1" style="84" min="36" max="36"/>
+    <col width="21" customWidth="1" style="84" min="37" max="38"/>
+    <col width="19.7109375" customWidth="1" style="84" min="39" max="39"/>
+    <col width="14" customWidth="1" style="84" min="40" max="40"/>
+    <col width="14.42578125" customWidth="1" style="84" min="41" max="41"/>
+    <col width="20.7109375" customWidth="1" style="84" min="42" max="42"/>
+    <col width="13.85546875" customWidth="1" style="84" min="43" max="43"/>
+    <col width="10" customWidth="1" style="84" min="44" max="44"/>
+    <col width="38.28515625" customWidth="1" style="84" min="45" max="45"/>
+    <col width="21.140625" customWidth="1" style="84" min="46" max="46"/>
+    <col width="24.28515625" customWidth="1" style="84" min="47" max="47"/>
+    <col width="18.42578125" customWidth="1" style="84" min="48" max="48"/>
+    <col width="16.7109375" customWidth="1" style="84" min="49" max="49"/>
+    <col width="28.85546875" customWidth="1" style="84" min="50" max="50"/>
+    <col width="14.28515625" customWidth="1" style="84" min="51" max="51"/>
+    <col width="23" customWidth="1" style="84" min="52" max="52"/>
+    <col width="19.85546875" customWidth="1" style="84" min="53" max="56"/>
+    <col width="24.7109375" customWidth="1" style="84" min="57" max="58"/>
+    <col width="25" customWidth="1" style="84" min="59" max="59"/>
+    <col width="24.42578125" customWidth="1" style="84" min="60" max="60"/>
+    <col width="30.42578125" customWidth="1" style="84" min="61" max="61"/>
+    <col width="36" customWidth="1" style="84" min="62" max="62"/>
+    <col width="34.42578125" customWidth="1" style="84" min="63" max="63"/>
+    <col width="26.7109375" customWidth="1" style="84" min="64" max="64"/>
+    <col width="17.28515625" customWidth="1" style="84" min="65" max="66"/>
+    <col width="34.140625" customWidth="1" style="84" min="67" max="67"/>
+    <col width="28.42578125" customWidth="1" style="84" min="68" max="68"/>
+    <col width="24.7109375" customWidth="1" style="84" min="69" max="69"/>
+    <col width="30.28515625" customWidth="1" style="84" min="70" max="70"/>
+    <col width="17.5703125" customWidth="1" style="84" min="71" max="71"/>
+    <col width="20.28515625" customWidth="1" style="84" min="72" max="72"/>
+    <col width="12.140625" customWidth="1" style="84" min="73" max="73"/>
+    <col width="21.42578125" customWidth="1" style="84" min="74" max="74"/>
+    <col width="24.140625" customWidth="1" style="84" min="75" max="75"/>
+    <col width="16" customWidth="1" style="84" min="76" max="76"/>
+    <col width="14" customWidth="1" style="84" min="77" max="77"/>
+    <col width="16.7109375" customWidth="1" style="84" min="78" max="78"/>
+    <col width="10.42578125" customWidth="1" style="84" min="79" max="79"/>
+    <col width="37.7109375" customWidth="1" style="84" min="80" max="80"/>
+    <col width="16.7109375" customWidth="1" style="84" min="81" max="82"/>
+    <col width="20.140625" customWidth="1" style="84" min="83" max="85"/>
+    <col width="17.7109375" customWidth="1" style="84" min="86" max="86"/>
+    <col width="24.5703125" customWidth="1" style="84" min="87" max="87"/>
+    <col width="19.42578125" customWidth="1" style="84" min="88" max="90"/>
+    <col width="21.140625" customWidth="1" style="84" min="91" max="91"/>
+    <col width="32.42578125" customWidth="1" style="84" min="92" max="92"/>
+    <col width="17.28515625" customWidth="1" style="84" min="93" max="94"/>
+    <col width="17.5703125" customWidth="1" style="84" min="95" max="97"/>
+    <col width="26.28515625" customWidth="1" style="84" min="98" max="98"/>
+    <col width="35" customWidth="1" style="84" min="99" max="99"/>
+    <col width="26.5703125" customWidth="1" style="84" min="100" max="100"/>
+    <col width="24.85546875" customWidth="1" style="84" min="101" max="101"/>
+    <col width="20" customWidth="1" style="84" min="102" max="102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="75">
-      <c r="A1" s="71" t="inlineStr">
+    <row r="1" customFormat="1" s="74">
+      <c r="A1" s="72" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
@@ -942,529 +958,753 @@
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="71" t="inlineStr">
-        <is>
-          <t>SSO_UserLink</t>
-        </is>
-      </c>
-      <c r="D1" s="71" t="inlineStr">
-        <is>
-          <t>SSO_Port</t>
-        </is>
-      </c>
-      <c r="E1" s="72" t="inlineStr">
-        <is>
-          <t>User_Link</t>
-        </is>
-      </c>
-      <c r="F1" s="72" t="inlineStr">
-        <is>
-          <t>Port</t>
-        </is>
-      </c>
-      <c r="G1" s="72" t="inlineStr">
-        <is>
-          <t>Party_URL</t>
-        </is>
-      </c>
-      <c r="H1" s="72" t="inlineStr">
-        <is>
-          <t>User_Username</t>
-        </is>
-      </c>
-      <c r="I1" s="72" t="inlineStr">
-        <is>
-          <t>User_Password</t>
-        </is>
-      </c>
-      <c r="J1" s="72" t="inlineStr">
-        <is>
-          <t>Approver_Username</t>
-        </is>
-      </c>
-      <c r="K1" s="72" t="inlineStr">
-        <is>
-          <t>Approver_Password</t>
+      <c r="C1" s="73" t="inlineStr">
+        <is>
+          <t>Enterprise_Prefix</t>
+        </is>
+      </c>
+      <c r="D1" s="122" t="inlineStr">
+        <is>
+          <t>Party_ID</t>
+        </is>
+      </c>
+      <c r="E1" s="73" t="inlineStr">
+        <is>
+          <t>Short_Name_Prefix</t>
+        </is>
+      </c>
+      <c r="F1" s="73" t="inlineStr">
+        <is>
+          <t>Locality</t>
+        </is>
+      </c>
+      <c r="G1" s="73" t="inlineStr">
+        <is>
+          <t>Branch_Code</t>
+        </is>
+      </c>
+      <c r="H1" s="73" t="inlineStr">
+        <is>
+          <t>Party_Type</t>
+        </is>
+      </c>
+      <c r="I1" s="73" t="inlineStr">
+        <is>
+          <t>Party_Sub_Type</t>
+        </is>
+      </c>
+      <c r="J1" s="73" t="inlineStr">
+        <is>
+          <t>Party_Category</t>
+        </is>
+      </c>
+      <c r="K1" s="73" t="inlineStr">
+        <is>
+          <t>Registered_Number</t>
         </is>
       </c>
       <c r="L1" s="73" t="inlineStr">
         <is>
-          <t>Locality</t>
+          <t>Country_of_Tax_Domicile</t>
         </is>
       </c>
       <c r="M1" s="73" t="inlineStr">
         <is>
-          <t>Branch_Code</t>
+          <t>Country_of_Registration</t>
         </is>
       </c>
       <c r="N1" s="73" t="inlineStr">
         <is>
-          <t>Party_Type</t>
+          <t>Business_Country</t>
         </is>
       </c>
       <c r="O1" s="73" t="inlineStr">
         <is>
-          <t>Party_Sub_Type</t>
+          <t>Industry_Sector</t>
         </is>
       </c>
       <c r="P1" s="73" t="inlineStr">
         <is>
-          <t>Party_Category</t>
-        </is>
-      </c>
-      <c r="Q1" s="74" t="inlineStr">
-        <is>
-          <t>Enterprise_Name</t>
+          <t>Business_Activity</t>
+        </is>
+      </c>
+      <c r="Q1" s="73" t="inlineStr">
+        <is>
+          <t>Is_Main_Activity</t>
         </is>
       </c>
       <c r="R1" s="73" t="inlineStr">
         <is>
-          <t>Registered_Number</t>
+          <t>Is_Primary_Activity</t>
         </is>
       </c>
       <c r="S1" s="73" t="inlineStr">
         <is>
-          <t>Party_ID</t>
+          <t>GST_Number</t>
         </is>
       </c>
       <c r="T1" s="73" t="inlineStr">
         <is>
-          <t>Country_of_Tax_Domicile</t>
+          <t>Address_Type</t>
         </is>
       </c>
       <c r="U1" s="73" t="inlineStr">
         <is>
-          <t>Date_Formed</t>
+          <t>Country_Region</t>
         </is>
       </c>
       <c r="V1" s="73" t="inlineStr">
         <is>
-          <t>Country_of_Registration</t>
+          <t>Post_Code</t>
         </is>
       </c>
       <c r="W1" s="73" t="inlineStr">
         <is>
-          <t>Business_Country</t>
+          <t>Address_Line_1</t>
         </is>
       </c>
       <c r="X1" s="73" t="inlineStr">
         <is>
-          <t>Industry_Sector</t>
+          <t>Address_Line_2</t>
         </is>
       </c>
       <c r="Y1" s="73" t="inlineStr">
         <is>
-          <t>Business_Activity</t>
+          <t>Address_Line_3</t>
         </is>
       </c>
       <c r="Z1" s="73" t="inlineStr">
         <is>
-          <t>Business_Focus</t>
+          <t>Address_Line_4</t>
         </is>
       </c>
       <c r="AA1" s="73" t="inlineStr">
         <is>
-          <t>Business_Type</t>
+          <t>Town_City</t>
         </is>
       </c>
       <c r="AB1" s="73" t="inlineStr">
         <is>
-          <t>Is_Main_Activity</t>
+          <t>State_Province</t>
         </is>
       </c>
       <c r="AC1" s="73" t="inlineStr">
         <is>
-          <t>Is_Primary_Activity</t>
+          <t>Document_Collection_Status</t>
         </is>
       </c>
       <c r="AD1" s="73" t="inlineStr">
         <is>
-          <t>GSTID</t>
+          <t>Selected_Module</t>
         </is>
       </c>
       <c r="AE1" s="73" t="inlineStr">
         <is>
-          <t>Address_Type</t>
+          <t>UserZone</t>
         </is>
       </c>
       <c r="AF1" s="73" t="inlineStr">
         <is>
-          <t>Country_Region</t>
+          <t>UserBranch</t>
         </is>
       </c>
       <c r="AG1" s="73" t="inlineStr">
         <is>
-          <t>Post_Code</t>
+          <t>CustomerNotice_TypeMethod</t>
         </is>
       </c>
       <c r="AH1" s="73" t="inlineStr">
         <is>
-          <t>Address_Line_1</t>
+          <t>Expense_Code</t>
         </is>
       </c>
       <c r="AI1" s="73" t="inlineStr">
         <is>
-          <t>Address_Line_2</t>
+          <t>Deparment_Code</t>
         </is>
       </c>
       <c r="AJ1" s="73" t="inlineStr">
         <is>
-          <t>Town_City</t>
-        </is>
-      </c>
-      <c r="AK1" s="73" t="inlineStr">
-        <is>
-          <t>State_Province</t>
-        </is>
-      </c>
-      <c r="AL1" s="73" t="inlineStr">
-        <is>
-          <t>Email_Contact_Type</t>
-        </is>
-      </c>
-      <c r="AM1" s="73" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="AN1" s="73" t="inlineStr">
-        <is>
-          <t>Confirm_Email</t>
+          <t>Profile_Type</t>
+        </is>
+      </c>
+      <c r="AK1" s="71" t="inlineStr">
+        <is>
+          <t>Customer_Location</t>
+        </is>
+      </c>
+      <c r="AL1" s="123" t="inlineStr">
+        <is>
+          <t>LIQBorrower_ID</t>
+        </is>
+      </c>
+      <c r="AM1" s="123" t="inlineStr">
+        <is>
+          <t>LIQBorrower_LegalName</t>
+        </is>
+      </c>
+      <c r="AN1" s="122" t="inlineStr">
+        <is>
+          <t>LIQCustomer_ShortName</t>
         </is>
       </c>
       <c r="AO1" s="73" t="inlineStr">
         <is>
-          <t>Mobile_Contact_Type</t>
+          <t>Contact_FirstName</t>
         </is>
       </c>
       <c r="AP1" s="73" t="inlineStr">
         <is>
-          <t>Country_Code</t>
+          <t>Contact_LastName</t>
         </is>
       </c>
       <c r="AQ1" s="73" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>Contact_PreferredLanguage</t>
         </is>
       </c>
       <c r="AR1" s="73" t="inlineStr">
         <is>
-          <t>Document_Collection_Status</t>
+          <t>Contact_PrimaryPhone</t>
         </is>
       </c>
       <c r="AS1" s="73" t="inlineStr">
         <is>
-          <t>Selected_Module</t>
+          <t>BorrowerContact_Phone</t>
         </is>
       </c>
       <c r="AT1" s="73" t="inlineStr">
         <is>
-          <t>Task_ID_from_Supervisor</t>
+          <t>Contact_PurposeType</t>
         </is>
       </c>
       <c r="AU1" s="73" t="inlineStr">
         <is>
-          <t>Task_ID_from_User</t>
+          <t>ContactNotice_Method</t>
         </is>
       </c>
       <c r="AV1" s="73" t="inlineStr">
         <is>
-          <t>Enterprise_Prefix</t>
-        </is>
-      </c>
-      <c r="AW1" s="73" t="n"/>
-      <c r="AX1" s="73" t="n"/>
-      <c r="AY1" s="73" t="n"/>
-      <c r="AZ1" s="73" t="n"/>
-      <c r="BA1" s="73" t="n"/>
-      <c r="BB1" s="73" t="n"/>
-      <c r="BC1" s="73" t="n"/>
-      <c r="BD1" s="73" t="n"/>
-      <c r="BE1" s="73" t="n"/>
-      <c r="BF1" s="73" t="n"/>
-      <c r="BG1" s="73" t="n"/>
-      <c r="BH1" s="73" t="n"/>
-      <c r="BI1" s="73" t="n"/>
-      <c r="BJ1" s="73" t="n"/>
-      <c r="BK1" s="73" t="n"/>
-      <c r="BL1" s="73" t="n"/>
-      <c r="BM1" s="73" t="n"/>
-      <c r="BN1" s="73" t="n"/>
-      <c r="BO1" s="73" t="n"/>
-      <c r="BP1" s="73" t="n"/>
-      <c r="BQ1" s="73" t="n"/>
-      <c r="BR1" s="73" t="n"/>
-      <c r="BS1" s="73" t="n"/>
-      <c r="BT1" s="73" t="n"/>
-      <c r="BU1" s="73" t="n"/>
-      <c r="BV1" s="73" t="n"/>
-      <c r="BW1" s="73" t="n"/>
-      <c r="BX1" s="73" t="n"/>
-      <c r="BY1" s="73" t="n"/>
-      <c r="BZ1" s="73" t="n"/>
-      <c r="CA1" s="73" t="n"/>
-      <c r="CB1" s="73" t="n"/>
-      <c r="CC1" s="73" t="n"/>
-      <c r="CD1" s="73" t="n"/>
-      <c r="CE1" s="73" t="n"/>
-      <c r="CF1" s="73" t="n"/>
-      <c r="CG1" s="73" t="n"/>
-      <c r="CH1" s="73" t="n"/>
-      <c r="CI1" s="73" t="n"/>
-      <c r="CJ1" s="73" t="n"/>
-      <c r="CK1" s="73" t="n"/>
-      <c r="CL1" s="73" t="n"/>
-      <c r="CM1" s="73" t="n"/>
-      <c r="CN1" s="73" t="n"/>
-      <c r="CO1" s="73" t="n"/>
-      <c r="CP1" s="73" t="n"/>
-      <c r="CQ1" s="73" t="n"/>
-      <c r="CR1" s="73" t="n"/>
-      <c r="CS1" s="73" t="n"/>
-      <c r="CT1" s="73" t="n"/>
-      <c r="CU1" s="73" t="n"/>
-      <c r="CV1" s="73" t="n"/>
-      <c r="CW1" s="73" t="n"/>
+          <t>Contact_Email</t>
+        </is>
+      </c>
+      <c r="AW1" s="73" t="inlineStr">
+        <is>
+          <t>ProductSBLC_Checkbox</t>
+        </is>
+      </c>
+      <c r="AX1" s="73" t="inlineStr">
+        <is>
+          <t>ProductLoan_Checkbox</t>
+        </is>
+      </c>
+      <c r="AY1" s="73" t="inlineStr">
+        <is>
+          <t>BalanceType_Principal_Checkbox</t>
+        </is>
+      </c>
+      <c r="AZ1" s="73" t="inlineStr">
+        <is>
+          <t>BalanceType_Interest_Checkbox</t>
+        </is>
+      </c>
+      <c r="BA1" s="73" t="inlineStr">
+        <is>
+          <t>BalanceType_Fees_Checkbox</t>
+        </is>
+      </c>
+      <c r="BB1" s="73" t="inlineStr">
+        <is>
+          <t>Address_Code</t>
+        </is>
+      </c>
+      <c r="BC1" s="73" t="inlineStr">
+        <is>
+          <t>RI_DDAMethod</t>
+        </is>
+      </c>
+      <c r="BD1" s="73" t="inlineStr">
+        <is>
+          <t>RI_DDADescription</t>
+        </is>
+      </c>
+      <c r="BE1" s="73" t="inlineStr">
+        <is>
+          <t>RI_DDAAccountName</t>
+        </is>
+      </c>
+      <c r="BF1" s="73" t="inlineStr">
+        <is>
+          <t>RI_DDAAccountNumber</t>
+        </is>
+      </c>
+      <c r="BG1" s="73" t="inlineStr">
+        <is>
+          <t>RI_DDACurrency</t>
+        </is>
+      </c>
+      <c r="BH1" s="73" t="inlineStr">
+        <is>
+          <t>RI_ProductLoan_Checkbox</t>
+        </is>
+      </c>
+      <c r="BI1" s="73" t="inlineStr">
+        <is>
+          <t>RI_ProductSBLC_Checkbox</t>
+        </is>
+      </c>
+      <c r="BJ1" s="73" t="inlineStr">
+        <is>
+          <t>RI_FromCust_Checkbox</t>
+        </is>
+      </c>
+      <c r="BK1" s="73" t="inlineStr">
+        <is>
+          <t>RI_ToCust_Checkbox</t>
+        </is>
+      </c>
+      <c r="BL1" s="73" t="inlineStr">
+        <is>
+          <t>RI_BalanceType_Principal_Checkbox</t>
+        </is>
+      </c>
+      <c r="BM1" s="73" t="inlineStr">
+        <is>
+          <t>RI_BalanceType_Interest_Checkbox</t>
+        </is>
+      </c>
+      <c r="BN1" s="73" t="inlineStr">
+        <is>
+          <t>RI_BalanceType_Fees_Checkbox</t>
+        </is>
+      </c>
+      <c r="BO1" s="73" t="inlineStr">
+        <is>
+          <t>RI_AutoDoIt_Checkbox</t>
+        </is>
+      </c>
+      <c r="BP1" s="73" t="inlineStr">
+        <is>
+          <t>Group_Contact</t>
+        </is>
+      </c>
+      <c r="BQ1" s="73" t="inlineStr">
+        <is>
+          <t>Borrower_SGAlias</t>
+        </is>
+      </c>
+      <c r="BR1" s="73" t="inlineStr">
+        <is>
+          <t>Borrower_SG_GroupMembers</t>
+        </is>
+      </c>
+      <c r="BS1" s="73" t="inlineStr">
+        <is>
+          <t>Borrower_PreferredRIMthd</t>
+        </is>
+      </c>
+      <c r="BT1" s="73" t="inlineStr">
+        <is>
+          <t>Borrower_SG_Name</t>
+        </is>
+      </c>
+      <c r="BU1" s="73" t="inlineStr">
+        <is>
+          <t>Borrower_Depositor_Indicator</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="89" t="inlineStr">
+      <c r="A2" s="126" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
-        <is>
-          <t>EVG_PTYLIQ07 Scenario7 Bilateral Facility - Termination of a Facility</t>
-        </is>
-      </c>
-      <c r="C2" s="89" t="inlineStr">
-        <is>
-          <t>mancsleverg0028</t>
-        </is>
-      </c>
-      <c r="D2" s="89" t="n">
-        <v>8080</v>
-      </c>
-      <c r="E2" s="113" t="inlineStr">
-        <is>
-          <t>mancsleverg0031</t>
-        </is>
-      </c>
-      <c r="F2" s="113" t="n">
-        <v>8080</v>
-      </c>
-      <c r="G2" s="113" t="inlineStr">
-        <is>
-          <t>/uxp/rt/html/login.html</t>
-        </is>
-      </c>
-      <c r="H2" s="113" t="inlineStr">
-        <is>
-          <t>brad</t>
-        </is>
-      </c>
-      <c r="I2" s="113" t="inlineStr">
-        <is>
-          <t>welcome%4099</t>
-        </is>
-      </c>
-      <c r="J2" s="113" t="inlineStr">
-        <is>
-          <t>superit</t>
-        </is>
-      </c>
-      <c r="K2" s="113" t="inlineStr">
-        <is>
-          <t>welcome%4099</t>
-        </is>
-      </c>
-      <c r="L2" s="113" t="inlineStr">
+      <c r="B2" s="127" t="inlineStr">
+        <is>
+          <t>PTY001_QuickPartyOnboarding</t>
+        </is>
+      </c>
+      <c r="C2" s="127" t="inlineStr">
+        <is>
+          <t>LBT Trust</t>
+        </is>
+      </c>
+      <c r="D2" s="128" t="inlineStr">
+        <is>
+          <t>1115737</t>
+        </is>
+      </c>
+      <c r="E2" s="127" t="inlineStr">
+        <is>
+          <t>LBT Trust</t>
+        </is>
+      </c>
+      <c r="F2" s="129" t="inlineStr">
         <is>
           <t>Local Private</t>
         </is>
       </c>
-      <c r="M2" s="113" t="inlineStr">
+      <c r="G2" s="129" t="inlineStr">
         <is>
           <t>00000001</t>
         </is>
       </c>
-      <c r="N2" s="113" t="inlineStr">
+      <c r="H2" s="129" t="inlineStr">
         <is>
           <t>Enterprise</t>
         </is>
       </c>
-      <c r="O2" s="114" t="inlineStr">
-        <is>
-          <t>Bank, Foreign Private Company Registered with ASIC</t>
-        </is>
-      </c>
-      <c r="P2" s="113" t="inlineStr">
+      <c r="I2" s="130" t="inlineStr">
+        <is>
+          <t>Trust, Unit</t>
+        </is>
+      </c>
+      <c r="J2" s="129" t="inlineStr">
         <is>
           <t>Full</t>
         </is>
       </c>
-      <c r="Q2" s="76" t="inlineStr">
-        <is>
-          <t>ESPS11810226</t>
-        </is>
-      </c>
-      <c r="R2" s="89" t="inlineStr">
-        <is>
-          <t>1014001</t>
-        </is>
-      </c>
-      <c r="S2" s="76" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="T2" s="113" t="inlineStr">
+      <c r="K2" s="126" t="inlineStr">
+        <is>
+          <t>200001111</t>
+        </is>
+      </c>
+      <c r="L2" s="129" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="U2" s="77" t="inlineStr">
-        <is>
-          <t>2015-04-06</t>
-        </is>
-      </c>
-      <c r="V2" s="77" t="inlineStr">
+      <c r="M2" s="131" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="W2" s="77" t="inlineStr">
+      <c r="N2" s="131" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="X2" s="113" t="inlineStr">
-        <is>
-          <t>Electricity, Gas and Water Supply</t>
-        </is>
-      </c>
-      <c r="Y2" s="113" t="inlineStr">
-        <is>
-          <t>Gas Supply</t>
-        </is>
-      </c>
-      <c r="Z2" s="113" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="AA2" s="113" t="inlineStr">
-        <is>
-          <t>Affinity</t>
-        </is>
-      </c>
-      <c r="AB2" s="113" t="inlineStr">
+      <c r="O2" s="129" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="P2" s="129" t="inlineStr">
+        <is>
+          <t>Financial Asset Investors</t>
+        </is>
+      </c>
+      <c r="Q2" s="129" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="AC2" s="113" t="inlineStr">
+      <c r="R2" s="129" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="AD2" s="113" t="inlineStr">
-        <is>
-          <t>10075843210</t>
-        </is>
-      </c>
-      <c r="AE2" s="113" t="inlineStr">
+      <c r="S2" s="132" t="inlineStr">
+        <is>
+          <t>100001111</t>
+        </is>
+      </c>
+      <c r="T2" s="129" t="inlineStr">
         <is>
           <t>Legal Address</t>
         </is>
       </c>
-      <c r="AF2" s="113" t="inlineStr">
+      <c r="U2" s="129" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="AG2" s="78" t="inlineStr">
-        <is>
-          <t>4061</t>
-        </is>
-      </c>
-      <c r="AH2" s="113" t="inlineStr">
-        <is>
-          <t>George St.</t>
-        </is>
-      </c>
-      <c r="AI2" s="113" t="inlineStr">
-        <is>
-          <t>Beverly Hills</t>
-        </is>
-      </c>
-      <c r="AJ2" s="79" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="AK2" s="79" t="inlineStr">
-        <is>
-          <t>Victoria</t>
-        </is>
-      </c>
-      <c r="AL2" s="79" t="inlineStr">
-        <is>
-          <t>Work</t>
-        </is>
-      </c>
-      <c r="AM2" s="80" t="inlineStr">
-        <is>
-          <t>evrl3@test.com</t>
-        </is>
-      </c>
-      <c r="AN2" s="80" t="inlineStr">
-        <is>
-          <t>evrl3@test.com</t>
-        </is>
-      </c>
-      <c r="AO2" s="79" t="inlineStr">
-        <is>
-          <t>Work</t>
-        </is>
-      </c>
-      <c r="AP2" s="79" t="inlineStr">
-        <is>
-          <t>+61</t>
-        </is>
-      </c>
-      <c r="AQ2" s="79" t="inlineStr">
-        <is>
-          <t>442345679</t>
-        </is>
-      </c>
-      <c r="AR2" s="113" t="inlineStr">
+      <c r="V2" s="133" t="n">
+        <v>2000</v>
+      </c>
+      <c r="W2" s="129" t="inlineStr">
+        <is>
+          <t>1 Sunshine St</t>
+        </is>
+      </c>
+      <c r="X2" s="124" t="n"/>
+      <c r="Y2" s="124" t="n"/>
+      <c r="Z2" s="124" t="n"/>
+      <c r="AA2" s="134" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="AB2" s="134" t="inlineStr">
+        <is>
+          <t>New South Wales</t>
+        </is>
+      </c>
+      <c r="AC2" s="129" t="inlineStr">
         <is>
           <t>Documents not collected</t>
         </is>
       </c>
-      <c r="AS2" s="113" t="inlineStr">
+      <c r="AD2" s="129" t="inlineStr">
         <is>
           <t>Quick Party Onboarding</t>
         </is>
       </c>
-      <c r="AT2" s="89" t="inlineStr">
-        <is>
-          <t>1164f57726c6GBld</t>
-        </is>
-      </c>
-      <c r="AU2" s="89" t="inlineStr">
-        <is>
-          <t>1164f57780d0GBvY</t>
-        </is>
-      </c>
-      <c r="AV2" s="89" t="inlineStr">
-        <is>
-          <t>ESPS1</t>
+      <c r="AE2" s="129" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="AF2" s="127" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - DBU</t>
+        </is>
+      </c>
+      <c r="AG2" s="127" t="inlineStr">
+        <is>
+          <t>Faxes/Emails Only</t>
+        </is>
+      </c>
+      <c r="AH2" s="127" t="inlineStr">
+        <is>
+          <t>DM_CFS</t>
+        </is>
+      </c>
+      <c r="AI2" s="127" t="inlineStr">
+        <is>
+          <t>GLB</t>
+        </is>
+      </c>
+      <c r="AJ2" s="127" t="inlineStr">
+        <is>
+          <t>Borrower</t>
+        </is>
+      </c>
+      <c r="AK2" s="135" t="inlineStr">
+        <is>
+          <t>Sydney, NSW,Australia</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>1115737</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>LBT Trust 1115737</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>LBT TRUST 1115737</t>
+        </is>
+      </c>
+      <c r="AO2" s="127" t="inlineStr">
+        <is>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="AP2" s="127" t="inlineStr">
+        <is>
+          <t>Brook</t>
+        </is>
+      </c>
+      <c r="AQ2" s="127" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="AR2" s="127" t="inlineStr">
+        <is>
+          <t>02 99998887</t>
+        </is>
+      </c>
+      <c r="AS2" s="127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AT2" s="127" t="inlineStr">
+        <is>
+          <t>Servicing</t>
+        </is>
+      </c>
+      <c r="AU2" s="127" t="inlineStr">
+        <is>
+          <t>CBA Email with PDF Attachment</t>
+        </is>
+      </c>
+      <c r="AV2" s="136" t="inlineStr">
+        <is>
+          <t>phamv@cba.com.au</t>
+        </is>
+      </c>
+      <c r="AW2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="AX2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="AY2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="AZ2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="BA2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="BB2" s="127" t="inlineStr">
+        <is>
+          <t>Legal Address</t>
+        </is>
+      </c>
+      <c r="BC2" s="127" t="inlineStr">
+        <is>
+          <t>DDA (Demand Deposit Acct)</t>
+        </is>
+      </c>
+      <c r="BD2" s="127" t="inlineStr">
+        <is>
+          <t>ABC123487654321</t>
+        </is>
+      </c>
+      <c r="BE2" s="137" t="inlineStr">
+        <is>
+          <t>LBT Trust</t>
+        </is>
+      </c>
+      <c r="BF2" s="126" t="inlineStr">
+        <is>
+          <t>123487654321</t>
+        </is>
+      </c>
+      <c r="BG2" s="127" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="BH2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="BI2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="BJ2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="BK2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="BL2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="BM2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="BN2" s="127" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="BO2" s="127" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+      <c r="BP2" s="127" t="inlineStr">
+        <is>
+          <t>BROOK</t>
+        </is>
+      </c>
+      <c r="BQ2" s="127" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
+      <c r="BR2" s="128" t="inlineStr">
+        <is>
+          <t>Brook, Liz</t>
+        </is>
+      </c>
+      <c r="BS2" s="127" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="BT2" s="127" t="inlineStr">
+        <is>
+          <t>BROOK</t>
+        </is>
+      </c>
+      <c r="BU2" s="127" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+      <c r="BV2" s="128" t="n"/>
+    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8">
+      <c r="C8" s="84" t="inlineStr">
+        <is>
+          <t>Columns available</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="73" t="inlineStr">
+        <is>
+          <t>Manual Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="122" t="inlineStr">
+        <is>
+          <t>Auto generated</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="125" t="inlineStr">
+        <is>
+          <t>New value</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AV2" r:id="rId1"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
@@ -1486,119 +1726,119 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col width="5.85546875" bestFit="1" customWidth="1" style="110" min="1" max="1"/>
-    <col width="28" bestFit="1" customWidth="1" style="110" min="2" max="2"/>
-    <col width="44" bestFit="1" customWidth="1" style="110" min="3" max="3"/>
-    <col width="32.28515625" bestFit="1" customWidth="1" style="110" min="4" max="4"/>
-    <col width="21.7109375" customWidth="1" style="110" min="5" max="6"/>
-    <col width="36.7109375" bestFit="1" customWidth="1" style="110" min="7" max="7"/>
-    <col width="36.7109375" customWidth="1" style="110" min="8" max="8"/>
-    <col width="35.7109375" bestFit="1" customWidth="1" style="110" min="9" max="9"/>
-    <col width="32.28515625" bestFit="1" customWidth="1" style="110" min="10" max="10"/>
-    <col width="17" bestFit="1" customWidth="1" style="110" min="11" max="11"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" style="110" min="12" max="12"/>
-    <col width="44.28515625" bestFit="1" customWidth="1" style="110" min="13" max="13"/>
-    <col width="23.42578125" bestFit="1" customWidth="1" style="110" min="14" max="14"/>
-    <col width="32.7109375" bestFit="1" customWidth="1" style="110" min="15" max="15"/>
-    <col width="12.28515625" bestFit="1" customWidth="1" style="110" min="16" max="16"/>
-    <col width="8.7109375" customWidth="1" style="110" min="17" max="53"/>
-    <col width="8.7109375" customWidth="1" style="110" min="54" max="16384"/>
+    <col width="5.85546875" bestFit="1" customWidth="1" style="105" min="1" max="1"/>
+    <col width="28" bestFit="1" customWidth="1" style="105" min="2" max="2"/>
+    <col width="44" bestFit="1" customWidth="1" style="105" min="3" max="3"/>
+    <col width="32.28515625" bestFit="1" customWidth="1" style="105" min="4" max="4"/>
+    <col width="21.7109375" customWidth="1" style="105" min="5" max="6"/>
+    <col width="36.7109375" bestFit="1" customWidth="1" style="105" min="7" max="7"/>
+    <col width="36.7109375" customWidth="1" style="105" min="8" max="8"/>
+    <col width="35.7109375" bestFit="1" customWidth="1" style="105" min="9" max="9"/>
+    <col width="32.28515625" bestFit="1" customWidth="1" style="105" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" style="105" min="11" max="11"/>
+    <col width="24.28515625" bestFit="1" customWidth="1" style="105" min="12" max="12"/>
+    <col width="44.28515625" bestFit="1" customWidth="1" style="105" min="13" max="13"/>
+    <col width="23.42578125" bestFit="1" customWidth="1" style="105" min="14" max="14"/>
+    <col width="32.7109375" bestFit="1" customWidth="1" style="105" min="15" max="15"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" style="105" min="16" max="16"/>
+    <col width="8.7109375" customWidth="1" style="105" min="17" max="54"/>
+    <col width="8.7109375" customWidth="1" style="105" min="55" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="85">
-      <c r="A1" s="84" t="inlineStr">
+    <row r="1" customFormat="1" s="80">
+      <c r="A1" s="79" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="84" t="inlineStr">
+      <c r="B1" s="79" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="86" t="inlineStr">
+      <c r="C1" s="81" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="86" t="inlineStr">
+      <c r="D1" s="81" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="84" t="inlineStr">
+      <c r="E1" s="79" t="inlineStr">
         <is>
           <t>Short_Name</t>
         </is>
       </c>
-      <c r="F1" s="84" t="inlineStr">
+      <c r="F1" s="79" t="inlineStr">
         <is>
           <t>Transaction_Type</t>
         </is>
       </c>
-      <c r="G1" s="84" t="inlineStr">
+      <c r="G1" s="79" t="inlineStr">
         <is>
           <t>Transaction_Status_Awaiting_Approval</t>
         </is>
       </c>
-      <c r="H1" s="84" t="inlineStr">
+      <c r="H1" s="79" t="inlineStr">
         <is>
           <t>Payment_Type</t>
         </is>
       </c>
-      <c r="I1" s="84" t="inlineStr">
+      <c r="I1" s="79" t="inlineStr">
         <is>
           <t>Transaction_Status_Awaiting_Release</t>
         </is>
       </c>
-      <c r="J1" s="87" t="inlineStr">
+      <c r="J1" s="82" t="inlineStr">
         <is>
           <t>Portfolio_Position</t>
         </is>
       </c>
-      <c r="K1" s="85" t="inlineStr">
+      <c r="K1" s="80" t="inlineStr">
         <is>
           <t>Adjustment_Amount</t>
         </is>
       </c>
-      <c r="L1" s="85" t="inlineStr">
+      <c r="L1" s="80" t="inlineStr">
         <is>
           <t>GL_ShortName</t>
         </is>
       </c>
-      <c r="M1" s="85" t="inlineStr">
+      <c r="M1" s="80" t="inlineStr">
         <is>
           <t>AwaitingDispose</t>
         </is>
       </c>
-      <c r="N1" s="85" t="inlineStr">
+      <c r="N1" s="80" t="inlineStr">
         <is>
           <t>PFDC_Transaction_Type</t>
         </is>
       </c>
-      <c r="O1" s="85" t="inlineStr">
+      <c r="O1" s="80" t="inlineStr">
         <is>
           <t>PFDC_Payment_Type</t>
         </is>
       </c>
-      <c r="P1" s="97" t="inlineStr">
+      <c r="P1" s="92" t="inlineStr">
         <is>
           <t>Closed_Date</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="89" t="inlineStr">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
-      <c r="C2" s="110" t="inlineStr">
+      <c r="C2" s="105" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
@@ -1608,27 +1848,27 @@
           <t>INTFULDRAW17112020142405ZCZ</t>
         </is>
       </c>
-      <c r="E2" s="89" t="inlineStr">
+      <c r="E2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="F2" s="89" t="inlineStr">
+      <c r="F2" s="84" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="G2" s="113" t="inlineStr">
+      <c r="G2" s="108" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="H2" s="113" t="inlineStr">
+      <c r="H2" s="108" t="inlineStr">
         <is>
           <t>Fee Payment From Borrower</t>
         </is>
       </c>
-      <c r="I2" s="113" t="inlineStr">
+      <c r="I2" s="108" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
@@ -1638,30 +1878,30 @@
           <t>INTFULDRAW17112020142405ZCZ</t>
         </is>
       </c>
-      <c r="K2" s="88" t="n">
+      <c r="K2" s="83" t="n">
         <v>1000000</v>
       </c>
-      <c r="L2" s="89" t="inlineStr">
+      <c r="L2" s="84" t="inlineStr">
         <is>
           <t>Fees Held Awaiting Dispos.</t>
         </is>
       </c>
-      <c r="M2" s="110" t="inlineStr">
+      <c r="M2" s="105" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
       </c>
-      <c r="N2" s="110" t="inlineStr">
+      <c r="N2" s="105" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="O2" s="110" t="inlineStr">
+      <c r="O2" s="105" t="inlineStr">
         <is>
           <t>Portfolio Settled Discount Adjustment</t>
         </is>
       </c>
-      <c r="P2" s="99" t="inlineStr">
+      <c r="P2" s="94" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
@@ -1713,117 +1953,117 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="84" t="inlineStr">
+      <c r="A1" s="79" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="84" t="inlineStr">
+      <c r="B1" s="79" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="86" t="inlineStr">
+      <c r="C1" s="81" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="86" t="inlineStr">
+      <c r="D1" s="81" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="84" t="inlineStr">
+      <c r="E1" s="79" t="inlineStr">
         <is>
           <t>Short_Name</t>
         </is>
       </c>
-      <c r="F1" s="84" t="inlineStr">
+      <c r="F1" s="79" t="inlineStr">
         <is>
           <t>LenderShare_Type</t>
         </is>
       </c>
-      <c r="G1" s="84" t="inlineStr">
+      <c r="G1" s="79" t="inlineStr">
         <is>
           <t>Buyer_LegalEntity</t>
         </is>
       </c>
-      <c r="H1" s="84" t="inlineStr">
+      <c r="H1" s="79" t="inlineStr">
         <is>
           <t>Buyer_RiskBook</t>
         </is>
       </c>
-      <c r="I1" s="84" t="inlineStr">
+      <c r="I1" s="79" t="inlineStr">
         <is>
           <t>Seller_LegalEntity</t>
         </is>
       </c>
-      <c r="J1" s="84" t="inlineStr">
+      <c r="J1" s="79" t="inlineStr">
         <is>
           <t>Seller_RiskBook</t>
         </is>
       </c>
-      <c r="K1" s="84" t="inlineStr">
+      <c r="K1" s="79" t="inlineStr">
         <is>
           <t>Pct_of_Deal</t>
         </is>
       </c>
-      <c r="L1" s="86" t="inlineStr">
+      <c r="L1" s="81" t="inlineStr">
         <is>
           <t>Participation_Discount</t>
         </is>
       </c>
-      <c r="M1" s="84" t="inlineStr">
+      <c r="M1" s="79" t="inlineStr">
         <is>
           <t>Int_Fee</t>
         </is>
       </c>
-      <c r="N1" s="86" t="inlineStr">
+      <c r="N1" s="81" t="inlineStr">
         <is>
           <t>Buy_Sell_Amount</t>
         </is>
       </c>
-      <c r="O1" s="84" t="inlineStr">
+      <c r="O1" s="79" t="inlineStr">
         <is>
           <t>Buy_Sell_Price</t>
         </is>
       </c>
-      <c r="P1" s="86" t="inlineStr">
+      <c r="P1" s="81" t="inlineStr">
         <is>
           <t>Expected_CloseDate</t>
         </is>
       </c>
-      <c r="Q1" s="84" t="inlineStr">
+      <c r="Q1" s="79" t="inlineStr">
         <is>
           <t>Buyer_Contact</t>
         </is>
       </c>
-      <c r="R1" s="84" t="inlineStr">
+      <c r="R1" s="79" t="inlineStr">
         <is>
           <t>Seller_Contact</t>
         </is>
       </c>
-      <c r="S1" s="84" t="inlineStr">
+      <c r="S1" s="79" t="inlineStr">
         <is>
           <t>Transaction_Status_Awaiting_Approval</t>
         </is>
       </c>
-      <c r="T1" s="85" t="inlineStr">
+      <c r="T1" s="80" t="inlineStr">
         <is>
           <t>Participation_Transaction_Type</t>
         </is>
       </c>
-      <c r="U1" s="85" t="inlineStr">
+      <c r="U1" s="80" t="inlineStr">
         <is>
           <t>Buyer_Portfolio</t>
         </is>
       </c>
-      <c r="V1" s="84" t="inlineStr">
+      <c r="V1" s="79" t="inlineStr">
         <is>
           <t>Buyer_ExpenseCode</t>
         </is>
       </c>
-      <c r="W1" s="84" t="inlineStr">
+      <c r="W1" s="79" t="inlineStr">
         <is>
           <t>Buyer_Branch</t>
         </is>
@@ -1835,7 +2075,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
@@ -1845,17 +2085,17 @@
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
       </c>
-      <c r="D2" s="89" t="inlineStr">
+      <c r="D2" s="84" t="inlineStr">
         <is>
           <t>INTFULDRAW17112020142405ZCZ</t>
         </is>
       </c>
-      <c r="E2" s="89" t="inlineStr">
+      <c r="E2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="F2" s="89" t="inlineStr">
+      <c r="F2" s="84" t="inlineStr">
         <is>
           <t>Participation</t>
         </is>
@@ -1865,7 +2105,7 @@
           <t>COMMONWEALTH BANK AU-OBU</t>
         </is>
       </c>
-      <c r="H2" s="89" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>Debt Markets</t>
         </is>
@@ -1875,7 +2115,7 @@
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="J2" s="89" t="inlineStr">
+      <c r="J2" s="84" t="inlineStr">
         <is>
           <t>Industrials, Transport and Consumer</t>
         </is>
@@ -1912,17 +2152,17 @@
           <t>Loan,  Operations</t>
         </is>
       </c>
-      <c r="S2" s="115" t="inlineStr">
+      <c r="S2" s="110" t="inlineStr">
         <is>
           <t>Awaiting Complete Portfolio Allocations</t>
         </is>
       </c>
-      <c r="T2" s="110" t="inlineStr">
+      <c r="T2" s="105" t="inlineStr">
         <is>
           <t>Circles</t>
         </is>
       </c>
-      <c r="U2" s="110" t="inlineStr">
+      <c r="U2" s="105" t="inlineStr">
         <is>
           <t>Hold for Investment - Australia</t>
         </is>
@@ -1944,7 +2184,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="89" t="inlineStr">
+      <c r="B3" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
@@ -1964,7 +2204,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="89" t="inlineStr">
+      <c r="B4" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
@@ -2038,8 +2278,8 @@
     <col width="14.85546875" customWidth="1" style="13" min="37" max="37"/>
     <col width="22.85546875" customWidth="1" style="13" min="38" max="38"/>
     <col width="20.5703125" customWidth="1" style="13" min="39" max="40"/>
-    <col width="40.85546875" customWidth="1" style="89" min="41" max="41"/>
-    <col width="14.7109375" customWidth="1" style="89" min="42" max="42"/>
+    <col width="40.85546875" customWidth="1" style="84" min="41" max="41"/>
+    <col width="14.7109375" customWidth="1" style="84" min="42" max="42"/>
     <col width="12.140625" bestFit="1" customWidth="1" min="43" max="43"/>
   </cols>
   <sheetData>
@@ -2079,12 +2319,12 @@
           <t>Facility_Spread</t>
         </is>
       </c>
-      <c r="H1" s="93" t="inlineStr">
+      <c r="H1" s="88" t="inlineStr">
         <is>
           <t>Facility_CurrentAvailToDraw</t>
         </is>
       </c>
-      <c r="I1" s="93" t="inlineStr">
+      <c r="I1" s="88" t="inlineStr">
         <is>
           <t>Facility_CurrentGlobalOutstandings</t>
         </is>
@@ -2154,12 +2394,12 @@
           <t>Borrower_BaseRate</t>
         </is>
       </c>
-      <c r="W1" s="91" t="inlineStr">
+      <c r="W1" s="86" t="inlineStr">
         <is>
           <t>Repayment_ScheduleFrequency</t>
         </is>
       </c>
-      <c r="X1" s="91" t="inlineStr">
+      <c r="X1" s="86" t="inlineStr">
         <is>
           <t>Repayment_NumberOfCycles</t>
         </is>
@@ -2209,7 +2449,7 @@
           <t>LIQCustomer_ShortName</t>
         </is>
       </c>
-      <c r="AH1" s="90" t="inlineStr">
+      <c r="AH1" s="85" t="inlineStr">
         <is>
           <t>LIQCustomer_ID</t>
         </is>
@@ -2219,7 +2459,7 @@
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AJ1" s="90" t="inlineStr">
+      <c r="AJ1" s="85" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
@@ -2265,13 +2505,13 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="89">
-      <c r="A2" s="89" t="inlineStr">
+    <row r="2" customFormat="1" s="84">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
@@ -2281,7 +2521,7 @@
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="D2" s="110" t="inlineStr">
+      <c r="D2" s="105" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
@@ -2299,17 +2539,17 @@
       <c r="G2" s="13" t="n">
         <v>2.5</v>
       </c>
-      <c r="H2" s="89" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>50,000,000.00</t>
         </is>
       </c>
-      <c r="I2" s="89" t="inlineStr">
+      <c r="I2" s="84" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="J2" s="89" t="inlineStr">
+      <c r="J2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
@@ -2319,12 +2559,12 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="L2" s="89" t="inlineStr">
+      <c r="L2" s="84" t="inlineStr">
         <is>
           <t>INTFULDRAW17112020142405ZCZ</t>
         </is>
       </c>
-      <c r="M2" s="89" t="inlineStr">
+      <c r="M2" s="84" t="inlineStr">
         <is>
           <t>60001100</t>
         </is>
@@ -2342,12 +2582,12 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Q2" s="89" t="inlineStr">
+      <c r="Q2" s="84" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
       </c>
-      <c r="R2" s="89" t="inlineStr">
+      <c r="R2" s="84" t="inlineStr">
         <is>
           <t>10-Nov-2025</t>
         </is>
@@ -2357,7 +2597,7 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="T2" s="94" t="inlineStr">
+      <c r="T2" s="89" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2372,17 +2612,17 @@
           <t>10</t>
         </is>
       </c>
-      <c r="W2" s="92" t="inlineStr">
+      <c r="W2" s="87" t="inlineStr">
         <is>
           <t>Weeks</t>
         </is>
       </c>
-      <c r="X2" s="92" t="inlineStr">
+      <c r="X2" s="87" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y2" s="89" t="inlineStr">
+      <c r="Y2" s="84" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
@@ -2392,17 +2632,17 @@
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="AA2" s="89" t="inlineStr">
+      <c r="AA2" s="84" t="inlineStr">
         <is>
           <t>Outstandings</t>
         </is>
       </c>
-      <c r="AB2" s="89" t="inlineStr">
+      <c r="AB2" s="84" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="AC2" s="89" t="inlineStr">
+      <c r="AC2" s="84" t="inlineStr">
         <is>
           <t>Loan Initial Drawdown</t>
         </is>
@@ -2422,32 +2662,32 @@
           <t>Borrower</t>
         </is>
       </c>
-      <c r="AG2" s="89" t="inlineStr">
+      <c r="AG2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="AH2" s="115" t="inlineStr">
+      <c r="AH2" s="110" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="AI2" s="89" t="inlineStr">
+      <c r="AI2" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="AJ2" s="115" t="inlineStr">
+      <c r="AJ2" s="110" t="inlineStr">
         <is>
           <t>DOIT</t>
         </is>
       </c>
-      <c r="AK2" s="89" t="inlineStr">
+      <c r="AK2" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="AL2" s="89" t="inlineStr">
+      <c r="AL2" s="84" t="inlineStr">
         <is>
           <t>IMTEUR1-0902</t>
         </is>
@@ -2467,7 +2707,7 @@
           <t>CB022/Hold for Investment - Australia/DM_CFS</t>
         </is>
       </c>
-      <c r="AP2" s="89" t="inlineStr">
+      <c r="AP2" s="84" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
@@ -2477,19 +2717,19 @@
           <t>CB022</t>
         </is>
       </c>
-      <c r="AR2" s="89" t="inlineStr">
+      <c r="AR2" s="84" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="89" t="inlineStr">
+      <c r="A3" s="84" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="89" t="inlineStr">
+      <c r="B3" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
@@ -2499,7 +2739,7 @@
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="D3" s="110" t="inlineStr">
+      <c r="D3" s="105" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
@@ -2522,12 +2762,12 @@
           <t>30,000,000.00</t>
         </is>
       </c>
-      <c r="I3" s="89" t="inlineStr">
+      <c r="I3" s="84" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="J3" s="89" t="inlineStr">
+      <c r="J3" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
@@ -2560,7 +2800,7 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Q3" s="89" t="inlineStr">
+      <c r="Q3" s="84" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
@@ -2575,7 +2815,7 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="T3" s="94" t="inlineStr">
+      <c r="T3" s="89" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2590,17 +2830,17 @@
           <t>10</t>
         </is>
       </c>
-      <c r="W3" s="92" t="inlineStr">
+      <c r="W3" s="87" t="inlineStr">
         <is>
           <t>Weeks</t>
         </is>
       </c>
-      <c r="X3" s="92" t="inlineStr">
+      <c r="X3" s="87" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y3" s="89" t="inlineStr">
+      <c r="Y3" s="84" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
@@ -2610,17 +2850,17 @@
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="AA3" s="89" t="inlineStr">
+      <c r="AA3" s="84" t="inlineStr">
         <is>
           <t>Outstandings</t>
         </is>
       </c>
-      <c r="AB3" s="89" t="inlineStr">
+      <c r="AB3" s="84" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="AC3" s="89" t="inlineStr">
+      <c r="AC3" s="84" t="inlineStr">
         <is>
           <t>Loan Initial Drawdown</t>
         </is>
@@ -2640,27 +2880,27 @@
           <t>Borrower</t>
         </is>
       </c>
-      <c r="AG3" s="89" t="inlineStr">
+      <c r="AG3" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="AH3" s="115" t="inlineStr">
+      <c r="AH3" s="110" t="inlineStr">
         <is>
           <t>196</t>
         </is>
       </c>
-      <c r="AI3" s="89" t="inlineStr">
+      <c r="AI3" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="AJ3" s="115" t="inlineStr">
+      <c r="AJ3" s="110" t="inlineStr">
         <is>
           <t>DOIT</t>
         </is>
       </c>
-      <c r="AK3" s="89" t="inlineStr">
+      <c r="AK3" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
@@ -2680,7 +2920,7 @@
           <t>CB022/Hold for Investment - Australia/DM_CFS</t>
         </is>
       </c>
-      <c r="AP3" s="89" t="inlineStr">
+      <c r="AP3" s="84" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
@@ -2692,18 +2932,18 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="89" t="inlineStr">
+      <c r="A4" s="84" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="89" t="inlineStr">
+      <c r="B4" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
       <c r="C4" s="29" t="n"/>
-      <c r="D4" s="110" t="n"/>
+      <c r="D4" s="105" t="n"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>INTUND17112020144211JTJ</t>
@@ -2789,128 +3029,128 @@
     <col width="24.85546875" bestFit="1" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customFormat="1" customHeight="1" s="103" thickBot="1">
-      <c r="A1" s="103" t="inlineStr">
+    <row r="1" ht="16.5" customFormat="1" customHeight="1" s="98" thickBot="1">
+      <c r="A1" s="98" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="103" t="inlineStr">
+      <c r="B1" s="98" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="104" t="inlineStr">
+      <c r="C1" s="99" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="103" t="inlineStr">
+      <c r="D1" s="98" t="inlineStr">
         <is>
           <t>OutstandingSelect_Type</t>
         </is>
       </c>
-      <c r="E1" s="104" t="inlineStr">
+      <c r="E1" s="99" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="F1" s="104" t="inlineStr">
+      <c r="F1" s="99" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="G1" s="103" t="inlineStr">
+      <c r="G1" s="98" t="inlineStr">
         <is>
           <t>Repricing_Type</t>
         </is>
       </c>
-      <c r="H1" s="103" t="inlineStr">
+      <c r="H1" s="98" t="inlineStr">
         <is>
           <t>Repricing_Add_Option</t>
         </is>
       </c>
-      <c r="I1" s="103" t="inlineStr">
+      <c r="I1" s="98" t="inlineStr">
         <is>
           <t>Repricing_Add_Option_Setup</t>
         </is>
       </c>
-      <c r="J1" s="103" t="inlineStr">
+      <c r="J1" s="98" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="K1" s="105" t="inlineStr">
+      <c r="K1" s="100" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="L1" s="105" t="inlineStr">
+      <c r="L1" s="100" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="M1" s="105" t="inlineStr">
+      <c r="M1" s="100" t="inlineStr">
         <is>
           <t>Lender2_ShortName</t>
         </is>
       </c>
-      <c r="N1" s="104" t="inlineStr">
+      <c r="N1" s="99" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="O1" s="104" t="inlineStr">
+      <c r="O1" s="99" t="inlineStr">
         <is>
           <t>Remittance1_Instruction</t>
         </is>
       </c>
-      <c r="P1" s="104" t="inlineStr">
+      <c r="P1" s="99" t="inlineStr">
         <is>
           <t>Remittance2_Instruction</t>
         </is>
       </c>
-      <c r="Q1" s="104" t="inlineStr">
+      <c r="Q1" s="99" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="R1" s="104" t="inlineStr">
+      <c r="R1" s="99" t="inlineStr">
         <is>
           <t>Remittance1_Description</t>
         </is>
       </c>
-      <c r="S1" s="104" t="inlineStr">
+      <c r="S1" s="99" t="inlineStr">
         <is>
           <t>Remittance2_Description</t>
         </is>
       </c>
-      <c r="T1" s="104" t="inlineStr">
+      <c r="T1" s="99" t="inlineStr">
         <is>
           <t>Loan_RequestedAmount</t>
         </is>
       </c>
-      <c r="U1" s="103" t="inlineStr">
+      <c r="U1" s="98" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="V1" s="103" t="inlineStr">
+      <c r="V1" s="98" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="W1" s="103" t="inlineStr">
+      <c r="W1" s="98" t="inlineStr">
         <is>
           <t>Base_Rate</t>
         </is>
       </c>
-      <c r="X1" s="103" t="inlineStr">
+      <c r="X1" s="98" t="inlineStr">
         <is>
           <t>Rollover_Amount</t>
         </is>
       </c>
-      <c r="Y1" s="103" t="inlineStr">
+      <c r="Y1" s="98" t="inlineStr">
         <is>
           <t>Repricing_Frequency</t>
         </is>
@@ -2932,52 +3172,52 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
-      <c r="C2" s="110" t="inlineStr">
+      <c r="C2" s="105" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
       </c>
-      <c r="D2" s="106" t="inlineStr">
+      <c r="D2" s="101" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="E2" s="101" t="inlineStr">
+      <c r="E2" s="96" t="inlineStr">
         <is>
           <t>INTFULDRAW17112020142405ZCZ</t>
         </is>
       </c>
-      <c r="F2" s="102" t="inlineStr">
+      <c r="F2" s="97" t="inlineStr">
         <is>
           <t>60001100</t>
         </is>
       </c>
-      <c r="G2" s="106" t="inlineStr">
+      <c r="G2" s="101" t="inlineStr">
         <is>
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="H2" s="111" t="inlineStr">
+      <c r="H2" s="106" t="inlineStr">
         <is>
           <t>Principal Payment</t>
         </is>
       </c>
-      <c r="I2" s="111" t="inlineStr">
+      <c r="I2" s="106" t="inlineStr">
         <is>
           <t>Rollover/Conversion to New:</t>
         </is>
       </c>
-      <c r="J2" s="111" t="inlineStr">
+      <c r="J2" s="106" t="inlineStr">
         <is>
           <t>Euro LIBOR Option</t>
         </is>
       </c>
-      <c r="K2" s="89" t="inlineStr">
+      <c r="K2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
@@ -2992,55 +3232,55 @@
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="N2" s="111" t="inlineStr">
+      <c r="N2" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="O2" s="111" t="inlineStr">
+      <c r="O2" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="P2" s="111" t="inlineStr">
+      <c r="P2" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="Q2" s="111" t="inlineStr">
+      <c r="Q2" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="R2" s="111" t="inlineStr">
+      <c r="R2" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="S2" s="111" t="inlineStr">
+      <c r="S2" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="T2" s="112" t="n">
+      <c r="T2" s="107" t="n">
         <v>40000000</v>
       </c>
-      <c r="U2" s="114" t="inlineStr">
+      <c r="U2" s="109" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="V2" s="114" t="inlineStr">
+      <c r="V2" s="109" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="W2" s="108" t="inlineStr">
+      <c r="W2" s="103" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X2" s="107" t="n">
+      <c r="X2" s="102" t="n">
         <v>40000000</v>
       </c>
       <c r="Y2" t="inlineStr">
@@ -3053,7 +3293,7 @@
           <t>10-Aug-2020</t>
         </is>
       </c>
-      <c r="AA2" s="109" t="n">
+      <c r="AA2" s="104" t="n">
         <v>520833.33</v>
       </c>
     </row>
@@ -3063,52 +3303,52 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="89" t="inlineStr">
+      <c r="B3" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
-      <c r="C3" s="100" t="inlineStr">
+      <c r="C3" s="95" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
       </c>
-      <c r="D3" s="106" t="inlineStr">
+      <c r="D3" s="101" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="E3" s="101" t="inlineStr">
+      <c r="E3" s="96" t="inlineStr">
         <is>
           <t>PARDRAW17112020143303LZN</t>
         </is>
       </c>
-      <c r="F3" s="101" t="inlineStr">
+      <c r="F3" s="96" t="inlineStr">
         <is>
           <t>60001101</t>
         </is>
       </c>
-      <c r="G3" s="106" t="inlineStr">
+      <c r="G3" s="101" t="inlineStr">
         <is>
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="H3" s="111" t="inlineStr">
+      <c r="H3" s="106" t="inlineStr">
         <is>
           <t>Principal Payment</t>
         </is>
       </c>
-      <c r="I3" s="111" t="inlineStr">
+      <c r="I3" s="106" t="inlineStr">
         <is>
           <t>Rollover/Conversion to New:</t>
         </is>
       </c>
-      <c r="J3" s="111" t="inlineStr">
+      <c r="J3" s="106" t="inlineStr">
         <is>
           <t>Euro LIBOR Option</t>
         </is>
       </c>
-      <c r="K3" s="89" t="inlineStr">
+      <c r="K3" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2256</t>
         </is>
@@ -3123,52 +3363,52 @@
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="N3" s="111" t="inlineStr">
+      <c r="N3" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="O3" s="111" t="inlineStr">
+      <c r="O3" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="P3" s="111" t="inlineStr">
+      <c r="P3" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="Q3" s="111" t="inlineStr">
+      <c r="Q3" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="R3" s="111" t="inlineStr">
+      <c r="R3" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="S3" s="111" t="inlineStr">
+      <c r="S3" s="106" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="U3" s="114" t="inlineStr">
+      <c r="U3" s="109" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="V3" s="114" t="inlineStr">
+      <c r="V3" s="109" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="W3" s="108" t="inlineStr">
+      <c r="W3" s="103" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X3" s="107" t="n">
+      <c r="X3" s="102" t="n">
         <v>5000000</v>
       </c>
       <c r="Y3" t="inlineStr">
@@ -3176,7 +3416,7 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="AA3" s="109" t="n">
+      <c r="AA3" s="104" t="n">
         <v>520833.33</v>
       </c>
     </row>
@@ -3186,17 +3426,17 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="89" t="inlineStr">
+      <c r="B4" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
-      <c r="C4" s="100" t="inlineStr">
+      <c r="C4" s="95" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
       </c>
-      <c r="E4" s="101" t="inlineStr">
+      <c r="E4" s="96" t="inlineStr">
         <is>
           <t>INTUND17112020144211JTJ</t>
         </is>
@@ -3216,55 +3456,55 @@
   </sheetPr>
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB8" sqref="AB8"/>
+      <selection pane="topRight" activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.5703125" bestFit="1" customWidth="1" style="89" min="1" max="1"/>
-    <col width="28" bestFit="1" customWidth="1" style="89" min="2" max="2"/>
-    <col width="27" bestFit="1" customWidth="1" style="89" min="3" max="3"/>
-    <col width="27.7109375" bestFit="1" customWidth="1" style="89" min="4" max="4"/>
-    <col width="30.42578125" bestFit="1" customWidth="1" style="89" min="5" max="5"/>
-    <col width="34.85546875" customWidth="1" style="89" min="6" max="6"/>
-    <col width="44.85546875" bestFit="1" customWidth="1" style="89" min="7" max="7"/>
-    <col width="27.140625" bestFit="1" customWidth="1" style="89" min="8" max="8"/>
-    <col width="39.140625" bestFit="1" customWidth="1" style="89" min="9" max="9"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" style="89" min="10" max="10"/>
-    <col width="38.5703125" bestFit="1" customWidth="1" style="89" min="11" max="11"/>
-    <col width="18.85546875" bestFit="1" customWidth="1" style="89" min="12" max="12"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" style="89" min="13" max="13"/>
-    <col width="22.85546875" customWidth="1" style="89" min="14" max="15"/>
-    <col width="42" customWidth="1" style="89" min="16" max="16"/>
-    <col width="22.85546875" customWidth="1" style="89" min="17" max="17"/>
-    <col width="40.85546875" bestFit="1" customWidth="1" style="89" min="18" max="18"/>
-    <col width="15.42578125" bestFit="1" customWidth="1" style="89" min="19" max="19"/>
-    <col width="16.42578125" bestFit="1" customWidth="1" style="89" min="20" max="20"/>
-    <col width="17.28515625" bestFit="1" customWidth="1" style="89" min="21" max="21"/>
-    <col width="28.85546875" bestFit="1" customWidth="1" style="89" min="22" max="22"/>
-    <col width="44.85546875" bestFit="1" customWidth="1" style="89" min="23" max="23"/>
-    <col width="17.42578125" customWidth="1" style="89" min="24" max="24"/>
-    <col width="11" bestFit="1" customWidth="1" style="89" min="25" max="25"/>
-    <col width="11" customWidth="1" style="89" min="26" max="27"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="89" min="28" max="28"/>
-    <col width="23" customWidth="1" style="89" min="29" max="29"/>
-    <col width="26.140625" bestFit="1" customWidth="1" style="89" min="30" max="30"/>
-    <col width="10.5703125" customWidth="1" style="89" min="31" max="31"/>
-    <col width="30.28515625" bestFit="1" customWidth="1" style="89" min="32" max="32"/>
-    <col width="20" bestFit="1" customWidth="1" style="89" min="33" max="33"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" style="89" min="34" max="34"/>
-    <col width="18.42578125" bestFit="1" customWidth="1" style="89" min="35" max="35"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" style="89" min="36" max="36"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" style="89" min="37" max="37"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" style="89" min="38" max="38"/>
-    <col width="33.5703125" bestFit="1" customWidth="1" style="89" min="39" max="39"/>
-    <col width="19.28515625" customWidth="1" style="89" min="40" max="40"/>
-    <col width="14.140625" bestFit="1" customWidth="1" style="89" min="41" max="41"/>
-    <col width="29.5703125" bestFit="1" customWidth="1" style="89" min="42" max="42"/>
-    <col width="18.42578125" bestFit="1" customWidth="1" style="89" min="43" max="43"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="89" min="44" max="44"/>
+    <col width="6.5703125" bestFit="1" customWidth="1" style="84" min="1" max="1"/>
+    <col width="28" bestFit="1" customWidth="1" style="84" min="2" max="2"/>
+    <col width="27" bestFit="1" customWidth="1" style="84" min="3" max="3"/>
+    <col width="27.7109375" bestFit="1" customWidth="1" style="84" min="4" max="4"/>
+    <col width="30.42578125" bestFit="1" customWidth="1" style="84" min="5" max="5"/>
+    <col width="34.85546875" customWidth="1" style="84" min="6" max="6"/>
+    <col width="44.85546875" bestFit="1" customWidth="1" style="84" min="7" max="7"/>
+    <col width="27.140625" bestFit="1" customWidth="1" style="84" min="8" max="8"/>
+    <col width="39.140625" bestFit="1" customWidth="1" style="84" min="9" max="9"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" style="84" min="10" max="10"/>
+    <col width="38.5703125" bestFit="1" customWidth="1" style="84" min="11" max="11"/>
+    <col width="18.85546875" bestFit="1" customWidth="1" style="84" min="12" max="12"/>
+    <col width="22.85546875" bestFit="1" customWidth="1" style="84" min="13" max="13"/>
+    <col width="22.85546875" customWidth="1" style="84" min="14" max="15"/>
+    <col width="42" customWidth="1" style="84" min="16" max="16"/>
+    <col width="22.85546875" customWidth="1" style="84" min="17" max="17"/>
+    <col width="40.85546875" bestFit="1" customWidth="1" style="84" min="18" max="18"/>
+    <col width="15.42578125" bestFit="1" customWidth="1" style="84" min="19" max="19"/>
+    <col width="16.42578125" bestFit="1" customWidth="1" style="84" min="20" max="20"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" style="84" min="21" max="21"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="84" min="22" max="22"/>
+    <col width="44.85546875" bestFit="1" customWidth="1" style="84" min="23" max="23"/>
+    <col width="17.42578125" customWidth="1" style="84" min="24" max="24"/>
+    <col width="11" bestFit="1" customWidth="1" style="84" min="25" max="25"/>
+    <col width="11" customWidth="1" style="84" min="26" max="27"/>
+    <col width="17.85546875" bestFit="1" customWidth="1" style="84" min="28" max="28"/>
+    <col width="23" customWidth="1" style="84" min="29" max="29"/>
+    <col width="26.140625" bestFit="1" customWidth="1" style="84" min="30" max="30"/>
+    <col width="10.5703125" customWidth="1" style="84" min="31" max="31"/>
+    <col width="30.28515625" bestFit="1" customWidth="1" style="84" min="32" max="32"/>
+    <col width="20" bestFit="1" customWidth="1" style="84" min="33" max="33"/>
+    <col width="16.5703125" bestFit="1" customWidth="1" style="84" min="34" max="34"/>
+    <col width="18.42578125" bestFit="1" customWidth="1" style="84" min="35" max="35"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" style="84" min="36" max="36"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" style="84" min="37" max="37"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" style="84" min="38" max="38"/>
+    <col width="33.5703125" bestFit="1" customWidth="1" style="84" min="39" max="39"/>
+    <col width="19.28515625" customWidth="1" style="84" min="40" max="40"/>
+    <col width="14.140625" bestFit="1" customWidth="1" style="84" min="41" max="41"/>
+    <col width="29.5703125" bestFit="1" customWidth="1" style="84" min="42" max="42"/>
+    <col width="18.42578125" bestFit="1" customWidth="1" style="84" min="43" max="43"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="84" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -3318,7 +3558,7 @@
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="K1" s="119" t="inlineStr">
+      <c r="K1" s="114" t="inlineStr">
         <is>
           <t>Borrower1_RTGSRemittanceInstruction</t>
         </is>
@@ -3328,27 +3568,27 @@
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="M1" s="119" t="inlineStr">
+      <c r="M1" s="114" t="inlineStr">
         <is>
           <t>Borrower1_ShortName</t>
         </is>
       </c>
-      <c r="N1" s="119" t="inlineStr">
+      <c r="N1" s="114" t="inlineStr">
         <is>
           <t>Borrower_RIDescription</t>
         </is>
       </c>
-      <c r="O1" s="119" t="inlineStr">
+      <c r="O1" s="114" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="P1" s="119" t="inlineStr">
+      <c r="P1" s="114" t="inlineStr">
         <is>
           <t>Lender1_ShortName</t>
         </is>
       </c>
-      <c r="Q1" s="119" t="inlineStr">
+      <c r="Q1" s="114" t="inlineStr">
         <is>
           <t>Lender1_RIDescription</t>
         </is>
@@ -3358,7 +3598,7 @@
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="S1" s="119" t="inlineStr">
+      <c r="S1" s="114" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
@@ -3488,61 +3728,61 @@
           <t>NoticeStatus</t>
         </is>
       </c>
-      <c r="AS1" s="98" t="inlineStr">
+      <c r="AS1" s="93" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="89">
+    <row r="2" customFormat="1" s="84">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
-      <c r="C2" s="120" t="inlineStr">
+      <c r="C2" s="115" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
       </c>
-      <c r="D2" s="120" t="inlineStr">
+      <c r="D2" s="115" t="inlineStr">
         <is>
           <t>08-Jan-2021</t>
         </is>
       </c>
-      <c r="E2" s="116" t="inlineStr">
+      <c r="E2" s="111" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="F2" s="117" t="inlineStr">
+      <c r="F2" s="112" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - DBU</t>
         </is>
       </c>
-      <c r="G2" s="120" t="inlineStr">
+      <c r="G2" s="115" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
       </c>
-      <c r="H2" s="118" t="n"/>
-      <c r="I2" s="120" t="inlineStr">
+      <c r="H2" s="113" t="n"/>
+      <c r="I2" s="115" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="J2" s="120" t="n"/>
-      <c r="K2" s="120" t="inlineStr">
+      <c r="J2" s="115" t="n"/>
+      <c r="K2" s="115" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="L2" s="120" t="inlineStr">
+      <c r="L2" s="115" t="inlineStr">
         <is>
           <t>DOIT</t>
         </is>
@@ -3562,7 +3802,7 @@
           <t>IMT</t>
         </is>
       </c>
-      <c r="P2" s="121" t="inlineStr">
+      <c r="P2" s="116" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
@@ -3572,22 +3812,22 @@
           <t>IMT</t>
         </is>
       </c>
-      <c r="R2" s="120" t="inlineStr">
+      <c r="R2" s="115" t="inlineStr">
         <is>
           <t>CB022/Hold for Investment - Australia/DM_CFS</t>
         </is>
       </c>
-      <c r="S2" s="120" t="inlineStr">
+      <c r="S2" s="115" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="T2" s="120" t="inlineStr">
+      <c r="T2" s="115" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="U2" s="120" t="inlineStr">
+      <c r="U2" s="115" t="inlineStr">
         <is>
           <t>Borrower</t>
         </is>
@@ -3620,86 +3860,86 @@
       <c r="AA2" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="AB2" s="122" t="inlineStr">
+      <c r="AB2" s="117" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
       </c>
-      <c r="AC2" s="122" t="inlineStr">
+      <c r="AC2" s="117" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
       </c>
-      <c r="AD2" s="122" t="inlineStr">
+      <c r="AD2" s="117" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
       </c>
-      <c r="AE2" s="122" t="n">
+      <c r="AE2" s="117" t="n">
         <v>30</v>
       </c>
-      <c r="AF2" s="123" t="n">
+      <c r="AF2" s="118" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="AG2" s="122" t="n">
+      <c r="AG2" s="117" t="n">
         <v>72916.67</v>
       </c>
-      <c r="AH2" s="124" t="inlineStr">
+      <c r="AH2" s="119" t="inlineStr">
         <is>
           <t>90,000.00</t>
         </is>
       </c>
-      <c r="AI2" s="125" t="inlineStr">
+      <c r="AI2" s="120" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="AJ2" s="123" t="inlineStr">
+      <c r="AJ2" s="118" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
       </c>
-      <c r="AK2" s="122" t="inlineStr">
+      <c r="AK2" s="117" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
       </c>
-      <c r="AL2" s="123" t="inlineStr">
+      <c r="AL2" s="118" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AM2" s="123" t="inlineStr">
+      <c r="AM2" s="118" t="inlineStr">
         <is>
           <t>UNUT Fee Due</t>
         </is>
       </c>
-      <c r="AN2" s="126" t="inlineStr">
+      <c r="AN2" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve">john.blogg@abc.com </t>
         </is>
       </c>
-      <c r="AO2" s="122" t="inlineStr">
+      <c r="AO2" s="117" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AP2" s="122" t="inlineStr">
+      <c r="AP2" s="117" t="inlineStr">
         <is>
           <t>09-Dec-2020</t>
         </is>
       </c>
-      <c r="AQ2" s="122" t="inlineStr">
+      <c r="AQ2" s="117" t="inlineStr">
         <is>
           <t>John Bloggs</t>
         </is>
       </c>
-      <c r="AR2" s="122" t="inlineStr">
+      <c r="AR2" s="117" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="AS2" s="122" t="n"/>
+      <c r="AS2" s="117" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -3707,14 +3947,14 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="89" t="inlineStr">
+      <c r="B3" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
       <c r="C3" s="9" t="n"/>
-      <c r="E3" s="113" t="n"/>
-      <c r="F3" s="113" t="n"/>
+      <c r="E3" s="108" t="n"/>
+      <c r="F3" s="108" t="n"/>
       <c r="V3" t="inlineStr">
         <is>
           <t>PARDRAW17112020143303LZN</t>
@@ -3730,7 +3970,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="89" t="inlineStr">
+      <c r="B4" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
@@ -3774,46 +4014,46 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="39.28515625" customWidth="1" style="89" min="2" max="2"/>
-    <col width="24.28515625" customWidth="1" style="89" min="3" max="3"/>
-    <col width="21.5703125" customWidth="1" style="89" min="4" max="4"/>
-    <col width="13.5703125" customWidth="1" style="89" min="5" max="5"/>
-    <col width="20.28515625" customWidth="1" style="89" min="6" max="6"/>
-    <col width="27.85546875" customWidth="1" style="89" min="7" max="7"/>
-    <col width="27.140625" customWidth="1" style="89" min="8" max="8"/>
-    <col width="54.85546875" customWidth="1" style="89" min="9" max="9"/>
-    <col width="19.140625" customWidth="1" style="89" min="10" max="10"/>
-    <col width="16.5703125" customWidth="1" style="89" min="11" max="11"/>
-    <col width="20.7109375" customWidth="1" style="89" min="12" max="13"/>
-    <col width="18.85546875" customWidth="1" style="89" min="14" max="14"/>
-    <col width="10.42578125" customWidth="1" style="89" min="15" max="15"/>
-    <col width="14.42578125" customWidth="1" style="89" min="16" max="16"/>
-    <col width="18" customWidth="1" style="89" min="17" max="17"/>
-    <col width="54" customWidth="1" style="89" min="18" max="18"/>
-    <col width="32.42578125" customWidth="1" style="89" min="19" max="19"/>
-    <col width="54" customWidth="1" style="89" min="20" max="20"/>
-    <col width="39" customWidth="1" style="89" min="21" max="21"/>
-    <col width="24.28515625" customWidth="1" style="89" min="22" max="22"/>
-    <col width="21.5703125" customWidth="1" style="89" min="23" max="23"/>
-    <col width="47" customWidth="1" style="89" min="24" max="24"/>
-    <col width="14.5703125" customWidth="1" style="89" min="25" max="25"/>
-    <col width="14.140625" customWidth="1" style="89" min="26" max="26"/>
-    <col width="32.140625" customWidth="1" style="89" min="27" max="27"/>
-    <col width="21.5703125" customWidth="1" style="89" min="28" max="28"/>
-    <col width="15.85546875" customWidth="1" style="89" min="29" max="29"/>
-    <col width="15.28515625" customWidth="1" style="89" min="30" max="30"/>
-    <col width="54" customWidth="1" style="89" min="31" max="31"/>
-    <col width="28.42578125" customWidth="1" style="89" min="32" max="32"/>
-    <col width="26.28515625" customWidth="1" style="89" min="33" max="33"/>
-    <col width="28.28515625" customWidth="1" style="89" min="34" max="34"/>
-    <col width="16.42578125" customWidth="1" style="89" min="35" max="35"/>
-    <col width="21.42578125" customWidth="1" style="89" min="36" max="36"/>
-    <col width="17.85546875" customWidth="1" style="89" min="37" max="37"/>
-    <col width="21" customWidth="1" style="89" min="38" max="39"/>
-    <col width="22" customWidth="1" style="89" min="40" max="40"/>
-    <col width="20.140625" customWidth="1" style="89" min="41" max="41"/>
-    <col width="23.42578125" customWidth="1" style="89" min="42" max="42"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="39.28515625" customWidth="1" style="84" min="2" max="2"/>
+    <col width="24.28515625" customWidth="1" style="84" min="3" max="3"/>
+    <col width="21.5703125" customWidth="1" style="84" min="4" max="4"/>
+    <col width="13.5703125" customWidth="1" style="84" min="5" max="5"/>
+    <col width="20.28515625" customWidth="1" style="84" min="6" max="6"/>
+    <col width="27.85546875" customWidth="1" style="84" min="7" max="7"/>
+    <col width="27.140625" customWidth="1" style="84" min="8" max="8"/>
+    <col width="54.85546875" customWidth="1" style="84" min="9" max="9"/>
+    <col width="19.140625" customWidth="1" style="84" min="10" max="10"/>
+    <col width="16.5703125" customWidth="1" style="84" min="11" max="11"/>
+    <col width="20.7109375" customWidth="1" style="84" min="12" max="13"/>
+    <col width="18.85546875" customWidth="1" style="84" min="14" max="14"/>
+    <col width="10.42578125" customWidth="1" style="84" min="15" max="15"/>
+    <col width="14.42578125" customWidth="1" style="84" min="16" max="16"/>
+    <col width="18" customWidth="1" style="84" min="17" max="17"/>
+    <col width="54" customWidth="1" style="84" min="18" max="18"/>
+    <col width="32.42578125" customWidth="1" style="84" min="19" max="19"/>
+    <col width="54" customWidth="1" style="84" min="20" max="20"/>
+    <col width="39" customWidth="1" style="84" min="21" max="21"/>
+    <col width="24.28515625" customWidth="1" style="84" min="22" max="22"/>
+    <col width="21.5703125" customWidth="1" style="84" min="23" max="23"/>
+    <col width="47" customWidth="1" style="84" min="24" max="24"/>
+    <col width="14.5703125" customWidth="1" style="84" min="25" max="25"/>
+    <col width="14.140625" customWidth="1" style="84" min="26" max="26"/>
+    <col width="32.140625" customWidth="1" style="84" min="27" max="27"/>
+    <col width="21.5703125" customWidth="1" style="84" min="28" max="28"/>
+    <col width="15.85546875" customWidth="1" style="84" min="29" max="29"/>
+    <col width="15.28515625" customWidth="1" style="84" min="30" max="30"/>
+    <col width="54" customWidth="1" style="84" min="31" max="31"/>
+    <col width="28.42578125" customWidth="1" style="84" min="32" max="32"/>
+    <col width="26.28515625" customWidth="1" style="84" min="33" max="33"/>
+    <col width="28.28515625" customWidth="1" style="84" min="34" max="34"/>
+    <col width="16.42578125" customWidth="1" style="84" min="35" max="35"/>
+    <col width="21.42578125" customWidth="1" style="84" min="36" max="36"/>
+    <col width="17.85546875" customWidth="1" style="84" min="37" max="37"/>
+    <col width="21" customWidth="1" style="84" min="38" max="39"/>
+    <col width="22" customWidth="1" style="84" min="40" max="40"/>
+    <col width="20.140625" customWidth="1" style="84" min="41" max="41"/>
+    <col width="23.42578125" customWidth="1" style="84" min="42" max="42"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="1">
@@ -4028,23 +4268,23 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="89">
-      <c r="A2" s="89" t="inlineStr">
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="84">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
         </is>
       </c>
-      <c r="C2" s="89" t="inlineStr">
+      <c r="C2" s="84" t="inlineStr">
         <is>
           <t>CBAEU_10062020125653TLE</t>
         </is>
       </c>
-      <c r="D2" s="89" t="inlineStr">
+      <c r="D2" s="84" t="inlineStr">
         <is>
           <t>CEU_FAC_10062020130642XHO</t>
         </is>
@@ -4060,7 +4300,7 @@
           <t>TRN02</t>
         </is>
       </c>
-      <c r="H2" s="89" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>22-May-2020</t>
         </is>
@@ -4115,7 +4355,7 @@
           <t>${SPACE}${SPACE}${SPACE}${SPACE}Unutilized X Rate (5%)</t>
         </is>
       </c>
-      <c r="S2" s="89" t="inlineStr">
+      <c r="S2" s="84" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
@@ -4125,7 +4365,7 @@
           <t>${SPACE}${SPACE}${SPACE}${SPACE}Unutilized X Rate (5%)</t>
         </is>
       </c>
-      <c r="U2" s="89" t="inlineStr">
+      <c r="U2" s="84" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
@@ -4180,7 +4420,7 @@
           <t>${SPACE}${SPACE}${SPACE}${SPACE}Unutilized X Rate (4%)</t>
         </is>
       </c>
-      <c r="AF2" s="89" t="inlineStr">
+      <c r="AF2" s="84" t="inlineStr">
         <is>
           <t>4%</t>
         </is>
@@ -4195,7 +4435,7 @@
           <t>Facility Ongoing Fee</t>
         </is>
       </c>
-      <c r="AI2" s="89" t="inlineStr">
+      <c r="AI2" s="84" t="inlineStr">
         <is>
           <t>Option</t>
         </is>
@@ -4205,32 +4445,32 @@
           <t>Fixed Rate Option</t>
         </is>
       </c>
-      <c r="AK2" s="89" t="inlineStr">
+      <c r="AK2" s="84" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
       </c>
-      <c r="AL2" s="114" t="inlineStr">
+      <c r="AL2" s="109" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
       </c>
-      <c r="AM2" s="113" t="inlineStr">
+      <c r="AM2" s="108" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
       </c>
-      <c r="AN2" s="89" t="inlineStr">
+      <c r="AN2" s="84" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AO2" s="89" t="inlineStr">
+      <c r="AO2" s="84" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AP2" s="89" t="inlineStr">
+      <c r="AP2" s="84" t="inlineStr">
         <is>
           <t>BBSY</t>
         </is>
@@ -4257,12 +4497,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="43.28515625" customWidth="1" style="89" min="2" max="2"/>
-    <col width="24.28515625" customWidth="1" style="89" min="3" max="3"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="43.28515625" customWidth="1" style="84" min="2" max="2"/>
+    <col width="24.28515625" customWidth="1" style="84" min="3" max="3"/>
     <col width="11.42578125" customWidth="1" style="3" min="4" max="4"/>
-    <col width="20.85546875" customWidth="1" style="89" min="5" max="5"/>
-    <col width="15.28515625" customWidth="1" style="89" min="6" max="6"/>
+    <col width="20.85546875" customWidth="1" style="84" min="5" max="5"/>
+    <col width="15.28515625" customWidth="1" style="84" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4297,33 +4537,33 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="89">
-      <c r="A2" s="89" t="inlineStr">
+    <row r="2" customFormat="1" s="84">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVGLIQ_AMD_DLCH01 Deal Change Transaction</t>
         </is>
       </c>
-      <c r="C2" s="89" t="inlineStr">
+      <c r="C2" s="84" t="inlineStr">
         <is>
           <t>CBAEU_05062020150513UFJ</t>
         </is>
       </c>
-      <c r="D2" s="89" t="inlineStr">
+      <c r="D2" s="84" t="inlineStr">
         <is>
           <t>22-May-2020</t>
         </is>
       </c>
-      <c r="E2" s="89" t="inlineStr">
+      <c r="E2" s="84" t="inlineStr">
         <is>
           <t>ICR</t>
         </is>
       </c>
-      <c r="F2" s="89" t="n">
+      <c r="F2" s="84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4349,103 +4589,103 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="39.28515625" customWidth="1" style="89" min="2" max="2"/>
-    <col width="23.5703125" customWidth="1" style="89" min="3" max="3"/>
-    <col width="21.140625" customWidth="1" style="89" min="4" max="4"/>
-    <col width="17.85546875" customWidth="1" style="89" min="5" max="5"/>
-    <col width="22" customWidth="1" style="89" min="6" max="6"/>
-    <col width="5.42578125" customWidth="1" style="89" min="7" max="7"/>
-    <col width="11.28515625" customWidth="1" style="89" min="8" max="8"/>
-    <col width="11" customWidth="1" style="89" min="9" max="9"/>
-    <col width="38" customWidth="1" style="89" min="10" max="10"/>
-    <col width="22.140625" customWidth="1" style="89" min="11" max="11"/>
-    <col width="18.140625" customWidth="1" style="89" min="12" max="12"/>
-    <col width="22.28515625" customWidth="1" style="89" min="13" max="13"/>
-    <col width="14.85546875" customWidth="1" style="89" min="14" max="14"/>
-    <col width="15.7109375" customWidth="1" style="89" min="15" max="15"/>
-    <col width="16.5703125" customWidth="1" style="89" min="16" max="16"/>
-    <col width="17.42578125" customWidth="1" style="89" min="17" max="17"/>
-    <col width="10.42578125" customWidth="1" style="89" min="18" max="18"/>
-    <col width="18.7109375" customWidth="1" style="89" min="19" max="19"/>
-    <col width="14.42578125" customWidth="1" style="89" min="20" max="20"/>
-    <col width="20.5703125" customWidth="1" style="89" min="21" max="22"/>
-    <col width="13.85546875" customWidth="1" style="89" min="23" max="23"/>
-    <col width="21" customWidth="1" style="89" min="24" max="24"/>
-    <col width="13.140625" customWidth="1" style="89" min="25" max="25"/>
-    <col width="19.28515625" customWidth="1" style="89" min="26" max="26"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="39.28515625" customWidth="1" style="84" min="2" max="2"/>
+    <col width="23.5703125" customWidth="1" style="84" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" style="84" min="4" max="4"/>
+    <col width="17.85546875" customWidth="1" style="84" min="5" max="5"/>
+    <col width="22" customWidth="1" style="84" min="6" max="6"/>
+    <col width="5.42578125" customWidth="1" style="84" min="7" max="7"/>
+    <col width="11.28515625" customWidth="1" style="84" min="8" max="8"/>
+    <col width="11" customWidth="1" style="84" min="9" max="9"/>
+    <col width="38" customWidth="1" style="84" min="10" max="10"/>
+    <col width="22.140625" customWidth="1" style="84" min="11" max="11"/>
+    <col width="18.140625" customWidth="1" style="84" min="12" max="12"/>
+    <col width="22.28515625" customWidth="1" style="84" min="13" max="13"/>
+    <col width="14.85546875" customWidth="1" style="84" min="14" max="14"/>
+    <col width="15.7109375" customWidth="1" style="84" min="15" max="15"/>
+    <col width="16.5703125" customWidth="1" style="84" min="16" max="16"/>
+    <col width="17.42578125" customWidth="1" style="84" min="17" max="17"/>
+    <col width="10.42578125" customWidth="1" style="84" min="18" max="18"/>
+    <col width="18.7109375" customWidth="1" style="84" min="19" max="19"/>
+    <col width="14.42578125" customWidth="1" style="84" min="20" max="20"/>
+    <col width="20.5703125" customWidth="1" style="84" min="21" max="22"/>
+    <col width="13.85546875" customWidth="1" style="84" min="23" max="23"/>
+    <col width="21" customWidth="1" style="84" min="24" max="24"/>
+    <col width="13.140625" customWidth="1" style="84" min="25" max="25"/>
+    <col width="19.28515625" customWidth="1" style="84" min="26" max="26"/>
     <col width="18" customWidth="1" style="13" min="27" max="27"/>
     <col width="40.85546875" customWidth="1" style="13" min="28" max="28"/>
-    <col width="24.42578125" customWidth="1" style="89" min="29" max="29"/>
-    <col width="30.42578125" customWidth="1" style="89" min="30" max="30"/>
-    <col width="36" customWidth="1" style="89" min="31" max="31"/>
-    <col width="34.42578125" customWidth="1" style="89" min="32" max="32"/>
-    <col width="26.7109375" customWidth="1" style="89" min="33" max="33"/>
-    <col width="17.28515625" customWidth="1" style="89" min="34" max="35"/>
-    <col width="34.140625" customWidth="1" style="89" min="36" max="36"/>
-    <col width="28.42578125" customWidth="1" style="89" min="37" max="37"/>
-    <col width="24.7109375" customWidth="1" style="89" min="38" max="38"/>
-    <col width="30.28515625" customWidth="1" style="89" min="39" max="39"/>
-    <col width="17.5703125" customWidth="1" style="89" min="40" max="40"/>
-    <col width="20.28515625" customWidth="1" style="89" min="41" max="41"/>
-    <col width="12.140625" customWidth="1" style="89" min="42" max="42"/>
-    <col width="21.42578125" customWidth="1" style="89" min="43" max="43"/>
-    <col width="24.140625" customWidth="1" style="89" min="44" max="44"/>
-    <col width="16" customWidth="1" style="89" min="45" max="45"/>
-    <col width="14" customWidth="1" style="89" min="46" max="46"/>
-    <col width="16.7109375" customWidth="1" style="89" min="47" max="47"/>
-    <col width="10" customWidth="1" style="89" min="48" max="48"/>
-    <col width="8.5703125" customWidth="1" style="89" min="49" max="49"/>
-    <col width="19.140625" customWidth="1" style="89" min="50" max="50"/>
-    <col width="37.7109375" customWidth="1" style="89" min="51" max="51"/>
-    <col width="15.85546875" customWidth="1" style="89" min="52" max="52"/>
-    <col width="9.28515625" customWidth="1" style="89" min="53" max="53"/>
-    <col width="16.7109375" customWidth="1" style="89" min="54" max="55"/>
-    <col width="12.85546875" customWidth="1" style="89" min="56" max="56"/>
-    <col width="32.42578125" customWidth="1" style="89" min="57" max="57"/>
-    <col width="11.7109375" customWidth="1" style="89" min="58" max="58"/>
-    <col width="35" customWidth="1" style="89" min="59" max="59"/>
-    <col width="18.140625" customWidth="1" style="89" min="60" max="60"/>
-    <col width="15.7109375" customWidth="1" style="89" min="61" max="61"/>
-    <col width="24" customWidth="1" style="89" min="62" max="62"/>
-    <col width="11.5703125" customWidth="1" style="89" min="63" max="63"/>
-    <col width="8.28515625" customWidth="1" style="89" min="64" max="64"/>
-    <col width="16.5703125" customWidth="1" style="89" min="65" max="65"/>
-    <col width="32.85546875" customWidth="1" style="89" min="66" max="66"/>
-    <col width="18.7109375" customWidth="1" style="89" min="67" max="67"/>
-    <col width="18.28515625" customWidth="1" style="89" min="68" max="68"/>
-    <col width="10.42578125" customWidth="1" style="89" min="69" max="69"/>
-    <col width="9.7109375" customWidth="1" style="89" min="70" max="70"/>
-    <col width="12.7109375" customWidth="1" style="89" min="71" max="71"/>
-    <col width="11.7109375" customWidth="1" style="89" min="72" max="72"/>
-    <col width="24" customWidth="1" style="89" min="73" max="73"/>
-    <col width="43.7109375" customWidth="1" style="89" min="74" max="74"/>
-    <col width="44.85546875" customWidth="1" style="89" min="75" max="75"/>
-    <col width="30.140625" customWidth="1" style="89" min="76" max="76"/>
-    <col width="29.42578125" customWidth="1" style="89" min="77" max="77"/>
-    <col width="25.28515625" customWidth="1" style="89" min="78" max="78"/>
-    <col width="9.5703125" customWidth="1" style="89" min="79" max="79"/>
-    <col width="25.7109375" customWidth="1" style="89" min="80" max="80"/>
-    <col width="19.7109375" customWidth="1" style="89" min="81" max="81"/>
-    <col width="28.5703125" customWidth="1" style="89" min="82" max="82"/>
-    <col width="21.140625" customWidth="1" style="89" min="83" max="83"/>
-    <col width="14.5703125" customWidth="1" style="89" min="84" max="84"/>
-    <col width="20.5703125" customWidth="1" style="89" min="85" max="85"/>
-    <col width="18.28515625" customWidth="1" style="89" min="86" max="86"/>
-    <col width="18.85546875" customWidth="1" style="89" min="87" max="87"/>
-    <col width="35" customWidth="1" style="89" min="88" max="88"/>
-    <col width="20" customWidth="1" style="89" min="89" max="89"/>
-    <col width="32.42578125" customWidth="1" style="89" min="90" max="90"/>
-    <col width="21.5703125" customWidth="1" style="89" min="91" max="91"/>
-    <col width="13.5703125" customWidth="1" style="89" min="92" max="92"/>
-    <col width="26.28515625" customWidth="1" style="89" min="93" max="93"/>
-    <col width="19.140625" customWidth="1" style="89" min="94" max="94"/>
-    <col width="44" customWidth="1" style="89" min="95" max="95"/>
-    <col width="23.5703125" customWidth="1" style="89" min="96" max="96"/>
-    <col width="26.28515625" customWidth="1" style="89" min="97" max="97"/>
-    <col width="34.85546875" customWidth="1" style="89" min="98" max="98"/>
-    <col width="9.140625" customWidth="1" style="89" min="99" max="99"/>
-    <col width="15.85546875" customWidth="1" style="89" min="100" max="100"/>
+    <col width="24.42578125" customWidth="1" style="84" min="29" max="29"/>
+    <col width="30.42578125" customWidth="1" style="84" min="30" max="30"/>
+    <col width="36" customWidth="1" style="84" min="31" max="31"/>
+    <col width="34.42578125" customWidth="1" style="84" min="32" max="32"/>
+    <col width="26.7109375" customWidth="1" style="84" min="33" max="33"/>
+    <col width="17.28515625" customWidth="1" style="84" min="34" max="35"/>
+    <col width="34.140625" customWidth="1" style="84" min="36" max="36"/>
+    <col width="28.42578125" customWidth="1" style="84" min="37" max="37"/>
+    <col width="24.7109375" customWidth="1" style="84" min="38" max="38"/>
+    <col width="30.28515625" customWidth="1" style="84" min="39" max="39"/>
+    <col width="17.5703125" customWidth="1" style="84" min="40" max="40"/>
+    <col width="20.28515625" customWidth="1" style="84" min="41" max="41"/>
+    <col width="12.140625" customWidth="1" style="84" min="42" max="42"/>
+    <col width="21.42578125" customWidth="1" style="84" min="43" max="43"/>
+    <col width="24.140625" customWidth="1" style="84" min="44" max="44"/>
+    <col width="16" customWidth="1" style="84" min="45" max="45"/>
+    <col width="14" customWidth="1" style="84" min="46" max="46"/>
+    <col width="16.7109375" customWidth="1" style="84" min="47" max="47"/>
+    <col width="10" customWidth="1" style="84" min="48" max="48"/>
+    <col width="8.5703125" customWidth="1" style="84" min="49" max="49"/>
+    <col width="19.140625" customWidth="1" style="84" min="50" max="50"/>
+    <col width="37.7109375" customWidth="1" style="84" min="51" max="51"/>
+    <col width="15.85546875" customWidth="1" style="84" min="52" max="52"/>
+    <col width="9.28515625" customWidth="1" style="84" min="53" max="53"/>
+    <col width="16.7109375" customWidth="1" style="84" min="54" max="55"/>
+    <col width="12.85546875" customWidth="1" style="84" min="56" max="56"/>
+    <col width="32.42578125" customWidth="1" style="84" min="57" max="57"/>
+    <col width="11.7109375" customWidth="1" style="84" min="58" max="58"/>
+    <col width="35" customWidth="1" style="84" min="59" max="59"/>
+    <col width="18.140625" customWidth="1" style="84" min="60" max="60"/>
+    <col width="15.7109375" customWidth="1" style="84" min="61" max="61"/>
+    <col width="24" customWidth="1" style="84" min="62" max="62"/>
+    <col width="11.5703125" customWidth="1" style="84" min="63" max="63"/>
+    <col width="8.28515625" customWidth="1" style="84" min="64" max="64"/>
+    <col width="16.5703125" customWidth="1" style="84" min="65" max="65"/>
+    <col width="32.85546875" customWidth="1" style="84" min="66" max="66"/>
+    <col width="18.7109375" customWidth="1" style="84" min="67" max="67"/>
+    <col width="18.28515625" customWidth="1" style="84" min="68" max="68"/>
+    <col width="10.42578125" customWidth="1" style="84" min="69" max="69"/>
+    <col width="9.7109375" customWidth="1" style="84" min="70" max="70"/>
+    <col width="12.7109375" customWidth="1" style="84" min="71" max="71"/>
+    <col width="11.7109375" customWidth="1" style="84" min="72" max="72"/>
+    <col width="24" customWidth="1" style="84" min="73" max="73"/>
+    <col width="43.7109375" customWidth="1" style="84" min="74" max="74"/>
+    <col width="44.85546875" customWidth="1" style="84" min="75" max="75"/>
+    <col width="30.140625" customWidth="1" style="84" min="76" max="76"/>
+    <col width="29.42578125" customWidth="1" style="84" min="77" max="77"/>
+    <col width="25.28515625" customWidth="1" style="84" min="78" max="78"/>
+    <col width="9.5703125" customWidth="1" style="84" min="79" max="79"/>
+    <col width="25.7109375" customWidth="1" style="84" min="80" max="80"/>
+    <col width="19.7109375" customWidth="1" style="84" min="81" max="81"/>
+    <col width="28.5703125" customWidth="1" style="84" min="82" max="82"/>
+    <col width="21.140625" customWidth="1" style="84" min="83" max="83"/>
+    <col width="14.5703125" customWidth="1" style="84" min="84" max="84"/>
+    <col width="20.5703125" customWidth="1" style="84" min="85" max="85"/>
+    <col width="18.28515625" customWidth="1" style="84" min="86" max="86"/>
+    <col width="18.85546875" customWidth="1" style="84" min="87" max="87"/>
+    <col width="35" customWidth="1" style="84" min="88" max="88"/>
+    <col width="20" customWidth="1" style="84" min="89" max="89"/>
+    <col width="32.42578125" customWidth="1" style="84" min="90" max="90"/>
+    <col width="21.5703125" customWidth="1" style="84" min="91" max="91"/>
+    <col width="13.5703125" customWidth="1" style="84" min="92" max="92"/>
+    <col width="26.28515625" customWidth="1" style="84" min="93" max="93"/>
+    <col width="19.140625" customWidth="1" style="84" min="94" max="94"/>
+    <col width="44" customWidth="1" style="84" min="95" max="95"/>
+    <col width="23.5703125" customWidth="1" style="84" min="96" max="96"/>
+    <col width="26.28515625" customWidth="1" style="84" min="97" max="97"/>
+    <col width="34.85546875" customWidth="1" style="84" min="98" max="98"/>
+    <col width="9.140625" customWidth="1" style="84" min="99" max="99"/>
+    <col width="15.85546875" customWidth="1" style="84" min="100" max="100"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="1">
@@ -4642,93 +4882,93 @@
       <c r="CU1" s="34" t="n"/>
       <c r="CV1" s="34" t="n"/>
     </row>
-    <row r="2" ht="12.75" customFormat="1" customHeight="1" s="89">
-      <c r="A2" s="89" t="inlineStr">
+    <row r="2" ht="12.75" customFormat="1" customHeight="1" s="84">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
         </is>
       </c>
-      <c r="C2" s="89" t="inlineStr">
+      <c r="C2" s="84" t="inlineStr">
         <is>
           <t>CBAEU_10062020125653TLE</t>
         </is>
       </c>
-      <c r="D2" s="89" t="inlineStr">
+      <c r="D2" s="84" t="inlineStr">
         <is>
           <t>CEU_FAC_10062020130642XHO</t>
         </is>
       </c>
-      <c r="E2" s="89" t="inlineStr">
+      <c r="E2" s="84" t="inlineStr">
         <is>
           <t>LIQS1BRW1600003</t>
         </is>
       </c>
-      <c r="F2" s="89" t="inlineStr">
+      <c r="F2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="G2" s="113" t="inlineStr">
+      <c r="G2" s="108" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="H2" s="89" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>Deal/Facility</t>
         </is>
       </c>
-      <c r="I2" s="89" t="inlineStr">
+      <c r="I2" s="84" t="inlineStr">
         <is>
           <t>60000639</t>
         </is>
       </c>
-      <c r="J2" s="89" t="inlineStr">
+      <c r="J2" s="84" t="inlineStr">
         <is>
           <t>IMTEUR1-0902</t>
         </is>
       </c>
-      <c r="K2" s="89" t="inlineStr">
+      <c r="K2" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="L2" s="89" t="inlineStr">
+      <c r="L2" s="84" t="inlineStr">
         <is>
           <t>DOIT</t>
         </is>
       </c>
-      <c r="M2" s="89" t="inlineStr">
+      <c r="M2" s="84" t="inlineStr">
         <is>
           <t>EUCNLDCUST0001</t>
         </is>
       </c>
-      <c r="N2" s="89" t="inlineStr">
+      <c r="N2" s="84" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="O2" s="89" t="inlineStr">
+      <c r="O2" s="84" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="P2" s="89" t="inlineStr">
+      <c r="P2" s="84" t="inlineStr">
         <is>
           <t>Borrower</t>
         </is>
       </c>
-      <c r="Q2" s="89" t="inlineStr">
+      <c r="Q2" s="84" t="inlineStr">
         <is>
           <t>ONG000000000144</t>
         </is>
       </c>
-      <c r="R2" s="89" t="inlineStr">
+      <c r="R2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4738,27 +4978,27 @@
           <t>10-Aug-2020</t>
         </is>
       </c>
-      <c r="U2" s="89" t="inlineStr">
+      <c r="U2" s="84" t="inlineStr">
         <is>
           <t>18567000000</t>
         </is>
       </c>
-      <c r="V2" s="89" t="inlineStr">
+      <c r="V2" s="84" t="inlineStr">
         <is>
           <t>12001001836</t>
         </is>
       </c>
-      <c r="W2" s="89" t="inlineStr">
+      <c r="W2" s="84" t="inlineStr">
         <is>
           <t>833.33</t>
         </is>
       </c>
-      <c r="X2" s="89" t="inlineStr">
+      <c r="X2" s="84" t="inlineStr">
         <is>
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="Y2" s="89" t="inlineStr">
+      <c r="Y2" s="84" t="inlineStr">
         <is>
           <t>Term</t>
         </is>
@@ -4771,21 +5011,21 @@
       <c r="AA2" s="30" t="n">
         <v>100</v>
       </c>
-      <c r="AB2" s="89" t="inlineStr">
+      <c r="AB2" s="84" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/BP_CML</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="89" t="inlineStr">
+      <c r="A3" s="84" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="89" t="inlineStr">
+      <c r="A4" s="84" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4851,7 +5091,7 @@
     <col width="14.85546875" customWidth="1" style="13" min="38" max="38"/>
     <col width="22.140625" customWidth="1" style="13" min="39" max="39"/>
     <col width="31.5703125" customWidth="1" style="13" min="40" max="40"/>
-    <col width="38" customWidth="1" style="89" min="41" max="41"/>
+    <col width="38" customWidth="1" style="84" min="41" max="41"/>
     <col width="30.5703125" customWidth="1" style="13" min="42" max="42"/>
     <col width="20.5703125" customWidth="1" style="13" min="43" max="44"/>
     <col width="18" customWidth="1" style="13" min="45" max="45"/>
@@ -5090,18 +5330,18 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="89">
-      <c r="A2" s="89" t="inlineStr">
+    <row r="2" customFormat="1" s="84">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
         </is>
       </c>
-      <c r="C2" s="89" t="inlineStr">
+      <c r="C2" s="84" t="inlineStr">
         <is>
           <t>CBAEU_10062020125653TLE</t>
         </is>
@@ -5111,32 +5351,32 @@
           <t>Term</t>
         </is>
       </c>
-      <c r="E2" s="89" t="inlineStr">
+      <c r="E2" s="84" t="inlineStr">
         <is>
           <t>CEU_FAC_10062020130642XHO</t>
         </is>
       </c>
-      <c r="F2" s="89" t="inlineStr">
+      <c r="F2" s="84" t="inlineStr">
         <is>
           <t>14-May-2018</t>
         </is>
       </c>
-      <c r="G2" s="89" t="inlineStr">
+      <c r="G2" s="84" t="inlineStr">
         <is>
           <t>14-May-2021</t>
         </is>
       </c>
-      <c r="H2" s="89" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="I2" s="89" t="inlineStr">
+      <c r="I2" s="84" t="inlineStr">
         <is>
           <t>60000639</t>
         </is>
       </c>
-      <c r="K2" s="89" t="inlineStr">
+      <c r="K2" s="84" t="inlineStr">
         <is>
           <t>09-Dec-2020</t>
         </is>
@@ -5146,52 +5386,52 @@
           <t>FIXED Interest Due</t>
         </is>
       </c>
-      <c r="M2" s="89" t="inlineStr">
+      <c r="M2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="N2" s="89" t="inlineStr">
+      <c r="N2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="O2" s="89" t="inlineStr">
+      <c r="O2" s="84" t="inlineStr">
         <is>
           <t>4.11</t>
         </is>
       </c>
-      <c r="P2" s="89" t="inlineStr">
+      <c r="P2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q2" s="89" t="inlineStr">
+      <c r="Q2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R2" s="89" t="inlineStr">
+      <c r="R2" s="84" t="inlineStr">
         <is>
           <t>Projected Due</t>
         </is>
       </c>
-      <c r="S2" s="89" t="inlineStr">
+      <c r="S2" s="84" t="inlineStr">
         <is>
           <t>29-Jan-2019</t>
         </is>
       </c>
-      <c r="T2" s="89" t="inlineStr">
+      <c r="T2" s="84" t="inlineStr">
         <is>
           <t>26-Dec-2018</t>
         </is>
       </c>
-      <c r="U2" s="89" t="inlineStr">
+      <c r="U2" s="84" t="inlineStr">
         <is>
           <t>16-Jun-2020</t>
         </is>
       </c>
-      <c r="V2" s="89" t="inlineStr">
+      <c r="V2" s="84" t="inlineStr">
         <is>
           <t>22-May-2020</t>
         </is>
@@ -5208,32 +5448,32 @@
       </c>
       <c r="Y2" s="13" t="n"/>
       <c r="Z2" s="13" t="n"/>
-      <c r="AA2" s="89" t="inlineStr">
+      <c r="AA2" s="84" t="inlineStr">
         <is>
           <t>john.blogg@abc.com</t>
         </is>
       </c>
-      <c r="AB2" s="89" t="inlineStr">
+      <c r="AB2" s="84" t="inlineStr">
         <is>
           <t>90.41</t>
         </is>
       </c>
-      <c r="AC2" s="89" t="inlineStr">
+      <c r="AC2" s="84" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="AD2" s="89" t="inlineStr">
+      <c r="AD2" s="84" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="AE2" s="89" t="inlineStr">
+      <c r="AE2" s="84" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="AF2" s="89" t="inlineStr">
+      <c r="AF2" s="84" t="inlineStr">
         <is>
           <t>Interest Payment</t>
         </is>
@@ -5248,42 +5488,42 @@
           <t>Borrower</t>
         </is>
       </c>
-      <c r="AI2" s="89" t="inlineStr">
+      <c r="AI2" s="84" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="AJ2" s="89" t="inlineStr">
+      <c r="AJ2" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="AK2" s="89" t="inlineStr">
+      <c r="AK2" s="84" t="inlineStr">
         <is>
           <t>DOIT</t>
         </is>
       </c>
-      <c r="AL2" s="89" t="inlineStr">
+      <c r="AL2" s="84" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="AM2" s="89" t="inlineStr">
+      <c r="AM2" s="84" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="AN2" s="89" t="inlineStr">
+      <c r="AN2" s="84" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AO2" s="89" t="inlineStr">
+      <c r="AO2" s="84" t="inlineStr">
         <is>
           <t>IMTEUR1-0902</t>
         </is>
       </c>
-      <c r="AP2" s="89" t="inlineStr">
+      <c r="AP2" s="84" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5301,14 +5541,14 @@
       <c r="AS2" s="30" t="n">
         <v>100</v>
       </c>
-      <c r="AT2" s="89" t="inlineStr">
+      <c r="AT2" s="84" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/BP_CML</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="89" t="inlineStr">
+      <c r="A3" s="84" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -5320,7 +5560,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="89" t="inlineStr">
+      <c r="A4" s="84" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -5348,12 +5588,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="43.28515625" customWidth="1" style="89" min="2" max="2"/>
-    <col width="24.28515625" customWidth="1" style="89" min="3" max="3"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="43.28515625" customWidth="1" style="84" min="2" max="2"/>
+    <col width="24.28515625" customWidth="1" style="84" min="3" max="3"/>
     <col width="11.42578125" customWidth="1" style="3" min="4" max="4"/>
-    <col width="20.85546875" customWidth="1" style="89" min="5" max="5"/>
-    <col width="15.28515625" customWidth="1" style="89" min="6" max="6"/>
+    <col width="20.85546875" customWidth="1" style="84" min="5" max="5"/>
+    <col width="15.28515625" customWidth="1" style="84" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5388,33 +5628,33 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="89">
-      <c r="A2" s="89" t="inlineStr">
+    <row r="2" customFormat="1" s="84">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVGLIQ_AMD_DLCH01 Deal Change Transaction</t>
         </is>
       </c>
-      <c r="C2" s="89" t="inlineStr">
+      <c r="C2" s="84" t="inlineStr">
         <is>
           <t>CBAEU_10062020125653TLE</t>
         </is>
       </c>
-      <c r="D2" s="89" t="inlineStr">
+      <c r="D2" s="84" t="inlineStr">
         <is>
           <t>22-May-2020</t>
         </is>
       </c>
-      <c r="E2" s="89" t="inlineStr">
+      <c r="E2" s="84" t="inlineStr">
         <is>
           <t>ICR</t>
         </is>
       </c>
-      <c r="F2" s="89" t="n">
+      <c r="F2" s="84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5479,8 +5719,8 @@
     <col width="8.7109375" customWidth="1" style="62" min="42" max="42"/>
     <col width="11.28515625" customWidth="1" style="62" min="43" max="43"/>
     <col width="8.7109375" customWidth="1" style="62" min="44" max="45"/>
-    <col width="9.140625" customWidth="1" style="66" min="46" max="101"/>
-    <col width="9.140625" customWidth="1" style="66" min="102" max="16384"/>
+    <col width="9.140625" customWidth="1" style="66" min="46" max="102"/>
+    <col width="9.140625" customWidth="1" style="66" min="103" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="59">
@@ -5961,141 +6201,141 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="39.28515625" customWidth="1" style="89" min="2" max="2"/>
-    <col width="30" customWidth="1" style="89" min="3" max="3"/>
-    <col width="30.28515625" customWidth="1" style="89" min="4" max="4"/>
-    <col width="22.140625" customWidth="1" style="89" min="5" max="5"/>
-    <col width="46.28515625" customWidth="1" style="89" min="6" max="6"/>
-    <col width="47.28515625" customWidth="1" style="89" min="7" max="7"/>
-    <col width="45.5703125" customWidth="1" style="89" min="8" max="8"/>
-    <col width="46.7109375" customWidth="1" style="89" min="9" max="9"/>
-    <col width="47.5703125" customWidth="1" style="89" min="10" max="10"/>
-    <col width="48.5703125" customWidth="1" style="89" min="11" max="11"/>
-    <col width="20.5703125" customWidth="1" style="89" min="12" max="12"/>
-    <col width="24.28515625" customWidth="1" style="89" min="13" max="13"/>
-    <col width="24.5703125" customWidth="1" style="89" min="14" max="14"/>
-    <col width="15.7109375" customWidth="1" style="89" min="15" max="15"/>
-    <col width="40.5703125" customWidth="1" style="89" min="16" max="16"/>
-    <col width="41.5703125" customWidth="1" style="89" min="17" max="17"/>
-    <col width="40.5703125" customWidth="1" style="89" min="18" max="18"/>
-    <col width="34.42578125" customWidth="1" style="89" min="19" max="19"/>
-    <col width="41.85546875" customWidth="1" style="89" min="20" max="20"/>
-    <col width="43" customWidth="1" style="89" min="21" max="21"/>
-    <col width="39.85546875" customWidth="1" style="89" min="22" max="22"/>
-    <col width="41.28515625" customWidth="1" style="89" min="23" max="24"/>
-    <col width="14.28515625" customWidth="1" style="89" min="25" max="26"/>
-    <col width="12.5703125" customWidth="1" style="89" min="27" max="27"/>
-    <col width="16.28515625" customWidth="1" style="89" min="28" max="28"/>
-    <col width="12.85546875" customWidth="1" style="89" min="29" max="29"/>
-    <col width="21.85546875" customWidth="1" style="89" min="30" max="30"/>
-    <col width="14" customWidth="1" style="89" min="31" max="31"/>
-    <col width="22.5703125" customWidth="1" style="89" min="32" max="32"/>
-    <col width="17.28515625" customWidth="1" style="89" min="33" max="33"/>
-    <col width="27.7109375" customWidth="1" style="89" min="34" max="34"/>
-    <col width="12.42578125" customWidth="1" style="89" min="35" max="35"/>
-    <col width="14.5703125" customWidth="1" style="89" min="36" max="36"/>
-    <col width="38.5703125" customWidth="1" style="89" min="37" max="37"/>
-    <col width="16.85546875" customWidth="1" style="89" min="38" max="38"/>
-    <col width="28" customWidth="1" style="89" min="39" max="39"/>
-    <col width="19" customWidth="1" style="89" min="40" max="40"/>
-    <col width="36.140625" customWidth="1" style="89" min="41" max="41"/>
-    <col width="36.7109375" customWidth="1" style="89" min="42" max="42"/>
-    <col width="18.5703125" customWidth="1" style="89" min="43" max="43"/>
-    <col width="22" customWidth="1" style="89" min="44" max="44"/>
-    <col width="21" customWidth="1" style="89" min="45" max="45"/>
-    <col width="36.7109375" customWidth="1" style="89" min="46" max="46"/>
-    <col width="20" customWidth="1" style="89" min="47" max="47"/>
-    <col width="10" customWidth="1" style="89" min="48" max="48"/>
-    <col width="16.7109375" customWidth="1" style="89" min="49" max="49"/>
-    <col width="12.5703125" customWidth="1" style="89" min="50" max="50"/>
-    <col width="13.7109375" customWidth="1" style="89" min="51" max="51"/>
-    <col width="15.7109375" customWidth="1" style="89" min="52" max="52"/>
-    <col width="16.7109375" customWidth="1" style="89" min="53" max="53"/>
-    <col width="18.28515625" customWidth="1" style="89" min="54" max="54"/>
-    <col width="19.28515625" customWidth="1" style="89" min="55" max="55"/>
-    <col width="18.140625" customWidth="1" style="89" min="56" max="56"/>
-    <col width="19.140625" customWidth="1" style="89" min="57" max="57"/>
-    <col width="27.140625" customWidth="1" style="89" min="58" max="58"/>
-    <col width="22.28515625" customWidth="1" style="89" min="59" max="59"/>
-    <col width="23.28515625" customWidth="1" style="89" min="60" max="60"/>
-    <col width="24.28515625" customWidth="1" style="89" min="61" max="61"/>
-    <col width="29.28515625" customWidth="1" style="89" min="62" max="62"/>
-    <col width="21" customWidth="1" style="89" min="63" max="63"/>
-    <col width="25.5703125" customWidth="1" style="89" min="64" max="64"/>
-    <col width="21.7109375" customWidth="1" style="89" min="65" max="65"/>
-    <col width="18.7109375" customWidth="1" style="89" min="66" max="66"/>
-    <col width="20.42578125" customWidth="1" style="89" min="67" max="67"/>
-    <col width="14.5703125" customWidth="1" style="89" min="68" max="68"/>
-    <col width="15.5703125" customWidth="1" style="89" min="69" max="69"/>
-    <col width="33.5703125" customWidth="1" style="89" min="70" max="70"/>
-    <col width="33" customWidth="1" style="89" min="71" max="71"/>
-    <col width="39.140625" customWidth="1" style="89" min="72" max="72"/>
-    <col width="41" customWidth="1" style="89" min="73" max="73"/>
-    <col width="38.5703125" customWidth="1" style="89" min="74" max="75"/>
-    <col width="38.85546875" customWidth="1" style="89" min="76" max="76"/>
-    <col width="34.140625" customWidth="1" style="89" min="77" max="77"/>
-    <col width="38.42578125" customWidth="1" style="89" min="78" max="78"/>
-    <col width="32.42578125" customWidth="1" style="89" min="79" max="79"/>
-    <col width="40" customWidth="1" style="89" min="80" max="80"/>
-    <col width="41" customWidth="1" style="89" min="81" max="81"/>
-    <col width="38" customWidth="1" style="89" min="82" max="82"/>
-    <col width="18.140625" customWidth="1" style="89" min="83" max="83"/>
-    <col width="31.140625" customWidth="1" style="89" min="84" max="84"/>
-    <col width="39.28515625" customWidth="1" style="89" min="85" max="86"/>
-    <col width="33.42578125" customWidth="1" style="89" min="87" max="87"/>
-    <col width="46.42578125" customWidth="1" style="89" min="88" max="88"/>
-    <col width="43.85546875" customWidth="1" style="89" min="89" max="89"/>
-    <col width="48.85546875" customWidth="1" style="89" min="90" max="90"/>
-    <col width="34.85546875" customWidth="1" style="89" min="91" max="91"/>
-    <col width="12" customWidth="1" style="89" min="92" max="92"/>
-    <col width="23.42578125" customWidth="1" style="89" min="93" max="93"/>
-    <col width="18.85546875" customWidth="1" style="89" min="94" max="94"/>
-    <col width="20" customWidth="1" style="89" min="95" max="95"/>
-    <col width="25" customWidth="1" style="89" min="96" max="96"/>
-    <col width="20.42578125" customWidth="1" style="89" min="97" max="97"/>
-    <col width="25.85546875" customWidth="1" style="89" min="98" max="98"/>
-    <col width="20.42578125" customWidth="1" style="89" min="99" max="99"/>
-    <col width="25" customWidth="1" style="89" min="100" max="100"/>
-    <col width="20.42578125" customWidth="1" style="89" min="101" max="101"/>
-    <col width="20.85546875" customWidth="1" style="89" min="102" max="102"/>
-    <col width="21.140625" customWidth="1" style="89" min="103" max="104"/>
-    <col width="28.7109375" customWidth="1" style="89" min="105" max="105"/>
-    <col width="23.5703125" customWidth="1" style="89" min="106" max="106"/>
-    <col width="19" customWidth="1" style="89" min="107" max="107"/>
-    <col width="16.7109375" customWidth="1" style="89" min="108" max="108"/>
-    <col width="21.140625" customWidth="1" style="89" min="109" max="109"/>
-    <col width="12.140625" customWidth="1" style="89" min="110" max="110"/>
-    <col width="16" customWidth="1" style="89" min="111" max="111"/>
-    <col width="20.42578125" customWidth="1" style="89" min="112" max="112"/>
-    <col width="19" customWidth="1" style="89" min="113" max="113"/>
-    <col width="19.140625" customWidth="1" style="89" min="114" max="114"/>
-    <col width="19" customWidth="1" style="89" min="115" max="115"/>
-    <col width="14.85546875" customWidth="1" style="89" min="116" max="116"/>
-    <col width="19.28515625" customWidth="1" style="89" min="117" max="117"/>
-    <col width="19.7109375" customWidth="1" style="89" min="118" max="118"/>
-    <col width="19.42578125" customWidth="1" style="89" min="119" max="119"/>
-    <col width="31.140625" customWidth="1" style="89" min="120" max="120"/>
-    <col width="29" customWidth="1" style="89" min="121" max="121"/>
-    <col width="28.140625" customWidth="1" style="89" min="122" max="122"/>
-    <col width="23.42578125" customWidth="1" style="89" min="123" max="123"/>
-    <col width="23" customWidth="1" style="89" min="124" max="124"/>
-    <col width="32.7109375" customWidth="1" style="89" min="125" max="125"/>
-    <col width="31.28515625" customWidth="1" style="89" min="126" max="126"/>
-    <col width="28.7109375" customWidth="1" style="89" min="127" max="127"/>
-    <col width="26" customWidth="1" style="89" min="128" max="128"/>
-    <col width="26.42578125" customWidth="1" style="89" min="129" max="129"/>
-    <col width="22.85546875" customWidth="1" style="89" min="130" max="130"/>
-    <col width="20.28515625" customWidth="1" style="89" min="131" max="131"/>
-    <col width="35.7109375" customWidth="1" style="89" min="132" max="132"/>
-    <col width="34.28515625" customWidth="1" style="89" min="133" max="133"/>
-    <col width="31.7109375" customWidth="1" style="89" min="134" max="134"/>
-    <col width="22" customWidth="1" style="89" min="135" max="135"/>
-    <col width="35.42578125" customWidth="1" style="89" min="136" max="136"/>
-    <col width="28" customWidth="1" style="89" min="137" max="137"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="39.28515625" customWidth="1" style="84" min="2" max="2"/>
+    <col width="30" customWidth="1" style="84" min="3" max="3"/>
+    <col width="30.28515625" customWidth="1" style="84" min="4" max="4"/>
+    <col width="22.140625" customWidth="1" style="84" min="5" max="5"/>
+    <col width="46.28515625" customWidth="1" style="84" min="6" max="6"/>
+    <col width="47.28515625" customWidth="1" style="84" min="7" max="7"/>
+    <col width="45.5703125" customWidth="1" style="84" min="8" max="8"/>
+    <col width="46.7109375" customWidth="1" style="84" min="9" max="9"/>
+    <col width="47.5703125" customWidth="1" style="84" min="10" max="10"/>
+    <col width="48.5703125" customWidth="1" style="84" min="11" max="11"/>
+    <col width="20.5703125" customWidth="1" style="84" min="12" max="12"/>
+    <col width="24.28515625" customWidth="1" style="84" min="13" max="13"/>
+    <col width="24.5703125" customWidth="1" style="84" min="14" max="14"/>
+    <col width="15.7109375" customWidth="1" style="84" min="15" max="15"/>
+    <col width="40.5703125" customWidth="1" style="84" min="16" max="16"/>
+    <col width="41.5703125" customWidth="1" style="84" min="17" max="17"/>
+    <col width="40.5703125" customWidth="1" style="84" min="18" max="18"/>
+    <col width="34.42578125" customWidth="1" style="84" min="19" max="19"/>
+    <col width="41.85546875" customWidth="1" style="84" min="20" max="20"/>
+    <col width="43" customWidth="1" style="84" min="21" max="21"/>
+    <col width="39.85546875" customWidth="1" style="84" min="22" max="22"/>
+    <col width="41.28515625" customWidth="1" style="84" min="23" max="24"/>
+    <col width="14.28515625" customWidth="1" style="84" min="25" max="26"/>
+    <col width="12.5703125" customWidth="1" style="84" min="27" max="27"/>
+    <col width="16.28515625" customWidth="1" style="84" min="28" max="28"/>
+    <col width="12.85546875" customWidth="1" style="84" min="29" max="29"/>
+    <col width="21.85546875" customWidth="1" style="84" min="30" max="30"/>
+    <col width="14" customWidth="1" style="84" min="31" max="31"/>
+    <col width="22.5703125" customWidth="1" style="84" min="32" max="32"/>
+    <col width="17.28515625" customWidth="1" style="84" min="33" max="33"/>
+    <col width="27.7109375" customWidth="1" style="84" min="34" max="34"/>
+    <col width="12.42578125" customWidth="1" style="84" min="35" max="35"/>
+    <col width="14.5703125" customWidth="1" style="84" min="36" max="36"/>
+    <col width="38.5703125" customWidth="1" style="84" min="37" max="37"/>
+    <col width="16.85546875" customWidth="1" style="84" min="38" max="38"/>
+    <col width="28" customWidth="1" style="84" min="39" max="39"/>
+    <col width="19" customWidth="1" style="84" min="40" max="40"/>
+    <col width="36.140625" customWidth="1" style="84" min="41" max="41"/>
+    <col width="36.7109375" customWidth="1" style="84" min="42" max="42"/>
+    <col width="18.5703125" customWidth="1" style="84" min="43" max="43"/>
+    <col width="22" customWidth="1" style="84" min="44" max="44"/>
+    <col width="21" customWidth="1" style="84" min="45" max="45"/>
+    <col width="36.7109375" customWidth="1" style="84" min="46" max="46"/>
+    <col width="20" customWidth="1" style="84" min="47" max="47"/>
+    <col width="10" customWidth="1" style="84" min="48" max="48"/>
+    <col width="16.7109375" customWidth="1" style="84" min="49" max="49"/>
+    <col width="12.5703125" customWidth="1" style="84" min="50" max="50"/>
+    <col width="13.7109375" customWidth="1" style="84" min="51" max="51"/>
+    <col width="15.7109375" customWidth="1" style="84" min="52" max="52"/>
+    <col width="16.7109375" customWidth="1" style="84" min="53" max="53"/>
+    <col width="18.28515625" customWidth="1" style="84" min="54" max="54"/>
+    <col width="19.28515625" customWidth="1" style="84" min="55" max="55"/>
+    <col width="18.140625" customWidth="1" style="84" min="56" max="56"/>
+    <col width="19.140625" customWidth="1" style="84" min="57" max="57"/>
+    <col width="27.140625" customWidth="1" style="84" min="58" max="58"/>
+    <col width="22.28515625" customWidth="1" style="84" min="59" max="59"/>
+    <col width="23.28515625" customWidth="1" style="84" min="60" max="60"/>
+    <col width="24.28515625" customWidth="1" style="84" min="61" max="61"/>
+    <col width="29.28515625" customWidth="1" style="84" min="62" max="62"/>
+    <col width="21" customWidth="1" style="84" min="63" max="63"/>
+    <col width="25.5703125" customWidth="1" style="84" min="64" max="64"/>
+    <col width="21.7109375" customWidth="1" style="84" min="65" max="65"/>
+    <col width="18.7109375" customWidth="1" style="84" min="66" max="66"/>
+    <col width="20.42578125" customWidth="1" style="84" min="67" max="67"/>
+    <col width="14.5703125" customWidth="1" style="84" min="68" max="68"/>
+    <col width="15.5703125" customWidth="1" style="84" min="69" max="69"/>
+    <col width="33.5703125" customWidth="1" style="84" min="70" max="70"/>
+    <col width="33" customWidth="1" style="84" min="71" max="71"/>
+    <col width="39.140625" customWidth="1" style="84" min="72" max="72"/>
+    <col width="41" customWidth="1" style="84" min="73" max="73"/>
+    <col width="38.5703125" customWidth="1" style="84" min="74" max="75"/>
+    <col width="38.85546875" customWidth="1" style="84" min="76" max="76"/>
+    <col width="34.140625" customWidth="1" style="84" min="77" max="77"/>
+    <col width="38.42578125" customWidth="1" style="84" min="78" max="78"/>
+    <col width="32.42578125" customWidth="1" style="84" min="79" max="79"/>
+    <col width="40" customWidth="1" style="84" min="80" max="80"/>
+    <col width="41" customWidth="1" style="84" min="81" max="81"/>
+    <col width="38" customWidth="1" style="84" min="82" max="82"/>
+    <col width="18.140625" customWidth="1" style="84" min="83" max="83"/>
+    <col width="31.140625" customWidth="1" style="84" min="84" max="84"/>
+    <col width="39.28515625" customWidth="1" style="84" min="85" max="86"/>
+    <col width="33.42578125" customWidth="1" style="84" min="87" max="87"/>
+    <col width="46.42578125" customWidth="1" style="84" min="88" max="88"/>
+    <col width="43.85546875" customWidth="1" style="84" min="89" max="89"/>
+    <col width="48.85546875" customWidth="1" style="84" min="90" max="90"/>
+    <col width="34.85546875" customWidth="1" style="84" min="91" max="91"/>
+    <col width="12" customWidth="1" style="84" min="92" max="92"/>
+    <col width="23.42578125" customWidth="1" style="84" min="93" max="93"/>
+    <col width="18.85546875" customWidth="1" style="84" min="94" max="94"/>
+    <col width="20" customWidth="1" style="84" min="95" max="95"/>
+    <col width="25" customWidth="1" style="84" min="96" max="96"/>
+    <col width="20.42578125" customWidth="1" style="84" min="97" max="97"/>
+    <col width="25.85546875" customWidth="1" style="84" min="98" max="98"/>
+    <col width="20.42578125" customWidth="1" style="84" min="99" max="99"/>
+    <col width="25" customWidth="1" style="84" min="100" max="100"/>
+    <col width="20.42578125" customWidth="1" style="84" min="101" max="101"/>
+    <col width="20.85546875" customWidth="1" style="84" min="102" max="102"/>
+    <col width="21.140625" customWidth="1" style="84" min="103" max="104"/>
+    <col width="28.7109375" customWidth="1" style="84" min="105" max="105"/>
+    <col width="23.5703125" customWidth="1" style="84" min="106" max="106"/>
+    <col width="19" customWidth="1" style="84" min="107" max="107"/>
+    <col width="16.7109375" customWidth="1" style="84" min="108" max="108"/>
+    <col width="21.140625" customWidth="1" style="84" min="109" max="109"/>
+    <col width="12.140625" customWidth="1" style="84" min="110" max="110"/>
+    <col width="16" customWidth="1" style="84" min="111" max="111"/>
+    <col width="20.42578125" customWidth="1" style="84" min="112" max="112"/>
+    <col width="19" customWidth="1" style="84" min="113" max="113"/>
+    <col width="19.140625" customWidth="1" style="84" min="114" max="114"/>
+    <col width="19" customWidth="1" style="84" min="115" max="115"/>
+    <col width="14.85546875" customWidth="1" style="84" min="116" max="116"/>
+    <col width="19.28515625" customWidth="1" style="84" min="117" max="117"/>
+    <col width="19.7109375" customWidth="1" style="84" min="118" max="118"/>
+    <col width="19.42578125" customWidth="1" style="84" min="119" max="119"/>
+    <col width="31.140625" customWidth="1" style="84" min="120" max="120"/>
+    <col width="29" customWidth="1" style="84" min="121" max="121"/>
+    <col width="28.140625" customWidth="1" style="84" min="122" max="122"/>
+    <col width="23.42578125" customWidth="1" style="84" min="123" max="123"/>
+    <col width="23" customWidth="1" style="84" min="124" max="124"/>
+    <col width="32.7109375" customWidth="1" style="84" min="125" max="125"/>
+    <col width="31.28515625" customWidth="1" style="84" min="126" max="126"/>
+    <col width="28.7109375" customWidth="1" style="84" min="127" max="127"/>
+    <col width="26" customWidth="1" style="84" min="128" max="128"/>
+    <col width="26.42578125" customWidth="1" style="84" min="129" max="129"/>
+    <col width="22.85546875" customWidth="1" style="84" min="130" max="130"/>
+    <col width="20.28515625" customWidth="1" style="84" min="131" max="131"/>
+    <col width="35.7109375" customWidth="1" style="84" min="132" max="132"/>
+    <col width="34.28515625" customWidth="1" style="84" min="133" max="133"/>
+    <col width="31.7109375" customWidth="1" style="84" min="134" max="134"/>
+    <col width="22" customWidth="1" style="84" min="135" max="135"/>
+    <col width="35.42578125" customWidth="1" style="84" min="136" max="136"/>
+    <col width="28" customWidth="1" style="84" min="137" max="137"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customFormat="1" customHeight="1" s="89">
+    <row r="1" ht="25.5" customFormat="1" customHeight="1" s="84">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -6246,7 +6486,7 @@
           <t>Address_DefaultPhone</t>
         </is>
       </c>
-      <c r="AE1" s="81" t="inlineStr">
+      <c r="AE1" s="76" t="inlineStr">
         <is>
           <t>Address_State</t>
         </is>
@@ -6794,23 +7034,23 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customFormat="1" customHeight="1" s="89">
+    <row r="2" ht="12.75" customFormat="1" customHeight="1" s="84">
       <c r="A2" s="44" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
         </is>
       </c>
-      <c r="C2" s="89" t="inlineStr">
+      <c r="C2" s="84" t="inlineStr">
         <is>
           <t>CUSTSHORT</t>
         </is>
       </c>
-      <c r="D2" s="89" t="inlineStr">
+      <c r="D2" s="84" t="inlineStr">
         <is>
           <t>CUSTLEGAL</t>
         </is>
@@ -6850,22 +7090,22 @@
           <t>RTGSEUR2-</t>
         </is>
       </c>
-      <c r="L2" s="89" t="inlineStr">
+      <c r="L2" s="84" t="inlineStr">
         <is>
           <t>Search by Customer ID</t>
         </is>
       </c>
-      <c r="M2" s="89" t="inlineStr">
+      <c r="M2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="N2" s="89" t="inlineStr">
+      <c r="N2" s="84" t="inlineStr">
         <is>
           <t>EUCNLDCUST0001</t>
         </is>
       </c>
-      <c r="O2" s="89" t="inlineStr">
+      <c r="O2" s="84" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -6875,7 +7115,7 @@
           <t>IMTEUR1-0902</t>
         </is>
       </c>
-      <c r="S2" s="114" t="n"/>
+      <c r="S2" s="109" t="n"/>
       <c r="T2" t="inlineStr">
         <is>
           <t>RTGSEUR1-0903</t>
@@ -6886,48 +7126,48 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="W2" s="89" t="inlineStr">
+      <c r="W2" s="84" t="inlineStr">
         <is>
           <t>SIMT1-AUD3750</t>
         </is>
       </c>
-      <c r="X2" s="89" t="inlineStr">
+      <c r="X2" s="84" t="inlineStr">
         <is>
           <t>SIMT2-USD4504</t>
         </is>
       </c>
-      <c r="Y2" s="114" t="inlineStr">
+      <c r="Y2" s="109" t="inlineStr">
         <is>
           <t>LOWER GRND FL SHOP</t>
         </is>
       </c>
-      <c r="Z2" s="114" t="inlineStr">
+      <c r="Z2" s="109" t="inlineStr">
         <is>
           <t>11 213 PITT ST</t>
         </is>
       </c>
-      <c r="AA2" s="114" t="inlineStr">
+      <c r="AA2" s="109" t="inlineStr">
         <is>
           <t>ROTTERDAM</t>
         </is>
       </c>
-      <c r="AB2" s="114" t="inlineStr">
+      <c r="AB2" s="109" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="AC2" s="114" t="inlineStr">
+      <c r="AC2" s="109" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="AD2" s="114" t="inlineStr">
+      <c r="AD2" s="109" t="inlineStr">
         <is>
           <t xml:space="preserve">412345678
  </t>
         </is>
       </c>
-      <c r="AE2" s="114" t="inlineStr">
+      <c r="AE2" s="109" t="inlineStr">
         <is>
           <t>Limburg</t>
         </is>
@@ -6937,163 +7177,163 @@
           <t>1101</t>
         </is>
       </c>
-      <c r="AG2" s="114" t="inlineStr">
+      <c r="AG2" s="109" t="inlineStr">
         <is>
           <t>3620</t>
         </is>
       </c>
-      <c r="AH2" s="114" t="inlineStr">
+      <c r="AH2" s="109" t="inlineStr">
         <is>
           <t>AU / Gas Supply</t>
         </is>
       </c>
-      <c r="AI2" s="114" t="inlineStr">
+      <c r="AI2" s="109" t="inlineStr">
         <is>
           <t>Borrower</t>
         </is>
       </c>
-      <c r="AJ2" s="114" t="inlineStr">
+      <c r="AJ2" s="109" t="inlineStr">
         <is>
           <t>BP_CML</t>
         </is>
       </c>
-      <c r="AK2" s="114" t="inlineStr">
+      <c r="AK2" s="109" t="inlineStr">
         <is>
           <t>Commercial Lending</t>
         </is>
       </c>
-      <c r="AL2" s="114" t="inlineStr">
+      <c r="AL2" s="109" t="inlineStr">
         <is>
           <t>GLB</t>
         </is>
       </c>
-      <c r="AM2" s="114" t="inlineStr">
+      <c r="AM2" s="109" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="AN2" s="114" t="inlineStr">
+      <c r="AN2" s="109" t="inlineStr">
         <is>
           <t>FORG</t>
         </is>
       </c>
-      <c r="AO2" s="114" t="inlineStr">
+      <c r="AO2" s="109" t="inlineStr">
         <is>
           <t>Foreign Government, Foreign Government</t>
         </is>
       </c>
-      <c r="AP2" s="114" t="inlineStr">
+      <c r="AP2" s="109" t="inlineStr">
         <is>
           <t>&lt;This is randomly generated in the script&gt;</t>
         </is>
       </c>
-      <c r="AQ2" s="114" t="inlineStr">
+      <c r="AQ2" s="109" t="inlineStr">
         <is>
           <t>16-Feb-2017</t>
         </is>
       </c>
-      <c r="AR2" s="114" t="inlineStr">
+      <c r="AR2" s="109" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="AS2" s="114" t="n"/>
-      <c r="AT2" s="114" t="inlineStr">
+      <c r="AS2" s="109" t="n"/>
+      <c r="AT2" s="109" t="inlineStr">
         <is>
           <t>&lt;This is randomly generated in the script&gt;</t>
         </is>
       </c>
-      <c r="AU2" s="114" t="inlineStr">
+      <c r="AU2" s="109" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="AV2" s="114" t="inlineStr">
+      <c r="AV2" s="109" t="inlineStr">
         <is>
           <t>CBA</t>
         </is>
       </c>
-      <c r="AW2" s="114" t="inlineStr">
+      <c r="AW2" s="109" t="inlineStr">
         <is>
           <t>LEGAL ADDRESS</t>
         </is>
       </c>
-      <c r="AX2" s="114" t="inlineStr">
+      <c r="AX2" s="109" t="inlineStr">
         <is>
           <t>1917472</t>
         </is>
       </c>
-      <c r="AY2" s="114" t="inlineStr">
+      <c r="AY2" s="109" t="inlineStr">
         <is>
           <t>1917472</t>
         </is>
       </c>
-      <c r="AZ2" s="114" t="inlineStr">
+      <c r="AZ2" s="109" t="inlineStr">
         <is>
           <t>Work Fax</t>
         </is>
       </c>
-      <c r="BA2" s="114" t="inlineStr">
+      <c r="BA2" s="109" t="inlineStr">
         <is>
           <t>Work Fax 2</t>
         </is>
       </c>
-      <c r="BB2" s="114" t="inlineStr">
+      <c r="BB2" s="109" t="inlineStr">
         <is>
           <t>John</t>
         </is>
       </c>
-      <c r="BC2" s="114" t="inlineStr">
+      <c r="BC2" s="109" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="BD2" s="114" t="inlineStr">
+      <c r="BD2" s="109" t="inlineStr">
         <is>
           <t>Bloggs</t>
         </is>
       </c>
-      <c r="BE2" s="114" t="inlineStr">
+      <c r="BE2" s="109" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
       </c>
-      <c r="BF2" s="114" t="inlineStr">
+      <c r="BF2" s="109" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="BG2" s="114" t="inlineStr">
+      <c r="BG2" s="109" t="inlineStr">
         <is>
           <t>1928727188</t>
         </is>
       </c>
-      <c r="BH2" s="114" t="inlineStr">
+      <c r="BH2" s="109" t="inlineStr">
         <is>
           <t>1928143143</t>
         </is>
       </c>
-      <c r="BI2" s="114" t="inlineStr">
+      <c r="BI2" s="109" t="inlineStr">
         <is>
           <t>SBLC, Loan</t>
         </is>
       </c>
-      <c r="BJ2" s="114" t="inlineStr">
+      <c r="BJ2" s="109" t="inlineStr">
         <is>
           <t>Principal, Interest, Fees</t>
         </is>
       </c>
-      <c r="BK2" s="114" t="inlineStr">
+      <c r="BK2" s="109" t="inlineStr">
         <is>
           <t>Servicing</t>
         </is>
       </c>
-      <c r="BL2" s="114" t="inlineStr">
+      <c r="BL2" s="109" t="inlineStr">
         <is>
           <t>SERV</t>
         </is>
       </c>
-      <c r="BM2" s="114" t="inlineStr">
+      <c r="BM2" s="109" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
@@ -7108,27 +7348,27 @@
           <t>james.baker@abc.com</t>
         </is>
       </c>
-      <c r="BP2" s="114" t="inlineStr">
+      <c r="BP2" s="109" t="inlineStr">
         <is>
           <t>Bloggs</t>
         </is>
       </c>
-      <c r="BQ2" s="114" t="inlineStr">
+      <c r="BQ2" s="109" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
       </c>
-      <c r="BR2" s="114" t="inlineStr">
+      <c r="BR2" s="109" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="BS2" s="114" t="inlineStr">
+      <c r="BS2" s="109" t="inlineStr">
         <is>
           <t>IMT (Demand Deposit Acct)</t>
         </is>
       </c>
-      <c r="BT2" s="114" t="inlineStr">
+      <c r="BT2" s="109" t="inlineStr">
         <is>
           <t>CBA Domestic Account</t>
         </is>
@@ -7148,32 +7388,32 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="BX2" s="114" t="inlineStr">
+      <c r="BX2" s="109" t="inlineStr">
         <is>
           <t>From Cust</t>
         </is>
       </c>
-      <c r="BY2" s="114" t="inlineStr">
+      <c r="BY2" s="109" t="inlineStr">
         <is>
           <t>&lt;Selected&gt;</t>
         </is>
       </c>
-      <c r="BZ2" s="114" t="inlineStr">
+      <c r="BZ2" s="109" t="inlineStr">
         <is>
           <t>Simplified</t>
         </is>
       </c>
-      <c r="CA2" s="114" t="inlineStr">
+      <c r="CA2" s="109" t="inlineStr">
         <is>
           <t>International Money Transfer</t>
         </is>
       </c>
-      <c r="CB2" s="89" t="inlineStr">
+      <c r="CB2" s="84" t="inlineStr">
         <is>
           <t>IMTEUR1-0902</t>
         </is>
       </c>
-      <c r="CC2" s="89" t="inlineStr">
+      <c r="CC2" s="84" t="inlineStr">
         <is>
           <t>IMT-USD2519</t>
         </is>
@@ -7203,92 +7443,92 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="CI2" s="114" t="inlineStr">
+      <c r="CI2" s="109" t="inlineStr">
         <is>
           <t>CTBAAU2S600</t>
         </is>
       </c>
-      <c r="CJ2" s="114" t="inlineStr">
+      <c r="CJ2" s="109" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK OF AUSTRALIA SYDNEY</t>
         </is>
       </c>
-      <c r="CK2" s="114" t="inlineStr">
+      <c r="CK2" s="109" t="inlineStr">
         <is>
           <t>All Loan Types, SBLC/BA</t>
         </is>
       </c>
-      <c r="CL2" s="114" t="inlineStr">
+      <c r="CL2" s="109" t="inlineStr">
         <is>
           <t>Principal, Interest, Fees</t>
         </is>
       </c>
-      <c r="CM2" s="114" t="inlineStr">
+      <c r="CM2" s="109" t="inlineStr">
         <is>
           <t>&lt;Selected&gt;</t>
         </is>
       </c>
-      <c r="CN2" s="114" t="inlineStr">
+      <c r="CN2" s="109" t="inlineStr">
         <is>
           <t>02568049389</t>
         </is>
       </c>
-      <c r="CO2" s="114" t="inlineStr">
+      <c r="CO2" s="109" t="inlineStr">
         <is>
           <t>Internal Rating</t>
         </is>
       </c>
-      <c r="CP2" s="114" t="inlineStr">
+      <c r="CP2" s="109" t="inlineStr">
         <is>
           <t>D1 Good</t>
         </is>
       </c>
-      <c r="CQ2" s="114" t="inlineStr">
+      <c r="CQ2" s="109" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="CR2" s="114" t="inlineStr">
+      <c r="CR2" s="109" t="inlineStr">
         <is>
           <t>Standard &amp; Poors</t>
         </is>
       </c>
-      <c r="CS2" s="114" t="inlineStr">
+      <c r="CS2" s="109" t="inlineStr">
         <is>
           <t>BBB+</t>
         </is>
       </c>
-      <c r="CT2" s="114" t="inlineStr">
+      <c r="CT2" s="109" t="inlineStr">
         <is>
           <t>Moody's Investor Services Inc</t>
         </is>
       </c>
-      <c r="CU2" s="114" t="inlineStr">
+      <c r="CU2" s="109" t="inlineStr">
         <is>
           <t>Aa2</t>
         </is>
       </c>
-      <c r="CV2" s="114" t="inlineStr">
+      <c r="CV2" s="109" t="inlineStr">
         <is>
           <t>Fitch</t>
         </is>
       </c>
-      <c r="CW2" s="114" t="inlineStr">
+      <c r="CW2" s="109" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
-      <c r="CX2" s="114" t="inlineStr">
+      <c r="CX2" s="109" t="inlineStr">
         <is>
           <t>LEGAL ADDRESS</t>
         </is>
       </c>
-      <c r="CY2" s="114" t="inlineStr">
+      <c r="CY2" s="109" t="inlineStr">
         <is>
           <t>PO Box 861</t>
         </is>
       </c>
-      <c r="CZ2" s="114" t="inlineStr">
+      <c r="CZ2" s="109" t="inlineStr">
         <is>
           <t>Almond, Victoria 3211</t>
         </is>
@@ -7298,7 +7538,7 @@
           <t>03 5029 9445</t>
         </is>
       </c>
-      <c r="DB2" s="114" t="inlineStr">
+      <c r="DB2" s="109" t="inlineStr">
         <is>
           <t>03 5029 9445</t>
         </is>
@@ -7450,340 +7690,340 @@
           <t>External Message</t>
         </is>
       </c>
-      <c r="EH2" s="89" t="inlineStr">
+      <c r="EH2" s="84" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="EI2" s="89" t="inlineStr">
+      <c r="EI2" s="84" t="inlineStr">
         <is>
           <t>LIQ</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customFormat="1" customHeight="1" s="89">
+    <row r="3" ht="12.75" customFormat="1" customHeight="1" s="84">
       <c r="A3" s="44" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="89" t="inlineStr">
+      <c r="B3" s="84" t="inlineStr">
         <is>
           <t>EVG_PTYLIQ01 Scenario1 Baseline BilateralXXXX</t>
         </is>
       </c>
-      <c r="C3" s="89" t="inlineStr">
+      <c r="C3" s="84" t="inlineStr">
         <is>
           <t>CUSTSHORT</t>
         </is>
       </c>
-      <c r="D3" s="89" t="inlineStr">
+      <c r="D3" s="84" t="inlineStr">
         <is>
           <t>CUSTLEGAL</t>
         </is>
       </c>
-      <c r="E3" s="89" t="inlineStr">
+      <c r="E3" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="F3" s="89" t="inlineStr">
+      <c r="F3" s="84" t="inlineStr">
         <is>
           <t>IMTAUD1-</t>
         </is>
       </c>
-      <c r="G3" s="89" t="inlineStr">
+      <c r="G3" s="84" t="inlineStr">
         <is>
           <t>IMTAUD2-</t>
         </is>
       </c>
-      <c r="H3" s="89" t="inlineStr">
+      <c r="H3" s="84" t="inlineStr">
         <is>
           <t>IMTUSD1-</t>
         </is>
       </c>
-      <c r="I3" s="89" t="inlineStr">
+      <c r="I3" s="84" t="inlineStr">
         <is>
           <t>IMTUSD2-</t>
         </is>
       </c>
-      <c r="J3" s="89" t="inlineStr">
+      <c r="J3" s="84" t="inlineStr">
         <is>
           <t>RTGSAUD1-</t>
         </is>
       </c>
-      <c r="K3" s="89" t="inlineStr">
+      <c r="K3" s="84" t="inlineStr">
         <is>
           <t>RTGSAUD2-</t>
         </is>
       </c>
-      <c r="L3" s="89" t="inlineStr">
+      <c r="L3" s="84" t="inlineStr">
         <is>
           <t>Search by Customer ID</t>
         </is>
       </c>
-      <c r="M3" s="89" t="inlineStr">
+      <c r="M3" s="84" t="inlineStr">
         <is>
           <t>AnthonyGwapo</t>
         </is>
       </c>
-      <c r="N3" s="89" t="inlineStr">
+      <c r="N3" s="84" t="inlineStr">
         <is>
           <t>CUSTLEGAL57131</t>
         </is>
       </c>
-      <c r="O3" s="89" t="inlineStr">
+      <c r="O3" s="84" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="P3" s="89" t="inlineStr">
+      <c r="P3" s="84" t="inlineStr">
         <is>
           <t>IMTAUD1-0330</t>
         </is>
       </c>
-      <c r="Q3" s="89" t="inlineStr">
+      <c r="Q3" s="84" t="inlineStr">
         <is>
           <t>IMT-AUD2518</t>
         </is>
       </c>
-      <c r="R3" s="89" t="inlineStr">
+      <c r="R3" s="84" t="inlineStr">
         <is>
           <t>IMT2-USD3750</t>
         </is>
       </c>
-      <c r="S3" s="114" t="inlineStr">
+      <c r="S3" s="109" t="inlineStr">
         <is>
           <t>High Value Local RTGS (AUD)</t>
         </is>
       </c>
-      <c r="T3" s="89" t="inlineStr">
+      <c r="T3" s="84" t="inlineStr">
         <is>
           <t>RTGSAUD1-0331</t>
         </is>
       </c>
-      <c r="U3" s="89" t="inlineStr">
+      <c r="U3" s="84" t="inlineStr">
         <is>
           <t>RTGS-AUD2525</t>
         </is>
       </c>
-      <c r="V3" s="89" t="inlineStr">
+      <c r="V3" s="84" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="W3" s="89" t="inlineStr">
+      <c r="W3" s="84" t="inlineStr">
         <is>
           <t>SIMT1-AUD3750</t>
         </is>
       </c>
-      <c r="X3" s="89" t="inlineStr">
+      <c r="X3" s="84" t="inlineStr">
         <is>
           <t>SIMT2-USD4504</t>
         </is>
       </c>
-      <c r="Y3" s="114" t="inlineStr">
+      <c r="Y3" s="109" t="inlineStr">
         <is>
           <t>George St.</t>
         </is>
       </c>
-      <c r="Z3" s="114" t="inlineStr">
+      <c r="Z3" s="109" t="inlineStr">
         <is>
           <t>Beverly Hills</t>
         </is>
       </c>
-      <c r="AA3" s="114" t="inlineStr">
+      <c r="AA3" s="109" t="inlineStr">
         <is>
           <t>Melbourne</t>
         </is>
       </c>
-      <c r="AB3" s="114" t="inlineStr">
+      <c r="AB3" s="109" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="AC3" s="114" t="inlineStr">
+      <c r="AC3" s="109" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="AD3" s="114" t="inlineStr">
+      <c r="AD3" s="109" t="inlineStr">
         <is>
           <t xml:space="preserve">412345678
  </t>
         </is>
       </c>
-      <c r="AE3" s="114" t="inlineStr">
+      <c r="AE3" s="109" t="inlineStr">
         <is>
           <t>Victoria</t>
         </is>
       </c>
-      <c r="AF3" s="114" t="inlineStr">
+      <c r="AF3" s="109" t="inlineStr">
         <is>
           <t>4061</t>
         </is>
       </c>
-      <c r="AG3" s="114" t="inlineStr">
+      <c r="AG3" s="109" t="inlineStr">
         <is>
           <t>3620</t>
         </is>
       </c>
-      <c r="AH3" s="114" t="inlineStr">
+      <c r="AH3" s="109" t="inlineStr">
         <is>
           <t>AU / Gas Supply</t>
         </is>
       </c>
-      <c r="AI3" s="114" t="inlineStr">
+      <c r="AI3" s="109" t="inlineStr">
         <is>
           <t>Borrower</t>
         </is>
       </c>
-      <c r="AJ3" s="114" t="inlineStr">
+      <c r="AJ3" s="109" t="inlineStr">
         <is>
           <t>003346</t>
         </is>
       </c>
-      <c r="AK3" s="114" t="inlineStr">
+      <c r="AK3" s="109" t="inlineStr">
         <is>
           <t>CFS QLD Brisbane Corporate (Dept 003346)</t>
         </is>
       </c>
-      <c r="AL3" s="114" t="inlineStr">
+      <c r="AL3" s="109" t="inlineStr">
         <is>
           <t>GLB</t>
         </is>
       </c>
-      <c r="AM3" s="114" t="inlineStr">
+      <c r="AM3" s="109" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="AN3" s="114" t="inlineStr">
+      <c r="AN3" s="109" t="inlineStr">
         <is>
           <t>FORG</t>
         </is>
       </c>
-      <c r="AO3" s="114" t="inlineStr">
+      <c r="AO3" s="109" t="inlineStr">
         <is>
           <t>Foreign Government, Foreign Government</t>
         </is>
       </c>
-      <c r="AP3" s="114" t="inlineStr">
+      <c r="AP3" s="109" t="inlineStr">
         <is>
           <t>&lt;This is randomly generated in the script&gt;</t>
         </is>
       </c>
-      <c r="AQ3" s="114" t="inlineStr">
+      <c r="AQ3" s="109" t="inlineStr">
         <is>
           <t>16-Feb-2017</t>
         </is>
       </c>
-      <c r="AR3" s="114" t="inlineStr">
+      <c r="AR3" s="109" t="inlineStr">
         <is>
           <t>Melbourne, VIC,Australia</t>
         </is>
       </c>
-      <c r="AS3" s="114" t="inlineStr">
+      <c r="AS3" s="109" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
       </c>
-      <c r="AT3" s="114" t="inlineStr">
+      <c r="AT3" s="109" t="inlineStr">
         <is>
           <t>&lt;This is randomly generated in the script&gt;</t>
         </is>
       </c>
-      <c r="AU3" s="114" t="inlineStr">
+      <c r="AU3" s="109" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="AV3" s="114" t="inlineStr">
+      <c r="AV3" s="109" t="inlineStr">
         <is>
           <t>CBA</t>
         </is>
       </c>
-      <c r="AW3" s="114" t="inlineStr">
+      <c r="AW3" s="109" t="inlineStr">
         <is>
           <t>LEGAL ADDRESS</t>
         </is>
       </c>
-      <c r="AX3" s="114" t="inlineStr">
+      <c r="AX3" s="109" t="inlineStr">
         <is>
           <t>1917472</t>
         </is>
       </c>
-      <c r="AY3" s="114" t="inlineStr">
+      <c r="AY3" s="109" t="inlineStr">
         <is>
           <t>1917472</t>
         </is>
       </c>
-      <c r="AZ3" s="114" t="inlineStr">
+      <c r="AZ3" s="109" t="inlineStr">
         <is>
           <t>Work Fax</t>
         </is>
       </c>
-      <c r="BA3" s="114" t="inlineStr">
+      <c r="BA3" s="109" t="inlineStr">
         <is>
           <t>Work Fax 2</t>
         </is>
       </c>
-      <c r="BB3" s="114" t="inlineStr">
+      <c r="BB3" s="109" t="inlineStr">
         <is>
           <t>John</t>
         </is>
       </c>
-      <c r="BC3" s="114" t="inlineStr">
+      <c r="BC3" s="109" t="inlineStr">
         <is>
           <t>James</t>
         </is>
       </c>
-      <c r="BD3" s="114" t="inlineStr">
+      <c r="BD3" s="109" t="inlineStr">
         <is>
           <t>Bloggs</t>
         </is>
       </c>
-      <c r="BE3" s="114" t="inlineStr">
+      <c r="BE3" s="109" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
       </c>
-      <c r="BF3" s="114" t="inlineStr">
+      <c r="BF3" s="109" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="BG3" s="114" t="inlineStr">
+      <c r="BG3" s="109" t="inlineStr">
         <is>
           <t>1928727188</t>
         </is>
       </c>
-      <c r="BH3" s="114" t="inlineStr">
+      <c r="BH3" s="109" t="inlineStr">
         <is>
           <t>1928143143</t>
         </is>
       </c>
-      <c r="BI3" s="114" t="inlineStr">
+      <c r="BI3" s="109" t="inlineStr">
         <is>
           <t>SBLC, Loan</t>
         </is>
       </c>
-      <c r="BJ3" s="114" t="inlineStr">
+      <c r="BJ3" s="109" t="inlineStr">
         <is>
           <t>Principal, Interest, Fees</t>
         </is>
       </c>
-      <c r="BK3" s="114" t="inlineStr">
+      <c r="BK3" s="109" t="inlineStr">
         <is>
           <t>Servicing</t>
         </is>
       </c>
-      <c r="BL3" s="114" t="inlineStr">
+      <c r="BL3" s="109" t="inlineStr">
         <is>
           <t>SERV</t>
         </is>
       </c>
-      <c r="BM3" s="114" t="inlineStr">
+      <c r="BM3" s="109" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
@@ -7798,27 +8038,27 @@
           <t>james.baker@abc.com</t>
         </is>
       </c>
-      <c r="BP3" s="114" t="inlineStr">
+      <c r="BP3" s="109" t="inlineStr">
         <is>
           <t>Bloggs</t>
         </is>
       </c>
-      <c r="BQ3" s="114" t="inlineStr">
+      <c r="BQ3" s="109" t="inlineStr">
         <is>
           <t>Baker</t>
         </is>
       </c>
-      <c r="BR3" s="114" t="inlineStr">
+      <c r="BR3" s="109" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="BS3" s="114" t="inlineStr">
+      <c r="BS3" s="109" t="inlineStr">
         <is>
           <t>IMT (Demand Deposit Acct)</t>
         </is>
       </c>
-      <c r="BT3" s="114" t="inlineStr">
+      <c r="BT3" s="109" t="inlineStr">
         <is>
           <t>CBA Domestic Account</t>
         </is>
@@ -7838,32 +8078,32 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="BX3" s="114" t="inlineStr">
+      <c r="BX3" s="109" t="inlineStr">
         <is>
           <t>From Cust</t>
         </is>
       </c>
-      <c r="BY3" s="114" t="inlineStr">
+      <c r="BY3" s="109" t="inlineStr">
         <is>
           <t>&lt;Selected&gt;</t>
         </is>
       </c>
-      <c r="BZ3" s="114" t="inlineStr">
+      <c r="BZ3" s="109" t="inlineStr">
         <is>
           <t>Simplified</t>
         </is>
       </c>
-      <c r="CA3" s="114" t="inlineStr">
+      <c r="CA3" s="109" t="inlineStr">
         <is>
           <t>International Money Transfer</t>
         </is>
       </c>
-      <c r="CB3" s="89" t="inlineStr">
+      <c r="CB3" s="84" t="inlineStr">
         <is>
           <t>IMTUSD1-0330</t>
         </is>
       </c>
-      <c r="CC3" s="89" t="inlineStr">
+      <c r="CC3" s="84" t="inlineStr">
         <is>
           <t>IMT-USD2519</t>
         </is>
@@ -7893,92 +8133,92 @@
           <t>USD</t>
         </is>
       </c>
-      <c r="CI3" s="114" t="inlineStr">
+      <c r="CI3" s="109" t="inlineStr">
         <is>
           <t>CTBAAU2S600</t>
         </is>
       </c>
-      <c r="CJ3" s="114" t="inlineStr">
+      <c r="CJ3" s="109" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK OF AUSTRALIA SYDNEY</t>
         </is>
       </c>
-      <c r="CK3" s="114" t="inlineStr">
+      <c r="CK3" s="109" t="inlineStr">
         <is>
           <t>All Loan Types, SBLC/BA</t>
         </is>
       </c>
-      <c r="CL3" s="114" t="inlineStr">
+      <c r="CL3" s="109" t="inlineStr">
         <is>
           <t>Principal, Interest, Fees</t>
         </is>
       </c>
-      <c r="CM3" s="114" t="inlineStr">
+      <c r="CM3" s="109" t="inlineStr">
         <is>
           <t>&lt;Selected&gt;</t>
         </is>
       </c>
-      <c r="CN3" s="114" t="inlineStr">
+      <c r="CN3" s="109" t="inlineStr">
         <is>
           <t>02568049389</t>
         </is>
       </c>
-      <c r="CO3" s="114" t="inlineStr">
+      <c r="CO3" s="109" t="inlineStr">
         <is>
           <t>Internal Rating</t>
         </is>
       </c>
-      <c r="CP3" s="114" t="inlineStr">
+      <c r="CP3" s="109" t="inlineStr">
         <is>
           <t>D1 Good</t>
         </is>
       </c>
-      <c r="CQ3" s="114" t="inlineStr">
+      <c r="CQ3" s="109" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="CR3" s="114" t="inlineStr">
+      <c r="CR3" s="109" t="inlineStr">
         <is>
           <t>Standard &amp; Poors</t>
         </is>
       </c>
-      <c r="CS3" s="114" t="inlineStr">
+      <c r="CS3" s="109" t="inlineStr">
         <is>
           <t>BBB+</t>
         </is>
       </c>
-      <c r="CT3" s="114" t="inlineStr">
+      <c r="CT3" s="109" t="inlineStr">
         <is>
           <t>Moody's Investor Services Inc</t>
         </is>
       </c>
-      <c r="CU3" s="114" t="inlineStr">
+      <c r="CU3" s="109" t="inlineStr">
         <is>
           <t>Aa2</t>
         </is>
       </c>
-      <c r="CV3" s="114" t="inlineStr">
+      <c r="CV3" s="109" t="inlineStr">
         <is>
           <t>Fitch</t>
         </is>
       </c>
-      <c r="CW3" s="114" t="inlineStr">
+      <c r="CW3" s="109" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
-      <c r="CX3" s="114" t="inlineStr">
+      <c r="CX3" s="109" t="inlineStr">
         <is>
           <t>LEGAL ADDRESS</t>
         </is>
       </c>
-      <c r="CY3" s="114" t="inlineStr">
+      <c r="CY3" s="109" t="inlineStr">
         <is>
           <t>PO Box 861</t>
         </is>
       </c>
-      <c r="CZ3" s="114" t="inlineStr">
+      <c r="CZ3" s="109" t="inlineStr">
         <is>
           <t>Almond, Victoria 3211</t>
         </is>
@@ -7988,7 +8228,7 @@
           <t>03 5029 9445</t>
         </is>
       </c>
-      <c r="DB3" s="114" t="inlineStr">
+      <c r="DB3" s="109" t="inlineStr">
         <is>
           <t>03 5029 9445</t>
         </is>
@@ -8145,7 +8385,7 @@
           <t>AU</t>
         </is>
       </c>
-      <c r="EI3" s="89" t="inlineStr">
+      <c r="EI3" s="84" t="inlineStr">
         <is>
           <t>LIQ</t>
         </is>
@@ -8178,86 +8418,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="39.28515625" customWidth="1" style="89" min="2" max="2"/>
-    <col width="25.85546875" bestFit="1" customWidth="1" style="89" min="3" max="3"/>
-    <col width="16.140625" customWidth="1" style="89" min="4" max="4"/>
-    <col width="43" bestFit="1" customWidth="1" style="89" min="5" max="5"/>
-    <col width="24" bestFit="1" customWidth="1" style="89" min="6" max="6"/>
-    <col width="30.7109375" bestFit="1" customWidth="1" style="89" min="7" max="7"/>
-    <col width="14.42578125" customWidth="1" style="89" min="8" max="8"/>
-    <col width="21.85546875" customWidth="1" style="89" min="9" max="9"/>
-    <col width="16.85546875" customWidth="1" style="89" min="10" max="11"/>
-    <col width="22" customWidth="1" style="89" min="12" max="13"/>
-    <col width="17.85546875" customWidth="1" style="89" min="14" max="14"/>
-    <col width="26.85546875" customWidth="1" style="89" min="15" max="16"/>
-    <col width="23.28515625" customWidth="1" style="89" min="17" max="17"/>
-    <col width="22.85546875" customWidth="1" style="89" min="18" max="18"/>
-    <col width="23.28515625" customWidth="1" style="89" min="19" max="19"/>
-    <col width="21.42578125" customWidth="1" style="89" min="20" max="20"/>
-    <col width="24" customWidth="1" style="89" min="21" max="21"/>
-    <col width="32.42578125" customWidth="1" style="89" min="22" max="22"/>
-    <col width="27.85546875" customWidth="1" style="89" min="23" max="23"/>
-    <col width="29.7109375" customWidth="1" style="89" min="24" max="24"/>
-    <col width="25.140625" customWidth="1" style="89" min="25" max="25"/>
-    <col width="18.5703125" customWidth="1" style="89" min="26" max="26"/>
-    <col width="18.85546875" customWidth="1" style="89" min="27" max="27"/>
-    <col width="94" bestFit="1" customWidth="1" style="89" min="28" max="28"/>
-    <col width="32" customWidth="1" style="89" min="29" max="29"/>
-    <col width="14.28515625" customWidth="1" style="89" min="30" max="30"/>
-    <col width="23" customWidth="1" style="89" min="31" max="31"/>
-    <col width="20.42578125" customWidth="1" style="89" min="32" max="32"/>
-    <col width="27.140625" customWidth="1" style="89" min="33" max="33"/>
-    <col width="21.140625" customWidth="1" style="89" min="34" max="34"/>
-    <col width="19.28515625" customWidth="1" style="89" min="35" max="36"/>
-    <col width="23.42578125" customWidth="1" style="89" min="37" max="37"/>
-    <col width="19.85546875" customWidth="1" style="89" min="38" max="38"/>
-    <col width="24.7109375" customWidth="1" style="89" min="39" max="39"/>
-    <col width="25" customWidth="1" style="89" min="40" max="40"/>
-    <col width="24.42578125" customWidth="1" style="89" min="41" max="41"/>
-    <col width="43.28515625" bestFit="1" customWidth="1" style="89" min="42" max="42"/>
-    <col width="41.7109375" bestFit="1" customWidth="1" style="89" min="43" max="43"/>
-    <col width="43.28515625" bestFit="1" customWidth="1" style="89" min="44" max="44"/>
-    <col width="26.7109375" bestFit="1" customWidth="1" style="89" min="45" max="45"/>
-    <col width="36" customWidth="1" style="89" min="46" max="46"/>
-    <col width="34.42578125" customWidth="1" style="89" min="47" max="47"/>
-    <col width="34.28515625" bestFit="1" customWidth="1" style="89" min="48" max="48"/>
-    <col width="39.140625" bestFit="1" customWidth="1" style="89" min="49" max="49"/>
-    <col width="32" bestFit="1" customWidth="1" style="89" min="50" max="50"/>
-    <col width="41.85546875" bestFit="1" customWidth="1" style="89" min="51" max="51"/>
-    <col width="30.140625" bestFit="1" customWidth="1" style="89" min="52" max="52"/>
-    <col width="40.140625" bestFit="1" customWidth="1" style="89" min="53" max="53"/>
-    <col width="25.85546875" bestFit="1" customWidth="1" style="89" min="54" max="55"/>
-    <col width="17.28515625" customWidth="1" style="89" min="56" max="56"/>
-    <col width="35.140625" customWidth="1" style="89" min="57" max="57"/>
-    <col width="29.42578125" customWidth="1" style="89" min="58" max="58"/>
-    <col width="25.85546875" customWidth="1" style="89" min="59" max="59"/>
-    <col width="31.28515625" customWidth="1" style="89" min="60" max="60"/>
-    <col width="17.5703125" customWidth="1" style="89" min="61" max="61"/>
-    <col width="20.28515625" customWidth="1" style="89" min="62" max="62"/>
-    <col width="21.42578125" customWidth="1" style="89" min="63" max="63"/>
-    <col width="24.140625" customWidth="1" style="89" min="64" max="64"/>
-    <col width="14" customWidth="1" style="89" min="65" max="65"/>
-    <col width="16.7109375" customWidth="1" style="89" min="66" max="66"/>
-    <col width="36.140625" customWidth="1" style="89" min="67" max="67"/>
-    <col width="18.140625" customWidth="1" style="89" min="68" max="68"/>
-    <col width="15.7109375" customWidth="1" style="89" min="69" max="69"/>
-    <col width="24" customWidth="1" style="89" min="70" max="70"/>
-    <col width="11.5703125" customWidth="1" style="89" min="71" max="71"/>
-    <col width="8.28515625" customWidth="1" style="89" min="72" max="72"/>
-    <col width="16.5703125" customWidth="1" style="89" min="73" max="73"/>
-    <col width="34.28515625" customWidth="1" style="89" min="74" max="74"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="39.28515625" customWidth="1" style="84" min="2" max="2"/>
+    <col width="25.85546875" bestFit="1" customWidth="1" style="84" min="3" max="3"/>
+    <col width="16.140625" customWidth="1" style="84" min="4" max="4"/>
+    <col width="43" bestFit="1" customWidth="1" style="84" min="5" max="5"/>
+    <col width="24" bestFit="1" customWidth="1" style="84" min="6" max="6"/>
+    <col width="30.7109375" bestFit="1" customWidth="1" style="84" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" style="84" min="8" max="8"/>
+    <col width="21.85546875" customWidth="1" style="84" min="9" max="9"/>
+    <col width="16.85546875" customWidth="1" style="84" min="10" max="11"/>
+    <col width="22" customWidth="1" style="84" min="12" max="13"/>
+    <col width="17.85546875" customWidth="1" style="84" min="14" max="14"/>
+    <col width="26.85546875" customWidth="1" style="84" min="15" max="16"/>
+    <col width="23.28515625" customWidth="1" style="84" min="17" max="17"/>
+    <col width="22.85546875" customWidth="1" style="84" min="18" max="18"/>
+    <col width="23.28515625" customWidth="1" style="84" min="19" max="19"/>
+    <col width="21.42578125" customWidth="1" style="84" min="20" max="20"/>
+    <col width="24" customWidth="1" style="84" min="21" max="21"/>
+    <col width="32.42578125" customWidth="1" style="84" min="22" max="22"/>
+    <col width="27.85546875" customWidth="1" style="84" min="23" max="23"/>
+    <col width="29.7109375" customWidth="1" style="84" min="24" max="24"/>
+    <col width="25.140625" customWidth="1" style="84" min="25" max="25"/>
+    <col width="18.5703125" customWidth="1" style="84" min="26" max="26"/>
+    <col width="18.85546875" customWidth="1" style="84" min="27" max="27"/>
+    <col width="94" bestFit="1" customWidth="1" style="84" min="28" max="28"/>
+    <col width="32" customWidth="1" style="84" min="29" max="29"/>
+    <col width="14.28515625" customWidth="1" style="84" min="30" max="30"/>
+    <col width="23" customWidth="1" style="84" min="31" max="31"/>
+    <col width="20.42578125" customWidth="1" style="84" min="32" max="32"/>
+    <col width="27.140625" customWidth="1" style="84" min="33" max="33"/>
+    <col width="21.140625" customWidth="1" style="84" min="34" max="34"/>
+    <col width="19.28515625" customWidth="1" style="84" min="35" max="36"/>
+    <col width="23.42578125" customWidth="1" style="84" min="37" max="37"/>
+    <col width="19.85546875" customWidth="1" style="84" min="38" max="38"/>
+    <col width="24.7109375" customWidth="1" style="84" min="39" max="39"/>
+    <col width="25" customWidth="1" style="84" min="40" max="40"/>
+    <col width="24.42578125" customWidth="1" style="84" min="41" max="41"/>
+    <col width="43.28515625" bestFit="1" customWidth="1" style="84" min="42" max="42"/>
+    <col width="41.7109375" bestFit="1" customWidth="1" style="84" min="43" max="43"/>
+    <col width="43.28515625" bestFit="1" customWidth="1" style="84" min="44" max="44"/>
+    <col width="26.7109375" bestFit="1" customWidth="1" style="84" min="45" max="45"/>
+    <col width="36" customWidth="1" style="84" min="46" max="46"/>
+    <col width="34.42578125" customWidth="1" style="84" min="47" max="47"/>
+    <col width="34.28515625" bestFit="1" customWidth="1" style="84" min="48" max="48"/>
+    <col width="39.140625" bestFit="1" customWidth="1" style="84" min="49" max="49"/>
+    <col width="32" bestFit="1" customWidth="1" style="84" min="50" max="50"/>
+    <col width="41.85546875" bestFit="1" customWidth="1" style="84" min="51" max="51"/>
+    <col width="30.140625" bestFit="1" customWidth="1" style="84" min="52" max="52"/>
+    <col width="40.140625" bestFit="1" customWidth="1" style="84" min="53" max="53"/>
+    <col width="25.85546875" bestFit="1" customWidth="1" style="84" min="54" max="55"/>
+    <col width="17.28515625" customWidth="1" style="84" min="56" max="56"/>
+    <col width="35.140625" customWidth="1" style="84" min="57" max="57"/>
+    <col width="29.42578125" customWidth="1" style="84" min="58" max="58"/>
+    <col width="25.85546875" customWidth="1" style="84" min="59" max="59"/>
+    <col width="31.28515625" customWidth="1" style="84" min="60" max="60"/>
+    <col width="17.5703125" customWidth="1" style="84" min="61" max="61"/>
+    <col width="20.28515625" customWidth="1" style="84" min="62" max="62"/>
+    <col width="21.42578125" customWidth="1" style="84" min="63" max="63"/>
+    <col width="24.140625" customWidth="1" style="84" min="64" max="64"/>
+    <col width="14" customWidth="1" style="84" min="65" max="65"/>
+    <col width="16.7109375" customWidth="1" style="84" min="66" max="66"/>
+    <col width="36.140625" customWidth="1" style="84" min="67" max="67"/>
+    <col width="18.140625" customWidth="1" style="84" min="68" max="68"/>
+    <col width="15.7109375" customWidth="1" style="84" min="69" max="69"/>
+    <col width="24" customWidth="1" style="84" min="70" max="70"/>
+    <col width="11.5703125" customWidth="1" style="84" min="71" max="71"/>
+    <col width="8.28515625" customWidth="1" style="84" min="72" max="72"/>
+    <col width="16.5703125" customWidth="1" style="84" min="73" max="73"/>
+    <col width="34.28515625" customWidth="1" style="84" min="74" max="74"/>
     <col width="12.7109375" customWidth="1" style="12" min="75" max="75"/>
     <col width="11.140625" customWidth="1" style="12" min="76" max="76"/>
     <col width="23.28515625" customWidth="1" style="13" min="77" max="77"/>
     <col width="41.85546875" customWidth="1" style="13" min="78" max="78"/>
     <col width="47.85546875" customWidth="1" style="13" min="79" max="79"/>
-    <col width="30.140625" customWidth="1" style="89" min="80" max="80"/>
+    <col width="30.140625" customWidth="1" style="84" min="80" max="80"/>
     <col width="29.42578125" customWidth="1" style="13" min="81" max="81"/>
-    <col width="25.28515625" customWidth="1" style="89" min="82" max="82"/>
+    <col width="25.28515625" customWidth="1" style="84" min="82" max="82"/>
     <col width="9.5703125" customWidth="1" style="12" min="83" max="83"/>
     <col width="25.7109375" customWidth="1" style="12" min="84" max="84"/>
-    <col width="19.7109375" customWidth="1" style="89" min="85" max="85"/>
+    <col width="19.7109375" customWidth="1" style="84" min="85" max="85"/>
     <col width="28.5703125" customWidth="1" style="12" min="86" max="86"/>
     <col width="21.140625" customWidth="1" style="12" min="87" max="87"/>
     <col width="14.5703125" customWidth="1" style="12" min="88" max="88"/>
@@ -8265,15 +8505,15 @@
     <col width="24.42578125" customWidth="1" style="12" min="90" max="90"/>
     <col width="18.28515625" customWidth="1" style="12" min="91" max="91"/>
     <col width="18.85546875" customWidth="1" style="12" min="92" max="92"/>
-    <col width="26.28515625" customWidth="1" style="89" min="93" max="93"/>
-    <col width="31.140625" customWidth="1" style="89" min="94" max="95"/>
+    <col width="26.28515625" customWidth="1" style="84" min="93" max="93"/>
+    <col width="31.140625" customWidth="1" style="84" min="94" max="95"/>
     <col width="40.7109375" bestFit="1" customWidth="1" min="96" max="96"/>
     <col width="15.85546875" bestFit="1" customWidth="1" min="97" max="97"/>
-    <col width="20.42578125" customWidth="1" style="76" min="98" max="98"/>
-    <col width="27.140625" customWidth="1" style="76" min="99" max="99"/>
-    <col width="21.140625" customWidth="1" style="76" min="100" max="100"/>
-    <col width="19.28515625" customWidth="1" style="76" min="101" max="102"/>
-    <col width="23.42578125" customWidth="1" style="76" min="103" max="103"/>
+    <col width="20.42578125" customWidth="1" style="75" min="98" max="98"/>
+    <col width="27.140625" customWidth="1" style="75" min="99" max="99"/>
+    <col width="21.140625" customWidth="1" style="75" min="100" max="100"/>
+    <col width="19.28515625" customWidth="1" style="75" min="101" max="102"/>
+    <col width="23.42578125" customWidth="1" style="75" min="103" max="103"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="1" thickBot="1">
@@ -8799,17 +9039,17 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
-      <c r="C2" s="89" t="inlineStr">
+      <c r="C2" s="84" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO</t>
         </is>
       </c>
-      <c r="D2" s="89" t="inlineStr">
+      <c r="D2" s="84" t="inlineStr">
         <is>
           <t>R1_</t>
         </is>
@@ -8829,87 +9069,87 @@
           <t>INTFULDRAW17112020142405ZCZ</t>
         </is>
       </c>
-      <c r="H2" s="89" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="I2" s="89" t="inlineStr">
+      <c r="I2" s="84" t="inlineStr">
         <is>
           <t>GLB</t>
         </is>
       </c>
-      <c r="J2" s="89" t="inlineStr">
+      <c r="J2" s="84" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="K2" s="114" t="inlineStr">
+      <c r="K2" s="109" t="inlineStr">
         <is>
           <t>Sales Group 1</t>
         </is>
       </c>
-      <c r="L2" s="89" t="inlineStr">
+      <c r="L2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="M2" s="89" t="inlineStr">
+      <c r="M2" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="N2" s="89" t="inlineStr">
+      <c r="N2" s="84" t="inlineStr">
         <is>
           <t>JJ</t>
         </is>
       </c>
-      <c r="O2" s="89" t="inlineStr">
+      <c r="O2" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="P2" s="89" t="inlineStr">
+      <c r="P2" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="Q2" s="89" t="inlineStr">
+      <c r="Q2" s="84" t="inlineStr">
         <is>
           <t>GCP</t>
         </is>
       </c>
-      <c r="R2" s="114" t="inlineStr">
+      <c r="R2" s="109" t="inlineStr">
         <is>
           <t>General Corp Purpose</t>
         </is>
       </c>
-      <c r="S2" s="89" t="inlineStr">
+      <c r="S2" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="T2" s="89" t="inlineStr">
+      <c r="T2" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="U2" s="89" t="inlineStr">
+      <c r="U2" s="84" t="inlineStr">
         <is>
           <t>OL</t>
         </is>
       </c>
-      <c r="V2" s="114" t="inlineStr">
+      <c r="V2" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="W2" s="89" t="inlineStr">
+      <c r="W2" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="X2" s="89" t="inlineStr">
+      <c r="X2" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
@@ -8919,27 +9159,27 @@
           <t>IMT2 - EUR</t>
         </is>
       </c>
-      <c r="Z2" s="114" t="inlineStr">
+      <c r="Z2" s="109" t="inlineStr">
         <is>
           <t>100,000,000.00</t>
         </is>
       </c>
-      <c r="AA2" s="89" t="inlineStr">
+      <c r="AA2" s="84" t="inlineStr">
         <is>
           <t>IT_SAF</t>
         </is>
       </c>
-      <c r="AB2" s="89" t="inlineStr">
+      <c r="AB2" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands|Sydney, Australia</t>
         </is>
       </c>
-      <c r="AC2" s="89" t="inlineStr">
+      <c r="AC2" s="84" t="inlineStr">
         <is>
           <t>Debt Service Coverage Ratio (DSCR)</t>
         </is>
       </c>
-      <c r="AD2" s="114" t="inlineStr">
+      <c r="AD2" s="109" t="inlineStr">
         <is>
           <t>1.00000000000</t>
         </is>
@@ -8955,95 +9195,95 @@
       <c r="AI2" s="46" t="n"/>
       <c r="AJ2" s="46" t="n"/>
       <c r="AK2" s="46" t="n"/>
-      <c r="AL2" s="113" t="inlineStr">
+      <c r="AL2" s="108" t="inlineStr">
         <is>
           <t>Euro LIBOR Option</t>
         </is>
       </c>
-      <c r="AM2" s="89" t="inlineStr">
+      <c r="AM2" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="AN2" s="89" t="inlineStr">
+      <c r="AN2" s="84" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AO2" s="89" t="inlineStr">
+      <c r="AO2" s="84" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AP2" s="89" t="inlineStr">
+      <c r="AP2" s="84" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AR2" s="89" t="inlineStr">
+      <c r="AR2" s="84" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AT2" s="114" t="inlineStr">
+      <c r="AT2" s="109" t="inlineStr">
         <is>
           <t>Next repricing date</t>
         </is>
       </c>
-      <c r="AU2" s="89" t="inlineStr">
+      <c r="AU2" s="84" t="inlineStr">
         <is>
           <t>Start of next interest cycle</t>
         </is>
       </c>
-      <c r="AV2" s="89" t="inlineStr">
+      <c r="AV2" s="84" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AW2" s="89" t="inlineStr">
+      <c r="AW2" s="84" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="AY2" s="89" t="inlineStr">
+      <c r="AY2" s="84" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="AZ2" s="89" t="inlineStr">
+      <c r="AZ2" s="84" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BA2" s="89" t="n">
+      <c r="BA2" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="BB2" s="89" t="inlineStr">
+      <c r="BB2" s="84" t="inlineStr">
         <is>
           <t>12pm</t>
         </is>
       </c>
-      <c r="BC2" s="89" t="inlineStr">
+      <c r="BC2" s="84" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
       </c>
-      <c r="BD2" s="114" t="inlineStr">
+      <c r="BD2" s="109" t="inlineStr">
         <is>
           <t>Usage Fee</t>
         </is>
       </c>
-      <c r="BE2" s="114" t="inlineStr">
+      <c r="BE2" s="109" t="inlineStr">
         <is>
           <t>Effective date of change</t>
         </is>
       </c>
-      <c r="BF2" s="114" t="inlineStr">
+      <c r="BF2" s="109" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="BH2" s="89" t="inlineStr">
+      <c r="BH2" s="84" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -9079,7 +9319,7 @@
       <c r="CD2" s="46" t="n"/>
       <c r="CE2" s="48" t="n"/>
       <c r="CF2" s="48" t="n"/>
-      <c r="CG2" s="89" t="inlineStr">
+      <c r="CG2" s="84" t="inlineStr">
         <is>
           <t>JONES</t>
         </is>
@@ -9154,17 +9394,17 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="89" t="inlineStr">
+      <c r="B3" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
-      <c r="C3" s="89" t="inlineStr">
+      <c r="C3" s="84" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO</t>
         </is>
       </c>
-      <c r="D3" s="89" t="inlineStr">
+      <c r="D3" s="84" t="inlineStr">
         <is>
           <t>R1_</t>
         </is>
@@ -9184,87 +9424,87 @@
           <t>PARDRAW17112020143303LZN</t>
         </is>
       </c>
-      <c r="H3" s="89" t="inlineStr">
+      <c r="H3" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="I3" s="89" t="inlineStr">
+      <c r="I3" s="84" t="inlineStr">
         <is>
           <t>GLB</t>
         </is>
       </c>
-      <c r="J3" s="89" t="inlineStr">
+      <c r="J3" s="84" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="K3" s="114" t="inlineStr">
+      <c r="K3" s="109" t="inlineStr">
         <is>
           <t>Sales Group 1</t>
         </is>
       </c>
-      <c r="L3" s="89" t="inlineStr">
+      <c r="L3" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="M3" s="89" t="inlineStr">
+      <c r="M3" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="N3" s="89" t="inlineStr">
+      <c r="N3" s="84" t="inlineStr">
         <is>
           <t>JJ</t>
         </is>
       </c>
-      <c r="O3" s="89" t="inlineStr">
+      <c r="O3" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="P3" s="89" t="inlineStr">
+      <c r="P3" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="Q3" s="89" t="inlineStr">
+      <c r="Q3" s="84" t="inlineStr">
         <is>
           <t>GCP</t>
         </is>
       </c>
-      <c r="R3" s="114" t="inlineStr">
+      <c r="R3" s="109" t="inlineStr">
         <is>
           <t>General Corp Purpose</t>
         </is>
       </c>
-      <c r="S3" s="89" t="inlineStr">
+      <c r="S3" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="T3" s="89" t="inlineStr">
+      <c r="T3" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="U3" s="89" t="inlineStr">
+      <c r="U3" s="84" t="inlineStr">
         <is>
           <t>OL</t>
         </is>
       </c>
-      <c r="V3" s="114" t="inlineStr">
+      <c r="V3" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="W3" s="89" t="inlineStr">
+      <c r="W3" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="X3" s="89" t="inlineStr">
+      <c r="X3" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
@@ -9274,27 +9514,27 @@
           <t>IMT2 - EUR</t>
         </is>
       </c>
-      <c r="Z3" s="114" t="inlineStr">
+      <c r="Z3" s="109" t="inlineStr">
         <is>
           <t>100,000,000.00</t>
         </is>
       </c>
-      <c r="AA3" s="89" t="inlineStr">
+      <c r="AA3" s="84" t="inlineStr">
         <is>
           <t>IT_SAF</t>
         </is>
       </c>
-      <c r="AB3" s="89" t="inlineStr">
+      <c r="AB3" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands|Sydney, Australia</t>
         </is>
       </c>
-      <c r="AC3" s="89" t="inlineStr">
+      <c r="AC3" s="84" t="inlineStr">
         <is>
           <t>Debt Service Coverage Ratio (DSCR)</t>
         </is>
       </c>
-      <c r="AD3" s="114" t="inlineStr">
+      <c r="AD3" s="109" t="inlineStr">
         <is>
           <t>1.00000000000</t>
         </is>
@@ -9310,95 +9550,95 @@
       <c r="AI3" s="46" t="n"/>
       <c r="AJ3" s="46" t="n"/>
       <c r="AK3" s="46" t="n"/>
-      <c r="AL3" s="113" t="inlineStr">
+      <c r="AL3" s="108" t="inlineStr">
         <is>
           <t>Euro LIBOR Option</t>
         </is>
       </c>
-      <c r="AM3" s="89" t="inlineStr">
+      <c r="AM3" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="AN3" s="89" t="inlineStr">
+      <c r="AN3" s="84" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AO3" s="89" t="inlineStr">
+      <c r="AO3" s="84" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AP3" s="89" t="inlineStr">
+      <c r="AP3" s="84" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AR3" s="89" t="inlineStr">
+      <c r="AR3" s="84" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AT3" s="114" t="inlineStr">
+      <c r="AT3" s="109" t="inlineStr">
         <is>
           <t>Next repricing date</t>
         </is>
       </c>
-      <c r="AU3" s="89" t="inlineStr">
+      <c r="AU3" s="84" t="inlineStr">
         <is>
           <t>Start of next interest cycle</t>
         </is>
       </c>
-      <c r="AV3" s="89" t="inlineStr">
+      <c r="AV3" s="84" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AW3" s="89" t="inlineStr">
+      <c r="AW3" s="84" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="AY3" s="89" t="inlineStr">
+      <c r="AY3" s="84" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="AZ3" s="89" t="inlineStr">
+      <c r="AZ3" s="84" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BA3" s="89" t="n">
+      <c r="BA3" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="BB3" s="89" t="inlineStr">
+      <c r="BB3" s="84" t="inlineStr">
         <is>
           <t>12pm</t>
         </is>
       </c>
-      <c r="BC3" s="89" t="inlineStr">
+      <c r="BC3" s="84" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
       </c>
-      <c r="BD3" s="114" t="inlineStr">
+      <c r="BD3" s="109" t="inlineStr">
         <is>
           <t>Usage Fee</t>
         </is>
       </c>
-      <c r="BE3" s="114" t="inlineStr">
+      <c r="BE3" s="109" t="inlineStr">
         <is>
           <t>Effective date of change</t>
         </is>
       </c>
-      <c r="BF3" s="114" t="inlineStr">
+      <c r="BF3" s="109" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="BH3" s="89" t="inlineStr">
+      <c r="BH3" s="84" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -9434,7 +9674,7 @@
       <c r="CD3" s="46" t="n"/>
       <c r="CE3" s="48" t="n"/>
       <c r="CF3" s="48" t="n"/>
-      <c r="CG3" s="89" t="inlineStr">
+      <c r="CG3" s="84" t="inlineStr">
         <is>
           <t>JONES</t>
         </is>
@@ -9509,17 +9749,17 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="89" t="inlineStr">
+      <c r="B4" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
-      <c r="C4" s="89" t="inlineStr">
+      <c r="C4" s="84" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO</t>
         </is>
       </c>
-      <c r="D4" s="89" t="inlineStr">
+      <c r="D4" s="84" t="inlineStr">
         <is>
           <t>R1_</t>
         </is>
@@ -9539,87 +9779,87 @@
           <t>INTUND17112020144211JTJ</t>
         </is>
       </c>
-      <c r="H4" s="89" t="inlineStr">
+      <c r="H4" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="I4" s="89" t="inlineStr">
+      <c r="I4" s="84" t="inlineStr">
         <is>
           <t>GLB</t>
         </is>
       </c>
-      <c r="J4" s="89" t="inlineStr">
+      <c r="J4" s="84" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="K4" s="114" t="inlineStr">
+      <c r="K4" s="109" t="inlineStr">
         <is>
           <t>Sales Group 1</t>
         </is>
       </c>
-      <c r="L4" s="89" t="inlineStr">
+      <c r="L4" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="M4" s="89" t="inlineStr">
+      <c r="M4" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="N4" s="89" t="inlineStr">
+      <c r="N4" s="84" t="inlineStr">
         <is>
           <t>JJ</t>
         </is>
       </c>
-      <c r="O4" s="89" t="inlineStr">
+      <c r="O4" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="P4" s="89" t="inlineStr">
+      <c r="P4" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="Q4" s="89" t="inlineStr">
+      <c r="Q4" s="84" t="inlineStr">
         <is>
           <t>GCP</t>
         </is>
       </c>
-      <c r="R4" s="114" t="inlineStr">
+      <c r="R4" s="109" t="inlineStr">
         <is>
           <t>General Corp Purpose</t>
         </is>
       </c>
-      <c r="S4" s="89" t="inlineStr">
+      <c r="S4" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="T4" s="89" t="inlineStr">
+      <c r="T4" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="U4" s="89" t="inlineStr">
+      <c r="U4" s="84" t="inlineStr">
         <is>
           <t>OL</t>
         </is>
       </c>
-      <c r="V4" s="114" t="inlineStr">
+      <c r="V4" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="W4" s="89" t="inlineStr">
+      <c r="W4" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="X4" s="89" t="inlineStr">
+      <c r="X4" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
@@ -9629,27 +9869,27 @@
           <t>IMT2 - EUR</t>
         </is>
       </c>
-      <c r="Z4" s="114" t="inlineStr">
+      <c r="Z4" s="109" t="inlineStr">
         <is>
           <t>100,000,000.00</t>
         </is>
       </c>
-      <c r="AA4" s="89" t="inlineStr">
+      <c r="AA4" s="84" t="inlineStr">
         <is>
           <t>IT_SAF</t>
         </is>
       </c>
-      <c r="AB4" s="89" t="inlineStr">
+      <c r="AB4" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands|Sydney, Australia</t>
         </is>
       </c>
-      <c r="AC4" s="89" t="inlineStr">
+      <c r="AC4" s="84" t="inlineStr">
         <is>
           <t>Debt Service Coverage Ratio (DSCR)</t>
         </is>
       </c>
-      <c r="AD4" s="114" t="inlineStr">
+      <c r="AD4" s="109" t="inlineStr">
         <is>
           <t>1.00000000000</t>
         </is>
@@ -9665,95 +9905,95 @@
       <c r="AI4" s="46" t="n"/>
       <c r="AJ4" s="46" t="n"/>
       <c r="AK4" s="46" t="n"/>
-      <c r="AL4" s="113" t="inlineStr">
+      <c r="AL4" s="108" t="inlineStr">
         <is>
           <t>Euro LIBOR Option</t>
         </is>
       </c>
-      <c r="AM4" s="89" t="inlineStr">
+      <c r="AM4" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="AN4" s="89" t="inlineStr">
+      <c r="AN4" s="84" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AO4" s="89" t="inlineStr">
+      <c r="AO4" s="84" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AP4" s="89" t="inlineStr">
+      <c r="AP4" s="84" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AR4" s="89" t="inlineStr">
+      <c r="AR4" s="84" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AT4" s="114" t="inlineStr">
+      <c r="AT4" s="109" t="inlineStr">
         <is>
           <t>Next repricing date</t>
         </is>
       </c>
-      <c r="AU4" s="89" t="inlineStr">
+      <c r="AU4" s="84" t="inlineStr">
         <is>
           <t>Start of next interest cycle</t>
         </is>
       </c>
-      <c r="AV4" s="89" t="inlineStr">
+      <c r="AV4" s="84" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="AW4" s="89" t="inlineStr">
+      <c r="AW4" s="84" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="AY4" s="89" t="inlineStr">
+      <c r="AY4" s="84" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="AZ4" s="89" t="inlineStr">
+      <c r="AZ4" s="84" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="BA4" s="89" t="n">
+      <c r="BA4" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="BB4" s="89" t="inlineStr">
+      <c r="BB4" s="84" t="inlineStr">
         <is>
           <t>12pm</t>
         </is>
       </c>
-      <c r="BC4" s="89" t="inlineStr">
+      <c r="BC4" s="84" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
       </c>
-      <c r="BD4" s="114" t="inlineStr">
+      <c r="BD4" s="109" t="inlineStr">
         <is>
           <t>Usage Fee</t>
         </is>
       </c>
-      <c r="BE4" s="114" t="inlineStr">
+      <c r="BE4" s="109" t="inlineStr">
         <is>
           <t>Effective date of change</t>
         </is>
       </c>
-      <c r="BF4" s="114" t="inlineStr">
+      <c r="BF4" s="109" t="inlineStr">
         <is>
           <t>Modified Following Business Day</t>
         </is>
       </c>
-      <c r="BH4" s="89" t="inlineStr">
+      <c r="BH4" s="84" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -9789,7 +10029,7 @@
       <c r="CD4" s="46" t="n"/>
       <c r="CE4" s="48" t="n"/>
       <c r="CF4" s="48" t="n"/>
-      <c r="CG4" s="89" t="inlineStr">
+      <c r="CG4" s="84" t="inlineStr">
         <is>
           <t>JONES</t>
         </is>
@@ -9881,14 +10121,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="39.28515625" customWidth="1" style="89" min="2" max="2"/>
-    <col width="44.28515625" customWidth="1" style="89" min="3" max="3"/>
-    <col width="20.42578125" customWidth="1" style="76" min="4" max="4"/>
-    <col width="27.140625" customWidth="1" style="76" min="5" max="5"/>
-    <col width="21.140625" customWidth="1" style="76" min="6" max="6"/>
-    <col width="19.28515625" customWidth="1" style="76" min="7" max="8"/>
-    <col width="23.42578125" customWidth="1" style="76" min="9" max="9"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="39.28515625" customWidth="1" style="84" min="2" max="2"/>
+    <col width="44.28515625" customWidth="1" style="84" min="3" max="3"/>
+    <col width="20.42578125" customWidth="1" style="75" min="4" max="4"/>
+    <col width="27.140625" customWidth="1" style="75" min="5" max="5"/>
+    <col width="21.140625" customWidth="1" style="75" min="6" max="6"/>
+    <col width="19.28515625" customWidth="1" style="75" min="7" max="8"/>
+    <col width="23.42578125" customWidth="1" style="75" min="9" max="9"/>
     <col width="25" bestFit="1" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -9950,12 +10190,12 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
-      <c r="C2" s="110" t="inlineStr">
+      <c r="C2" s="105" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
@@ -9975,7 +10215,7 @@
           <t>Actual/360</t>
         </is>
       </c>
-      <c r="G2" s="82" t="inlineStr">
+      <c r="G2" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -10220,17 +10460,17 @@
           <t>Primary_LenderLoc2</t>
         </is>
       </c>
-      <c r="AF1" s="95" t="inlineStr">
+      <c r="AF1" s="90" t="inlineStr">
         <is>
           <t>Primary_RiskBook2</t>
         </is>
       </c>
-      <c r="AG1" s="95" t="inlineStr">
+      <c r="AG1" s="90" t="inlineStr">
         <is>
           <t>ExpenseCode_Description</t>
         </is>
       </c>
-      <c r="AH1" s="96" t="inlineStr">
+      <c r="AH1" s="91" t="inlineStr">
         <is>
           <t>Primaries_TransactionType</t>
         </is>
@@ -10250,7 +10490,7 @@
           <t>SellAmount2</t>
         </is>
       </c>
-      <c r="AL1" s="95" t="inlineStr">
+      <c r="AL1" s="90" t="inlineStr">
         <is>
           <t>Primary_Comment</t>
         </is>
@@ -10280,54 +10520,54 @@
           <t>Deal_ExpenseCode</t>
         </is>
       </c>
-      <c r="AR1" s="97" t="inlineStr">
+      <c r="AR1" s="92" t="inlineStr">
         <is>
           <t>UpfrontFee_Amount</t>
         </is>
       </c>
-      <c r="AS1" s="98" t="inlineStr">
+      <c r="AS1" s="93" t="inlineStr">
         <is>
           <t>Fee_Type</t>
         </is>
       </c>
-      <c r="AT1" s="98" t="inlineStr">
+      <c r="AT1" s="93" t="inlineStr">
         <is>
           <t>UpfrontFeePayment_Comment</t>
         </is>
       </c>
-      <c r="AU1" s="98" t="inlineStr">
+      <c r="AU1" s="93" t="inlineStr">
         <is>
           <t>Lender_ShortName</t>
         </is>
       </c>
-      <c r="AV1" s="98" t="inlineStr">
+      <c r="AV1" s="93" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="AW1" s="98" t="inlineStr">
+      <c r="AW1" s="93" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AX1" s="98" t="inlineStr">
+      <c r="AX1" s="93" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="89">
-      <c r="A2" s="89" t="inlineStr">
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="84">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
       </c>
-      <c r="C2" s="110" t="inlineStr">
+      <c r="C2" s="105" t="inlineStr">
         <is>
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
@@ -10337,35 +10577,35 @@
           <t>INTFULDRAW17112020142405ZCZ</t>
         </is>
       </c>
-      <c r="E2" s="89" t="inlineStr">
+      <c r="E2" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="F2" s="89" t="inlineStr">
+      <c r="F2" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="G2" s="89" t="inlineStr">
+      <c r="G2" s="84" t="inlineStr">
         <is>
           <t>NR_PRF</t>
         </is>
       </c>
-      <c r="H2" s="89" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>Natural Resources &amp; Energy</t>
         </is>
       </c>
-      <c r="I2" s="89" t="inlineStr">
+      <c r="I2" s="84" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="J2" s="89" t="n">
+      <c r="J2" s="84" t="n">
         <v>40</v>
       </c>
-      <c r="K2" s="89" t="n">
+      <c r="K2" s="84" t="n">
         <v>100</v>
       </c>
       <c r="L2" s="44" t="inlineStr">
@@ -10373,52 +10613,52 @@
           <t>8,000,000.00</t>
         </is>
       </c>
-      <c r="M2" s="89" t="inlineStr">
+      <c r="M2" s="84" t="inlineStr">
         <is>
           <t>Add Comment</t>
         </is>
       </c>
-      <c r="N2" s="114" t="inlineStr">
+      <c r="N2" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="O2" s="89" t="inlineStr">
+      <c r="O2" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="P2" s="114" t="inlineStr">
+      <c r="P2" s="109" t="inlineStr">
         <is>
           <t>Hold for Investment - Europe</t>
         </is>
       </c>
-      <c r="Q2" s="89" t="inlineStr">
+      <c r="Q2" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
-      <c r="R2" s="114" t="inlineStr">
+      <c r="R2" s="109" t="inlineStr">
         <is>
           <t>8,000,000.00</t>
         </is>
       </c>
-      <c r="S2" s="114" t="inlineStr">
+      <c r="S2" s="109" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="T2" s="89" t="inlineStr">
+      <c r="T2" s="84" t="inlineStr">
         <is>
           <t>26-May-2025</t>
         </is>
       </c>
-      <c r="U2" s="89" t="inlineStr">
+      <c r="U2" s="84" t="inlineStr">
         <is>
           <t>25-May-2020</t>
         </is>
       </c>
-      <c r="W2" s="89" t="inlineStr">
+      <c r="W2" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
@@ -10428,37 +10668,37 @@
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="Y2" s="89" t="inlineStr">
+      <c r="Y2" s="84" t="inlineStr">
         <is>
           <t>25-May-2020</t>
         </is>
       </c>
-      <c r="Z2" s="89" t="inlineStr">
+      <c r="Z2" s="84" t="inlineStr">
         <is>
           <t>25-May-2020</t>
         </is>
       </c>
-      <c r="AA2" s="89" t="inlineStr">
+      <c r="AA2" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="AB2" s="114" t="inlineStr">
+      <c r="AB2" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="AC2" s="89" t="inlineStr">
+      <c r="AC2" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="AD2" s="89" t="inlineStr">
+      <c r="AD2" s="84" t="inlineStr">
         <is>
           <t>COMMONWEALTH BANK AU-OBU</t>
         </is>
       </c>
-      <c r="AE2" s="89" t="inlineStr">
+      <c r="AE2" s="84" t="inlineStr">
         <is>
           <t>Sydney, NSW,Australia</t>
         </is>
@@ -10478,10 +10718,10 @@
           <t>Origination</t>
         </is>
       </c>
-      <c r="AI2" s="89" t="n">
+      <c r="AI2" s="84" t="n">
         <v>60</v>
       </c>
-      <c r="AJ2" s="89" t="n">
+      <c r="AJ2" s="84" t="n">
         <v>100</v>
       </c>
       <c r="AK2" s="44" t="inlineStr">
@@ -10494,27 +10734,27 @@
           <t>Add Comment</t>
         </is>
       </c>
-      <c r="AM2" s="114" t="inlineStr">
+      <c r="AM2" s="109" t="inlineStr">
         <is>
           <t>Lending,${SPACE}${SPACE}Ops</t>
         </is>
       </c>
-      <c r="AN2" s="89" t="inlineStr">
+      <c r="AN2" s="84" t="inlineStr">
         <is>
           <t>LENDING</t>
         </is>
       </c>
-      <c r="AO2" s="114" t="inlineStr">
+      <c r="AO2" s="109" t="inlineStr">
         <is>
           <t>Hold for Investment - Australia</t>
         </is>
       </c>
-      <c r="AP2" s="89" t="inlineStr">
+      <c r="AP2" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - OBU</t>
         </is>
       </c>
-      <c r="AQ2" s="89" t="inlineStr">
+      <c r="AQ2" s="84" t="inlineStr">
         <is>
           <t>NR_PRF</t>
         </is>
@@ -10522,27 +10762,27 @@
       <c r="AR2" t="n">
         <v>1000000</v>
       </c>
-      <c r="AS2" s="89" t="inlineStr">
+      <c r="AS2" s="84" t="inlineStr">
         <is>
           <t>Establishment/Extension Fee</t>
         </is>
       </c>
-      <c r="AT2" s="89" t="inlineStr">
+      <c r="AT2" s="84" t="inlineStr">
         <is>
           <t>Sample upfront fee</t>
         </is>
       </c>
-      <c r="AU2" s="89" t="inlineStr">
+      <c r="AU2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="AV2" s="89" t="inlineStr">
+      <c r="AV2" s="84" t="inlineStr">
         <is>
           <t>IMT1</t>
         </is>
       </c>
-      <c r="AW2" s="89" t="inlineStr">
+      <c r="AW2" s="84" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
@@ -10572,40 +10812,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="44.5703125" customWidth="1" style="89" min="2" max="2"/>
-    <col width="21.7109375" customWidth="1" style="89" min="3" max="3"/>
-    <col width="19.5703125" customWidth="1" style="89" min="4" max="4"/>
-    <col width="43.85546875" bestFit="1" customWidth="1" style="89" min="5" max="5"/>
-    <col width="31.28515625" bestFit="1" customWidth="1" style="89" min="6" max="6"/>
-    <col width="22.85546875" customWidth="1" style="89" min="7" max="7"/>
-    <col width="14.42578125" customWidth="1" style="89" min="8" max="8"/>
-    <col width="14.5703125" customWidth="1" style="89" min="9" max="9"/>
-    <col width="14.140625" customWidth="1" style="89" min="10" max="10"/>
-    <col width="24.7109375" customWidth="1" style="89" min="11" max="11"/>
-    <col width="16.85546875" customWidth="1" style="89" min="12" max="12"/>
-    <col width="32.85546875" customWidth="1" style="89" min="13" max="13"/>
-    <col width="20.7109375" customWidth="1" style="89" min="14" max="14"/>
-    <col width="18.7109375" customWidth="1" style="89" min="15" max="15"/>
-    <col width="20.28515625" customWidth="1" style="89" min="16" max="16"/>
-    <col width="21.85546875" customWidth="1" style="89" min="17" max="17"/>
-    <col width="23.140625" customWidth="1" style="89" min="18" max="18"/>
-    <col width="36.28515625" bestFit="1" customWidth="1" style="89" min="19" max="19"/>
-    <col width="21.5703125" customWidth="1" style="89" min="20" max="21"/>
-    <col width="21.7109375" customWidth="1" style="89" min="22" max="22"/>
-    <col width="25.5703125" customWidth="1" style="89" min="23" max="23"/>
-    <col width="18" customWidth="1" style="89" min="24" max="25"/>
-    <col width="19.42578125" customWidth="1" style="89" min="26" max="26"/>
-    <col width="32.7109375" customWidth="1" style="89" min="27" max="27"/>
-    <col width="21" customWidth="1" style="89" min="28" max="28"/>
-    <col width="17.28515625" customWidth="1" style="89" min="29" max="29"/>
-    <col width="24.7109375" customWidth="1" style="89" min="30" max="30"/>
-    <col width="25.5703125" customWidth="1" style="89" min="31" max="31"/>
-    <col width="24.42578125" customWidth="1" style="89" min="32" max="32"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="44.5703125" customWidth="1" style="84" min="2" max="2"/>
+    <col width="21.7109375" customWidth="1" style="84" min="3" max="3"/>
+    <col width="19.5703125" customWidth="1" style="84" min="4" max="4"/>
+    <col width="43.85546875" bestFit="1" customWidth="1" style="84" min="5" max="5"/>
+    <col width="31.28515625" bestFit="1" customWidth="1" style="84" min="6" max="6"/>
+    <col width="22.85546875" customWidth="1" style="84" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" style="84" min="8" max="8"/>
+    <col width="14.5703125" customWidth="1" style="84" min="9" max="9"/>
+    <col width="14.140625" customWidth="1" style="84" min="10" max="10"/>
+    <col width="24.7109375" customWidth="1" style="84" min="11" max="11"/>
+    <col width="16.85546875" customWidth="1" style="84" min="12" max="12"/>
+    <col width="32.85546875" customWidth="1" style="84" min="13" max="13"/>
+    <col width="20.7109375" customWidth="1" style="84" min="14" max="14"/>
+    <col width="18.7109375" customWidth="1" style="84" min="15" max="15"/>
+    <col width="20.28515625" customWidth="1" style="84" min="16" max="16"/>
+    <col width="21.85546875" customWidth="1" style="84" min="17" max="17"/>
+    <col width="23.140625" customWidth="1" style="84" min="18" max="18"/>
+    <col width="36.28515625" bestFit="1" customWidth="1" style="84" min="19" max="19"/>
+    <col width="21.5703125" customWidth="1" style="84" min="20" max="21"/>
+    <col width="21.7109375" customWidth="1" style="84" min="22" max="22"/>
+    <col width="25.5703125" customWidth="1" style="84" min="23" max="23"/>
+    <col width="18" customWidth="1" style="84" min="24" max="25"/>
+    <col width="19.42578125" customWidth="1" style="84" min="26" max="26"/>
+    <col width="32.7109375" customWidth="1" style="84" min="27" max="27"/>
+    <col width="21" customWidth="1" style="84" min="28" max="28"/>
+    <col width="17.28515625" customWidth="1" style="84" min="29" max="29"/>
+    <col width="24.7109375" customWidth="1" style="84" min="30" max="30"/>
+    <col width="25.5703125" customWidth="1" style="84" min="31" max="31"/>
+    <col width="24.42578125" customWidth="1" style="84" min="32" max="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="83" t="inlineStr">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
@@ -10782,7 +11022,7 @@
           <t>1825</t>
         </is>
       </c>
-      <c r="D2" s="89" t="inlineStr">
+      <c r="D2" s="84" t="inlineStr">
         <is>
           <t>INTFULDRAW</t>
         </is>
@@ -10792,27 +11032,27 @@
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
       </c>
-      <c r="F2" s="89" t="inlineStr">
+      <c r="F2" s="84" t="inlineStr">
         <is>
           <t>INTFULDRAW17112020142405ZCZ</t>
         </is>
       </c>
-      <c r="H2" s="89" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="I2" s="89" t="inlineStr">
+      <c r="I2" s="84" t="inlineStr">
         <is>
           <t>Term</t>
         </is>
       </c>
-      <c r="K2" s="82" t="inlineStr">
+      <c r="K2" s="77" t="inlineStr">
         <is>
           <t>50,000,000.00</t>
         </is>
       </c>
-      <c r="L2" s="89" t="inlineStr">
+      <c r="L2" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
@@ -10837,12 +11077,12 @@
           <t>10-Nov-2025</t>
         </is>
       </c>
-      <c r="R2" s="89" t="inlineStr">
+      <c r="R2" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="S2" s="89" t="inlineStr">
+      <c r="S2" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
@@ -10852,47 +11092,47 @@
           <t>Fixed Rate Loan</t>
         </is>
       </c>
-      <c r="V2" s="89" t="inlineStr">
+      <c r="V2" s="84" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="W2" s="89" t="inlineStr">
+      <c r="W2" s="84" t="inlineStr">
         <is>
           <t>Working Capital</t>
         </is>
       </c>
-      <c r="X2" s="89" t="inlineStr">
+      <c r="X2" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="Z2" s="89" t="inlineStr">
+      <c r="Z2" s="84" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AA2" s="89" t="inlineStr">
+      <c r="AA2" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
-      <c r="AB2" s="89" t="inlineStr">
+      <c r="AB2" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="AC2" s="89" t="inlineStr">
+      <c r="AC2" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="AD2" s="89" t="inlineStr">
+      <c r="AD2" s="84" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AE2" s="89" t="inlineStr">
+      <c r="AE2" s="84" t="inlineStr">
         <is>
           <t>JONES</t>
         </is>
@@ -10919,7 +11159,7 @@
           <t>1825</t>
         </is>
       </c>
-      <c r="D3" s="89" t="inlineStr">
+      <c r="D3" s="84" t="inlineStr">
         <is>
           <t>PARDRAW</t>
         </is>
@@ -10934,22 +11174,22 @@
           <t>PARDRAW17112020143303LZN</t>
         </is>
       </c>
-      <c r="H3" s="89" t="inlineStr">
+      <c r="H3" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="I3" s="89" t="inlineStr">
+      <c r="I3" s="84" t="inlineStr">
         <is>
           <t>Revolver</t>
         </is>
       </c>
-      <c r="K3" s="82" t="inlineStr">
+      <c r="K3" s="77" t="inlineStr">
         <is>
           <t>30,000,000.00</t>
         </is>
       </c>
-      <c r="L3" s="89" t="inlineStr">
+      <c r="L3" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
@@ -10974,12 +11214,12 @@
           <t>10-Nov-2025</t>
         </is>
       </c>
-      <c r="R3" s="89" t="inlineStr">
+      <c r="R3" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="S3" s="89" t="inlineStr">
+      <c r="S3" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
@@ -10989,47 +11229,47 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="V3" s="89" t="inlineStr">
+      <c r="V3" s="84" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="W3" s="89" t="inlineStr">
+      <c r="W3" s="84" t="inlineStr">
         <is>
           <t>Working Capital</t>
         </is>
       </c>
-      <c r="X3" s="89" t="inlineStr">
+      <c r="X3" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="Z3" s="89" t="inlineStr">
+      <c r="Z3" s="84" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AA3" s="89" t="inlineStr">
+      <c r="AA3" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
-      <c r="AB3" s="89" t="inlineStr">
+      <c r="AB3" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="AC3" s="89" t="inlineStr">
+      <c r="AC3" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="AD3" s="89" t="inlineStr">
+      <c r="AD3" s="84" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AE3" s="89" t="inlineStr">
+      <c r="AE3" s="84" t="inlineStr">
         <is>
           <t>JONES</t>
         </is>
@@ -11046,7 +11286,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="89" t="inlineStr">
+      <c r="B4" s="84" t="inlineStr">
         <is>
           <t>Facility Internal Undrawn</t>
         </is>
@@ -11056,7 +11296,7 @@
           <t>1825</t>
         </is>
       </c>
-      <c r="D4" s="89" t="inlineStr">
+      <c r="D4" s="84" t="inlineStr">
         <is>
           <t>INTUND</t>
         </is>
@@ -11071,22 +11311,22 @@
           <t>INTUND17112020144211JTJ</t>
         </is>
       </c>
-      <c r="H4" s="89" t="inlineStr">
+      <c r="H4" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="I4" s="89" t="inlineStr">
+      <c r="I4" s="84" t="inlineStr">
         <is>
           <t>Revolver</t>
         </is>
       </c>
-      <c r="K4" s="82" t="inlineStr">
+      <c r="K4" s="77" t="inlineStr">
         <is>
           <t>20,000,000.00</t>
         </is>
       </c>
-      <c r="L4" s="89" t="inlineStr">
+      <c r="L4" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
@@ -11111,12 +11351,12 @@
           <t>10-Nov-2025</t>
         </is>
       </c>
-      <c r="R4" s="89" t="inlineStr">
+      <c r="R4" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="S4" s="89" t="inlineStr">
+      <c r="S4" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
@@ -11126,47 +11366,47 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="V4" s="89" t="inlineStr">
+      <c r="V4" s="84" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="W4" s="89" t="inlineStr">
+      <c r="W4" s="84" t="inlineStr">
         <is>
           <t>Working Capital</t>
         </is>
       </c>
-      <c r="X4" s="89" t="inlineStr">
+      <c r="X4" s="84" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="Z4" s="89" t="inlineStr">
+      <c r="Z4" s="84" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AA4" s="89" t="inlineStr">
+      <c r="AA4" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
-      <c r="AB4" s="89" t="inlineStr">
+      <c r="AB4" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="AC4" s="89" t="inlineStr">
+      <c r="AC4" s="84" t="inlineStr">
         <is>
           <t>SHORTNME2255</t>
         </is>
       </c>
-      <c r="AD4" s="89" t="inlineStr">
+      <c r="AD4" s="84" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AE4" s="89" t="inlineStr">
+      <c r="AE4" s="84" t="inlineStr">
         <is>
           <t>JONES</t>
         </is>
@@ -11202,24 +11442,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" style="89" min="2" max="2"/>
-    <col width="35.85546875" bestFit="1" customWidth="1" style="89" min="3" max="3"/>
-    <col width="22.7109375" customWidth="1" style="89" min="4" max="4"/>
-    <col width="27.140625" customWidth="1" style="89" min="5" max="5"/>
-    <col width="23.42578125" customWidth="1" style="89" min="6" max="6"/>
-    <col width="21.85546875" customWidth="1" style="89" min="7" max="7"/>
-    <col width="26.42578125" customWidth="1" style="89" min="8" max="8"/>
-    <col width="23.5703125" customWidth="1" style="89" min="9" max="10"/>
-    <col width="21.85546875" customWidth="1" style="89" min="11" max="11"/>
-    <col width="15.7109375" customWidth="1" style="89" min="12" max="12"/>
-    <col width="24.7109375" customWidth="1" style="89" min="13" max="14"/>
-    <col width="16.42578125" customWidth="1" style="89" min="15" max="15"/>
-    <col width="21.42578125" customWidth="1" style="89" min="16" max="16"/>
-    <col width="17.85546875" customWidth="1" style="89" min="17" max="17"/>
-    <col width="21" customWidth="1" style="89" min="18" max="19"/>
-    <col width="22" customWidth="1" style="89" min="20" max="20"/>
-    <col width="25.42578125" customWidth="1" style="89" min="21" max="21"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="24.28515625" bestFit="1" customWidth="1" style="84" min="2" max="2"/>
+    <col width="35.85546875" bestFit="1" customWidth="1" style="84" min="3" max="3"/>
+    <col width="22.7109375" customWidth="1" style="84" min="4" max="4"/>
+    <col width="27.140625" customWidth="1" style="84" min="5" max="5"/>
+    <col width="23.42578125" customWidth="1" style="84" min="6" max="6"/>
+    <col width="21.85546875" customWidth="1" style="84" min="7" max="7"/>
+    <col width="26.42578125" customWidth="1" style="84" min="8" max="8"/>
+    <col width="23.5703125" customWidth="1" style="84" min="9" max="10"/>
+    <col width="21.85546875" customWidth="1" style="84" min="11" max="11"/>
+    <col width="15.7109375" customWidth="1" style="84" min="12" max="12"/>
+    <col width="24.7109375" customWidth="1" style="84" min="13" max="14"/>
+    <col width="16.42578125" customWidth="1" style="84" min="15" max="15"/>
+    <col width="21.42578125" customWidth="1" style="84" min="16" max="16"/>
+    <col width="17.85546875" customWidth="1" style="84" min="17" max="17"/>
+    <col width="21" customWidth="1" style="84" min="18" max="19"/>
+    <col width="22" customWidth="1" style="84" min="20" max="20"/>
+    <col width="25.42578125" customWidth="1" style="84" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -11329,8 +11569,8 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="89">
-      <c r="A2" s="89" t="inlineStr">
+    <row r="2" customFormat="1" s="84">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -11355,7 +11595,7 @@
           <t>Usage Fee</t>
         </is>
       </c>
-      <c r="F2" s="114" t="inlineStr">
+      <c r="F2" s="109" t="inlineStr">
         <is>
           <t>Actual/360</t>
         </is>
@@ -11370,7 +11610,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="I2" s="82" t="inlineStr">
+      <c r="I2" s="77" t="inlineStr">
         <is>
           <t>1.75%</t>
         </is>
@@ -11380,17 +11620,17 @@
           <t>1.750000</t>
         </is>
       </c>
-      <c r="K2" s="114" t="inlineStr">
+      <c r="K2" s="109" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
       </c>
-      <c r="L2" s="113" t="inlineStr">
+      <c r="L2" s="108" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
       </c>
-      <c r="M2" s="89" t="inlineStr">
+      <c r="M2" s="84" t="inlineStr">
         <is>
           <t>Option</t>
         </is>
@@ -11400,17 +11640,17 @@
           <t>Euro LIBOR Option</t>
         </is>
       </c>
-      <c r="O2" s="89" t="inlineStr">
+      <c r="O2" s="84" t="inlineStr">
         <is>
           <t>Actual/360</t>
         </is>
       </c>
-      <c r="P2" s="114" t="inlineStr">
+      <c r="P2" s="109" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
       </c>
-      <c r="Q2" s="113" t="inlineStr">
+      <c r="Q2" s="108" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
@@ -11425,18 +11665,18 @@
           <t>2.5</t>
         </is>
       </c>
-      <c r="T2" s="89" t="inlineStr">
+      <c r="T2" s="84" t="inlineStr">
         <is>
           <t>LIBOR</t>
         </is>
       </c>
-      <c r="U2" s="89" t="inlineStr">
+      <c r="U2" s="84" t="inlineStr">
         <is>
           <t>Fixed Rate Option</t>
         </is>
       </c>
     </row>
-    <row r="3" customFormat="1" s="89">
+    <row r="3" customFormat="1" s="84">
       <c r="A3" s="44" t="inlineStr">
         <is>
           <t>2</t>
@@ -11462,7 +11702,7 @@
           <t>Usage Fee</t>
         </is>
       </c>
-      <c r="F3" s="114" t="inlineStr">
+      <c r="F3" s="109" t="inlineStr">
         <is>
           <t>Actual/360</t>
         </is>
@@ -11477,7 +11717,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="I3" s="82" t="inlineStr">
+      <c r="I3" s="77" t="inlineStr">
         <is>
           <t>1.75%</t>
         </is>
@@ -11487,17 +11727,17 @@
           <t>1.750000</t>
         </is>
       </c>
-      <c r="K3" s="114" t="inlineStr">
+      <c r="K3" s="109" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
       </c>
-      <c r="L3" s="113" t="inlineStr">
+      <c r="L3" s="108" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
       </c>
-      <c r="M3" s="89" t="inlineStr">
+      <c r="M3" s="84" t="inlineStr">
         <is>
           <t>Option</t>
         </is>
@@ -11507,17 +11747,17 @@
           <t>Euro LIBOR Option</t>
         </is>
       </c>
-      <c r="O3" s="89" t="inlineStr">
+      <c r="O3" s="84" t="inlineStr">
         <is>
           <t>Actual/360</t>
         </is>
       </c>
-      <c r="P3" s="114" t="inlineStr">
+      <c r="P3" s="109" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
       </c>
-      <c r="Q3" s="113" t="inlineStr">
+      <c r="Q3" s="108" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
@@ -11532,24 +11772,24 @@
           <t>2.5</t>
         </is>
       </c>
-      <c r="T3" s="89" t="inlineStr">
+      <c r="T3" s="84" t="inlineStr">
         <is>
           <t>LIBOR</t>
         </is>
       </c>
-      <c r="U3" s="89" t="inlineStr">
+      <c r="U3" s="84" t="inlineStr">
         <is>
           <t>Fixed Rate Option</t>
         </is>
       </c>
     </row>
-    <row r="4" customFormat="1" s="89">
+    <row r="4" customFormat="1" s="84">
       <c r="A4" s="44" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="89" t="inlineStr">
+      <c r="B4" s="84" t="inlineStr">
         <is>
           <t>Facility Internal Undrawn</t>
         </is>
@@ -11569,7 +11809,7 @@
           <t>Usage Fee</t>
         </is>
       </c>
-      <c r="F4" s="114" t="inlineStr">
+      <c r="F4" s="109" t="inlineStr">
         <is>
           <t>Actual/360</t>
         </is>
@@ -11584,7 +11824,7 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="I4" s="82" t="inlineStr">
+      <c r="I4" s="77" t="inlineStr">
         <is>
           <t>1.75%</t>
         </is>
@@ -11594,17 +11834,17 @@
           <t>1.750000</t>
         </is>
       </c>
-      <c r="K4" s="114" t="inlineStr">
+      <c r="K4" s="109" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
       </c>
-      <c r="L4" s="113" t="inlineStr">
+      <c r="L4" s="108" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
       </c>
-      <c r="M4" s="89" t="inlineStr">
+      <c r="M4" s="84" t="inlineStr">
         <is>
           <t>Option</t>
         </is>
@@ -11614,17 +11854,17 @@
           <t>Euro LIBOR Option</t>
         </is>
       </c>
-      <c r="O4" s="89" t="inlineStr">
+      <c r="O4" s="84" t="inlineStr">
         <is>
           <t>Actual/360</t>
         </is>
       </c>
-      <c r="P4" s="114" t="inlineStr">
+      <c r="P4" s="109" t="inlineStr">
         <is>
           <t>Percent</t>
         </is>
       </c>
-      <c r="Q4" s="113" t="inlineStr">
+      <c r="Q4" s="108" t="inlineStr">
         <is>
           <t>Basis Points</t>
         </is>
@@ -11639,12 +11879,12 @@
           <t>2.5</t>
         </is>
       </c>
-      <c r="T4" s="89" t="inlineStr">
+      <c r="T4" s="84" t="inlineStr">
         <is>
           <t>LIBOR</t>
         </is>
       </c>
-      <c r="U4" s="89" t="inlineStr">
+      <c r="U4" s="84" t="inlineStr">
         <is>
           <t>Fixed Rate Option</t>
         </is>
@@ -11673,33 +11913,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="89" min="1" max="1"/>
-    <col width="39.28515625" customWidth="1" style="89" min="2" max="2"/>
-    <col width="46.28515625" customWidth="1" style="89" min="3" max="3"/>
-    <col width="34.5703125" bestFit="1" customWidth="1" style="89" min="4" max="4"/>
-    <col width="36.28515625" bestFit="1" customWidth="1" style="89" min="5" max="5"/>
-    <col width="21" customWidth="1" style="89" min="6" max="6"/>
-    <col width="17.7109375" customWidth="1" style="89" min="7" max="7"/>
-    <col width="25" bestFit="1" customWidth="1" style="89" min="8" max="8"/>
-    <col width="26.28515625" customWidth="1" style="89" min="9" max="9"/>
-    <col width="19.42578125" customWidth="1" style="89" min="10" max="10"/>
-    <col width="21.140625" customWidth="1" style="89" min="11" max="12"/>
-    <col width="18.140625" customWidth="1" style="89" min="13" max="13"/>
-    <col width="29.140625" customWidth="1" style="89" min="14" max="14"/>
-    <col width="17.5703125" customWidth="1" style="89" min="15" max="15"/>
-    <col width="26.28515625" customWidth="1" style="89" min="16" max="16"/>
-    <col width="40.7109375" bestFit="1" customWidth="1" style="89" min="17" max="17"/>
-    <col width="26.5703125" customWidth="1" style="89" min="18" max="18"/>
-    <col width="26.42578125" customWidth="1" style="89" min="19" max="19"/>
-    <col width="27.28515625" customWidth="1" style="89" min="20" max="20"/>
-    <col width="20" customWidth="1" style="89" min="21" max="21"/>
-    <col width="11.85546875" customWidth="1" style="89" min="22" max="22"/>
-    <col width="40.7109375" bestFit="1" customWidth="1" style="89" min="23" max="23"/>
-    <col width="18.140625" customWidth="1" style="89" min="24" max="24"/>
+    <col width="6.140625" customWidth="1" style="84" min="1" max="1"/>
+    <col width="39.28515625" customWidth="1" style="84" min="2" max="2"/>
+    <col width="46.28515625" customWidth="1" style="84" min="3" max="3"/>
+    <col width="34.5703125" bestFit="1" customWidth="1" style="84" min="4" max="4"/>
+    <col width="36.28515625" bestFit="1" customWidth="1" style="84" min="5" max="5"/>
+    <col width="21" customWidth="1" style="84" min="6" max="6"/>
+    <col width="17.7109375" customWidth="1" style="84" min="7" max="7"/>
+    <col width="25" bestFit="1" customWidth="1" style="84" min="8" max="8"/>
+    <col width="26.28515625" customWidth="1" style="84" min="9" max="9"/>
+    <col width="19.42578125" customWidth="1" style="84" min="10" max="10"/>
+    <col width="21.140625" customWidth="1" style="84" min="11" max="12"/>
+    <col width="18.140625" customWidth="1" style="84" min="13" max="13"/>
+    <col width="29.140625" customWidth="1" style="84" min="14" max="14"/>
+    <col width="17.5703125" customWidth="1" style="84" min="15" max="15"/>
+    <col width="26.28515625" customWidth="1" style="84" min="16" max="16"/>
+    <col width="40.7109375" bestFit="1" customWidth="1" style="84" min="17" max="17"/>
+    <col width="26.5703125" customWidth="1" style="84" min="18" max="18"/>
+    <col width="26.42578125" customWidth="1" style="84" min="19" max="19"/>
+    <col width="27.28515625" customWidth="1" style="84" min="20" max="20"/>
+    <col width="20" customWidth="1" style="84" min="21" max="21"/>
+    <col width="11.85546875" customWidth="1" style="84" min="22" max="22"/>
+    <col width="40.7109375" bestFit="1" customWidth="1" style="84" min="23" max="23"/>
+    <col width="18.140625" customWidth="1" style="84" min="24" max="24"/>
     <col width="12.7109375" customWidth="1" style="12" min="25" max="25"/>
     <col width="11.140625" customWidth="1" style="12" min="26" max="26"/>
-    <col width="35.28515625" bestFit="1" customWidth="1" style="89" min="27" max="27"/>
-    <col width="31.140625" customWidth="1" style="89" min="28" max="28"/>
+    <col width="35.28515625" bestFit="1" customWidth="1" style="84" min="27" max="27"/>
+    <col width="31.140625" customWidth="1" style="84" min="28" max="28"/>
     <col width="31.140625" bestFit="1" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
@@ -11850,13 +12090,13 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="89">
-      <c r="A2" s="89" t="inlineStr">
+    <row r="2" customFormat="1" s="84">
+      <c r="A2" s="84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="89" t="inlineStr">
+      <c r="B2" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
@@ -11866,40 +12106,40 @@
           <t>RPA INTERNAL 100M EURO17112020130546SDJ</t>
         </is>
       </c>
-      <c r="D2" s="89" t="inlineStr">
+      <c r="D2" s="84" t="inlineStr">
         <is>
           <t>INTFULDRAW17112020142405ZCZ</t>
         </is>
       </c>
-      <c r="E2" s="89" t="inlineStr">
+      <c r="E2" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="F2" s="89" t="inlineStr">
+      <c r="F2" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="G2" s="89" t="inlineStr">
+      <c r="G2" s="84" t="inlineStr">
         <is>
           <t>IT_SAF</t>
         </is>
       </c>
-      <c r="H2" s="89" t="inlineStr">
+      <c r="H2" s="84" t="inlineStr">
         <is>
           <t>Structured Asset Finance</t>
         </is>
       </c>
-      <c r="I2" s="89" t="inlineStr">
+      <c r="I2" s="84" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="J2" s="89" t="n">
+      <c r="J2" s="84" t="n">
         <v>100</v>
       </c>
-      <c r="K2" s="89" t="n">
+      <c r="K2" s="84" t="n">
         <v>100</v>
       </c>
       <c r="L2" s="44" t="inlineStr">
@@ -11907,52 +12147,52 @@
           <t>50,000,000.00</t>
         </is>
       </c>
-      <c r="M2" s="89" t="inlineStr">
+      <c r="M2" s="84" t="inlineStr">
         <is>
           <t>Add Comment</t>
         </is>
       </c>
-      <c r="N2" s="114" t="inlineStr">
+      <c r="N2" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="O2" s="89" t="inlineStr">
+      <c r="O2" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="P2" s="114" t="inlineStr">
+      <c r="P2" s="109" t="inlineStr">
         <is>
           <t>Hold for Investment - Europe</t>
         </is>
       </c>
-      <c r="Q2" s="89" t="inlineStr">
+      <c r="Q2" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
-      <c r="R2" s="114" t="inlineStr">
+      <c r="R2" s="109" t="inlineStr">
         <is>
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="S2" s="114" t="inlineStr">
+      <c r="S2" s="109" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="T2" s="89" t="inlineStr">
+      <c r="T2" s="84" t="inlineStr">
         <is>
           <t>10-Nov-2025</t>
         </is>
       </c>
-      <c r="U2" s="89" t="inlineStr">
+      <c r="U2" s="84" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
       </c>
-      <c r="W2" s="89" t="inlineStr">
+      <c r="W2" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
@@ -11962,39 +12202,39 @@
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="Y2" s="89" t="inlineStr">
+      <c r="Y2" s="84" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
       </c>
-      <c r="Z2" s="89" t="inlineStr">
+      <c r="Z2" s="84" t="inlineStr">
         <is>
           <t>09-Nov-2020</t>
         </is>
       </c>
-      <c r="AA2" s="89" t="inlineStr">
+      <c r="AA2" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="AB2" s="114" t="inlineStr">
+      <c r="AB2" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="AC2" s="89" t="inlineStr">
+      <c r="AC2" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
     </row>
-    <row r="3" customFormat="1" s="89">
+    <row r="3" customFormat="1" s="84">
       <c r="A3" s="44" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="89" t="inlineStr">
+      <c r="B3" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
@@ -12009,35 +12249,35 @@
           <t>PARDRAW17112020143303LZN</t>
         </is>
       </c>
-      <c r="E3" s="89" t="inlineStr">
+      <c r="E3" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="F3" s="89" t="inlineStr">
+      <c r="F3" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="G3" s="89" t="inlineStr">
+      <c r="G3" s="84" t="inlineStr">
         <is>
           <t>IT_SAF</t>
         </is>
       </c>
-      <c r="H3" s="89" t="inlineStr">
+      <c r="H3" s="84" t="inlineStr">
         <is>
           <t>Structured Asset Finance</t>
         </is>
       </c>
-      <c r="I3" s="89" t="inlineStr">
+      <c r="I3" s="84" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="J3" s="89" t="n">
+      <c r="J3" s="84" t="n">
         <v>100</v>
       </c>
-      <c r="K3" s="89" t="n">
+      <c r="K3" s="84" t="n">
         <v>100</v>
       </c>
       <c r="L3" s="44" t="inlineStr">
@@ -12045,52 +12285,52 @@
           <t>30,000,000.00</t>
         </is>
       </c>
-      <c r="M3" s="89" t="inlineStr">
+      <c r="M3" s="84" t="inlineStr">
         <is>
           <t>Add Comment</t>
         </is>
       </c>
-      <c r="N3" s="114" t="inlineStr">
+      <c r="N3" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="O3" s="89" t="inlineStr">
+      <c r="O3" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="P3" s="114" t="inlineStr">
+      <c r="P3" s="109" t="inlineStr">
         <is>
           <t>Hold for Investment - Europe</t>
         </is>
       </c>
-      <c r="Q3" s="89" t="inlineStr">
+      <c r="Q3" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
-      <c r="R3" s="114" t="inlineStr">
+      <c r="R3" s="109" t="inlineStr">
         <is>
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="S3" s="114" t="inlineStr">
+      <c r="S3" s="109" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="T3" s="89" t="inlineStr">
+      <c r="T3" s="84" t="inlineStr">
         <is>
           <t>10-Nov-2025</t>
         </is>
       </c>
-      <c r="U3" s="89" t="inlineStr">
+      <c r="U3" s="84" t="inlineStr">
         <is>
           <t>27-May-2020</t>
         </is>
       </c>
-      <c r="W3" s="89" t="inlineStr">
+      <c r="W3" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
@@ -12100,39 +12340,39 @@
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="Y3" s="89" t="inlineStr">
+      <c r="Y3" s="84" t="inlineStr">
         <is>
           <t>02-Jun-2020</t>
         </is>
       </c>
-      <c r="Z3" s="89" t="inlineStr">
+      <c r="Z3" s="84" t="inlineStr">
         <is>
           <t>02-Jun-2020</t>
         </is>
       </c>
-      <c r="AA3" s="89" t="inlineStr">
+      <c r="AA3" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="AB3" s="114" t="inlineStr">
+      <c r="AB3" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="AC3" s="89" t="inlineStr">
+      <c r="AC3" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
     </row>
-    <row r="4" customFormat="1" s="89">
+    <row r="4" customFormat="1" s="84">
       <c r="A4" s="44" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="89" t="inlineStr">
+      <c r="B4" s="84" t="inlineStr">
         <is>
           <t>EVG_S1_EU_RPA_InternalDeal</t>
         </is>
@@ -12147,35 +12387,35 @@
           <t>INTUND17112020144211JTJ</t>
         </is>
       </c>
-      <c r="E4" s="89" t="inlineStr">
+      <c r="E4" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="F4" s="89" t="inlineStr">
+      <c r="F4" s="84" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="G4" s="89" t="inlineStr">
+      <c r="G4" s="84" t="inlineStr">
         <is>
           <t>IT_SAF</t>
         </is>
       </c>
-      <c r="H4" s="89" t="inlineStr">
+      <c r="H4" s="84" t="inlineStr">
         <is>
           <t>Structured Asset Finance</t>
         </is>
       </c>
-      <c r="I4" s="89" t="inlineStr">
+      <c r="I4" s="84" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="J4" s="89" t="n">
+      <c r="J4" s="84" t="n">
         <v>100</v>
       </c>
-      <c r="K4" s="89" t="n">
+      <c r="K4" s="84" t="n">
         <v>100</v>
       </c>
       <c r="L4" s="44" t="inlineStr">
@@ -12183,52 +12423,52 @@
           <t>20,000,000.00</t>
         </is>
       </c>
-      <c r="M4" s="89" t="inlineStr">
+      <c r="M4" s="84" t="inlineStr">
         <is>
           <t>Add Comment</t>
         </is>
       </c>
-      <c r="N4" s="114" t="inlineStr">
+      <c r="N4" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="O4" s="89" t="inlineStr">
+      <c r="O4" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
       </c>
-      <c r="P4" s="114" t="inlineStr">
+      <c r="P4" s="109" t="inlineStr">
         <is>
           <t>Hold for Investment - Europe</t>
         </is>
       </c>
-      <c r="Q4" s="89" t="inlineStr">
+      <c r="Q4" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
-      <c r="R4" s="114" t="inlineStr">
+      <c r="R4" s="109" t="inlineStr">
         <is>
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="S4" s="114" t="inlineStr">
+      <c r="S4" s="109" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="T4" s="89" t="inlineStr">
+      <c r="T4" s="84" t="inlineStr">
         <is>
           <t>10-Nov-2025</t>
         </is>
       </c>
-      <c r="U4" s="89" t="inlineStr">
+      <c r="U4" s="84" t="inlineStr">
         <is>
           <t>27-May-2020</t>
         </is>
       </c>
-      <c r="W4" s="89" t="inlineStr">
+      <c r="W4" s="84" t="inlineStr">
         <is>
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
@@ -12238,27 +12478,27 @@
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="Y4" s="89" t="inlineStr">
+      <c r="Y4" s="84" t="inlineStr">
         <is>
           <t>02-Jun-2020</t>
         </is>
       </c>
-      <c r="Z4" s="89" t="inlineStr">
+      <c r="Z4" s="84" t="inlineStr">
         <is>
           <t>02-Jun-2020</t>
         </is>
       </c>
-      <c r="AA4" s="89" t="inlineStr">
+      <c r="AA4" s="84" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="AB4" s="114" t="inlineStr">
+      <c r="AB4" s="109" t="inlineStr">
         <is>
           <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="AC4" s="89" t="inlineStr">
+      <c r="AC4" s="84" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -5,24 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u711091\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75600D94-1EAA-4532-BDAD-64FA9082E6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4D57C-9E94-4EDC-A3A0-D6D26A96A9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="877" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
     <sheet name="CRED01_FacilitySetup" sheetId="2" r:id="rId2"/>
     <sheet name="CRED01_DealSetup" sheetId="3" r:id="rId3"/>
+    <sheet name="CRED08_OngoingFeeSetup" sheetId="4" r:id="rId4"/>
+    <sheet name="SYND02_PrimaryAllocation" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="313">
   <si>
     <t>rowid</t>
   </si>
@@ -381,9 +393,6 @@
     <t>LB</t>
   </si>
   <si>
-    <t>Brook, Liz</t>
-  </si>
-  <si>
     <t>DDA</t>
   </si>
   <si>
@@ -492,9 +501,6 @@
     <t>100.000000%</t>
   </si>
   <si>
-    <t>To change once we start to use docker</t>
-  </si>
-  <si>
     <t>Deal_NamePrefix</t>
   </si>
   <si>
@@ -666,9 +672,6 @@
     <t>03-Apr-2019</t>
   </si>
   <si>
-    <t>Need to confirm with Bel since DBU is missing in IEE</t>
-  </si>
-  <si>
     <t>PricingRule_Fee</t>
   </si>
   <si>
@@ -688,6 +691,288 @@
   </si>
   <si>
     <t>Ratios_And_Cons_RadioButton</t>
+  </si>
+  <si>
+    <t>OngoingFee_Category</t>
+  </si>
+  <si>
+    <t>OngoingFee_Type</t>
+  </si>
+  <si>
+    <t>OngoingFee_RateBasis</t>
+  </si>
+  <si>
+    <t>OngoingFee_EffectiveDate</t>
+  </si>
+  <si>
+    <t>OngoingFee_ActualDate</t>
+  </si>
+  <si>
+    <t>OngoingFee_AdjustedDueDate</t>
+  </si>
+  <si>
+    <t>OngoingFee_Accrue</t>
+  </si>
+  <si>
+    <t>OngoingFee_AccrualEndDate</t>
+  </si>
+  <si>
+    <t>Establish Commitment Fee for LBT Bilateral Deal</t>
+  </si>
+  <si>
+    <t>Facility Ongoing Fee</t>
+  </si>
+  <si>
+    <t>Actual/365</t>
+  </si>
+  <si>
+    <t>FormulaCategory</t>
+  </si>
+  <si>
+    <t>0.750000</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>03-Apr-2020</t>
+  </si>
+  <si>
+    <t>to the actual due date</t>
+  </si>
+  <si>
+    <t>02-Apr-2020</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Outside Condition</t>
+  </si>
+  <si>
+    <t>OutsideCondition_Type</t>
+  </si>
+  <si>
+    <t>Outside Condition 1</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItem1</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItem2</t>
+  </si>
+  <si>
+    <t>OutsideCondition_RadioButton</t>
+  </si>
+  <si>
+    <t>Facility_Percent2</t>
+  </si>
+  <si>
+    <t>Facility_Percent1</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItemType1</t>
+  </si>
+  <si>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItemType2</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>OngoingFee_FormulaCategoryType</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>OngoingFee_SpreadType</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Interest_Item1</t>
+  </si>
+  <si>
+    <t>Interest_ItemType1</t>
+  </si>
+  <si>
+    <t>Amounts as % of Commitment</t>
+  </si>
+  <si>
+    <t>Commitment_PctType</t>
+  </si>
+  <si>
+    <t>Utilized</t>
+  </si>
+  <si>
+    <t>Commitment_BalanceType</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Commitment_LessThan</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Interest_AfterItem1</t>
+  </si>
+  <si>
+    <t>Interest_AfterItemType1</t>
+  </si>
+  <si>
+    <t>Interest_OptionName1</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis1</t>
+  </si>
+  <si>
+    <t>Commitment_GreaterThan2</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Minimum_Value1</t>
+  </si>
+  <si>
+    <t>Maximum_Value1</t>
+  </si>
+  <si>
+    <t>Minimum_Value2</t>
+  </si>
+  <si>
+    <t>Maximum_Value2</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt2</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt1</t>
+  </si>
+  <si>
+    <t>Commitment_GreaterThan1</t>
+  </si>
+  <si>
+    <t>Minimum_Value3</t>
+  </si>
+  <si>
+    <t>Maximum_Value3</t>
+  </si>
+  <si>
+    <t>Minimum_Value4</t>
+  </si>
+  <si>
+    <t>Maximum_Value4</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt3</t>
+  </si>
+  <si>
+    <t>Commitment_MnemonicStatus_OFF</t>
+  </si>
+  <si>
+    <t>Commitment_MnemonicStatus_ON</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt4</t>
+  </si>
+  <si>
+    <t>Original date below</t>
+  </si>
+  <si>
+    <t>02-Apr-2024</t>
+  </si>
+  <si>
+    <t>to change once we move to diff envi</t>
+  </si>
+  <si>
+    <t>original value below</t>
+  </si>
+  <si>
+    <t>30-Sep-2021</t>
+  </si>
+  <si>
+    <t>Brook,  Liz</t>
+  </si>
+  <si>
+    <t>Primary_Lender</t>
+  </si>
+  <si>
+    <t>Primary_LenderLoc</t>
+  </si>
+  <si>
+    <t>Primary_RiskBook</t>
+  </si>
+  <si>
+    <t>Primaries_TransactionType</t>
+  </si>
+  <si>
+    <t>Primary_PctOfDeal</t>
+  </si>
+  <si>
+    <t>Primary_Contact</t>
+  </si>
+  <si>
+    <t>Primary_Portfolio</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioBranch</t>
+  </si>
+  <si>
+    <t>Primary_CircledDate</t>
+  </si>
+  <si>
+    <t>ApproveDate</t>
+  </si>
+  <si>
+    <t>CloseDate</t>
+  </si>
+  <si>
+    <t>INTFULDRAW17112020142405ZCZ</t>
+  </si>
+  <si>
+    <t>Origination</t>
+  </si>
+  <si>
+    <t>Setup Primary for LBT Bilateral Deal</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Expected_CloseDate</t>
+  </si>
+  <si>
+    <t>Primary_SGAlias</t>
+  </si>
+  <si>
+    <t>Hold for Investment - Australia</t>
+  </si>
+  <si>
+    <t>Lender_Hostbank</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Primary_BuySellPrice</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -697,11 +982,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -816,7 +1115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -839,76 +1138,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{27F59FE5-880C-4111-9597-16D52F987DE9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1226,553 +1583,581 @@
   <dimension ref="A1:CX11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK21" sqref="AK21"/>
+      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="19" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="46.5703125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="15" style="8" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="8" customWidth="1"/>
-    <col min="22" max="23" width="23" style="8" customWidth="1"/>
-    <col min="24" max="24" width="30" style="8" customWidth="1"/>
-    <col min="25" max="25" width="28.5703125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" style="8" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="8" customWidth="1"/>
-    <col min="28" max="30" width="15.5703125" style="8" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" style="8" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="8" customWidth="1"/>
-    <col min="33" max="33" width="29.5703125" style="8" customWidth="1"/>
-    <col min="34" max="35" width="15.28515625" style="8" customWidth="1"/>
-    <col min="36" max="36" width="10.42578125" style="8" customWidth="1"/>
-    <col min="37" max="38" width="21" style="8" customWidth="1"/>
-    <col min="39" max="39" width="19.7109375" style="8" customWidth="1"/>
-    <col min="40" max="40" width="14" style="8" customWidth="1"/>
-    <col min="41" max="41" width="14.42578125" style="8" customWidth="1"/>
-    <col min="42" max="42" width="20.7109375" style="8" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" style="8" customWidth="1"/>
-    <col min="44" max="44" width="10" style="8" customWidth="1"/>
-    <col min="45" max="45" width="38.28515625" style="8" customWidth="1"/>
-    <col min="46" max="46" width="21.140625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="24.28515625" style="8" customWidth="1"/>
-    <col min="48" max="48" width="18.42578125" style="8" customWidth="1"/>
-    <col min="49" max="49" width="16.7109375" style="8" customWidth="1"/>
-    <col min="50" max="50" width="28.85546875" style="8" customWidth="1"/>
-    <col min="51" max="51" width="14.28515625" style="8" customWidth="1"/>
-    <col min="52" max="52" width="23" style="8" customWidth="1"/>
-    <col min="53" max="56" width="19.85546875" style="8" customWidth="1"/>
-    <col min="57" max="58" width="24.7109375" style="8" customWidth="1"/>
-    <col min="59" max="59" width="25" style="8" customWidth="1"/>
-    <col min="60" max="60" width="24.42578125" style="8" customWidth="1"/>
-    <col min="61" max="61" width="30.42578125" style="8" customWidth="1"/>
-    <col min="62" max="62" width="36" style="8" customWidth="1"/>
-    <col min="63" max="63" width="34.42578125" style="8" customWidth="1"/>
-    <col min="64" max="64" width="26.7109375" style="8" customWidth="1"/>
-    <col min="65" max="66" width="17.28515625" style="8" customWidth="1"/>
-    <col min="67" max="67" width="34.140625" style="8" customWidth="1"/>
-    <col min="68" max="68" width="28.42578125" style="8" customWidth="1"/>
-    <col min="69" max="69" width="24.7109375" style="8" customWidth="1"/>
-    <col min="70" max="70" width="30.28515625" style="8" customWidth="1"/>
-    <col min="71" max="71" width="17.5703125" style="8" customWidth="1"/>
-    <col min="72" max="72" width="20.28515625" style="8" customWidth="1"/>
-    <col min="73" max="73" width="12.140625" style="8" customWidth="1"/>
-    <col min="74" max="74" width="21.42578125" style="8" customWidth="1"/>
-    <col min="75" max="75" width="24.140625" style="8" customWidth="1"/>
-    <col min="76" max="76" width="16" style="8" customWidth="1"/>
-    <col min="77" max="77" width="14" style="8" customWidth="1"/>
-    <col min="78" max="78" width="16.7109375" style="8" customWidth="1"/>
-    <col min="79" max="79" width="10.42578125" style="8" customWidth="1"/>
-    <col min="80" max="80" width="37.7109375" style="8" customWidth="1"/>
-    <col min="81" max="82" width="16.7109375" style="8" customWidth="1"/>
-    <col min="83" max="85" width="20.140625" style="8" customWidth="1"/>
-    <col min="86" max="86" width="17.7109375" style="8" customWidth="1"/>
-    <col min="87" max="87" width="24.5703125" style="8" customWidth="1"/>
-    <col min="88" max="90" width="19.42578125" style="8" customWidth="1"/>
-    <col min="91" max="91" width="21.140625" style="8" customWidth="1"/>
-    <col min="92" max="92" width="32.42578125" style="8" customWidth="1"/>
-    <col min="93" max="94" width="17.28515625" style="8" customWidth="1"/>
-    <col min="95" max="97" width="17.5703125" style="8" customWidth="1"/>
-    <col min="98" max="98" width="26.28515625" style="8" customWidth="1"/>
-    <col min="99" max="99" width="35" style="8" customWidth="1"/>
-    <col min="100" max="100" width="26.5703125" style="8" customWidth="1"/>
-    <col min="101" max="101" width="24.85546875" style="8" customWidth="1"/>
-    <col min="102" max="102" width="20" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="19" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="46.5703125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="15" style="7" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="7" customWidth="1"/>
+    <col min="22" max="23" width="23" style="7" customWidth="1"/>
+    <col min="24" max="24" width="30" style="7" customWidth="1"/>
+    <col min="25" max="25" width="28.5703125" style="7" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="7" customWidth="1"/>
+    <col min="28" max="30" width="15.5703125" style="7" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" style="7" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="7" customWidth="1"/>
+    <col min="33" max="33" width="29.5703125" style="7" customWidth="1"/>
+    <col min="34" max="35" width="15.28515625" style="7" customWidth="1"/>
+    <col min="36" max="36" width="10.42578125" style="7" customWidth="1"/>
+    <col min="37" max="38" width="21" style="7" customWidth="1"/>
+    <col min="39" max="39" width="19.7109375" style="7" customWidth="1"/>
+    <col min="40" max="40" width="14" style="7" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" style="7" customWidth="1"/>
+    <col min="42" max="42" width="20.7109375" style="7" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" style="7" customWidth="1"/>
+    <col min="44" max="44" width="10" style="7" customWidth="1"/>
+    <col min="45" max="45" width="38.28515625" style="7" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" style="7" customWidth="1"/>
+    <col min="47" max="47" width="24.28515625" style="7" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" style="7" customWidth="1"/>
+    <col min="49" max="49" width="16.7109375" style="7" customWidth="1"/>
+    <col min="50" max="50" width="28.85546875" style="7" customWidth="1"/>
+    <col min="51" max="51" width="14.28515625" style="7" customWidth="1"/>
+    <col min="52" max="52" width="23" style="7" customWidth="1"/>
+    <col min="53" max="56" width="19.85546875" style="7" customWidth="1"/>
+    <col min="57" max="58" width="24.7109375" style="7" customWidth="1"/>
+    <col min="59" max="59" width="25" style="7" customWidth="1"/>
+    <col min="60" max="60" width="24.42578125" style="7" customWidth="1"/>
+    <col min="61" max="61" width="30.42578125" style="7" customWidth="1"/>
+    <col min="62" max="62" width="36" style="7" customWidth="1"/>
+    <col min="63" max="63" width="34.42578125" style="7" customWidth="1"/>
+    <col min="64" max="64" width="26.7109375" style="7" customWidth="1"/>
+    <col min="65" max="66" width="17.28515625" style="7" customWidth="1"/>
+    <col min="67" max="67" width="34.140625" style="7" customWidth="1"/>
+    <col min="68" max="68" width="28.42578125" style="7" customWidth="1"/>
+    <col min="69" max="69" width="24.7109375" style="7" customWidth="1"/>
+    <col min="70" max="70" width="30.28515625" style="7" customWidth="1"/>
+    <col min="71" max="71" width="17.5703125" style="7" customWidth="1"/>
+    <col min="72" max="72" width="20.28515625" style="7" customWidth="1"/>
+    <col min="73" max="73" width="12.140625" style="7" customWidth="1"/>
+    <col min="74" max="74" width="21.42578125" style="7" customWidth="1"/>
+    <col min="75" max="75" width="24.140625" style="7" customWidth="1"/>
+    <col min="76" max="76" width="16" style="7" customWidth="1"/>
+    <col min="77" max="77" width="14" style="7" customWidth="1"/>
+    <col min="78" max="78" width="16.7109375" style="7" customWidth="1"/>
+    <col min="79" max="79" width="10.42578125" style="7" customWidth="1"/>
+    <col min="80" max="80" width="37.7109375" style="7" customWidth="1"/>
+    <col min="81" max="82" width="16.7109375" style="7" customWidth="1"/>
+    <col min="83" max="85" width="20.140625" style="7" customWidth="1"/>
+    <col min="86" max="86" width="17.7109375" style="7" customWidth="1"/>
+    <col min="87" max="87" width="24.5703125" style="7" customWidth="1"/>
+    <col min="88" max="90" width="19.42578125" style="7" customWidth="1"/>
+    <col min="91" max="91" width="21.140625" style="7" customWidth="1"/>
+    <col min="92" max="92" width="32.42578125" style="7" customWidth="1"/>
+    <col min="93" max="94" width="17.28515625" style="7" customWidth="1"/>
+    <col min="95" max="97" width="17.5703125" style="7" customWidth="1"/>
+    <col min="98" max="98" width="26.28515625" style="7" customWidth="1"/>
+    <col min="99" max="99" width="35" style="7" customWidth="1"/>
+    <col min="100" max="100" width="26.5703125" style="7" customWidth="1"/>
+    <col min="101" max="101" width="24.85546875" style="7" customWidth="1"/>
+    <col min="102" max="102" width="20" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:102" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BI1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BK1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BL1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BM1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BN1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BO1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BP1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BR1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BS1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BT1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BU1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:102" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="20">
+      <c r="V2" s="56">
         <v>2000</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="21" t="s">
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AC2" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AD2" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="AE2" s="17" t="s">
+      <c r="AE2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AH2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AO2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AP2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AR2" s="15" t="s">
+      <c r="AR2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AS2" s="15" t="s">
+      <c r="AS2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AT2" s="15" t="s">
+      <c r="AT2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AU2" s="15" t="s">
+      <c r="AU2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AV2" s="23" t="s">
+      <c r="AV2" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="AW2" s="15" t="s">
+      <c r="AW2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AX2" s="15" t="s">
+      <c r="AX2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AY2" s="15" t="s">
+      <c r="AY2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BA2" s="15" t="s">
+      <c r="BA2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BB2" s="15" t="s">
+      <c r="BB2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="BC2" s="15" t="s">
+      <c r="BC2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="BD2" s="15" t="s">
+      <c r="BD2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="BE2" s="24" t="s">
+      <c r="BE2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="BF2" s="14" t="s">
+      <c r="BF2" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BG2" s="15" t="s">
+      <c r="BG2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BH2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BI2" s="15" t="s">
+      <c r="BI2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BJ2" s="15" t="s">
+      <c r="BJ2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BK2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BL2" s="15" t="s">
+      <c r="BL2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BM2" s="15" t="s">
+      <c r="BM2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BN2" s="15" t="s">
+      <c r="BN2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BO2" s="15" t="s">
+      <c r="BO2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BP2" s="15" t="s">
+      <c r="BP2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="BQ2" s="15" t="s">
+      <c r="BQ2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="BR2" s="16" t="s">
+      <c r="BR2" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="BS2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="BS2" s="15" t="s">
+      <c r="BT2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV2" s="51"/>
+      <c r="BW2" s="24"/>
+      <c r="BX2" s="24"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="24"/>
+      <c r="CC2" s="24"/>
+      <c r="CD2" s="24"/>
+      <c r="CE2" s="24"/>
+      <c r="CF2" s="24"/>
+      <c r="CG2" s="24"/>
+      <c r="CH2" s="24"/>
+      <c r="CI2" s="24"/>
+      <c r="CJ2" s="24"/>
+      <c r="CK2" s="24"/>
+      <c r="CL2" s="24"/>
+      <c r="CM2" s="24"/>
+      <c r="CN2" s="24"/>
+      <c r="CO2" s="24"/>
+      <c r="CP2" s="24"/>
+      <c r="CQ2" s="24"/>
+      <c r="CR2" s="24"/>
+      <c r="CS2" s="24"/>
+      <c r="CT2" s="24"/>
+      <c r="CU2" s="24"/>
+      <c r="CV2" s="24"/>
+      <c r="CW2" s="24"/>
+      <c r="CX2" s="24"/>
+    </row>
+    <row r="8" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="BT2" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="BU2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="BV2" s="16"/>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="C8" s="8" t="s">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="C9" s="6" t="s">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="C11" s="13" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1787,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1809,134 +2194,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>141</v>
       </c>
+      <c r="C2" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="L2" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S2" t="s">
-        <v>151</v>
+    <row r="3" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" t="s">
-        <v>156</v>
+    <row r="4" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="Date Format" prompt="ddmmyy" sqref="H2:J2" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="Date Format" prompt="ddmmyy" sqref="H2:J2 J4" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1951,89 +2344,89 @@
   </sheetPr>
   <dimension ref="A1:CT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="43" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="8" customWidth="1"/>
-    <col min="10" max="11" width="16.85546875" style="8" customWidth="1"/>
-    <col min="12" max="13" width="22" style="8" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="8" customWidth="1"/>
-    <col min="15" max="16" width="26.85546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="24" style="8" customWidth="1"/>
-    <col min="22" max="22" width="32.42578125" style="8" customWidth="1"/>
-    <col min="23" max="23" width="27.85546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="29.7109375" style="8" customWidth="1"/>
-    <col min="25" max="25" width="25.140625" style="8" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" style="8" customWidth="1"/>
-    <col min="27" max="27" width="18.85546875" style="8" customWidth="1"/>
-    <col min="28" max="28" width="94" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="32" style="8" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="8" customWidth="1"/>
-    <col min="31" max="31" width="23" style="8" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="8" customWidth="1"/>
-    <col min="33" max="33" width="27.140625" style="8" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" style="8" customWidth="1"/>
-    <col min="35" max="35" width="19.28515625" style="8" customWidth="1"/>
-    <col min="36" max="36" width="24.7109375" style="8" customWidth="1"/>
-    <col min="37" max="37" width="25" style="8" customWidth="1"/>
-    <col min="38" max="38" width="24.42578125" style="8" customWidth="1"/>
-    <col min="39" max="39" width="43.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="36" style="8" customWidth="1"/>
-    <col min="42" max="42" width="34.42578125" style="8" customWidth="1"/>
-    <col min="43" max="43" width="34.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="39.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="32" style="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="41.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="30.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="40.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.28515625" style="8" customWidth="1"/>
-    <col min="52" max="52" width="35.140625" style="8" customWidth="1"/>
-    <col min="53" max="53" width="29.42578125" style="8" customWidth="1"/>
-    <col min="54" max="54" width="25.85546875" style="8" customWidth="1"/>
-    <col min="55" max="55" width="31.28515625" style="8" customWidth="1"/>
-    <col min="56" max="56" width="17.5703125" style="8" customWidth="1"/>
-    <col min="57" max="57" width="20.28515625" style="8" customWidth="1"/>
-    <col min="58" max="58" width="21.42578125" style="8" customWidth="1"/>
-    <col min="59" max="59" width="24.140625" style="8" customWidth="1"/>
-    <col min="60" max="60" width="14" style="8" customWidth="1"/>
-    <col min="61" max="61" width="16.7109375" style="8" customWidth="1"/>
-    <col min="62" max="62" width="36.140625" style="8" customWidth="1"/>
-    <col min="63" max="63" width="18.140625" style="8" customWidth="1"/>
-    <col min="64" max="64" width="15.7109375" style="8" customWidth="1"/>
-    <col min="65" max="65" width="24" style="8" customWidth="1"/>
-    <col min="66" max="66" width="11.5703125" style="8" customWidth="1"/>
-    <col min="67" max="67" width="8.28515625" style="8" customWidth="1"/>
-    <col min="68" max="68" width="16.5703125" style="8" customWidth="1"/>
-    <col min="69" max="69" width="34.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="43" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="7" customWidth="1"/>
+    <col min="10" max="11" width="16.85546875" style="7" customWidth="1"/>
+    <col min="12" max="13" width="22" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="7" customWidth="1"/>
+    <col min="15" max="16" width="26.85546875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="24" style="7" customWidth="1"/>
+    <col min="22" max="22" width="32.42578125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="27.85546875" style="7" customWidth="1"/>
+    <col min="24" max="24" width="29.7109375" style="7" customWidth="1"/>
+    <col min="25" max="25" width="25.140625" style="7" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="94" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32" style="7" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="7" customWidth="1"/>
+    <col min="31" max="31" width="23" style="7" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="7" customWidth="1"/>
+    <col min="33" max="33" width="27.140625" style="7" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="7" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" style="7" customWidth="1"/>
+    <col min="36" max="36" width="24.7109375" style="7" customWidth="1"/>
+    <col min="37" max="37" width="25" style="7" customWidth="1"/>
+    <col min="38" max="38" width="24.42578125" style="7" customWidth="1"/>
+    <col min="39" max="39" width="43.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="36" style="7" customWidth="1"/>
+    <col min="42" max="42" width="34.42578125" style="7" customWidth="1"/>
+    <col min="43" max="43" width="34.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="39.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="32" style="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="41.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="30.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="40.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.28515625" style="7" customWidth="1"/>
+    <col min="52" max="52" width="35.140625" style="7" customWidth="1"/>
+    <col min="53" max="53" width="29.42578125" style="7" customWidth="1"/>
+    <col min="54" max="54" width="25.85546875" style="7" customWidth="1"/>
+    <col min="55" max="55" width="31.28515625" style="7" customWidth="1"/>
+    <col min="56" max="56" width="17.5703125" style="7" customWidth="1"/>
+    <col min="57" max="57" width="20.28515625" style="7" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" style="7" customWidth="1"/>
+    <col min="59" max="59" width="24.140625" style="7" customWidth="1"/>
+    <col min="60" max="60" width="14" style="7" customWidth="1"/>
+    <col min="61" max="61" width="16.7109375" style="7" customWidth="1"/>
+    <col min="62" max="62" width="36.140625" style="7" customWidth="1"/>
+    <col min="63" max="63" width="18.140625" style="7" customWidth="1"/>
+    <col min="64" max="64" width="15.7109375" style="7" customWidth="1"/>
+    <col min="65" max="65" width="24" style="7" customWidth="1"/>
+    <col min="66" max="66" width="11.5703125" style="7" customWidth="1"/>
+    <col min="67" max="67" width="8.28515625" style="7" customWidth="1"/>
+    <col min="68" max="68" width="16.5703125" style="7" customWidth="1"/>
+    <col min="69" max="69" width="34.28515625" style="7" customWidth="1"/>
     <col min="70" max="70" width="12.7109375" style="1" customWidth="1"/>
     <col min="71" max="71" width="11.140625" style="1" customWidth="1"/>
     <col min="72" max="72" width="23.28515625" style="2" customWidth="1"/>
     <col min="73" max="73" width="41.85546875" style="2" customWidth="1"/>
     <col min="74" max="74" width="47.85546875" style="2" customWidth="1"/>
-    <col min="75" max="75" width="30.140625" style="8" customWidth="1"/>
+    <col min="75" max="75" width="30.140625" style="7" customWidth="1"/>
     <col min="76" max="76" width="29.42578125" style="2" customWidth="1"/>
-    <col min="77" max="77" width="25.28515625" style="8" customWidth="1"/>
+    <col min="77" max="77" width="25.28515625" style="7" customWidth="1"/>
     <col min="78" max="78" width="9.5703125" style="1" customWidth="1"/>
     <col min="79" max="79" width="25.7109375" style="1" customWidth="1"/>
-    <col min="80" max="80" width="19.7109375" style="8" customWidth="1"/>
+    <col min="80" max="80" width="19.7109375" style="7" customWidth="1"/>
     <col min="81" max="81" width="28.5703125" style="1" customWidth="1"/>
     <col min="82" max="82" width="21.140625" style="1" customWidth="1"/>
     <col min="83" max="83" width="14.5703125" style="1" customWidth="1"/>
@@ -2041,313 +2434,907 @@
     <col min="85" max="85" width="24.42578125" style="1" customWidth="1"/>
     <col min="86" max="86" width="18.28515625" style="1" customWidth="1"/>
     <col min="87" max="87" width="18.85546875" style="1" customWidth="1"/>
-    <col min="88" max="88" width="26.28515625" style="8" customWidth="1"/>
-    <col min="89" max="90" width="31.140625" style="8" customWidth="1"/>
+    <col min="88" max="88" width="26.28515625" style="7" customWidth="1"/>
+    <col min="89" max="90" width="31.140625" style="7" customWidth="1"/>
     <col min="91" max="91" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="20.42578125" style="8" customWidth="1"/>
-    <col min="94" max="94" width="27.140625" style="8" customWidth="1"/>
-    <col min="95" max="95" width="21.140625" style="8" customWidth="1"/>
-    <col min="96" max="97" width="19.28515625" style="8" customWidth="1"/>
-    <col min="98" max="98" width="23.42578125" style="8" customWidth="1"/>
+    <col min="93" max="93" width="20.42578125" style="7" customWidth="1"/>
+    <col min="94" max="94" width="27.140625" style="7" customWidth="1"/>
+    <col min="95" max="95" width="21.140625" style="7" customWidth="1"/>
+    <col min="96" max="97" width="19.28515625" style="7" customWidth="1"/>
+    <col min="98" max="98" width="23.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:42" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="H1" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="J1" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="K1" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="L1" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="M1" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="N1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="O1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="P1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="Q1" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="R1" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="S1" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="T1" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="U1" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="V1" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="W1" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="X1" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="Y1" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="Z1" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="AA1" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AB1" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AC1" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AD1" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AE1" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AF1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AG1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AK1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AL1" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AH1" s="26" t="s">
+      <c r="AN1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AO1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AJ1" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="AL1" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="AM1" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN1" s="6" t="s">
+      <c r="D2" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z2" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB2" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC2" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD2" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF2" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG2" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH2" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI2" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ2" s="37">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="37">
+        <v>11</v>
+      </c>
+      <c r="AL2" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO2" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP2" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96402474-A5AD-4802-B71C-482943B7C087}">
+  <dimension ref="A1:AV4"/>
+  <sheetViews>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="6" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="13" width="21.85546875" customWidth="1"/>
+    <col min="14" max="26" width="18.42578125" customWidth="1"/>
+    <col min="27" max="28" width="22.5703125" customWidth="1"/>
+    <col min="29" max="29" width="23.85546875" customWidth="1"/>
+    <col min="30" max="40" width="20.5703125" customWidth="1"/>
+    <col min="41" max="41" width="23.28515625" customWidth="1"/>
+    <col min="42" max="42" width="24.28515625" customWidth="1"/>
+    <col min="43" max="43" width="24.5703125" customWidth="1"/>
+    <col min="44" max="44" width="25" customWidth="1"/>
+    <col min="45" max="45" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="D1" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="E1" s="18" t="s">
         <v>221</v>
       </c>
+      <c r="F1" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>190</v>
+      <c r="B2" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="X2" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="24">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD2" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF2" s="24">
+        <v>55</v>
+      </c>
+      <c r="AG2" s="24">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="AI2" s="24">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="24">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="25">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AL2" s="24">
+        <v>75</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN2" s="25">
+        <v>1.05</v>
+      </c>
+      <c r="AO2" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP2" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ2" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR2" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS2" s="26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ3" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ4" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EEA1F6-BBEC-4A51-B725-1BAD7ECFFE60}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="7" customWidth="1"/>
+    <col min="10" max="11" width="21.140625" style="7" customWidth="1"/>
+    <col min="12" max="16" width="29.140625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="P1" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q1" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="R1" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="S1" s="69" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>304</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="F2" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="R2" s="29" t="s">
+      <c r="G2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="X2" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z2" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA2" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE2" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF2" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH2" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI2" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ2" s="36">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="36">
-        <v>11</v>
-      </c>
-      <c r="AL2" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM2" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN2" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="AO2" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>111</v>
+      <c r="H2" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="P2" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="R2" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" s="64" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4D57C-9E94-4EDC-A3A0-D6D26A96A9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DF0D2-881F-4FC2-A030-24018B766DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,12 @@
     <sheet name="CRED08_OngoingFeeSetup" sheetId="4" r:id="rId4"/>
     <sheet name="SYND02_PrimaryAllocation" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="315">
   <si>
     <t>rowid</t>
   </si>
@@ -393,6 +383,9 @@
     <t>LB</t>
   </si>
   <si>
+    <t>Brook,  Liz</t>
+  </si>
+  <si>
     <t>DDA</t>
   </si>
   <si>
@@ -465,7 +458,7 @@
     <t>CLASS_A_NOTE_FAC_</t>
   </si>
   <si>
-    <t>CLASS_A_NOTE_FAC_21138</t>
+    <t>CLASS_A_NOTE_FAC_05105</t>
   </si>
   <si>
     <t>Revolver</t>
@@ -501,6 +494,15 @@
     <t>100.000000%</t>
   </si>
   <si>
+    <t>original value below</t>
+  </si>
+  <si>
+    <t>03-Apr-2020</t>
+  </si>
+  <si>
+    <t>30-Sep-2021</t>
+  </si>
+  <si>
     <t>Deal_NamePrefix</t>
   </si>
   <si>
@@ -591,6 +593,15 @@
     <t>PricingOption_BillBorrower</t>
   </si>
   <si>
+    <t>PricingRule_Fee</t>
+  </si>
+  <si>
+    <t>PricingRule_MatrixChangeAppMthd</t>
+  </si>
+  <si>
+    <t>PricingRule_NonBussDayRule</t>
+  </si>
+  <si>
     <t>PricingOption_IntentNoticeDaysInAdvance</t>
   </si>
   <si>
@@ -600,6 +611,18 @@
     <t>PricingOption_RateSettingPeriodOption</t>
   </si>
   <si>
+    <t>Ratios_And_Cons_Index</t>
+  </si>
+  <si>
+    <t>Ratios_And_Cons_Description</t>
+  </si>
+  <si>
+    <t>Ratios_And_Cons_StartDate</t>
+  </si>
+  <si>
+    <t>Ratios_And_Cons_RadioButton</t>
+  </si>
+  <si>
     <t>Establish Deal with Outside Condition</t>
   </si>
   <si>
@@ -609,10 +632,10 @@
     <t>LBT BILAT DEAL_</t>
   </si>
   <si>
-    <t>LBT BILAT DEAL AUD 1.0B 18MAR1807111</t>
-  </si>
-  <si>
-    <t>LBT BILAT DEAL_07112</t>
+    <t>LBT BILAT DEAL AUD 1.0B 18MAR1856125</t>
+  </si>
+  <si>
+    <t>LBT BILAT DEAL_56125</t>
   </si>
   <si>
     <t>COMMONWEALTHBANKOFAUSTCB001</t>
@@ -672,25 +695,7 @@
     <t>03-Apr-2019</t>
   </si>
   <si>
-    <t>PricingRule_Fee</t>
-  </si>
-  <si>
-    <t>PricingRule_MatrixChangeAppMthd</t>
-  </si>
-  <si>
-    <t>PricingRule_NonBussDayRule</t>
-  </si>
-  <si>
-    <t>Ratios_And_Cons_Index</t>
-  </si>
-  <si>
-    <t>Ratios_And_Cons_Description</t>
-  </si>
-  <si>
-    <t>Ratios_And_Cons_StartDate</t>
-  </si>
-  <si>
-    <t>Ratios_And_Cons_RadioButton</t>
+    <t>to change once we move to diff envi</t>
   </si>
   <si>
     <t>OngoingFee_Category</t>
@@ -702,6 +707,111 @@
     <t>OngoingFee_RateBasis</t>
   </si>
   <si>
+    <t>OngoingFee_AfterItem1</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItemType1</t>
+  </si>
+  <si>
+    <t>OutsideCondition_Type</t>
+  </si>
+  <si>
+    <t>OutsideCondition_RadioButton</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItem2</t>
+  </si>
+  <si>
+    <t>OngoingFee_AfterItemType2</t>
+  </si>
+  <si>
+    <t>OngoingFee_FormulaCategoryType</t>
+  </si>
+  <si>
+    <t>OngoingFee_SpreadType</t>
+  </si>
+  <si>
+    <t>Facility_Percent1</t>
+  </si>
+  <si>
+    <t>Facility_Percent2</t>
+  </si>
+  <si>
+    <t>Interest_Item1</t>
+  </si>
+  <si>
+    <t>Interest_ItemType1</t>
+  </si>
+  <si>
+    <t>Commitment_PctType</t>
+  </si>
+  <si>
+    <t>Commitment_BalanceType</t>
+  </si>
+  <si>
+    <t>Commitment_GreaterThan1</t>
+  </si>
+  <si>
+    <t>Commitment_LessThan</t>
+  </si>
+  <si>
+    <t>Commitment_MnemonicStatus_OFF</t>
+  </si>
+  <si>
+    <t>Commitment_MnemonicStatus_ON</t>
+  </si>
+  <si>
+    <t>Minimum_Value1</t>
+  </si>
+  <si>
+    <t>Maximum_Value1</t>
+  </si>
+  <si>
+    <t>Interest_AfterItem1</t>
+  </si>
+  <si>
+    <t>Interest_AfterItemType1</t>
+  </si>
+  <si>
+    <t>Interest_OptionName1</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis1</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt1</t>
+  </si>
+  <si>
+    <t>Commitment_GreaterThan2</t>
+  </si>
+  <si>
+    <t>Minimum_Value2</t>
+  </si>
+  <si>
+    <t>Maximum_Value2</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt2</t>
+  </si>
+  <si>
+    <t>Minimum_Value3</t>
+  </si>
+  <si>
+    <t>Maximum_Value3</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt3</t>
+  </si>
+  <si>
+    <t>Minimum_Value4</t>
+  </si>
+  <si>
+    <t>Maximum_Value4</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt4</t>
+  </si>
+  <si>
     <t>OngoingFee_EffectiveDate</t>
   </si>
   <si>
@@ -726,189 +836,69 @@
     <t>Actual/365</t>
   </si>
   <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Outside Condition</t>
+  </si>
+  <si>
+    <t>Outside Condition 1</t>
+  </si>
+  <si>
     <t>FormulaCategory</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
     <t>0.750000</t>
   </si>
   <si>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>Amounts as % of Commitment</t>
+  </si>
+  <si>
+    <t>Utilized</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
     <t>Option</t>
   </si>
   <si>
-    <t>03-Apr-2020</t>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Maximum</t>
   </si>
   <si>
     <t>to the actual due date</t>
   </si>
   <si>
+    <t>02-Apr-2024</t>
+  </si>
+  <si>
+    <t>Original date below</t>
+  </si>
+  <si>
     <t>02-Apr-2020</t>
   </si>
   <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Outside Condition</t>
-  </si>
-  <si>
-    <t>OutsideCondition_Type</t>
-  </si>
-  <si>
-    <t>Outside Condition 1</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem1</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItem2</t>
-  </si>
-  <si>
-    <t>OutsideCondition_RadioButton</t>
-  </si>
-  <si>
-    <t>Facility_Percent2</t>
-  </si>
-  <si>
-    <t>Facility_Percent1</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItemType1</t>
-  </si>
-  <si>
-    <t>0.00000</t>
-  </si>
-  <si>
-    <t>OngoingFee_AfterItemType2</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>OngoingFee_FormulaCategoryType</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>OngoingFee_SpreadType</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>Interest_Item1</t>
-  </si>
-  <si>
-    <t>Interest_ItemType1</t>
-  </si>
-  <si>
-    <t>Amounts as % of Commitment</t>
-  </si>
-  <si>
-    <t>Commitment_PctType</t>
-  </si>
-  <si>
-    <t>Utilized</t>
-  </si>
-  <si>
-    <t>Commitment_BalanceType</t>
-  </si>
-  <si>
-    <t>Facility</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>Commitment_LessThan</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>Interest_AfterItem1</t>
-  </si>
-  <si>
-    <t>Interest_AfterItemType1</t>
-  </si>
-  <si>
-    <t>Interest_OptionName1</t>
-  </si>
-  <si>
-    <t>Interest_RateBasis1</t>
-  </si>
-  <si>
-    <t>Commitment_GreaterThan2</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>Minimum_Value1</t>
-  </si>
-  <si>
-    <t>Maximum_Value1</t>
-  </si>
-  <si>
-    <t>Minimum_Value2</t>
-  </si>
-  <si>
-    <t>Maximum_Value2</t>
-  </si>
-  <si>
-    <t>Interest_SpreadAmt2</t>
-  </si>
-  <si>
-    <t>Interest_SpreadAmt1</t>
-  </si>
-  <si>
-    <t>Commitment_GreaterThan1</t>
-  </si>
-  <si>
-    <t>Minimum_Value3</t>
-  </si>
-  <si>
-    <t>Maximum_Value3</t>
-  </si>
-  <si>
-    <t>Minimum_Value4</t>
-  </si>
-  <si>
-    <t>Maximum_Value4</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Interest_SpreadAmt3</t>
-  </si>
-  <si>
-    <t>Commitment_MnemonicStatus_OFF</t>
-  </si>
-  <si>
-    <t>Commitment_MnemonicStatus_ON</t>
-  </si>
-  <si>
-    <t>Interest_SpreadAmt4</t>
-  </si>
-  <si>
-    <t>Original date below</t>
-  </si>
-  <si>
-    <t>02-Apr-2024</t>
-  </si>
-  <si>
-    <t>to change once we move to diff envi</t>
-  </si>
-  <si>
-    <t>original value below</t>
-  </si>
-  <si>
-    <t>30-Sep-2021</t>
-  </si>
-  <si>
-    <t>Brook,  Liz</t>
-  </si>
-  <si>
     <t>Primary_Lender</t>
   </si>
   <si>
@@ -924,16 +914,28 @@
     <t>Primary_PctOfDeal</t>
   </si>
   <si>
+    <t>Primary_BuySellPrice</t>
+  </si>
+  <si>
+    <t>Expected_CloseDate</t>
+  </si>
+  <si>
     <t>Primary_Contact</t>
   </si>
   <si>
+    <t>Primary_SGAlias</t>
+  </si>
+  <si>
+    <t>Primary_CircledDate</t>
+  </si>
+  <si>
     <t>Primary_Portfolio</t>
   </si>
   <si>
     <t>Primary_PortfolioBranch</t>
   </si>
   <si>
-    <t>Primary_CircledDate</t>
+    <t>Lender_Hostbank</t>
   </si>
   <si>
     <t>ApproveDate</t>
@@ -942,37 +944,31 @@
     <t>CloseDate</t>
   </si>
   <si>
+    <t>Cycle_Frequency</t>
+  </si>
+  <si>
+    <t>Setup Primary for LBT Bilateral Deal</t>
+  </si>
+  <si>
     <t>INTFULDRAW17112020142405ZCZ</t>
   </si>
   <si>
     <t>Origination</t>
   </si>
   <si>
-    <t>Setup Primary for LBT Bilateral Deal</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Hold for Investment - Australia</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Annually</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Expected_CloseDate</t>
-  </si>
-  <si>
-    <t>Primary_SGAlias</t>
-  </si>
-  <si>
-    <t>Hold for Investment - Australia</t>
-  </si>
-  <si>
-    <t>Lender_Hostbank</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Primary_BuySellPrice</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
 </sst>
 </file>
@@ -982,18 +978,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1154,109 +1143,113 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1265,7 +1258,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{27F59FE5-880C-4111-9597-16D52F987DE9}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2099,10 +2092,10 @@
         <v>118</v>
       </c>
       <c r="BR2" s="51" t="s">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="BS2" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BT2" s="13" t="s">
         <v>117</v>
@@ -2142,22 +2135,22 @@
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.2">
       <c r="C10" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2168,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2201,55 +2194,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2257,74 +2250,74 @@
         <v>73</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>115</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N2" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>150</v>
-      </c>
       <c r="P2" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R2" s="45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J3" s="46" t="s">
-        <v>288</v>
+        <v>156</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>288</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J4" s="47" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2345,8 +2338,8 @@
   <dimension ref="A1:CT3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <pane xSplit="2" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,124 +2446,124 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AC1" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AE1" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="AH1" s="15" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="AJ1" s="15" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AL1" s="15" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2578,88 +2571,88 @@
         <v>73</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>115</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>100</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P2" s="32" t="s">
         <v>98</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="R2" s="32" t="s">
         <v>97</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="W2" s="36" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="X2" s="36" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="Y2" s="36" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Z2" s="36" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AA2" s="36" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="AB2" s="36" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AC2" s="36" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="AD2" s="36" t="s">
         <v>111</v>
@@ -2668,16 +2661,16 @@
         <v>111</v>
       </c>
       <c r="AF2" s="36" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AG2" s="36" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AH2" s="36" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="AI2" s="36" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AJ2" s="37">
         <v>3</v>
@@ -2686,16 +2679,16 @@
         <v>11</v>
       </c>
       <c r="AL2" s="37" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="AM2" s="38" t="s">
         <v>73</v>
       </c>
       <c r="AN2" s="37" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="AO2" s="38" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="AP2" s="27" t="s">
         <v>111</v>
@@ -2703,7 +2696,7 @@
     </row>
     <row r="3" spans="1:42" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="49" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2714,33 +2707,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96402474-A5AD-4802-B71C-482943B7C087}">
-  <dimension ref="A1:AV4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="13" width="21.85546875" customWidth="1"/>
-    <col min="14" max="26" width="18.42578125" customWidth="1"/>
-    <col min="27" max="28" width="22.5703125" customWidth="1"/>
-    <col min="29" max="29" width="23.85546875" customWidth="1"/>
-    <col min="30" max="40" width="20.5703125" customWidth="1"/>
-    <col min="41" max="41" width="23.28515625" customWidth="1"/>
-    <col min="42" max="42" width="24.28515625" customWidth="1"/>
-    <col min="43" max="43" width="24.5703125" customWidth="1"/>
-    <col min="44" max="44" width="25" customWidth="1"/>
-    <col min="45" max="45" width="31.42578125" customWidth="1"/>
+    <col min="4" max="6" width="23.42578125" customWidth="1"/>
+    <col min="8" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="15" width="21.85546875" customWidth="1"/>
+    <col min="16" max="28" width="18.42578125" customWidth="1"/>
+    <col min="29" max="30" width="22.5703125" customWidth="1"/>
+    <col min="31" max="31" width="23.85546875" customWidth="1"/>
+    <col min="32" max="42" width="20.5703125" customWidth="1"/>
+    <col min="43" max="43" width="23.28515625" customWidth="1"/>
+    <col min="44" max="44" width="24.28515625" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" customWidth="1"/>
+    <col min="46" max="46" width="25" customWidth="1"/>
+    <col min="47" max="47" width="31.42578125" customWidth="1"/>
+    <col min="48" max="48" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2748,273 +2742,291 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="U1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="V1" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z1" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB1" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD1" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="AE1" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF1" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH1" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="AJ1" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK1" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="AL1" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM1" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="U1" s="18" t="s">
+      <c r="AN1" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP1" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="V1" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AQ1" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR1" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AS1" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AT1" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AU1" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="AD1" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="AL1" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP1" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR1" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="AS1" s="18" t="s">
-        <v>226</v>
+      <c r="AV1" s="72" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>229</v>
+        <v>218</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>237</v>
+        <v>144</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>269</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="I2" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>246</v>
+      <c r="L2" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>257</v>
+        <v>277</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="U2" s="24" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="V2" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="X2" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="Y2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="X2" s="24">
+      <c r="Z2" s="24">
         <v>0</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="AA2" s="24">
         <v>55</v>
       </c>
-      <c r="Z2" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD2" s="25">
+      <c r="AB2" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF2" s="25">
         <v>1.3</v>
       </c>
-      <c r="AE2" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF2" s="24">
+      <c r="AG2" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH2" s="24">
         <v>55</v>
-      </c>
-      <c r="AG2" s="24">
-        <v>65</v>
-      </c>
-      <c r="AH2" s="25">
-        <v>1.2</v>
       </c>
       <c r="AI2" s="24">
         <v>65</v>
       </c>
-      <c r="AJ2" s="24">
-        <v>75</v>
-      </c>
-      <c r="AK2" s="25">
-        <v>1.1200000000000001</v>
+      <c r="AJ2" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="AK2" s="24">
+        <v>65</v>
       </c>
       <c r="AL2" s="24">
         <v>75</v>
       </c>
-      <c r="AM2" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="AN2" s="25">
+      <c r="AM2" s="25">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AN2" s="24">
+        <v>75</v>
+      </c>
+      <c r="AO2" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP2" s="25">
         <v>1.05</v>
       </c>
-      <c r="AO2" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP2" s="26" t="s">
-        <v>147</v>
-      </c>
       <c r="AQ2" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR2" s="27" t="s">
-        <v>234</v>
+        <v>222</v>
+      </c>
+      <c r="AR2" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="AS2" s="26" t="s">
-        <v>286</v>
+        <v>148</v>
+      </c>
+      <c r="AT2" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU2" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="AV2" s="63" t="s">
+        <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3056,21 +3068,23 @@
       <c r="AM3" s="13"/>
       <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
-      <c r="AP3" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ3" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="AR3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="28" t="s">
+        <v>289</v>
+      </c>
       <c r="AS3" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="AV3"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -3112,19 +3126,20 @@
       <c r="AM4" s="24"/>
       <c r="AN4" s="24"/>
       <c r="AO4" s="24"/>
-      <c r="AP4" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ4" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="29" t="s">
+        <v>157</v>
+      </c>
       <c r="AS4" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3132,16 +3147,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EEA1F6-BBEC-4A51-B725-1BAD7ECFFE60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3150,19 +3165,20 @@
     <col min="2" max="2" width="39.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="7" customWidth="1"/>
-    <col min="10" max="11" width="21.140625" style="7" customWidth="1"/>
-    <col min="12" max="16" width="29.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="7" customWidth="1"/>
+    <col min="11" max="12" width="21.140625" style="7" customWidth="1"/>
+    <col min="13" max="17" width="29.140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -3170,170 +3186,173 @@
         <v>1</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="G1" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="H1" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="I1" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="J1" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="68" t="s">
-        <v>311</v>
-      </c>
       <c r="K1" s="68" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L1" s="68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M1" s="68" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="O1" s="69" t="s">
-        <v>297</v>
+      <c r="O1" s="68" t="s">
+        <v>300</v>
       </c>
       <c r="P1" s="69" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q1" s="69" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="R1" s="69" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="S1" s="69" t="s">
-        <v>301</v>
+        <v>304</v>
+      </c>
+      <c r="T1" s="69" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="F2" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="K2" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q2" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="J2" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="P2" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="63" t="s">
-        <v>310</v>
-      </c>
-      <c r="R2" s="64" t="s">
-        <v>146</v>
-      </c>
       <c r="S2" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="T2" s="64" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DF0D2-881F-4FC2-A030-24018B766DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965B902F-C289-41D2-80CA-70E8DE0223A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="26850" windowHeight="10890" tabRatio="877" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="316">
   <si>
     <t>rowid</t>
   </si>
@@ -969,6 +969,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Primary_PortfolioExpDate</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1152,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1242,9 +1245,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
@@ -2710,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2732,6 +2732,7 @@
     <col min="46" max="46" width="25" customWidth="1"/>
     <col min="47" max="47" width="31.42578125" customWidth="1"/>
     <col min="48" max="48" width="23.5703125" customWidth="1"/>
+    <col min="49" max="49" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
@@ -2747,10 +2748,10 @@
       <c r="D1" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>126</v>
       </c>
       <c r="G1" s="18" t="s">
@@ -2876,7 +2877,7 @@
       <c r="AU1" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="AV1" s="72" t="s">
+      <c r="AV1" s="71" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3154,9 +3155,9 @@
   </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3165,17 +3166,17 @@
     <col min="2" max="2" width="39.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="7" customWidth="1"/>
-    <col min="11" max="12" width="21.140625" style="7" customWidth="1"/>
-    <col min="13" max="17" width="29.140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="7" customWidth="1"/>
+    <col min="10" max="11" width="21.140625" style="7" customWidth="1"/>
+    <col min="12" max="16" width="29.140625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3192,52 +3193,52 @@
         <v>126</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="F1" s="68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G1" s="68" t="s">
-        <v>292</v>
-      </c>
-      <c r="H1" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="H1" s="66" t="s">
         <v>294</v>
       </c>
+      <c r="I1" s="68" t="s">
+        <v>295</v>
+      </c>
       <c r="J1" s="68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L1" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M1" s="68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N1" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="O1" s="68" t="s">
         <v>300</v>
       </c>
+      <c r="O1" s="69" t="s">
+        <v>301</v>
+      </c>
       <c r="P1" s="69" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q1" s="69" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R1" s="69" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S1" s="69" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1" s="69" t="s">
         <v>305</v>
+      </c>
+      <c r="T1" s="71" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -3253,77 +3254,56 @@
       <c r="D2" s="24" t="s">
         <v>308</v>
       </c>
+      <c r="E2" s="62" t="s">
+        <v>204</v>
+      </c>
       <c r="F2" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="62" t="s">
         <v>100</v>
       </c>
+      <c r="G2" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="H2" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="I2" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="J2" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>147</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="M2" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="N2" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>147</v>
       </c>
+      <c r="O2" s="63" t="s">
+        <v>311</v>
+      </c>
       <c r="P2" s="63" t="s">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="63" t="s">
         <v>312</v>
+      </c>
+      <c r="R2" s="64" t="s">
+        <v>147</v>
       </c>
       <c r="S2" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="T2" s="64" t="s">
-        <v>147</v>
+      <c r="T2" s="63" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="K3" s="7" t="s">
         <v>314</v>
       </c>
@@ -3336,24 +3316,9 @@
       <c r="N3" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="26850" windowHeight="13710" tabRatio="877" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="877" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,11 +23,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -104,6 +111,11 @@
       <family val="2"/>
       <color rgb="FFFF0000"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="11">
@@ -207,126 +219,126 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -338,9 +350,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -659,8 +690,8 @@
   <dimension ref="A1:CX11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H22" sqref="H22"/>
+      <pane xSplit="2" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1544,8 +1575,8 @@
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1801,7 +1832,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2342,8 +2373,8 @@
   </sheetPr>
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AW11" sqref="AW11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3258,40 +3289,40 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="51.7109375" customWidth="1" min="2" max="2"/>
-    <col width="17.5703125" customWidth="1" min="3" max="3"/>
-    <col width="29.140625" customWidth="1" min="4" max="4"/>
-    <col width="21.140625" customWidth="1" min="5" max="5"/>
-    <col width="27.5703125" customWidth="1" min="6" max="6"/>
-    <col width="15.85546875" customWidth="1" min="7" max="7"/>
-    <col width="20.42578125" customWidth="1" min="8" max="8"/>
-    <col width="19.5703125" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="25.7109375" customWidth="1" min="11" max="11"/>
-    <col width="21.42578125" customWidth="1" min="12" max="12"/>
-    <col width="21.7109375" customWidth="1" min="13" max="14"/>
-    <col width="23.42578125" customWidth="1" min="15" max="15"/>
-    <col width="22.28515625" customWidth="1" min="16" max="16"/>
-    <col width="25.140625" customWidth="1" min="17" max="17"/>
-    <col width="17.5703125" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
-    <col width="26.7109375" customWidth="1" min="20" max="20"/>
-    <col width="22.5703125" customWidth="1" min="22" max="22"/>
-    <col width="25.7109375" customWidth="1" min="23" max="23"/>
-    <col width="32.28515625" customWidth="1" min="24" max="24"/>
-    <col width="27.140625" customWidth="1" min="25" max="25"/>
-    <col width="30" customWidth="1" min="26" max="26"/>
-    <col width="31.42578125" customWidth="1" min="27" max="27"/>
-    <col width="21.85546875" customWidth="1" min="28" max="28"/>
-    <col width="21.7109375" customWidth="1" min="29" max="29"/>
+    <col width="51.7109375" customWidth="1" min="2" max="5"/>
+    <col width="17.5703125" customWidth="1" min="6" max="6"/>
+    <col width="29.140625" customWidth="1" min="7" max="7"/>
+    <col width="21.140625" customWidth="1" min="8" max="8"/>
+    <col width="27.5703125" customWidth="1" min="9" max="9"/>
+    <col width="15.85546875" customWidth="1" min="10" max="10"/>
+    <col width="20.42578125" customWidth="1" min="11" max="11"/>
+    <col width="19.5703125" customWidth="1" min="12" max="12"/>
+    <col width="24" customWidth="1" min="13" max="13"/>
+    <col width="25.7109375" customWidth="1" min="14" max="14"/>
+    <col width="21.42578125" customWidth="1" min="15" max="15"/>
+    <col width="21.7109375" customWidth="1" min="16" max="17"/>
+    <col width="23.42578125" customWidth="1" min="18" max="18"/>
+    <col width="22.28515625" customWidth="1" min="19" max="19"/>
+    <col width="25.140625" customWidth="1" min="20" max="20"/>
+    <col width="17.5703125" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="26.7109375" customWidth="1" min="23" max="23"/>
+    <col width="22.5703125" customWidth="1" min="25" max="25"/>
+    <col width="25.7109375" customWidth="1" min="26" max="26"/>
+    <col width="32.28515625" customWidth="1" min="27" max="27"/>
+    <col width="27.140625" customWidth="1" min="28" max="28"/>
+    <col width="30" customWidth="1" min="29" max="29"/>
+    <col width="31.42578125" customWidth="1" min="30" max="30"/>
+    <col width="21.85546875" customWidth="1" min="31" max="31"/>
+    <col width="21.7109375" customWidth="1" min="32" max="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="71">
@@ -3307,135 +3338,150 @@
       </c>
       <c r="C1" s="72" t="inlineStr">
         <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="D1" s="72" t="inlineStr">
+        <is>
+          <t>Facility_Name</t>
+        </is>
+      </c>
+      <c r="E1" s="72" t="inlineStr">
+        <is>
+          <t>Borrower_Name</t>
+        </is>
+      </c>
+      <c r="F1" s="72" t="inlineStr">
+        <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="D1" s="71" t="inlineStr">
+      <c r="G1" s="71" t="inlineStr">
         <is>
           <t>Outstanding_Type</t>
         </is>
       </c>
-      <c r="E1" s="71" t="inlineStr">
+      <c r="H1" s="71" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="F1" s="71" t="inlineStr">
+      <c r="I1" s="71" t="inlineStr">
         <is>
           <t>Loan_RequestedAmount</t>
         </is>
       </c>
-      <c r="G1" s="71" t="inlineStr">
+      <c r="J1" s="71" t="inlineStr">
         <is>
           <t>Loan_EffectiveDate</t>
         </is>
       </c>
-      <c r="H1" s="73" t="inlineStr">
+      <c r="K1" s="73" t="inlineStr">
         <is>
           <t>Loan_MaturityDate</t>
         </is>
       </c>
-      <c r="I1" s="71" t="inlineStr">
+      <c r="L1" s="71" t="inlineStr">
         <is>
           <t>Loan_RepricingFrequency</t>
         </is>
       </c>
-      <c r="J1" s="71" t="inlineStr">
+      <c r="M1" s="71" t="inlineStr">
         <is>
           <t>Expctd_Loan_IntCycleFrequency</t>
         </is>
       </c>
-      <c r="K1" s="71" t="inlineStr">
+      <c r="N1" s="71" t="inlineStr">
         <is>
           <t>Loan_Accrue</t>
         </is>
       </c>
-      <c r="L1" s="71" t="inlineStr">
+      <c r="O1" s="71" t="inlineStr">
         <is>
           <t>Loan_RepricingDate</t>
         </is>
       </c>
-      <c r="M1" s="71" t="inlineStr">
+      <c r="P1" s="71" t="inlineStr">
         <is>
           <t>Loan_AccrualEndDate</t>
         </is>
       </c>
-      <c r="N1" s="71" t="inlineStr">
+      <c r="Q1" s="71" t="inlineStr">
         <is>
           <t>Payment_Mode</t>
         </is>
       </c>
-      <c r="O1" s="73" t="inlineStr">
+      <c r="R1" s="73" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="P1" s="73" t="inlineStr">
+      <c r="S1" s="73" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="Q1" s="73" t="inlineStr">
+      <c r="T1" s="73" t="inlineStr">
         <is>
           <t>AcceptRate_BorrowerBaseRate</t>
         </is>
       </c>
-      <c r="R1" s="73" t="inlineStr">
+      <c r="U1" s="73" t="inlineStr">
         <is>
           <t>AcceptRate_FromPricing</t>
         </is>
       </c>
-      <c r="S1" s="73" t="inlineStr">
+      <c r="V1" s="73" t="inlineStr">
         <is>
           <t>RateSetting_NoticeStatus</t>
         </is>
       </c>
-      <c r="T1" s="71" t="inlineStr">
+      <c r="W1" s="71" t="inlineStr">
         <is>
           <t>Outstanding_Currency</t>
         </is>
       </c>
-      <c r="U1" s="14" t="inlineStr">
+      <c r="X1" s="14" t="inlineStr">
         <is>
           <t>Loan_RiskType</t>
         </is>
       </c>
-      <c r="V1" s="14" t="inlineStr">
+      <c r="Y1" s="14" t="inlineStr">
         <is>
           <t>Loan_FiskandLoanRiskType</t>
         </is>
       </c>
-      <c r="W1" s="71" t="inlineStr">
+      <c r="Z1" s="71" t="inlineStr">
         <is>
           <t>Expctd_LoanGlobalOriginal</t>
         </is>
       </c>
-      <c r="X1" s="71" t="inlineStr">
+      <c r="AA1" s="71" t="inlineStr">
         <is>
           <t>Expctd_LoanGlobalCurrent</t>
         </is>
       </c>
-      <c r="Y1" s="71" t="inlineStr">
+      <c r="AB1" s="71" t="inlineStr">
         <is>
           <t>Expctd_LoanHostBankGross</t>
         </is>
       </c>
-      <c r="Z1" s="71" t="inlineStr">
+      <c r="AC1" s="71" t="inlineStr">
         <is>
           <t>Expctd_LoanHostBankNet</t>
         </is>
       </c>
-      <c r="AA1" s="71" t="inlineStr">
+      <c r="AD1" s="71" t="inlineStr">
         <is>
           <t>Expctd_LoanCurrentBaseRate</t>
         </is>
       </c>
-      <c r="AB1" s="71" t="inlineStr">
+      <c r="AE1" s="71" t="inlineStr">
         <is>
           <t>Expctd_LoanSpread</t>
         </is>
       </c>
-      <c r="AC1" s="71" t="inlineStr">
+      <c r="AF1" s="71" t="inlineStr">
         <is>
           <t>Expctd_LoanAllInRate</t>
         </is>
@@ -3449,295 +3495,430 @@
       </c>
       <c r="B2" s="62" t="inlineStr">
         <is>
-          <t>Create Loan Drawdown for LBT Bilateral Deal - Outstanding Z</t>
-        </is>
-      </c>
-      <c r="C2" s="62" t="inlineStr">
+          <t>Create Loan Drawdown for LBT Bilateral Deal</t>
+        </is>
+      </c>
+      <c r="C2" s="31" t="inlineStr">
+        <is>
+          <t>LBT BILAT DEAL AUD 1.0B 18MAR1845113</t>
+        </is>
+      </c>
+      <c r="D2" s="26" t="inlineStr">
+        <is>
+          <t>CLASS_A_NOTE_FAC_53129</t>
+        </is>
+      </c>
+      <c r="E2" s="62" t="inlineStr">
+        <is>
+          <t>LBT TRUST 1115737</t>
+        </is>
+      </c>
+      <c r="F2" s="62" t="inlineStr">
         <is>
           <t>60001972</t>
         </is>
       </c>
-      <c r="D2" s="62" t="inlineStr">
+      <c r="G2" s="62" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="E2" s="62" t="inlineStr">
+      <c r="H2" s="62" t="inlineStr">
         <is>
           <t>BBSW - Mid</t>
         </is>
       </c>
-      <c r="F2" s="74" t="inlineStr">
+      <c r="I2" s="74" t="inlineStr">
         <is>
           <t>500,000.00</t>
         </is>
       </c>
-      <c r="G2" s="63" t="inlineStr">
+      <c r="J2" s="63" t="inlineStr">
         <is>
           <t>16-Dec-2019</t>
         </is>
       </c>
-      <c r="H2" s="75" t="inlineStr">
+      <c r="K2" s="82" t="inlineStr">
         <is>
           <t>30-Sep-2025</t>
         </is>
       </c>
-      <c r="I2" s="62" t="inlineStr">
+      <c r="L2" s="62" t="inlineStr">
         <is>
           <t>1 Months</t>
         </is>
       </c>
-      <c r="J2" s="76" t="inlineStr">
+      <c r="M2" s="76" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="K2" s="62" t="inlineStr">
+      <c r="N2" s="62" t="inlineStr">
         <is>
           <t>to the adjusted due date</t>
         </is>
       </c>
-      <c r="L2" s="63" t="inlineStr">
+      <c r="O2" s="83" t="inlineStr">
         <is>
           <t>16-Jan-2024</t>
         </is>
       </c>
-      <c r="M2" s="63" t="inlineStr">
+      <c r="P2" s="83" t="inlineStr">
         <is>
           <t>15-Jan-2024</t>
         </is>
       </c>
-      <c r="N2" s="63" t="inlineStr">
+      <c r="Q2" s="63" t="inlineStr">
         <is>
           <t>Pay in Arrears</t>
         </is>
       </c>
-      <c r="O2" s="62" t="inlineStr">
+      <c r="R2" s="62" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="P2" s="62" t="inlineStr">
+      <c r="S2" s="62" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="Q2" s="75" t="inlineStr">
+      <c r="T2" s="75" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="R2" s="62" t="inlineStr">
+      <c r="U2" s="62" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="S2" s="62" t="inlineStr">
+      <c r="V2" s="62" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
-      <c r="T2" s="76" t="inlineStr">
+      <c r="W2" s="76" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="U2" s="80" t="inlineStr">
+      <c r="X2" s="80" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="V2" s="80" t="inlineStr">
+      <c r="Y2" s="80" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="W2" s="74" t="inlineStr">
+      <c r="Z2" s="74" t="inlineStr">
         <is>
           <t>500,000.00</t>
         </is>
       </c>
-      <c r="X2" s="74" t="inlineStr">
+      <c r="AA2" s="74" t="inlineStr">
         <is>
           <t>500,000.00</t>
         </is>
       </c>
-      <c r="Y2" s="74" t="inlineStr">
+      <c r="AB2" s="74" t="inlineStr">
         <is>
           <t>500,000.00</t>
         </is>
       </c>
-      <c r="Z2" s="74" t="inlineStr">
+      <c r="AC2" s="74" t="inlineStr">
         <is>
           <t>500,000.00</t>
         </is>
       </c>
-      <c r="AA2" s="81" t="inlineStr">
+      <c r="AD2" s="81" t="inlineStr">
         <is>
           <t>0.849600%</t>
         </is>
       </c>
-      <c r="AB2" s="81" t="inlineStr">
+      <c r="AE2" s="81" t="inlineStr">
         <is>
           <t>1.300000%</t>
         </is>
       </c>
-      <c r="AC2" s="81" t="inlineStr">
+      <c r="AF2" s="81" t="inlineStr">
         <is>
           <t>2.149600%</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="77">
+      <c r="A3" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="62" t="inlineStr">
+        <is>
+          <t>Create Loan Drawdown for LBT Bilateral Deal</t>
+        </is>
+      </c>
+      <c r="C3" s="31" t="inlineStr">
+        <is>
+          <t>LBT BILAT DEAL AUD 1.0B 18MAR1845113</t>
+        </is>
+      </c>
+      <c r="D3" s="26" t="inlineStr">
+        <is>
+          <t>CLASS_A_NOTE_FAC_53129</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="inlineStr">
+        <is>
+          <t>LBT TRUST 1115737</t>
+        </is>
+      </c>
+      <c r="F3" s="62" t="n"/>
+      <c r="G3" s="62" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="H3" s="62" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I3" s="74" t="inlineStr">
+        <is>
+          <t>117,548,000.00</t>
+        </is>
+      </c>
+      <c r="J3" s="63" t="inlineStr">
+        <is>
+          <t>16-Dec-2019</t>
+        </is>
+      </c>
+      <c r="K3" s="82" t="inlineStr">
+        <is>
+          <t>30-Sep-2025</t>
+        </is>
+      </c>
+      <c r="L3" s="62" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="M3" s="76" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N3" s="62" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="O3" s="83" t="inlineStr">
+        <is>
+          <t>15-Jan-2024</t>
+        </is>
+      </c>
+      <c r="P3" s="83" t="inlineStr">
+        <is>
+          <t>14-Jan-2024</t>
+        </is>
+      </c>
+      <c r="Q3" s="63" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="R3" s="62" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="S3" s="62" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="T3" s="75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U3" s="62" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H3" s="27" t="inlineStr">
-        <is>
-          <t>Original date below</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J3" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="K3" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L3" s="27" t="inlineStr">
-        <is>
-          <t>Original date below</t>
-        </is>
-      </c>
-      <c r="M3" s="27" t="inlineStr">
-        <is>
-          <t>Original date below</t>
-        </is>
-      </c>
-      <c r="N3" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="O3" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="P3" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="Q3" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="V3" s="62" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="W3" s="76" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="X3" s="84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y3" s="84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Z3" s="74" t="inlineStr">
+        <is>
+          <t>117,548,000.00</t>
+        </is>
+      </c>
+      <c r="AA3" s="74" t="inlineStr">
+        <is>
+          <t>117,548,000.00</t>
+        </is>
+      </c>
+      <c r="AB3" s="74" t="inlineStr">
+        <is>
+          <t>117,548,000.00</t>
+        </is>
+      </c>
+      <c r="AC3" s="74" t="inlineStr">
+        <is>
+          <t>117,548,000.00</t>
+        </is>
+      </c>
+      <c r="AD3" s="81" t="inlineStr">
+        <is>
+          <t>0.849600%</t>
+        </is>
+      </c>
+      <c r="AE3" s="81" t="inlineStr">
+        <is>
+          <t>1.300000%</t>
+        </is>
+      </c>
+      <c r="AF3" s="81" t="inlineStr">
+        <is>
+          <t>2.149600%</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="H4" s="28" t="inlineStr">
+    <row r="4" customFormat="1" s="26">
+      <c r="A4" s="62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="62" t="inlineStr">
+        <is>
+          <t>Create Loan Drawdown for LBT Bilateral Deal</t>
+        </is>
+      </c>
+      <c r="C4" s="31" t="inlineStr">
+        <is>
+          <t>LBT BILAT DEAL AUD 1.0B 18MAR1845113</t>
+        </is>
+      </c>
+      <c r="D4" s="26" t="inlineStr">
+        <is>
+          <t>CLASS_A_NOTE_FAC_53129</t>
+        </is>
+      </c>
+      <c r="E4" s="79" t="inlineStr">
+        <is>
+          <t>LBT TRUST 1115737</t>
+        </is>
+      </c>
+      <c r="P4" s="23" t="n"/>
+      <c r="Q4" s="23" t="n"/>
+    </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14">
+      <c r="B14" s="85" t="inlineStr">
+        <is>
+          <t>Need to update with the values below</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="C16" s="86" t="inlineStr">
+        <is>
+          <t>Loan_MaturityDate</t>
+        </is>
+      </c>
+      <c r="D16" s="86" t="inlineStr">
+        <is>
+          <t>Loan_RepricingDate</t>
+        </is>
+      </c>
+      <c r="E16" s="86" t="inlineStr">
+        <is>
+          <t>Loan_AccrualEndDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="87" t="inlineStr">
         <is>
           <t>30-Sep-2021</t>
         </is>
       </c>
-      <c r="L4" s="28" t="inlineStr">
+      <c r="D17" s="87" t="inlineStr">
         <is>
           <t>16-Jan-2020</t>
         </is>
       </c>
-      <c r="M4" s="28" t="inlineStr">
+      <c r="E17" s="87" t="inlineStr">
         <is>
           <t>15-Jan-2020</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="L5" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M5" s="7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="M6" s="7" t="n"/>
-      <c r="N6" s="7" t="n"/>
+    <row r="18">
+      <c r="B18" s="88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="87" t="inlineStr">
+        <is>
+          <t>30-Sep-2021</t>
+        </is>
+      </c>
+      <c r="D18" s="87" t="inlineStr">
+        <is>
+          <t>15-Jan-2020</t>
+        </is>
+      </c>
+      <c r="E18" s="87" t="inlineStr">
+        <is>
+          <t>14-Jan-2020</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>60001976</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0A0B13-7BF4-496B-AB83-BB3B5B4B3CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AC0EE1-A82F-4C92-BF28-7C66A97BDCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="877" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1353,7 +1353,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1503,6 +1503,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3599,7 +3602,7 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4030,7 +4033,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="90" t="s">
         <v>373</v>
       </c>
       <c r="C16" s="86" t="s">
@@ -4087,6 +4090,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -14,9 +14,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01_LoanDrawdown" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV23_LoanPaperClip" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correspondence" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV40_BreakFunding" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -27,11 +28,18 @@
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -130,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -203,6 +211,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -265,128 +279,129 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -398,62 +413,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="8" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -462,47 +477,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 3 2" xfId="5"/>
+    <cellStyle name="Normal 4" xfId="6"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -813,7 +878,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN2" sqref="AN2"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -1700,7 +1765,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX2" sqref="AX2"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2019,7 +2084,7 @@
       </c>
       <c r="B2" s="30" t="inlineStr">
         <is>
-          <t>Establish Deal with Outside Condition</t>
+          <t>CRED01_DealSetup_LBT_BILAT</t>
         </is>
       </c>
       <c r="C2" s="30" t="inlineStr">
@@ -2242,7 +2307,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2365,7 +2430,7 @@
       </c>
       <c r="B2" s="31" t="inlineStr">
         <is>
-          <t>Establish Facility for LBT Bilateral Deal</t>
+          <t>CRED01_FacilitySetup_LBT_BILAT</t>
         </is>
       </c>
       <c r="C2" s="26" t="inlineStr">
@@ -2496,7 +2561,7 @@
   <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2781,7 +2846,7 @@
       </c>
       <c r="B2" s="19" t="inlineStr">
         <is>
-          <t>Establish Commitment Fee for LBT Bilateral Deal</t>
+          <t>CRED08_OngoingFeeSetup_LBT_BILAT</t>
         </is>
       </c>
       <c r="C2" s="20" t="inlineStr">
@@ -3147,7 +3212,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P27" sqref="P27"/>
+      <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3279,7 +3344,7 @@
       </c>
       <c r="B2" s="23" t="inlineStr">
         <is>
-          <t>Setup Primary for LBT Bilateral Deal</t>
+          <t>SYND02_PrimaryAllocation_LBT_BILAT</t>
         </is>
       </c>
       <c r="C2" s="31" t="inlineStr">
@@ -3414,7 +3479,7 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3617,7 +3682,7 @@
       </c>
       <c r="B2" s="62" t="inlineStr">
         <is>
-          <t>Create Loan Drawdown for LBT Bilateral Deal</t>
+          <t xml:space="preserve">SERV01_LoanDrawdown_LBT_BILAT_OUTSTANDING_Z </t>
         </is>
       </c>
       <c r="C2" s="31" t="inlineStr">
@@ -3779,7 +3844,7 @@
       </c>
       <c r="B3" s="62" t="inlineStr">
         <is>
-          <t>Create Loan Drawdown for LBT Bilateral Deal</t>
+          <t xml:space="preserve">SERV01_LoanDrawdown_LBT_BILAT_OUTSTANDING_A </t>
         </is>
       </c>
       <c r="C3" s="31" t="inlineStr">
@@ -3941,7 +4006,7 @@
       </c>
       <c r="B4" s="62" t="inlineStr">
         <is>
-          <t>Create Loan Drawdown for LBT Bilateral Deal</t>
+          <t xml:space="preserve">SERV01_LoanDrawdown_LBT_BILAT_OUTSTANDING_B </t>
         </is>
       </c>
       <c r="C4" s="31" t="inlineStr">
@@ -4096,26 +4161,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="91" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="D5" s="92" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="G5" s="93" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="C5" s="91" t="n"/>
+      <c r="D5" s="92" t="n"/>
+      <c r="G5" s="93" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="85" t="inlineStr">
@@ -4127,7 +4175,7 @@
     <row r="16">
       <c r="B16" s="90" t="inlineStr">
         <is>
-          <t>row_id</t>
+          <t>rows</t>
         </is>
       </c>
       <c r="C16" s="86" t="inlineStr">
@@ -4147,8 +4195,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="62" t="n">
-        <v>1</v>
+      <c r="B17" s="62" t="inlineStr">
+        <is>
+          <t>row1</t>
+        </is>
       </c>
       <c r="C17" s="87" t="inlineStr">
         <is>
@@ -4167,8 +4217,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="88" t="n">
-        <v>2</v>
+      <c r="B18" s="88" t="inlineStr">
+        <is>
+          <t>row2</t>
+        </is>
       </c>
       <c r="C18" s="87" t="inlineStr">
         <is>
@@ -4187,8 +4239,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="88" t="n">
-        <v>3</v>
+      <c r="B19" s="88" t="inlineStr">
+        <is>
+          <t>row3</t>
+        </is>
       </c>
       <c r="C19" s="87" t="inlineStr">
         <is>
@@ -4221,7 +4275,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4333,7 +4387,7 @@
       </c>
       <c r="B2" s="62" t="inlineStr">
         <is>
-          <t>Collect Full Prepayment via Paper Clip for LBT Bilateral Deal - Outstanding Z</t>
+          <t>SERV23_LoanPaperClip_LBT_BILAT_OUTSTANDING_Z</t>
         </is>
       </c>
       <c r="C2" s="62" t="inlineStr">
@@ -4441,12 +4495,12 @@
   <dimension ref="A1:BL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="41.42578125" customWidth="1" min="2" max="2"/>
+    <col width="48.140625" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="4"/>
     <col width="16.7109375" customWidth="1" min="5" max="5"/>
     <col width="17.140625" customWidth="1" min="6" max="6"/>
@@ -4464,11 +4518,18 @@
     <col width="43.28515625" customWidth="1" min="21" max="21"/>
     <col width="30.42578125" customWidth="1" min="22" max="22"/>
     <col width="29.7109375" customWidth="1" min="23" max="23"/>
+    <col width="18.42578125" customWidth="1" min="24" max="24"/>
+    <col width="7.5703125" customWidth="1" min="25" max="25"/>
+    <col width="25.5703125" customWidth="1" min="26" max="26"/>
+    <col width="29.7109375" customWidth="1" min="27" max="27"/>
+    <col width="17.7109375" customWidth="1" min="28" max="28"/>
     <col width="11" customWidth="1" min="35" max="35"/>
     <col width="15.5703125" customWidth="1" min="36" max="36"/>
     <col width="17.7109375" customWidth="1" min="38" max="38"/>
     <col width="16.5703125" customWidth="1" min="39" max="39"/>
     <col width="11.85546875" customWidth="1" min="40" max="40"/>
+    <col width="11.7109375" customWidth="1" min="44" max="44"/>
+    <col width="13.42578125" customWidth="1" min="45" max="45"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="102">
@@ -4801,7 +4862,7 @@
       </c>
       <c r="B2" s="103" t="inlineStr">
         <is>
-          <t>Paperclip_SENT_Fee Payment Notice_BILATERAL</t>
+          <t>Paperclip_NoticeSENT_LBT_BILAT_OUTSTANDING_Z</t>
         </is>
       </c>
       <c r="C2" s="31" t="inlineStr">
@@ -4816,7 +4877,7 @@
       </c>
       <c r="E2" s="62" t="inlineStr">
         <is>
-          <t>LBT TRUST 1115737</t>
+          <t>60001972</t>
         </is>
       </c>
       <c r="F2" s="103" t="n">
@@ -4852,7 +4913,7 @@
           <t>LIQ-C(EMOU8O-C(EMOU4E-2</t>
         </is>
       </c>
-      <c r="M2" s="114" t="n">
+      <c r="M2" s="112" t="n">
         <v>44945</v>
       </c>
       <c r="N2" s="103" t="inlineStr">
@@ -4967,57 +5028,587 @@
       <c r="AO2" s="111" t="n">
         <v>885.51</v>
       </c>
-      <c r="AP2" s="111" t="n"/>
-      <c r="AQ2" s="103" t="n"/>
-      <c r="AR2" s="112" t="n"/>
-      <c r="AS2" s="111" t="n"/>
-      <c r="AT2" s="103" t="n"/>
-      <c r="AU2" s="103" t="n"/>
-      <c r="AV2" s="103" t="n"/>
-      <c r="AW2" s="103" t="n"/>
-      <c r="AX2" s="103" t="n"/>
-      <c r="AY2" s="113" t="n"/>
-      <c r="AZ2" s="103" t="n"/>
-      <c r="BA2" s="103" t="n"/>
-      <c r="BB2" s="103" t="n"/>
-      <c r="BC2" s="103" t="n"/>
-      <c r="BD2" s="103" t="n"/>
-      <c r="BE2" s="103" t="n"/>
-      <c r="BF2" s="103" t="n"/>
-      <c r="BG2" s="103" t="n"/>
-      <c r="BH2" s="103" t="n"/>
-      <c r="BI2" s="103" t="n"/>
-      <c r="BJ2" s="103" t="n"/>
-      <c r="BK2" s="103" t="n"/>
+      <c r="AP2" s="128" t="n"/>
+      <c r="AQ2" s="129" t="n"/>
+      <c r="AR2" s="130" t="n"/>
+      <c r="AS2" s="128" t="n"/>
+      <c r="AT2" s="129" t="n"/>
+      <c r="AU2" s="129" t="n"/>
+      <c r="AV2" s="129" t="n"/>
+      <c r="AW2" s="129" t="n"/>
+      <c r="AX2" s="129" t="n"/>
+      <c r="AY2" s="131" t="n"/>
+      <c r="AZ2" s="129" t="n"/>
+      <c r="BA2" s="129" t="n"/>
+      <c r="BB2" s="129" t="n"/>
+      <c r="BC2" s="129" t="n"/>
+      <c r="BD2" s="129" t="n"/>
+      <c r="BE2" s="129" t="n"/>
+      <c r="BF2" s="129" t="n"/>
+      <c r="BG2" s="129" t="n"/>
+      <c r="BH2" s="129" t="n"/>
+      <c r="BI2" s="129" t="n"/>
+      <c r="BJ2" s="129" t="n"/>
+      <c r="BK2" s="129" t="n"/>
       <c r="BL2" s="103" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Y</t>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="102">
+      <c r="A3" s="62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="103" t="inlineStr">
+        <is>
+          <t>BreakCost_NoticeSENT_LBT_BILAT_OUTSTANDING_Z</t>
+        </is>
+      </c>
+      <c r="C3" s="31" t="inlineStr">
+        <is>
+          <t>LBT BILAT DEAL AUD 1.0B 18MAR1845113</t>
+        </is>
+      </c>
+      <c r="D3" s="26" t="inlineStr">
+        <is>
+          <t>CLASS_A_NOTE_FAC_53129</t>
+        </is>
+      </c>
+      <c r="E3" s="62" t="inlineStr">
+        <is>
+          <t>60001972</t>
+        </is>
+      </c>
+      <c r="F3" s="103" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G3" s="103" t="inlineStr">
+        <is>
+          <t>Event Fee Payment</t>
+        </is>
+      </c>
+      <c r="H3" s="107" t="inlineStr">
+        <is>
+          <t>LBT Trust 1115737</t>
+        </is>
+      </c>
+      <c r="I3" s="103" t="inlineStr">
+        <is>
+          <t>Liz Brook</t>
+        </is>
+      </c>
+      <c r="J3" s="103" t="inlineStr">
+        <is>
+          <t>LOANIQ01</t>
+        </is>
+      </c>
+      <c r="K3" s="103" t="inlineStr">
+        <is>
+          <t>IPEMTUN7</t>
+        </is>
+      </c>
+      <c r="L3" s="103" t="inlineStr">
+        <is>
+          <t>LIQ-IPEMTUN7-I!EMTU57-2</t>
+        </is>
+      </c>
+      <c r="M3" s="103" t="inlineStr">
+        <is>
+          <t>2024-01-23 00:00:00.000</t>
+        </is>
+      </c>
+      <c r="N3" s="103" t="inlineStr">
+        <is>
+          <t>2018-01-14 00:00:00.000</t>
+        </is>
+      </c>
+      <c r="O3" s="108" t="inlineStr">
+        <is>
+          <t>Notice Identifier</t>
+        </is>
+      </c>
+      <c r="P3" s="108" t="inlineStr">
+        <is>
+          <t>CBA Email with PDF Attachment</t>
+        </is>
+      </c>
+      <c r="Q3" s="103" t="inlineStr">
+        <is>
+          <t>2021-01-18 10:40:21.966</t>
+        </is>
+      </c>
+      <c r="R3" s="103" t="inlineStr">
+        <is>
+          <t>2021-01-18 10:40:21.966</t>
+        </is>
+      </c>
+      <c r="S3" s="108" t="inlineStr">
+        <is>
+          <t>Legal Name</t>
+        </is>
+      </c>
+      <c r="T3" s="108" t="inlineStr">
+        <is>
+          <t>C:\Users\u724659\AppData\Local\Temp\</t>
+        </is>
+      </c>
+      <c r="U3" s="108" t="inlineStr">
+        <is>
+          <t>\DataSet\Integration_DataSet\API\Input\Correspondence</t>
+        </is>
+      </c>
+      <c r="V3" s="108" t="inlineStr">
+        <is>
+          <t>API_COR_TC01</t>
+        </is>
+      </c>
+      <c r="W3" s="108" t="inlineStr">
+        <is>
+          <t>TEMP_API_COR_TC01</t>
+        </is>
+      </c>
+      <c r="X3" s="108" t="inlineStr">
+        <is>
+          <t>INPUT_API_COR_TC01</t>
+        </is>
+      </c>
+      <c r="Y3" s="108" t="inlineStr">
+        <is>
+          <t>EXP_API_COR_TC01</t>
+        </is>
+      </c>
+      <c r="Z3" s="108" t="inlineStr">
+        <is>
+          <t>\DataSet\Integration_DataSet\API\Output\Correspondence</t>
+        </is>
+      </c>
+      <c r="AA3" s="108" t="inlineStr">
+        <is>
+          <t>correlationId</t>
+        </is>
+      </c>
+      <c r="AB3" s="108" t="inlineStr">
+        <is>
+          <t>API_COR_RESPONSE_TC1</t>
+        </is>
+      </c>
+      <c r="AC3" s="108" t="n"/>
+      <c r="AD3" s="108" t="inlineStr">
+        <is>
+          <t>SENT</t>
+        </is>
+      </c>
+      <c r="AE3" s="108" t="n"/>
+      <c r="AF3" s="109" t="n"/>
+      <c r="AG3" s="103" t="n"/>
+      <c r="AH3" s="108" t="inlineStr">
+        <is>
+          <t>Sent</t>
+        </is>
+      </c>
+      <c r="AI3" s="103" t="n"/>
+      <c r="AJ3" s="103" t="inlineStr">
+        <is>
+          <t>FEE INVOICE</t>
+        </is>
+      </c>
+      <c r="AK3" s="103" t="n"/>
+      <c r="AL3" s="103" t="n"/>
+      <c r="AM3" s="110" t="n"/>
+      <c r="AN3" s="107" t="n"/>
+      <c r="AO3" s="125" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP3" s="128" t="inlineStr">
+        <is>
+          <t>1.043200%</t>
+        </is>
+      </c>
+      <c r="AQ3" s="129" t="inlineStr">
+        <is>
+          <t>1.650000%</t>
+        </is>
+      </c>
+      <c r="AR3" s="130" t="inlineStr">
+        <is>
+          <t>2.693200%</t>
+        </is>
+      </c>
+      <c r="AS3" s="128" t="inlineStr">
+        <is>
+          <t>25,563.89</t>
+        </is>
+      </c>
+      <c r="AT3" s="129" t="inlineStr">
+        <is>
+          <t>31-Dec-2019</t>
+        </is>
+      </c>
+      <c r="AU3" s="129" t="inlineStr">
+        <is>
+          <t>27-Dec-2023</t>
+        </is>
+      </c>
+      <c r="AV3" s="129" t="inlineStr">
+        <is>
+          <t>3,854,928.29</t>
+        </is>
+      </c>
+      <c r="AW3" s="129" t="inlineStr">
+        <is>
+          <t>31-Dec-2019</t>
+        </is>
+      </c>
+      <c r="AX3" s="129" t="inlineStr">
+        <is>
+          <t>31-Mar-2020</t>
+        </is>
+      </c>
+      <c r="AY3" s="131" t="n"/>
+      <c r="AZ3" s="129" t="n"/>
+      <c r="BA3" s="129" t="n"/>
+      <c r="BB3" s="129" t="n"/>
+      <c r="BC3" s="129" t="n"/>
+      <c r="BD3" s="129" t="n"/>
+      <c r="BE3" s="129" t="n"/>
+      <c r="BF3" s="129" t="n"/>
+      <c r="BG3" s="129" t="n"/>
+      <c r="BH3" s="129" t="n"/>
+      <c r="BI3" s="129" t="n"/>
+      <c r="BJ3" s="129" t="n"/>
+      <c r="BK3" s="129" t="n"/>
+      <c r="BL3" s="103" t="inlineStr">
+        <is>
+          <t>AUD</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6.140625" bestFit="1" customWidth="1" style="123" min="1" max="1"/>
+    <col width="42.85546875" customWidth="1" style="123" min="2" max="2"/>
+    <col width="19.85546875" customWidth="1" style="123" min="3" max="3"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" style="123" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="123" min="5" max="8"/>
+    <col width="34.140625" bestFit="1" customWidth="1" style="123" min="9" max="9"/>
+    <col width="9.140625" bestFit="1" customWidth="1" style="123" min="10" max="10"/>
+    <col width="36.28515625" bestFit="1" customWidth="1" style="123" min="11" max="11"/>
+    <col width="20.42578125" bestFit="1" customWidth="1" style="123" min="12" max="12"/>
+    <col width="26.42578125" bestFit="1" customWidth="1" style="123" min="13" max="13"/>
+    <col width="29.42578125" bestFit="1" customWidth="1" style="123" min="14" max="14"/>
+    <col width="30.5703125" bestFit="1" customWidth="1" style="123" min="15" max="15"/>
+    <col width="28.7109375" bestFit="1" customWidth="1" style="123" min="16" max="16"/>
+    <col width="29.85546875" bestFit="1" customWidth="1" style="123" min="17" max="17"/>
+    <col width="25.7109375" customWidth="1" min="18" max="18"/>
+    <col width="32.28515625" customWidth="1" min="19" max="19"/>
+    <col width="27.140625" customWidth="1" min="20" max="20"/>
+    <col width="30" customWidth="1" min="21" max="23"/>
+    <col width="18" bestFit="1" customWidth="1" style="123" min="24" max="24"/>
+    <col width="28" bestFit="1" customWidth="1" style="123" min="25" max="25"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" style="123" min="26" max="26"/>
+    <col width="27.140625" bestFit="1" customWidth="1" style="123" min="27" max="27"/>
+    <col width="15" bestFit="1" customWidth="1" style="123" min="28" max="29"/>
+    <col width="9.140625" customWidth="1" style="123" min="30" max="33"/>
+    <col width="9.140625" customWidth="1" style="123" min="34" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="116">
+      <c r="A1" s="113" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="113" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="113" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="124" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="E1" s="104" t="inlineStr">
+        <is>
+          <t>Search_By</t>
+        </is>
+      </c>
+      <c r="F1" s="124" t="inlineStr">
+        <is>
+          <t>Facility_Name</t>
+        </is>
+      </c>
+      <c r="G1" s="124" t="inlineStr">
+        <is>
+          <t>Loan_Alias</t>
+        </is>
+      </c>
+      <c r="H1" s="113" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="I1" s="113" t="inlineStr">
+        <is>
+          <t>Pricing_Option_From_Breakfunding</t>
+        </is>
+      </c>
+      <c r="J1" s="113" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="K1" s="113" t="inlineStr">
+        <is>
+          <t>Legal_Entity</t>
+        </is>
+      </c>
+      <c r="L1" s="113" t="inlineStr">
+        <is>
+          <t>Legal_Entity_Amount</t>
+        </is>
+      </c>
+      <c r="M1" s="114" t="inlineStr">
+        <is>
+          <t>Expense_Code</t>
+        </is>
+      </c>
+      <c r="N1" s="115" t="inlineStr">
+        <is>
+          <t>WIP_TransactionType</t>
+        </is>
+      </c>
+      <c r="O1" s="115" t="inlineStr">
+        <is>
+          <t>WIP_AwaitingApprovalStatus</t>
+        </is>
+      </c>
+      <c r="P1" s="115" t="inlineStr">
+        <is>
+          <t>WIP_OutstandingType</t>
+        </is>
+      </c>
+      <c r="Q1" s="115" t="inlineStr">
+        <is>
+          <t>WIP_AwaitingReleaseStatus</t>
+        </is>
+      </c>
+      <c r="R1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanGlobalOriginal</t>
+        </is>
+      </c>
+      <c r="S1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanGlobalCurrent</t>
+        </is>
+      </c>
+      <c r="T1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanHostBankGross</t>
+        </is>
+      </c>
+      <c r="U1" s="71" t="inlineStr">
+        <is>
+          <t>Expctd_LoanHostBankNet</t>
+        </is>
+      </c>
+      <c r="V1" s="95" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction</t>
+        </is>
+      </c>
+      <c r="W1" s="95" t="inlineStr">
+        <is>
+          <t>Remittance_Description</t>
+        </is>
+      </c>
+      <c r="X1" s="113" t="inlineStr">
+        <is>
+          <t>HostBankSharePct</t>
+        </is>
+      </c>
+      <c r="Y1" s="115" t="inlineStr">
+        <is>
+          <t>Remittance_Status</t>
+        </is>
+      </c>
+      <c r="Z1" s="115" t="inlineStr">
+        <is>
+          <t>Loan_Currency</t>
+        </is>
+      </c>
+      <c r="AA1" s="115" t="inlineStr">
+        <is>
+          <t>Notice_Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="122">
+      <c r="A2" s="117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="118" t="inlineStr">
+        <is>
+          <t>SERV40_BreakFunding_LBT_BILAT_OUTSTANDING_Z</t>
+        </is>
+      </c>
+      <c r="C2" s="127" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="D2" s="126" t="n"/>
+      <c r="E2" s="74" t="inlineStr">
+        <is>
+          <t>Deal/Facility</t>
+        </is>
+      </c>
+      <c r="F2" s="126" t="n"/>
+      <c r="G2" s="123" t="inlineStr">
+        <is>
+          <t>60001972</t>
+        </is>
+      </c>
+      <c r="H2" s="119" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I2" s="119" t="inlineStr">
+        <is>
+          <t>BBSW</t>
+        </is>
+      </c>
+      <c r="J2" s="119" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="K2" s="120" t="inlineStr">
+        <is>
+          <t>COMMONWEALTHBANKOFAUSTCB001</t>
+        </is>
+      </c>
+      <c r="L2" s="117" t="inlineStr">
+        <is>
+          <t>800.00</t>
+        </is>
+      </c>
+      <c r="M2" s="117" t="inlineStr">
+        <is>
+          <t>DM_CFS-CFS General Warehouses</t>
+        </is>
+      </c>
+      <c r="N2" s="117" t="inlineStr">
+        <is>
+          <t>Payments</t>
+        </is>
+      </c>
+      <c r="O2" s="117" t="inlineStr">
+        <is>
+          <t>Awaiting Approval</t>
+        </is>
+      </c>
+      <c r="P2" s="117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Break Cost Fee </t>
+        </is>
+      </c>
+      <c r="Q2" s="121" t="inlineStr">
+        <is>
+          <t>Awaiting Release</t>
+        </is>
+      </c>
+      <c r="R2" s="74" t="inlineStr">
+        <is>
+          <t>500,000.00</t>
+        </is>
+      </c>
+      <c r="S2" s="74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T2" s="74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U2" s="74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V2" s="62" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="W2" s="62" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="X2" s="127" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Y2" s="127" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Z2" s="127" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AA2" s="127" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="R3" s="123" t="n"/>
+      <c r="S3" s="123" t="n"/>
+      <c r="T3" s="123" t="n"/>
+      <c r="U3" s="123" t="n"/>
+      <c r="V3" s="123" t="n"/>
+      <c r="W3" s="123" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -218,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -256,17 +256,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -288,7 +277,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -442,11 +431,6 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,7 +540,7 @@
     <xf numFmtId="166" fontId="16" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3476,10 +3460,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4160,11 +4144,176 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="91" t="n"/>
-      <c r="D5" s="92" t="n"/>
-      <c r="G5" s="93" t="n"/>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="26">
+      <c r="A5" s="62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="62" t="inlineStr">
+        <is>
+          <t>SERV01_LoanDrawdown_LBT_BILAT_OUTSTANDING_C</t>
+        </is>
+      </c>
+      <c r="C5" s="31" t="inlineStr">
+        <is>
+          <t>LBT BILAT DEAL AUD 1.0B 18MAR1845113</t>
+        </is>
+      </c>
+      <c r="D5" s="26" t="inlineStr">
+        <is>
+          <t>CLASS_A_NOTE_FAC_53129</t>
+        </is>
+      </c>
+      <c r="E5" s="79" t="inlineStr">
+        <is>
+          <t>LBT TRUST 1115737</t>
+        </is>
+      </c>
+      <c r="F5" s="79" t="inlineStr">
+        <is>
+          <t>60002294</t>
+        </is>
+      </c>
+      <c r="G5" s="62" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="H5" s="62" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I5" s="74" t="inlineStr">
+        <is>
+          <t>181,121,000.00</t>
+        </is>
+      </c>
+      <c r="J5" s="63" t="inlineStr">
+        <is>
+          <t>15-Jan-2020</t>
+        </is>
+      </c>
+      <c r="K5" s="82" t="inlineStr">
+        <is>
+          <t>30-Sep-2025</t>
+        </is>
+      </c>
+      <c r="L5" s="62" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="M5" s="76" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N5" s="62" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="O5" s="83" t="inlineStr">
+        <is>
+          <t>20-Feb-2024</t>
+        </is>
+      </c>
+      <c r="P5" s="83" t="inlineStr">
+        <is>
+          <t>19-Feb-2024</t>
+        </is>
+      </c>
+      <c r="Q5" s="63" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="R5" s="62" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="S5" s="62" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="T5" s="75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U5" s="62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V5" s="62" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="W5" s="76" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="X5" s="84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y5" s="84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Z5" s="74" t="inlineStr">
+        <is>
+          <t>181,121,000.00</t>
+        </is>
+      </c>
+      <c r="AA5" s="74" t="inlineStr">
+        <is>
+          <t>181,121,000.00</t>
+        </is>
+      </c>
+      <c r="AB5" s="74" t="inlineStr">
+        <is>
+          <t>181,121,000.00</t>
+        </is>
+      </c>
+      <c r="AC5" s="74" t="inlineStr">
+        <is>
+          <t>181,121,000.00</t>
+        </is>
+      </c>
+      <c r="AD5" s="81" t="inlineStr">
+        <is>
+          <t>0.851500%</t>
+        </is>
+      </c>
+      <c r="AE5" s="81" t="inlineStr">
+        <is>
+          <t>1.300000%</t>
+        </is>
+      </c>
+      <c r="AF5" s="81" t="inlineStr">
+        <is>
+          <t>2.151500%</t>
+        </is>
+      </c>
     </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
     <row r="14">
       <c r="B14" s="85" t="inlineStr">
         <is>
@@ -4172,6 +4321,7 @@
         </is>
       </c>
     </row>
+    <row r="15"/>
     <row r="16">
       <c r="B16" s="90" t="inlineStr">
         <is>
@@ -4257,6 +4407,28 @@
       <c r="E19" s="87" t="inlineStr">
         <is>
           <t>14-Jan-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="88" t="inlineStr">
+        <is>
+          <t>row4</t>
+        </is>
+      </c>
+      <c r="C20" s="87" t="inlineStr">
+        <is>
+          <t>30-Sep-2021</t>
+        </is>
+      </c>
+      <c r="D20" s="83" t="inlineStr">
+        <is>
+          <t>17-Feb-2020</t>
+        </is>
+      </c>
+      <c r="E20" s="83" t="inlineStr">
+        <is>
+          <t>16-Feb-2020</t>
         </is>
       </c>
     </row>
@@ -4333,47 +4505,47 @@
           <t>Loan_Transaction_Type2</t>
         </is>
       </c>
-      <c r="I1" s="104" t="inlineStr">
+      <c r="I1" s="101" t="inlineStr">
         <is>
           <t>Cycles_ForLoan</t>
         </is>
       </c>
-      <c r="J1" s="104" t="inlineStr">
+      <c r="J1" s="101" t="inlineStr">
         <is>
           <t>Loan_CycleNumber</t>
         </is>
       </c>
-      <c r="K1" s="104" t="inlineStr">
+      <c r="K1" s="101" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="L1" s="104" t="inlineStr">
+      <c r="L1" s="101" t="inlineStr">
         <is>
           <t>Interest_OptionType</t>
         </is>
       </c>
-      <c r="M1" s="104" t="inlineStr">
+      <c r="M1" s="101" t="inlineStr">
         <is>
           <t>Loan_InterestAmount</t>
         </is>
       </c>
-      <c r="N1" s="104" t="inlineStr">
+      <c r="N1" s="101" t="inlineStr">
         <is>
           <t>Principal_OptionType</t>
         </is>
       </c>
-      <c r="O1" s="95" t="inlineStr">
+      <c r="O1" s="92" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="P1" s="95" t="inlineStr">
+      <c r="P1" s="92" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="Q1" s="95" t="inlineStr">
+      <c r="Q1" s="92" t="inlineStr">
         <is>
           <t>Breakfunding_Reason</t>
         </is>
@@ -4410,17 +4582,17 @@
           <t>Principal</t>
         </is>
       </c>
-      <c r="G2" s="94" t="inlineStr">
+      <c r="G2" s="91" t="inlineStr">
         <is>
           <t>500,000.00</t>
         </is>
       </c>
-      <c r="H2" s="94" t="inlineStr">
+      <c r="H2" s="91" t="inlineStr">
         <is>
           <t>Interest</t>
         </is>
       </c>
-      <c r="I2" s="94" t="inlineStr">
+      <c r="I2" s="91" t="inlineStr">
         <is>
           <t>Cycle Due</t>
         </is>
@@ -4467,19 +4639,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="J9" s="106" t="n"/>
-      <c r="K9" s="106" t="n"/>
-      <c r="L9" s="106" t="n"/>
-      <c r="M9" s="106" t="n"/>
-      <c r="N9" s="106" t="n"/>
+      <c r="J9" s="103" t="n"/>
+      <c r="K9" s="103" t="n"/>
+      <c r="L9" s="103" t="n"/>
+      <c r="M9" s="103" t="n"/>
+      <c r="N9" s="103" t="n"/>
     </row>
     <row r="10">
-      <c r="I10" s="105" t="n"/>
-      <c r="J10" s="105" t="n"/>
-      <c r="K10" s="105" t="n"/>
-      <c r="L10" s="105" t="n"/>
-      <c r="M10" s="105" t="n"/>
-      <c r="N10" s="105" t="n"/>
+      <c r="I10" s="102" t="n"/>
+      <c r="J10" s="102" t="n"/>
+      <c r="K10" s="102" t="n"/>
+      <c r="L10" s="102" t="n"/>
+      <c r="M10" s="102" t="n"/>
+      <c r="N10" s="102" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4494,8 +4666,8 @@
   </sheetPr>
   <dimension ref="A1:BL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4532,335 +4704,335 @@
     <col width="13.42578125" customWidth="1" min="45" max="45"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="102">
-      <c r="A1" s="96" t="inlineStr">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="99">
+      <c r="A1" s="93" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="96" t="inlineStr">
+      <c r="B1" s="93" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="97" t="inlineStr">
+      <c r="C1" s="94" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="97" t="inlineStr">
+      <c r="D1" s="94" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="97" t="inlineStr">
+      <c r="E1" s="94" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="F1" s="96" t="inlineStr">
+      <c r="F1" s="93" t="inlineStr">
         <is>
           <t>SubAdd_Days</t>
         </is>
       </c>
-      <c r="G1" s="98" t="inlineStr">
+      <c r="G1" s="95" t="inlineStr">
         <is>
           <t>Notice_Type</t>
         </is>
       </c>
-      <c r="H1" s="97" t="inlineStr">
+      <c r="H1" s="94" t="inlineStr">
         <is>
           <t>Notice_Customer_LegalName</t>
         </is>
       </c>
-      <c r="I1" s="98" t="inlineStr">
+      <c r="I1" s="95" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="J1" s="96" t="inlineStr">
+      <c r="J1" s="93" t="inlineStr">
         <is>
           <t>NoticeGroup_UserID</t>
         </is>
       </c>
-      <c r="K1" s="97" t="inlineStr">
+      <c r="K1" s="94" t="inlineStr">
         <is>
           <t>Notice_Identifier</t>
         </is>
       </c>
-      <c r="L1" s="97" t="inlineStr">
+      <c r="L1" s="94" t="inlineStr">
         <is>
           <t>Correlation_ID</t>
         </is>
       </c>
-      <c r="M1" s="97" t="inlineStr">
+      <c r="M1" s="94" t="inlineStr">
         <is>
           <t>Thru_Date</t>
         </is>
       </c>
-      <c r="N1" s="97" t="inlineStr">
+      <c r="N1" s="94" t="inlineStr">
         <is>
           <t>From_Date</t>
         </is>
       </c>
-      <c r="O1" s="96" t="inlineStr">
+      <c r="O1" s="93" t="inlineStr">
         <is>
           <t>Search_By</t>
         </is>
       </c>
-      <c r="P1" s="97" t="inlineStr">
+      <c r="P1" s="94" t="inlineStr">
         <is>
           <t>Notice_Method</t>
         </is>
       </c>
-      <c r="Q1" s="97" t="inlineStr">
+      <c r="Q1" s="94" t="inlineStr">
         <is>
           <t>BEO_StartDate</t>
         </is>
       </c>
-      <c r="R1" s="97" t="inlineStr">
+      <c r="R1" s="94" t="inlineStr">
         <is>
           <t>BEO_EndDate</t>
         </is>
       </c>
-      <c r="S1" s="96" t="inlineStr">
+      <c r="S1" s="93" t="inlineStr">
         <is>
           <t>Customer_IdentifiedBy</t>
         </is>
       </c>
-      <c r="T1" s="96" t="inlineStr">
+      <c r="T1" s="93" t="inlineStr">
         <is>
           <t>Zero_TempPath</t>
         </is>
       </c>
-      <c r="U1" s="96" t="inlineStr">
+      <c r="U1" s="93" t="inlineStr">
         <is>
           <t>InputFilePath</t>
         </is>
       </c>
-      <c r="V1" s="96" t="inlineStr">
+      <c r="V1" s="93" t="inlineStr">
         <is>
           <t>XML_File</t>
         </is>
       </c>
-      <c r="W1" s="96" t="inlineStr">
+      <c r="W1" s="93" t="inlineStr">
         <is>
           <t>Temp_File</t>
         </is>
       </c>
-      <c r="X1" s="96" t="inlineStr">
+      <c r="X1" s="93" t="inlineStr">
         <is>
           <t>InputJson</t>
         </is>
       </c>
-      <c r="Y1" s="96" t="inlineStr">
+      <c r="Y1" s="93" t="inlineStr">
         <is>
           <t>ExpectedJson</t>
         </is>
       </c>
-      <c r="Z1" s="96" t="inlineStr">
+      <c r="Z1" s="93" t="inlineStr">
         <is>
           <t>OutputFilePath</t>
         </is>
       </c>
-      <c r="AA1" s="96" t="inlineStr">
+      <c r="AA1" s="93" t="inlineStr">
         <is>
           <t>Field_Name</t>
         </is>
       </c>
-      <c r="AB1" s="96" t="inlineStr">
+      <c r="AB1" s="93" t="inlineStr">
         <is>
           <t>OutputAPIResponse</t>
         </is>
       </c>
-      <c r="AC1" s="99" t="inlineStr">
+      <c r="AC1" s="96" t="inlineStr">
         <is>
           <t>messageId</t>
         </is>
       </c>
-      <c r="AD1" s="99" t="inlineStr">
+      <c r="AD1" s="96" t="inlineStr">
         <is>
           <t>CallBack_Status</t>
         </is>
       </c>
-      <c r="AE1" s="99" t="inlineStr">
+      <c r="AE1" s="96" t="inlineStr">
         <is>
           <t>CallBack_Status2</t>
         </is>
       </c>
-      <c r="AF1" s="100" t="inlineStr">
+      <c r="AF1" s="97" t="inlineStr">
         <is>
           <t>errorMessage</t>
         </is>
       </c>
-      <c r="AG1" s="99" t="inlineStr">
+      <c r="AG1" s="96" t="inlineStr">
         <is>
           <t>errorMessage_2</t>
         </is>
       </c>
-      <c r="AH1" s="96" t="inlineStr">
+      <c r="AH1" s="93" t="inlineStr">
         <is>
           <t>Notice_Status</t>
         </is>
       </c>
-      <c r="AI1" s="96" t="inlineStr">
+      <c r="AI1" s="93" t="inlineStr">
         <is>
           <t>WIP_ExceptionQueueDescription</t>
         </is>
       </c>
-      <c r="AJ1" s="101" t="inlineStr">
+      <c r="AJ1" s="98" t="inlineStr">
         <is>
           <t>XML_NoticeType</t>
         </is>
       </c>
-      <c r="AK1" s="101" t="inlineStr">
+      <c r="AK1" s="98" t="inlineStr">
         <is>
           <t>Loan_PricingOption</t>
         </is>
       </c>
-      <c r="AL1" s="101" t="inlineStr">
+      <c r="AL1" s="98" t="inlineStr">
         <is>
           <t>OngoingFee_Type</t>
         </is>
       </c>
-      <c r="AM1" s="96" t="inlineStr">
+      <c r="AM1" s="93" t="inlineStr">
         <is>
           <t>Balance_Amount</t>
         </is>
       </c>
-      <c r="AN1" s="96" t="inlineStr">
+      <c r="AN1" s="93" t="inlineStr">
         <is>
           <t>Rate_Basis</t>
         </is>
       </c>
-      <c r="AO1" s="96" t="inlineStr">
+      <c r="AO1" s="93" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="AP1" s="97" t="inlineStr">
+      <c r="AP1" s="94" t="inlineStr">
         <is>
           <t>Loan_BaseRate</t>
         </is>
       </c>
-      <c r="AQ1" s="97" t="inlineStr">
+      <c r="AQ1" s="94" t="inlineStr">
         <is>
           <t>Loan_Spread</t>
         </is>
       </c>
-      <c r="AR1" s="97" t="inlineStr">
+      <c r="AR1" s="94" t="inlineStr">
         <is>
           <t>Notice_AllInRate</t>
         </is>
       </c>
-      <c r="AS1" s="97" t="inlineStr">
+      <c r="AS1" s="94" t="inlineStr">
         <is>
           <t>Notice_Amount</t>
         </is>
       </c>
-      <c r="AT1" s="97" t="inlineStr">
+      <c r="AT1" s="94" t="inlineStr">
         <is>
           <t>Loan_EffectiveDate</t>
         </is>
       </c>
-      <c r="AU1" s="97" t="inlineStr">
+      <c r="AU1" s="94" t="inlineStr">
         <is>
           <t>Loan_MaturityDate</t>
         </is>
       </c>
-      <c r="AV1" s="97" t="inlineStr">
+      <c r="AV1" s="94" t="inlineStr">
         <is>
           <t>Loan_GlobalOriginal</t>
         </is>
       </c>
-      <c r="AW1" s="97" t="inlineStr">
+      <c r="AW1" s="94" t="inlineStr">
         <is>
           <t>Loan_RateSetting_DueDate</t>
         </is>
       </c>
-      <c r="AX1" s="97" t="inlineStr">
+      <c r="AX1" s="94" t="inlineStr">
         <is>
           <t>Loan_RepricingDate</t>
         </is>
       </c>
-      <c r="AY1" s="97" t="inlineStr">
+      <c r="AY1" s="94" t="inlineStr">
         <is>
           <t>EffectiveDate_PrincipalPayment</t>
         </is>
       </c>
-      <c r="AZ1" s="96" t="inlineStr">
+      <c r="AZ1" s="93" t="inlineStr">
         <is>
           <t>Outstanding_PrincipalPayment</t>
         </is>
       </c>
-      <c r="BA1" s="97" t="inlineStr">
+      <c r="BA1" s="94" t="inlineStr">
         <is>
           <t>EffectiveDate_InterestPayment</t>
         </is>
       </c>
-      <c r="BB1" s="97" t="inlineStr">
+      <c r="BB1" s="94" t="inlineStr">
         <is>
           <t>ProjectedCycleDue_InterestPayment</t>
         </is>
       </c>
-      <c r="BC1" s="96" t="inlineStr">
+      <c r="BC1" s="93" t="inlineStr">
         <is>
           <t>StartDate_Principal</t>
         </is>
       </c>
-      <c r="BD1" s="96" t="inlineStr">
+      <c r="BD1" s="93" t="inlineStr">
         <is>
           <t>EndDate_Principal</t>
         </is>
       </c>
-      <c r="BE1" s="96" t="inlineStr">
+      <c r="BE1" s="93" t="inlineStr">
         <is>
           <t>Days_Principal</t>
         </is>
       </c>
-      <c r="BF1" s="96" t="inlineStr">
+      <c r="BF1" s="93" t="inlineStr">
         <is>
           <t>Principal_Amount</t>
         </is>
       </c>
-      <c r="BG1" s="96" t="inlineStr">
+      <c r="BG1" s="93" t="inlineStr">
         <is>
           <t>StartDate_Interest</t>
         </is>
       </c>
-      <c r="BH1" s="96" t="inlineStr">
+      <c r="BH1" s="93" t="inlineStr">
         <is>
           <t>EndDate_Interest</t>
         </is>
       </c>
-      <c r="BI1" s="96" t="inlineStr">
+      <c r="BI1" s="93" t="inlineStr">
         <is>
           <t>Days_Interest</t>
         </is>
       </c>
-      <c r="BJ1" s="96" t="inlineStr">
+      <c r="BJ1" s="93" t="inlineStr">
         <is>
           <t>Interest_Amount</t>
         </is>
       </c>
-      <c r="BK1" s="96" t="inlineStr">
+      <c r="BK1" s="93" t="inlineStr">
         <is>
           <t>Fee_Type</t>
         </is>
       </c>
-      <c r="BL1" s="97" t="inlineStr">
+      <c r="BL1" s="94" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="102">
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="99">
       <c r="A2" s="62" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="103" t="inlineStr">
+      <c r="B2" s="100" t="inlineStr">
         <is>
           <t>Paperclip_NoticeSENT_LBT_BILAT_OUTSTANDING_Z</t>
         </is>
@@ -4880,189 +5052,189 @@
           <t>60001972</t>
         </is>
       </c>
-      <c r="F2" s="103" t="n">
+      <c r="F2" s="100" t="n">
         <v>1100</v>
       </c>
-      <c r="G2" s="103" t="inlineStr">
+      <c r="G2" s="100" t="inlineStr">
         <is>
           <t>Paper Clip Intent Notice</t>
         </is>
       </c>
-      <c r="H2" s="107" t="inlineStr">
+      <c r="H2" s="104" t="inlineStr">
         <is>
           <t>LBT TRUST 1115737</t>
         </is>
       </c>
-      <c r="I2" s="103" t="inlineStr">
+      <c r="I2" s="100" t="inlineStr">
         <is>
           <t>Liz Brook</t>
         </is>
       </c>
-      <c r="J2" s="103" t="inlineStr">
+      <c r="J2" s="100" t="inlineStr">
         <is>
           <t>LOANIQ01</t>
         </is>
       </c>
-      <c r="K2" s="103" t="inlineStr">
+      <c r="K2" s="100" t="inlineStr">
         <is>
           <t>T6EJV5MP</t>
         </is>
       </c>
-      <c r="L2" s="103" t="inlineStr">
+      <c r="L2" s="100" t="inlineStr">
         <is>
           <t>LIQ-C(EMOU8O-C(EMOU4E-2</t>
         </is>
       </c>
-      <c r="M2" s="112" t="n">
+      <c r="M2" s="109" t="n">
         <v>44945</v>
       </c>
-      <c r="N2" s="103" t="inlineStr">
+      <c r="N2" s="100" t="inlineStr">
         <is>
           <t>2018-09-02 00:00:00.000</t>
         </is>
       </c>
-      <c r="O2" s="108" t="inlineStr">
+      <c r="O2" s="105" t="inlineStr">
         <is>
           <t>Notice Identifier</t>
         </is>
       </c>
-      <c r="P2" s="108" t="inlineStr">
+      <c r="P2" s="105" t="inlineStr">
         <is>
           <t>CBA Email with PDF Attachment</t>
         </is>
       </c>
-      <c r="Q2" s="103" t="inlineStr">
+      <c r="Q2" s="100" t="inlineStr">
         <is>
           <t>2021-01-13 16:11:12.710</t>
         </is>
       </c>
-      <c r="R2" s="103" t="inlineStr">
+      <c r="R2" s="100" t="inlineStr">
         <is>
           <t>2021-01-13 16:11:12.710</t>
         </is>
       </c>
-      <c r="S2" s="108" t="inlineStr">
+      <c r="S2" s="105" t="inlineStr">
         <is>
           <t>Legal Name</t>
         </is>
       </c>
-      <c r="T2" s="108" t="inlineStr">
+      <c r="T2" s="105" t="inlineStr">
         <is>
           <t>C:\Users\u724659\AppData\Local\Temp\</t>
         </is>
       </c>
-      <c r="U2" s="108" t="inlineStr">
+      <c r="U2" s="105" t="inlineStr">
         <is>
           <t>\DataSet\Integration_DataSet\API\Input\Correspondence</t>
         </is>
       </c>
-      <c r="V2" s="108" t="inlineStr">
+      <c r="V2" s="105" t="inlineStr">
         <is>
           <t>API_COR_TC01</t>
         </is>
       </c>
-      <c r="W2" s="108" t="inlineStr">
+      <c r="W2" s="105" t="inlineStr">
         <is>
           <t>TEMP_API_COR_TC01</t>
         </is>
       </c>
-      <c r="X2" s="108" t="inlineStr">
+      <c r="X2" s="105" t="inlineStr">
         <is>
           <t>INPUT_API_COR_TC01</t>
         </is>
       </c>
-      <c r="Y2" s="108" t="inlineStr">
+      <c r="Y2" s="105" t="inlineStr">
         <is>
           <t>EXP_API_COR_TC01</t>
         </is>
       </c>
-      <c r="Z2" s="108" t="inlineStr">
+      <c r="Z2" s="105" t="inlineStr">
         <is>
           <t>\DataSet\Integration_DataSet\API\Output\Correspondence</t>
         </is>
       </c>
-      <c r="AA2" s="108" t="inlineStr">
+      <c r="AA2" s="105" t="inlineStr">
         <is>
           <t>correlationId</t>
         </is>
       </c>
-      <c r="AB2" s="108" t="inlineStr">
+      <c r="AB2" s="105" t="inlineStr">
         <is>
           <t>API_COR_RESPONSE_TC1</t>
         </is>
       </c>
-      <c r="AC2" s="108" t="n"/>
-      <c r="AD2" s="108" t="inlineStr">
+      <c r="AC2" s="105" t="n"/>
+      <c r="AD2" s="105" t="inlineStr">
         <is>
           <t>SENT</t>
         </is>
       </c>
-      <c r="AE2" s="108" t="n"/>
-      <c r="AF2" s="109" t="n"/>
-      <c r="AG2" s="103" t="n"/>
-      <c r="AH2" s="108" t="inlineStr">
+      <c r="AE2" s="105" t="n"/>
+      <c r="AF2" s="106" t="n"/>
+      <c r="AG2" s="100" t="n"/>
+      <c r="AH2" s="105" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
       </c>
-      <c r="AI2" s="103" t="n"/>
-      <c r="AJ2" s="103" t="inlineStr">
+      <c r="AI2" s="100" t="n"/>
+      <c r="AJ2" s="100" t="inlineStr">
         <is>
           <t>FEE INVOICE</t>
         </is>
       </c>
-      <c r="AK2" s="103" t="n"/>
-      <c r="AL2" s="103" t="inlineStr">
+      <c r="AK2" s="100" t="n"/>
+      <c r="AL2" s="100" t="inlineStr">
         <is>
           <t>Commitment Fee</t>
         </is>
       </c>
-      <c r="AM2" s="110" t="n">
+      <c r="AM2" s="107" t="n">
         <v>1171049.45</v>
       </c>
-      <c r="AN2" s="107" t="inlineStr">
+      <c r="AN2" s="104" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
       </c>
-      <c r="AO2" s="111" t="n">
+      <c r="AO2" s="108" t="n">
         <v>885.51</v>
       </c>
-      <c r="AP2" s="128" t="n"/>
-      <c r="AQ2" s="129" t="n"/>
-      <c r="AR2" s="130" t="n"/>
-      <c r="AS2" s="128" t="n"/>
-      <c r="AT2" s="129" t="n"/>
-      <c r="AU2" s="129" t="n"/>
-      <c r="AV2" s="129" t="n"/>
-      <c r="AW2" s="129" t="n"/>
-      <c r="AX2" s="129" t="n"/>
-      <c r="AY2" s="131" t="n"/>
-      <c r="AZ2" s="129" t="n"/>
-      <c r="BA2" s="129" t="n"/>
-      <c r="BB2" s="129" t="n"/>
-      <c r="BC2" s="129" t="n"/>
-      <c r="BD2" s="129" t="n"/>
-      <c r="BE2" s="129" t="n"/>
-      <c r="BF2" s="129" t="n"/>
-      <c r="BG2" s="129" t="n"/>
-      <c r="BH2" s="129" t="n"/>
-      <c r="BI2" s="129" t="n"/>
-      <c r="BJ2" s="129" t="n"/>
-      <c r="BK2" s="129" t="n"/>
-      <c r="BL2" s="103" t="inlineStr">
+      <c r="AP2" s="125" t="n"/>
+      <c r="AQ2" s="126" t="n"/>
+      <c r="AR2" s="127" t="n"/>
+      <c r="AS2" s="125" t="n"/>
+      <c r="AT2" s="126" t="n"/>
+      <c r="AU2" s="126" t="n"/>
+      <c r="AV2" s="126" t="n"/>
+      <c r="AW2" s="126" t="n"/>
+      <c r="AX2" s="126" t="n"/>
+      <c r="AY2" s="128" t="n"/>
+      <c r="AZ2" s="126" t="n"/>
+      <c r="BA2" s="126" t="n"/>
+      <c r="BB2" s="126" t="n"/>
+      <c r="BC2" s="126" t="n"/>
+      <c r="BD2" s="126" t="n"/>
+      <c r="BE2" s="126" t="n"/>
+      <c r="BF2" s="126" t="n"/>
+      <c r="BG2" s="126" t="n"/>
+      <c r="BH2" s="126" t="n"/>
+      <c r="BI2" s="126" t="n"/>
+      <c r="BJ2" s="126" t="n"/>
+      <c r="BK2" s="126" t="n"/>
+      <c r="BL2" s="100" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="102">
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="99">
       <c r="A3" s="62" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="103" t="inlineStr">
+      <c r="B3" s="100" t="inlineStr">
         <is>
           <t>BreakCost_NoticeSENT_LBT_BILAT_OUTSTANDING_Z</t>
         </is>
@@ -5082,205 +5254,205 @@
           <t>60001972</t>
         </is>
       </c>
-      <c r="F3" s="103" t="n">
+      <c r="F3" s="100" t="n">
         <v>1100</v>
       </c>
-      <c r="G3" s="103" t="inlineStr">
+      <c r="G3" s="100" t="inlineStr">
         <is>
           <t>Event Fee Payment</t>
         </is>
       </c>
-      <c r="H3" s="107" t="inlineStr">
+      <c r="H3" s="104" t="inlineStr">
         <is>
           <t>LBT Trust 1115737</t>
         </is>
       </c>
-      <c r="I3" s="103" t="inlineStr">
+      <c r="I3" s="100" t="inlineStr">
         <is>
           <t>Liz Brook</t>
         </is>
       </c>
-      <c r="J3" s="103" t="inlineStr">
+      <c r="J3" s="100" t="inlineStr">
         <is>
           <t>LOANIQ01</t>
         </is>
       </c>
-      <c r="K3" s="103" t="inlineStr">
+      <c r="K3" s="100" t="inlineStr">
         <is>
           <t>IPEMTUN7</t>
         </is>
       </c>
-      <c r="L3" s="103" t="inlineStr">
+      <c r="L3" s="100" t="inlineStr">
         <is>
           <t>LIQ-IPEMTUN7-I!EMTU57-2</t>
         </is>
       </c>
-      <c r="M3" s="103" t="inlineStr">
+      <c r="M3" s="100" t="inlineStr">
         <is>
           <t>2024-01-23 00:00:00.000</t>
         </is>
       </c>
-      <c r="N3" s="103" t="inlineStr">
+      <c r="N3" s="100" t="inlineStr">
         <is>
           <t>2018-01-14 00:00:00.000</t>
         </is>
       </c>
-      <c r="O3" s="108" t="inlineStr">
+      <c r="O3" s="105" t="inlineStr">
         <is>
           <t>Notice Identifier</t>
         </is>
       </c>
-      <c r="P3" s="108" t="inlineStr">
+      <c r="P3" s="105" t="inlineStr">
         <is>
           <t>CBA Email with PDF Attachment</t>
         </is>
       </c>
-      <c r="Q3" s="103" t="inlineStr">
+      <c r="Q3" s="100" t="inlineStr">
         <is>
           <t>2021-01-18 10:40:21.966</t>
         </is>
       </c>
-      <c r="R3" s="103" t="inlineStr">
+      <c r="R3" s="100" t="inlineStr">
         <is>
           <t>2021-01-18 10:40:21.966</t>
         </is>
       </c>
-      <c r="S3" s="108" t="inlineStr">
+      <c r="S3" s="105" t="inlineStr">
         <is>
           <t>Legal Name</t>
         </is>
       </c>
-      <c r="T3" s="108" t="inlineStr">
+      <c r="T3" s="105" t="inlineStr">
         <is>
           <t>C:\Users\u724659\AppData\Local\Temp\</t>
         </is>
       </c>
-      <c r="U3" s="108" t="inlineStr">
+      <c r="U3" s="105" t="inlineStr">
         <is>
           <t>\DataSet\Integration_DataSet\API\Input\Correspondence</t>
         </is>
       </c>
-      <c r="V3" s="108" t="inlineStr">
+      <c r="V3" s="105" t="inlineStr">
         <is>
           <t>API_COR_TC01</t>
         </is>
       </c>
-      <c r="W3" s="108" t="inlineStr">
+      <c r="W3" s="105" t="inlineStr">
         <is>
           <t>TEMP_API_COR_TC01</t>
         </is>
       </c>
-      <c r="X3" s="108" t="inlineStr">
+      <c r="X3" s="105" t="inlineStr">
         <is>
           <t>INPUT_API_COR_TC01</t>
         </is>
       </c>
-      <c r="Y3" s="108" t="inlineStr">
+      <c r="Y3" s="105" t="inlineStr">
         <is>
           <t>EXP_API_COR_TC01</t>
         </is>
       </c>
-      <c r="Z3" s="108" t="inlineStr">
+      <c r="Z3" s="105" t="inlineStr">
         <is>
           <t>\DataSet\Integration_DataSet\API\Output\Correspondence</t>
         </is>
       </c>
-      <c r="AA3" s="108" t="inlineStr">
+      <c r="AA3" s="105" t="inlineStr">
         <is>
           <t>correlationId</t>
         </is>
       </c>
-      <c r="AB3" s="108" t="inlineStr">
+      <c r="AB3" s="105" t="inlineStr">
         <is>
           <t>API_COR_RESPONSE_TC1</t>
         </is>
       </c>
-      <c r="AC3" s="108" t="n"/>
-      <c r="AD3" s="108" t="inlineStr">
+      <c r="AC3" s="105" t="n"/>
+      <c r="AD3" s="105" t="inlineStr">
         <is>
           <t>SENT</t>
         </is>
       </c>
-      <c r="AE3" s="108" t="n"/>
-      <c r="AF3" s="109" t="n"/>
-      <c r="AG3" s="103" t="n"/>
-      <c r="AH3" s="108" t="inlineStr">
+      <c r="AE3" s="105" t="n"/>
+      <c r="AF3" s="106" t="n"/>
+      <c r="AG3" s="100" t="n"/>
+      <c r="AH3" s="105" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
       </c>
-      <c r="AI3" s="103" t="n"/>
-      <c r="AJ3" s="103" t="inlineStr">
+      <c r="AI3" s="100" t="n"/>
+      <c r="AJ3" s="100" t="inlineStr">
         <is>
           <t>FEE INVOICE</t>
         </is>
       </c>
-      <c r="AK3" s="103" t="n"/>
-      <c r="AL3" s="103" t="n"/>
-      <c r="AM3" s="110" t="n"/>
-      <c r="AN3" s="107" t="n"/>
-      <c r="AO3" s="125" t="n">
+      <c r="AK3" s="100" t="n"/>
+      <c r="AL3" s="100" t="n"/>
+      <c r="AM3" s="107" t="n"/>
+      <c r="AN3" s="104" t="n"/>
+      <c r="AO3" s="122" t="n">
         <v>12</v>
       </c>
-      <c r="AP3" s="128" t="inlineStr">
+      <c r="AP3" s="125" t="inlineStr">
         <is>
           <t>1.043200%</t>
         </is>
       </c>
-      <c r="AQ3" s="129" t="inlineStr">
+      <c r="AQ3" s="126" t="inlineStr">
         <is>
           <t>1.650000%</t>
         </is>
       </c>
-      <c r="AR3" s="130" t="inlineStr">
+      <c r="AR3" s="127" t="inlineStr">
         <is>
           <t>2.693200%</t>
         </is>
       </c>
-      <c r="AS3" s="128" t="inlineStr">
+      <c r="AS3" s="125" t="inlineStr">
         <is>
           <t>25,563.89</t>
         </is>
       </c>
-      <c r="AT3" s="129" t="inlineStr">
+      <c r="AT3" s="126" t="inlineStr">
         <is>
           <t>31-Dec-2019</t>
         </is>
       </c>
-      <c r="AU3" s="129" t="inlineStr">
+      <c r="AU3" s="126" t="inlineStr">
         <is>
           <t>27-Dec-2023</t>
         </is>
       </c>
-      <c r="AV3" s="129" t="inlineStr">
+      <c r="AV3" s="126" t="inlineStr">
         <is>
           <t>3,854,928.29</t>
         </is>
       </c>
-      <c r="AW3" s="129" t="inlineStr">
+      <c r="AW3" s="126" t="inlineStr">
         <is>
           <t>31-Dec-2019</t>
         </is>
       </c>
-      <c r="AX3" s="129" t="inlineStr">
+      <c r="AX3" s="126" t="inlineStr">
         <is>
           <t>31-Mar-2020</t>
         </is>
       </c>
-      <c r="AY3" s="131" t="n"/>
-      <c r="AZ3" s="129" t="n"/>
-      <c r="BA3" s="129" t="n"/>
-      <c r="BB3" s="129" t="n"/>
-      <c r="BC3" s="129" t="n"/>
-      <c r="BD3" s="129" t="n"/>
-      <c r="BE3" s="129" t="n"/>
-      <c r="BF3" s="129" t="n"/>
-      <c r="BG3" s="129" t="n"/>
-      <c r="BH3" s="129" t="n"/>
-      <c r="BI3" s="129" t="n"/>
-      <c r="BJ3" s="129" t="n"/>
-      <c r="BK3" s="129" t="n"/>
-      <c r="BL3" s="103" t="inlineStr">
+      <c r="AY3" s="128" t="n"/>
+      <c r="AZ3" s="126" t="n"/>
+      <c r="BA3" s="126" t="n"/>
+      <c r="BB3" s="126" t="n"/>
+      <c r="BC3" s="126" t="n"/>
+      <c r="BD3" s="126" t="n"/>
+      <c r="BE3" s="126" t="n"/>
+      <c r="BF3" s="126" t="n"/>
+      <c r="BG3" s="126" t="n"/>
+      <c r="BH3" s="126" t="n"/>
+      <c r="BI3" s="126" t="n"/>
+      <c r="BJ3" s="126" t="n"/>
+      <c r="BK3" s="126" t="n"/>
+      <c r="BL3" s="100" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
@@ -5306,115 +5478,115 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.140625" bestFit="1" customWidth="1" style="123" min="1" max="1"/>
-    <col width="42.85546875" customWidth="1" style="123" min="2" max="2"/>
-    <col width="19.85546875" customWidth="1" style="123" min="3" max="3"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" style="123" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="123" min="5" max="8"/>
-    <col width="34.140625" bestFit="1" customWidth="1" style="123" min="9" max="9"/>
-    <col width="9.140625" bestFit="1" customWidth="1" style="123" min="10" max="10"/>
-    <col width="36.28515625" bestFit="1" customWidth="1" style="123" min="11" max="11"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" style="123" min="12" max="12"/>
-    <col width="26.42578125" bestFit="1" customWidth="1" style="123" min="13" max="13"/>
-    <col width="29.42578125" bestFit="1" customWidth="1" style="123" min="14" max="14"/>
-    <col width="30.5703125" bestFit="1" customWidth="1" style="123" min="15" max="15"/>
-    <col width="28.7109375" bestFit="1" customWidth="1" style="123" min="16" max="16"/>
-    <col width="29.85546875" bestFit="1" customWidth="1" style="123" min="17" max="17"/>
+    <col width="6.140625" bestFit="1" customWidth="1" style="120" min="1" max="1"/>
+    <col width="42.85546875" customWidth="1" style="120" min="2" max="2"/>
+    <col width="19.85546875" customWidth="1" style="120" min="3" max="3"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" style="120" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="120" min="5" max="8"/>
+    <col width="34.140625" bestFit="1" customWidth="1" style="120" min="9" max="9"/>
+    <col width="9.140625" bestFit="1" customWidth="1" style="120" min="10" max="10"/>
+    <col width="36.28515625" bestFit="1" customWidth="1" style="120" min="11" max="11"/>
+    <col width="20.42578125" bestFit="1" customWidth="1" style="120" min="12" max="12"/>
+    <col width="26.42578125" bestFit="1" customWidth="1" style="120" min="13" max="13"/>
+    <col width="29.42578125" bestFit="1" customWidth="1" style="120" min="14" max="14"/>
+    <col width="30.5703125" bestFit="1" customWidth="1" style="120" min="15" max="15"/>
+    <col width="28.7109375" bestFit="1" customWidth="1" style="120" min="16" max="16"/>
+    <col width="29.85546875" bestFit="1" customWidth="1" style="120" min="17" max="17"/>
     <col width="25.7109375" customWidth="1" min="18" max="18"/>
     <col width="32.28515625" customWidth="1" min="19" max="19"/>
     <col width="27.140625" customWidth="1" min="20" max="20"/>
     <col width="30" customWidth="1" min="21" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" style="123" min="24" max="24"/>
-    <col width="28" bestFit="1" customWidth="1" style="123" min="25" max="25"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" style="123" min="26" max="26"/>
-    <col width="27.140625" bestFit="1" customWidth="1" style="123" min="27" max="27"/>
-    <col width="15" bestFit="1" customWidth="1" style="123" min="28" max="29"/>
-    <col width="9.140625" customWidth="1" style="123" min="30" max="33"/>
-    <col width="9.140625" customWidth="1" style="123" min="34" max="16384"/>
+    <col width="18" bestFit="1" customWidth="1" style="120" min="24" max="24"/>
+    <col width="28" bestFit="1" customWidth="1" style="120" min="25" max="25"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" style="120" min="26" max="26"/>
+    <col width="27.140625" bestFit="1" customWidth="1" style="120" min="27" max="27"/>
+    <col width="15" bestFit="1" customWidth="1" style="120" min="28" max="29"/>
+    <col width="9.140625" customWidth="1" style="120" min="30" max="35"/>
+    <col width="9.140625" customWidth="1" style="120" min="36" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="116">
-      <c r="A1" s="113" t="inlineStr">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="113">
+      <c r="A1" s="110" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="113" t="inlineStr">
+      <c r="B1" s="110" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="113" t="inlineStr">
+      <c r="C1" s="110" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" s="124" t="inlineStr">
+      <c r="D1" s="121" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="E1" s="104" t="inlineStr">
+      <c r="E1" s="101" t="inlineStr">
         <is>
           <t>Search_By</t>
         </is>
       </c>
-      <c r="F1" s="124" t="inlineStr">
+      <c r="F1" s="121" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="G1" s="124" t="inlineStr">
+      <c r="G1" s="121" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="H1" s="113" t="inlineStr">
+      <c r="H1" s="110" t="inlineStr">
         <is>
           <t>Inactive</t>
         </is>
       </c>
-      <c r="I1" s="113" t="inlineStr">
+      <c r="I1" s="110" t="inlineStr">
         <is>
           <t>Pricing_Option_From_Breakfunding</t>
         </is>
       </c>
-      <c r="J1" s="113" t="inlineStr">
+      <c r="J1" s="110" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
-      <c r="K1" s="113" t="inlineStr">
+      <c r="K1" s="110" t="inlineStr">
         <is>
           <t>Legal_Entity</t>
         </is>
       </c>
-      <c r="L1" s="113" t="inlineStr">
+      <c r="L1" s="110" t="inlineStr">
         <is>
           <t>Legal_Entity_Amount</t>
         </is>
       </c>
-      <c r="M1" s="114" t="inlineStr">
+      <c r="M1" s="111" t="inlineStr">
         <is>
           <t>Expense_Code</t>
         </is>
       </c>
-      <c r="N1" s="115" t="inlineStr">
+      <c r="N1" s="112" t="inlineStr">
         <is>
           <t>WIP_TransactionType</t>
         </is>
       </c>
-      <c r="O1" s="115" t="inlineStr">
+      <c r="O1" s="112" t="inlineStr">
         <is>
           <t>WIP_AwaitingApprovalStatus</t>
         </is>
       </c>
-      <c r="P1" s="115" t="inlineStr">
+      <c r="P1" s="112" t="inlineStr">
         <is>
           <t>WIP_OutstandingType</t>
         </is>
       </c>
-      <c r="Q1" s="115" t="inlineStr">
+      <c r="Q1" s="112" t="inlineStr">
         <is>
           <t>WIP_AwaitingReleaseStatus</t>
         </is>
@@ -5439,111 +5611,111 @@
           <t>Expctd_LoanHostBankNet</t>
         </is>
       </c>
-      <c r="V1" s="95" t="inlineStr">
+      <c r="V1" s="92" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="W1" s="95" t="inlineStr">
+      <c r="W1" s="92" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="X1" s="113" t="inlineStr">
+      <c r="X1" s="110" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="Y1" s="115" t="inlineStr">
+      <c r="Y1" s="112" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="Z1" s="115" t="inlineStr">
+      <c r="Z1" s="112" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="AA1" s="115" t="inlineStr">
+      <c r="AA1" s="112" t="inlineStr">
         <is>
           <t>Notice_Status</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="122">
-      <c r="A2" s="117" t="inlineStr">
+    <row r="2" customFormat="1" s="119">
+      <c r="A2" s="114" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="118" t="inlineStr">
+      <c r="B2" s="115" t="inlineStr">
         <is>
           <t>SERV40_BreakFunding_LBT_BILAT_OUTSTANDING_Z</t>
         </is>
       </c>
-      <c r="C2" s="127" t="inlineStr">
+      <c r="C2" s="124" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="D2" s="126" t="n"/>
+      <c r="D2" s="123" t="n"/>
       <c r="E2" s="74" t="inlineStr">
         <is>
           <t>Deal/Facility</t>
         </is>
       </c>
-      <c r="F2" s="126" t="n"/>
-      <c r="G2" s="123" t="inlineStr">
+      <c r="F2" s="123" t="n"/>
+      <c r="G2" s="120" t="inlineStr">
         <is>
           <t>60001972</t>
         </is>
       </c>
-      <c r="H2" s="119" t="inlineStr">
+      <c r="H2" s="116" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I2" s="119" t="inlineStr">
+      <c r="I2" s="116" t="inlineStr">
         <is>
           <t>BBSW</t>
         </is>
       </c>
-      <c r="J2" s="119" t="inlineStr">
+      <c r="J2" s="116" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="K2" s="120" t="inlineStr">
+      <c r="K2" s="117" t="inlineStr">
         <is>
           <t>COMMONWEALTHBANKOFAUSTCB001</t>
         </is>
       </c>
-      <c r="L2" s="117" t="inlineStr">
+      <c r="L2" s="114" t="inlineStr">
         <is>
           <t>800.00</t>
         </is>
       </c>
-      <c r="M2" s="117" t="inlineStr">
+      <c r="M2" s="114" t="inlineStr">
         <is>
           <t>DM_CFS-CFS General Warehouses</t>
         </is>
       </c>
-      <c r="N2" s="117" t="inlineStr">
+      <c r="N2" s="114" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="O2" s="117" t="inlineStr">
+      <c r="O2" s="114" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="P2" s="117" t="inlineStr">
+      <c r="P2" s="114" t="inlineStr">
         <is>
           <t xml:space="preserve">Break Cost Fee </t>
         </is>
       </c>
-      <c r="Q2" s="121" t="inlineStr">
+      <c r="Q2" s="118" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
@@ -5578,34 +5750,34 @@
           <t>DDA</t>
         </is>
       </c>
-      <c r="X2" s="127" t="inlineStr">
+      <c r="X2" s="124" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Y2" s="127" t="inlineStr">
+      <c r="Y2" s="124" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="Z2" s="127" t="inlineStr">
+      <c r="Z2" s="124" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="AA2" s="127" t="inlineStr">
+      <c r="AA2" s="124" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="R3" s="123" t="n"/>
-      <c r="S3" s="123" t="n"/>
-      <c r="T3" s="123" t="n"/>
-      <c r="U3" s="123" t="n"/>
-      <c r="V3" s="123" t="n"/>
-      <c r="W3" s="123" t="n"/>
+      <c r="R3" s="120" t="n"/>
+      <c r="S3" s="120" t="n"/>
+      <c r="T3" s="120" t="n"/>
+      <c r="U3" s="120" t="n"/>
+      <c r="V3" s="120" t="n"/>
+      <c r="W3" s="120" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="1" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV23_LoanPaperClip" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correspondence" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV40_BreakFunding" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV11_LoanMerge" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,11 +29,32 @@
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="24">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -136,6 +158,30 @@
       <family val="2"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="14">
@@ -268,283 +314,320 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -552,6 +635,7 @@
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 3 2" xfId="5"/>
     <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="7"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -1738,6 +1822,433 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6.5703125" bestFit="1" customWidth="1" style="137" min="1" max="1"/>
+    <col width="31.42578125" bestFit="1" customWidth="1" style="137" min="2" max="2"/>
+    <col width="26.5703125" bestFit="1" customWidth="1" style="137" min="3" max="3"/>
+    <col width="16.42578125" bestFit="1" customWidth="1" style="137" min="4" max="4"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" style="137" min="5" max="5"/>
+    <col width="26" bestFit="1" customWidth="1" style="137" min="6" max="6"/>
+    <col width="31.7109375" bestFit="1" customWidth="1" style="137" min="7" max="7"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" style="137" min="8" max="8"/>
+    <col width="24.28515625" bestFit="1" customWidth="1" style="137" min="9" max="9"/>
+    <col width="12" bestFit="1" customWidth="1" style="137" min="10" max="10"/>
+    <col width="31.42578125" customWidth="1" style="137" min="11" max="11"/>
+    <col width="39.5703125" customWidth="1" style="137" min="12" max="12"/>
+    <col width="19.42578125" customWidth="1" style="137" min="13" max="13"/>
+    <col width="18" customWidth="1" style="137" min="14" max="14"/>
+    <col width="25.5703125" customWidth="1" style="137" min="15" max="15"/>
+    <col width="26.28515625" customWidth="1" style="137" min="16" max="16"/>
+    <col width="15.85546875" customWidth="1" style="137" min="17" max="17"/>
+    <col width="17.140625" customWidth="1" style="137" min="18" max="18"/>
+    <col width="24.5703125" customWidth="1" style="137" min="19" max="19"/>
+    <col width="20.140625" customWidth="1" style="137" min="20" max="20"/>
+    <col width="23.140625" customWidth="1" style="137" min="21" max="21"/>
+    <col width="16.42578125" customWidth="1" style="137" min="22" max="22"/>
+    <col width="22.28515625" customWidth="1" style="137" min="23" max="23"/>
+    <col width="25.5703125" customWidth="1" style="137" min="24" max="24"/>
+    <col width="30.140625" customWidth="1" style="137" min="25" max="25"/>
+    <col width="28.28515625" customWidth="1" style="137" min="26" max="26"/>
+    <col width="28.5703125" customWidth="1" style="137" min="27" max="27"/>
+    <col width="29.140625" customWidth="1" style="137" min="28" max="28"/>
+    <col width="26.7109375" customWidth="1" style="137" min="29" max="29"/>
+    <col width="34.42578125" customWidth="1" style="137" min="30" max="30"/>
+    <col width="23.85546875" customWidth="1" style="137" min="31" max="31"/>
+    <col width="22.5703125" customWidth="1" style="137" min="32" max="32"/>
+    <col width="9.140625" customWidth="1" style="137" min="33" max="33"/>
+    <col width="9.140625" customWidth="1" style="137" min="34" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customFormat="1" customHeight="1" s="129">
+      <c r="A1" s="129" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="129" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="129" t="inlineStr">
+        <is>
+          <t>OutstandingSelect_Type</t>
+        </is>
+      </c>
+      <c r="D1" s="130" t="inlineStr">
+        <is>
+          <t>NewLoan_Alias</t>
+        </is>
+      </c>
+      <c r="E1" s="131" t="inlineStr">
+        <is>
+          <t>NewLoan_Amount</t>
+        </is>
+      </c>
+      <c r="F1" s="129" t="inlineStr">
+        <is>
+          <t>Repricing_Type</t>
+        </is>
+      </c>
+      <c r="G1" s="129" t="inlineStr">
+        <is>
+          <t>Interest_Repricing_Option</t>
+        </is>
+      </c>
+      <c r="H1" s="129" t="inlineStr">
+        <is>
+          <t>Pricing_Option</t>
+        </is>
+      </c>
+      <c r="I1" s="132" t="inlineStr">
+        <is>
+          <t>AcceptRate_FromPricing</t>
+        </is>
+      </c>
+      <c r="J1" s="129" t="inlineStr">
+        <is>
+          <t>Base_Rate</t>
+        </is>
+      </c>
+      <c r="K1" s="129" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanB</t>
+        </is>
+      </c>
+      <c r="L1" s="129" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanA</t>
+        </is>
+      </c>
+      <c r="M1" s="131" t="inlineStr">
+        <is>
+          <t>Effective_Date</t>
+        </is>
+      </c>
+      <c r="N1" s="131" t="inlineStr">
+        <is>
+          <t>Maturity_Date</t>
+        </is>
+      </c>
+      <c r="O1" s="131" t="inlineStr">
+        <is>
+          <t>Repricing_Frequency</t>
+        </is>
+      </c>
+      <c r="P1" s="129" t="inlineStr">
+        <is>
+          <t>Repricing_Date</t>
+        </is>
+      </c>
+      <c r="Q1" s="129" t="inlineStr">
+        <is>
+          <t>Payment_Mode</t>
+        </is>
+      </c>
+      <c r="R1" s="129" t="inlineStr">
+        <is>
+          <t>Int_Cycle_Freq</t>
+        </is>
+      </c>
+      <c r="S1" s="129" t="inlineStr">
+        <is>
+          <t>Actual_Due_Date</t>
+        </is>
+      </c>
+      <c r="T1" s="129" t="inlineStr">
+        <is>
+          <t>Adjusted_Due_Date</t>
+        </is>
+      </c>
+      <c r="U1" s="129" t="inlineStr">
+        <is>
+          <t>Accrue</t>
+        </is>
+      </c>
+      <c r="V1" s="129" t="inlineStr">
+        <is>
+          <t>Accrual_End_Date</t>
+        </is>
+      </c>
+      <c r="W1" s="142" t="inlineStr">
+        <is>
+          <t>BorrowerBaseRate</t>
+        </is>
+      </c>
+      <c r="X1" s="143" t="inlineStr">
+        <is>
+          <t>AcceptRate_FromPricing</t>
+        </is>
+      </c>
+      <c r="Y1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanGlobalOriginal</t>
+        </is>
+      </c>
+      <c r="Z1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanGlobalCurrent</t>
+        </is>
+      </c>
+      <c r="AA1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanHostBankGross</t>
+        </is>
+      </c>
+      <c r="AB1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanHostBankNet</t>
+        </is>
+      </c>
+      <c r="AC1" s="129" t="inlineStr">
+        <is>
+          <t>NewLoan_Pricing_Option</t>
+        </is>
+      </c>
+      <c r="AD1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanCurrentBaseRate</t>
+        </is>
+      </c>
+      <c r="AE1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanSpread</t>
+        </is>
+      </c>
+      <c r="AF1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanAllInRate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="136">
+      <c r="A2" s="133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="134" t="inlineStr">
+        <is>
+          <t>SERV40_ComprehensiveRepricing_LBT_BILAT_COMBINE_AB</t>
+        </is>
+      </c>
+      <c r="C2" s="135" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="D2" s="134" t="inlineStr">
+        <is>
+          <t>60002471</t>
+        </is>
+      </c>
+      <c r="E2" s="74" t="inlineStr">
+        <is>
+          <t>505,369,000.00</t>
+        </is>
+      </c>
+      <c r="F2" s="135" t="inlineStr">
+        <is>
+          <t>Comprehensive Repricing</t>
+        </is>
+      </c>
+      <c r="G2" s="135" t="inlineStr">
+        <is>
+          <t>Auto Generate Interest Payment</t>
+        </is>
+      </c>
+      <c r="H2" s="135" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I2" s="134" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J2" s="140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="74" t="inlineStr">
+        <is>
+          <t>693,700.07</t>
+        </is>
+      </c>
+      <c r="L2" s="74" t="inlineStr">
+        <is>
+          <t>207,683.16</t>
+        </is>
+      </c>
+      <c r="M2" s="144" t="inlineStr">
+        <is>
+          <t>15-Jan-2020</t>
+        </is>
+      </c>
+      <c r="N2" s="83" t="inlineStr">
+        <is>
+          <t>30-Sep-2025</t>
+        </is>
+      </c>
+      <c r="O2" s="63" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="P2" s="144" t="inlineStr">
+        <is>
+          <t>17-Feb-2020</t>
+        </is>
+      </c>
+      <c r="Q2" s="136" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="R2" s="136" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="S2" s="144" t="inlineStr">
+        <is>
+          <t>17-Feb-2020</t>
+        </is>
+      </c>
+      <c r="T2" s="144" t="inlineStr">
+        <is>
+          <t>17-Feb-2020</t>
+        </is>
+      </c>
+      <c r="U2" s="136" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="V2" s="144" t="inlineStr">
+        <is>
+          <t>16-Feb-2020</t>
+        </is>
+      </c>
+      <c r="W2" s="26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X2" s="141" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y2" s="74" t="inlineStr">
+        <is>
+          <t>505,369,000.00</t>
+        </is>
+      </c>
+      <c r="Z2" s="74" t="inlineStr">
+        <is>
+          <t>505,369,000.00</t>
+        </is>
+      </c>
+      <c r="AA2" s="74" t="inlineStr">
+        <is>
+          <t>505,369,000.00</t>
+        </is>
+      </c>
+      <c r="AB2" s="74" t="inlineStr">
+        <is>
+          <t>505,369,000.00</t>
+        </is>
+      </c>
+      <c r="AC2" s="136" t="inlineStr">
+        <is>
+          <t>BBSW</t>
+        </is>
+      </c>
+      <c r="AD2" s="81" t="inlineStr">
+        <is>
+          <t>0.851500%</t>
+        </is>
+      </c>
+      <c r="AE2" s="81" t="inlineStr">
+        <is>
+          <t>1.300000%</t>
+        </is>
+      </c>
+      <c r="AF2" s="81" t="inlineStr">
+        <is>
+          <t>2.151500%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3" s="138" t="n"/>
+      <c r="G3" s="139" t="n"/>
+      <c r="J3" s="138" t="n"/>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="C5" s="134" t="n"/>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11">
+      <c r="B11" s="85" t="inlineStr">
+        <is>
+          <t>Need to update with the values below</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="B13" s="90" t="inlineStr">
+        <is>
+          <t>rows</t>
+        </is>
+      </c>
+      <c r="C13" s="131" t="inlineStr">
+        <is>
+          <t>Maturity_Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="62" t="inlineStr">
+        <is>
+          <t>row1</t>
+        </is>
+      </c>
+      <c r="C14" s="83" t="inlineStr">
+        <is>
+          <t>30-Sep-2021</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3462,8 +3973,8 @@
   </sheetPr>
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3473,7 +3984,7 @@
     <col width="29.140625" customWidth="1" min="7" max="7"/>
     <col width="21.140625" customWidth="1" min="8" max="8"/>
     <col width="27.5703125" customWidth="1" min="9" max="9"/>
-    <col width="15.85546875" customWidth="1" min="10" max="10"/>
+    <col width="19.85546875" customWidth="1" min="10" max="10"/>
     <col width="20.42578125" customWidth="1" min="11" max="11"/>
     <col width="19.5703125" customWidth="1" min="12" max="12"/>
     <col width="24" customWidth="1" min="13" max="13"/>
@@ -4306,14 +4817,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="85" t="inlineStr">
         <is>
@@ -4321,7 +4824,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="B16" s="90" t="inlineStr">
         <is>
@@ -5473,7 +5975,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5501,8 +6003,8 @@
     <col width="21.42578125" bestFit="1" customWidth="1" style="120" min="26" max="26"/>
     <col width="27.140625" bestFit="1" customWidth="1" style="120" min="27" max="27"/>
     <col width="15" bestFit="1" customWidth="1" style="120" min="28" max="29"/>
-    <col width="9.140625" customWidth="1" style="120" min="30" max="35"/>
-    <col width="9.140625" customWidth="1" style="120" min="36" max="16384"/>
+    <col width="9.140625" customWidth="1" style="120" min="30" max="39"/>
+    <col width="9.140625" customWidth="1" style="120" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="113">

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="1" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -182,6 +182,11 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1831,8 +1836,8 @@
   </sheetPr>
   <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1869,8 +1874,8 @@
     <col width="34.42578125" customWidth="1" style="137" min="30" max="30"/>
     <col width="23.85546875" customWidth="1" style="137" min="31" max="31"/>
     <col width="22.5703125" customWidth="1" style="137" min="32" max="32"/>
-    <col width="9.140625" customWidth="1" style="137" min="33" max="33"/>
-    <col width="9.140625" customWidth="1" style="137" min="34" max="16384"/>
+    <col width="9.140625" customWidth="1" style="137" min="33" max="34"/>
+    <col width="9.140625" customWidth="1" style="137" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customFormat="1" customHeight="1" s="129">
@@ -2202,15 +2207,9 @@
       <c r="G3" s="139" t="n"/>
       <c r="J3" s="138" t="n"/>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" s="134" t="n"/>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
     <row r="11">
       <c r="B11" s="85" t="inlineStr">
         <is>
@@ -2218,7 +2217,6 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
     <row r="13">
       <c r="B13" s="90" t="inlineStr">
         <is>
@@ -3971,10 +3969,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF20"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4817,6 +4815,175 @@
         </is>
       </c>
     </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="26">
+      <c r="A6" s="62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="62" t="inlineStr">
+        <is>
+          <t>SERV01_LoanDrawdown_LBT_BILAT_OUTSTANDING_D</t>
+        </is>
+      </c>
+      <c r="C6" s="31" t="inlineStr">
+        <is>
+          <t>LBT BILAT DEAL AUD 1.0B 18MAR1845113</t>
+        </is>
+      </c>
+      <c r="D6" s="26" t="inlineStr">
+        <is>
+          <t>CLASS_A_NOTE_FAC_53129</t>
+        </is>
+      </c>
+      <c r="E6" s="79" t="inlineStr">
+        <is>
+          <t>LBT TRUST 1115737</t>
+        </is>
+      </c>
+      <c r="F6" s="79" t="inlineStr">
+        <is>
+          <t>60002625</t>
+        </is>
+      </c>
+      <c r="G6" s="62" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="H6" s="62" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I6" s="74" t="inlineStr">
+        <is>
+          <t>118,590,000.00</t>
+        </is>
+      </c>
+      <c r="J6" s="63" t="inlineStr">
+        <is>
+          <t>23-Jan-2020</t>
+        </is>
+      </c>
+      <c r="K6" s="82" t="inlineStr">
+        <is>
+          <t>30-Sep-2025</t>
+        </is>
+      </c>
+      <c r="L6" s="62" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="M6" s="76" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N6" s="62" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="O6" s="83" t="inlineStr">
+        <is>
+          <t>20-Feb-2024</t>
+        </is>
+      </c>
+      <c r="P6" s="83" t="inlineStr">
+        <is>
+          <t>19-Feb-2024</t>
+        </is>
+      </c>
+      <c r="Q6" s="63" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="R6" s="62" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="S6" s="62" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="T6" s="75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U6" s="62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V6" s="62" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="W6" s="76" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="X6" s="84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y6" s="84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Z6" s="74" t="inlineStr">
+        <is>
+          <t>118,590,000.00</t>
+        </is>
+      </c>
+      <c r="AA6" s="74" t="inlineStr">
+        <is>
+          <t>118,590,000.00</t>
+        </is>
+      </c>
+      <c r="AB6" s="74" t="inlineStr">
+        <is>
+          <t>118,590,000.00</t>
+        </is>
+      </c>
+      <c r="AC6" s="74" t="inlineStr">
+        <is>
+          <t>118,590,000.00</t>
+        </is>
+      </c>
+      <c r="AD6" s="81" t="inlineStr">
+        <is>
+          <t>0.785000%</t>
+        </is>
+      </c>
+      <c r="AE6" s="81" t="inlineStr">
+        <is>
+          <t>1.120000%</t>
+        </is>
+      </c>
+      <c r="AF6" s="81" t="inlineStr">
+        <is>
+          <t>1.905000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
     <row r="14">
       <c r="B14" s="85" t="inlineStr">
         <is>
@@ -4824,6 +4991,7 @@
         </is>
       </c>
     </row>
+    <row r="15"/>
     <row r="16">
       <c r="B16" s="90" t="inlineStr">
         <is>
@@ -4929,6 +5097,28 @@
         </is>
       </c>
       <c r="E20" s="83" t="inlineStr">
+        <is>
+          <t>16-Feb-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="88" t="inlineStr">
+        <is>
+          <t>row5</t>
+        </is>
+      </c>
+      <c r="C21" s="87" t="inlineStr">
+        <is>
+          <t>30-Sep-2021</t>
+        </is>
+      </c>
+      <c r="D21" s="83" t="inlineStr">
+        <is>
+          <t>17-Feb-2020</t>
+        </is>
+      </c>
+      <c r="E21" s="83" t="inlineStr">
         <is>
           <t>16-Feb-2020</t>
         </is>
@@ -6003,8 +6193,8 @@
     <col width="21.42578125" bestFit="1" customWidth="1" style="120" min="26" max="26"/>
     <col width="27.140625" bestFit="1" customWidth="1" style="120" min="27" max="27"/>
     <col width="15" bestFit="1" customWidth="1" style="120" min="28" max="29"/>
-    <col width="9.140625" customWidth="1" style="120" min="30" max="39"/>
-    <col width="9.140625" customWidth="1" style="120" min="40" max="16384"/>
+    <col width="9.140625" customWidth="1" style="120" min="30" max="40"/>
+    <col width="9.140625" customWidth="1" style="120" min="41" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="113">

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="877" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="877" firstSheet="1" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,25 +29,11 @@
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -189,7 +175,7 @@
       <sz val="8"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -268,6 +254,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.3499862666707358"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -321,128 +313,128 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -454,57 +446,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -513,125 +505,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="17" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="7">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1837,48 +1830,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.5703125" bestFit="1" customWidth="1" style="137" min="1" max="1"/>
-    <col width="31.42578125" bestFit="1" customWidth="1" style="137" min="2" max="2"/>
-    <col width="26.5703125" bestFit="1" customWidth="1" style="137" min="3" max="3"/>
-    <col width="16.42578125" bestFit="1" customWidth="1" style="137" min="4" max="4"/>
-    <col width="19.42578125" bestFit="1" customWidth="1" style="137" min="5" max="5"/>
-    <col width="26" bestFit="1" customWidth="1" style="137" min="6" max="6"/>
-    <col width="31.7109375" bestFit="1" customWidth="1" style="137" min="7" max="7"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" style="137" min="8" max="8"/>
-    <col width="24.28515625" bestFit="1" customWidth="1" style="137" min="9" max="9"/>
-    <col width="12" bestFit="1" customWidth="1" style="137" min="10" max="10"/>
-    <col width="31.42578125" customWidth="1" style="137" min="11" max="11"/>
-    <col width="39.5703125" customWidth="1" style="137" min="12" max="12"/>
-    <col width="19.42578125" customWidth="1" style="137" min="13" max="13"/>
-    <col width="18" customWidth="1" style="137" min="14" max="14"/>
-    <col width="25.5703125" customWidth="1" style="137" min="15" max="15"/>
-    <col width="26.28515625" customWidth="1" style="137" min="16" max="16"/>
-    <col width="15.85546875" customWidth="1" style="137" min="17" max="17"/>
-    <col width="17.140625" customWidth="1" style="137" min="18" max="18"/>
-    <col width="24.5703125" customWidth="1" style="137" min="19" max="19"/>
-    <col width="20.140625" customWidth="1" style="137" min="20" max="20"/>
-    <col width="23.140625" customWidth="1" style="137" min="21" max="21"/>
-    <col width="16.42578125" customWidth="1" style="137" min="22" max="22"/>
-    <col width="22.28515625" customWidth="1" style="137" min="23" max="23"/>
-    <col width="25.5703125" customWidth="1" style="137" min="24" max="24"/>
-    <col width="30.140625" customWidth="1" style="137" min="25" max="25"/>
-    <col width="28.28515625" customWidth="1" style="137" min="26" max="26"/>
-    <col width="28.5703125" customWidth="1" style="137" min="27" max="27"/>
-    <col width="29.140625" customWidth="1" style="137" min="28" max="28"/>
-    <col width="26.7109375" customWidth="1" style="137" min="29" max="29"/>
-    <col width="34.42578125" customWidth="1" style="137" min="30" max="30"/>
-    <col width="23.85546875" customWidth="1" style="137" min="31" max="31"/>
-    <col width="22.5703125" customWidth="1" style="137" min="32" max="32"/>
-    <col width="9.140625" customWidth="1" style="137" min="33" max="35"/>
-    <col width="9.140625" customWidth="1" style="137" min="36" max="16384"/>
+    <col width="6.5703125" bestFit="1" customWidth="1" style="136" min="1" max="1"/>
+    <col width="31.42578125" bestFit="1" customWidth="1" style="136" min="2" max="2"/>
+    <col width="26.5703125" bestFit="1" customWidth="1" style="136" min="3" max="3"/>
+    <col width="16.42578125" bestFit="1" customWidth="1" style="136" min="4" max="4"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" style="136" min="5" max="5"/>
+    <col width="26" bestFit="1" customWidth="1" style="136" min="6" max="6"/>
+    <col width="31.7109375" bestFit="1" customWidth="1" style="136" min="7" max="7"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" style="136" min="8" max="8"/>
+    <col width="12" bestFit="1" customWidth="1" style="136" min="9" max="9"/>
+    <col width="31.42578125" customWidth="1" style="136" min="10" max="10"/>
+    <col width="39.5703125" customWidth="1" style="136" min="11" max="14"/>
+    <col width="19.42578125" customWidth="1" style="136" min="15" max="15"/>
+    <col width="18" customWidth="1" style="136" min="16" max="16"/>
+    <col width="25.5703125" customWidth="1" style="136" min="17" max="17"/>
+    <col width="26.28515625" customWidth="1" style="136" min="18" max="18"/>
+    <col width="15.85546875" customWidth="1" style="136" min="19" max="19"/>
+    <col width="17.140625" customWidth="1" style="136" min="20" max="20"/>
+    <col width="24.5703125" customWidth="1" style="136" min="21" max="21"/>
+    <col width="20.140625" customWidth="1" style="136" min="22" max="22"/>
+    <col width="23.140625" customWidth="1" style="136" min="23" max="23"/>
+    <col width="16.42578125" customWidth="1" style="136" min="24" max="24"/>
+    <col width="22.28515625" customWidth="1" style="136" min="25" max="25"/>
+    <col width="25.5703125" customWidth="1" style="136" min="26" max="26"/>
+    <col width="30.140625" customWidth="1" style="136" min="27" max="27"/>
+    <col width="28.28515625" customWidth="1" style="136" min="28" max="28"/>
+    <col width="28.5703125" customWidth="1" style="136" min="29" max="29"/>
+    <col width="29.140625" customWidth="1" style="136" min="30" max="30"/>
+    <col width="26.7109375" customWidth="1" style="136" min="31" max="31"/>
+    <col width="34.42578125" customWidth="1" style="136" min="32" max="32"/>
+    <col width="23.85546875" customWidth="1" style="136" min="33" max="33"/>
+    <col width="22.5703125" customWidth="1" style="136" min="34" max="34"/>
+    <col width="9.140625" customWidth="1" style="136" min="35" max="38"/>
+    <col width="9.140625" customWidth="1" style="136" min="39" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customFormat="1" customHeight="1" s="129">
@@ -1922,323 +1914,505 @@
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="I1" s="132" t="inlineStr">
+      <c r="I1" s="129" t="inlineStr">
+        <is>
+          <t>Base_Rate</t>
+        </is>
+      </c>
+      <c r="J1" s="129" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanB</t>
+        </is>
+      </c>
+      <c r="K1" s="129" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanA</t>
+        </is>
+      </c>
+      <c r="L1" s="129" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanAB</t>
+        </is>
+      </c>
+      <c r="M1" s="129" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanC</t>
+        </is>
+      </c>
+      <c r="N1" s="129" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanD</t>
+        </is>
+      </c>
+      <c r="O1" s="131" t="inlineStr">
+        <is>
+          <t>Effective_Date</t>
+        </is>
+      </c>
+      <c r="P1" s="131" t="inlineStr">
+        <is>
+          <t>Maturity_Date</t>
+        </is>
+      </c>
+      <c r="Q1" s="131" t="inlineStr">
+        <is>
+          <t>Repricing_Frequency</t>
+        </is>
+      </c>
+      <c r="R1" s="129" t="inlineStr">
+        <is>
+          <t>Repricing_Date</t>
+        </is>
+      </c>
+      <c r="S1" s="129" t="inlineStr">
+        <is>
+          <t>Payment_Mode</t>
+        </is>
+      </c>
+      <c r="T1" s="129" t="inlineStr">
+        <is>
+          <t>Int_Cycle_Freq</t>
+        </is>
+      </c>
+      <c r="U1" s="129" t="inlineStr">
+        <is>
+          <t>Actual_Due_Date</t>
+        </is>
+      </c>
+      <c r="V1" s="129" t="inlineStr">
+        <is>
+          <t>Adjusted_Due_Date</t>
+        </is>
+      </c>
+      <c r="W1" s="129" t="inlineStr">
+        <is>
+          <t>Accrue</t>
+        </is>
+      </c>
+      <c r="X1" s="129" t="inlineStr">
+        <is>
+          <t>Accrual_End_Date</t>
+        </is>
+      </c>
+      <c r="Y1" s="139" t="inlineStr">
+        <is>
+          <t>BorrowerBaseRate</t>
+        </is>
+      </c>
+      <c r="Z1" s="140" t="inlineStr">
         <is>
           <t>AcceptRate_FromPricing</t>
         </is>
       </c>
-      <c r="J1" s="129" t="inlineStr">
-        <is>
-          <t>Base_Rate</t>
-        </is>
-      </c>
-      <c r="K1" s="129" t="inlineStr">
-        <is>
-          <t>Expected_InterestAmt_LoanB</t>
-        </is>
-      </c>
-      <c r="L1" s="129" t="inlineStr">
-        <is>
-          <t>Expected_InterestAmt_LoanA</t>
-        </is>
-      </c>
-      <c r="M1" s="131" t="inlineStr">
-        <is>
-          <t>Effective_Date</t>
-        </is>
-      </c>
-      <c r="N1" s="131" t="inlineStr">
+      <c r="AA1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanGlobalOriginal</t>
+        </is>
+      </c>
+      <c r="AB1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanGlobalCurrent</t>
+        </is>
+      </c>
+      <c r="AC1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanHostBankGross</t>
+        </is>
+      </c>
+      <c r="AD1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanHostBankNet</t>
+        </is>
+      </c>
+      <c r="AE1" s="129" t="inlineStr">
+        <is>
+          <t>NewLoan_Pricing_Option</t>
+        </is>
+      </c>
+      <c r="AF1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanCurrentBaseRate</t>
+        </is>
+      </c>
+      <c r="AG1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanSpread</t>
+        </is>
+      </c>
+      <c r="AH1" s="129" t="inlineStr">
+        <is>
+          <t>Expctd_LoanAllInRate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="135">
+      <c r="A2" s="132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="133" t="inlineStr">
+        <is>
+          <t>SERV40_ComprehensiveRepricing_LBT_BILAT_COMBINE_AB</t>
+        </is>
+      </c>
+      <c r="C2" s="134" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="D2" s="133" t="inlineStr">
+        <is>
+          <t>60002471</t>
+        </is>
+      </c>
+      <c r="E2" s="74" t="inlineStr">
+        <is>
+          <t>505,369,000.00</t>
+        </is>
+      </c>
+      <c r="F2" s="134" t="inlineStr">
+        <is>
+          <t>Comprehensive Repricing</t>
+        </is>
+      </c>
+      <c r="G2" s="134" t="inlineStr">
+        <is>
+          <t>Auto Generate Interest Payment</t>
+        </is>
+      </c>
+      <c r="H2" s="134" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I2" s="137" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J2" s="74" t="inlineStr">
+        <is>
+          <t>693,700.07</t>
+        </is>
+      </c>
+      <c r="K2" s="74" t="inlineStr">
+        <is>
+          <t>207,683.16</t>
+        </is>
+      </c>
+      <c r="L2" s="144" t="n"/>
+      <c r="M2" s="144" t="n"/>
+      <c r="N2" s="144" t="n"/>
+      <c r="O2" s="141" t="inlineStr">
+        <is>
+          <t>15-Jan-2020</t>
+        </is>
+      </c>
+      <c r="P2" s="83" t="inlineStr">
+        <is>
+          <t>30-Sep-2025</t>
+        </is>
+      </c>
+      <c r="Q2" s="63" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="R2" s="141" t="inlineStr">
+        <is>
+          <t>17-Feb-2020</t>
+        </is>
+      </c>
+      <c r="S2" s="135" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="T2" s="135" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="U2" s="141" t="inlineStr">
+        <is>
+          <t>17-Feb-2020</t>
+        </is>
+      </c>
+      <c r="V2" s="141" t="inlineStr">
+        <is>
+          <t>17-Feb-2020</t>
+        </is>
+      </c>
+      <c r="W2" s="135" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="X2" s="141" t="inlineStr">
+        <is>
+          <t>16-Feb-2020</t>
+        </is>
+      </c>
+      <c r="Y2" s="26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Z2" s="138" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA2" s="74" t="inlineStr">
+        <is>
+          <t>505,369,000.00</t>
+        </is>
+      </c>
+      <c r="AB2" s="74" t="inlineStr">
+        <is>
+          <t>505,369,000.00</t>
+        </is>
+      </c>
+      <c r="AC2" s="74" t="inlineStr">
+        <is>
+          <t>505,369,000.00</t>
+        </is>
+      </c>
+      <c r="AD2" s="74" t="inlineStr">
+        <is>
+          <t>505,369,000.00</t>
+        </is>
+      </c>
+      <c r="AE2" s="135" t="inlineStr">
+        <is>
+          <t>BBSW</t>
+        </is>
+      </c>
+      <c r="AF2" s="81" t="inlineStr">
+        <is>
+          <t>0.851500%</t>
+        </is>
+      </c>
+      <c r="AG2" s="81" t="inlineStr">
+        <is>
+          <t>1.300000%</t>
+        </is>
+      </c>
+      <c r="AH2" s="81" t="inlineStr">
+        <is>
+          <t>2.151500%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customFormat="1" customHeight="1" s="135">
+      <c r="A3" s="132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="133" t="inlineStr">
+        <is>
+          <t>SERV40_ComprehensiveRepricing_LBT_BILAT_COMBINE_ABCD</t>
+        </is>
+      </c>
+      <c r="C3" s="134" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="D3" s="133" t="inlineStr">
+        <is>
+          <t>60002684</t>
+        </is>
+      </c>
+      <c r="E3" s="74" t="inlineStr">
+        <is>
+          <t>789,797,000.00</t>
+        </is>
+      </c>
+      <c r="F3" s="134" t="inlineStr">
+        <is>
+          <t>Comprehensive Repricing</t>
+        </is>
+      </c>
+      <c r="G3" s="134" t="inlineStr">
+        <is>
+          <t>Auto Generate Interest Payment</t>
+        </is>
+      </c>
+      <c r="H3" s="134" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I3" s="137" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J3" s="143" t="n"/>
+      <c r="K3" s="143" t="n"/>
+      <c r="L3" s="74" t="inlineStr">
+        <is>
+          <t>900,796.01</t>
+        </is>
+      </c>
+      <c r="M3" s="74" t="inlineStr">
+        <is>
+          <t>322,839.50</t>
+        </is>
+      </c>
+      <c r="N3" s="74" t="inlineStr">
+        <is>
+          <t>154,735.58</t>
+        </is>
+      </c>
+      <c r="O3" s="141" t="inlineStr">
+        <is>
+          <t>17-Feb-2020</t>
+        </is>
+      </c>
+      <c r="P3" s="83" t="inlineStr">
+        <is>
+          <t>30-Sep-2025</t>
+        </is>
+      </c>
+      <c r="Q3" s="63" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="R3" s="141" t="inlineStr">
+        <is>
+          <t>16-Mar-2020</t>
+        </is>
+      </c>
+      <c r="S3" s="135" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="T3" s="135" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="U3" s="141" t="inlineStr">
+        <is>
+          <t>16-Mar-2020</t>
+        </is>
+      </c>
+      <c r="V3" s="141" t="inlineStr">
+        <is>
+          <t>16-Mar-2020</t>
+        </is>
+      </c>
+      <c r="W3" s="135" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="X3" s="141" t="inlineStr">
+        <is>
+          <t>15-Mar-2020</t>
+        </is>
+      </c>
+      <c r="Y3" s="26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Z3" s="138" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA3" s="74" t="inlineStr">
+        <is>
+          <t>789,797,000.00</t>
+        </is>
+      </c>
+      <c r="AB3" s="74" t="inlineStr">
+        <is>
+          <t>789,797,000.00</t>
+        </is>
+      </c>
+      <c r="AC3" s="74" t="inlineStr">
+        <is>
+          <t>789,797,000.00</t>
+        </is>
+      </c>
+      <c r="AD3" s="74" t="inlineStr">
+        <is>
+          <t>789,797,000.00</t>
+        </is>
+      </c>
+      <c r="AE3" s="135" t="inlineStr">
+        <is>
+          <t>BBSW</t>
+        </is>
+      </c>
+      <c r="AF3" s="81" t="inlineStr">
+        <is>
+          <t>0.805000%</t>
+        </is>
+      </c>
+      <c r="AG3" s="81" t="inlineStr">
+        <is>
+          <t>1.050000%</t>
+        </is>
+      </c>
+      <c r="AH3" s="81" t="inlineStr">
+        <is>
+          <t>1.855000%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9">
+      <c r="B9" s="85" t="inlineStr">
+        <is>
+          <t>Need to update with the values below</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11">
+      <c r="B11" s="90" t="inlineStr">
+        <is>
+          <t>rows</t>
+        </is>
+      </c>
+      <c r="C11" s="131" t="inlineStr">
         <is>
           <t>Maturity_Date</t>
         </is>
       </c>
-      <c r="O1" s="131" t="inlineStr">
-        <is>
-          <t>Repricing_Frequency</t>
-        </is>
-      </c>
-      <c r="P1" s="129" t="inlineStr">
-        <is>
-          <t>Repricing_Date</t>
-        </is>
-      </c>
-      <c r="Q1" s="129" t="inlineStr">
-        <is>
-          <t>Payment_Mode</t>
-        </is>
-      </c>
-      <c r="R1" s="129" t="inlineStr">
-        <is>
-          <t>Int_Cycle_Freq</t>
-        </is>
-      </c>
-      <c r="S1" s="129" t="inlineStr">
-        <is>
-          <t>Actual_Due_Date</t>
-        </is>
-      </c>
-      <c r="T1" s="129" t="inlineStr">
-        <is>
-          <t>Adjusted_Due_Date</t>
-        </is>
-      </c>
-      <c r="U1" s="129" t="inlineStr">
-        <is>
-          <t>Accrue</t>
-        </is>
-      </c>
-      <c r="V1" s="129" t="inlineStr">
-        <is>
-          <t>Accrual_End_Date</t>
-        </is>
-      </c>
-      <c r="W1" s="142" t="inlineStr">
-        <is>
-          <t>BorrowerBaseRate</t>
-        </is>
-      </c>
-      <c r="X1" s="143" t="inlineStr">
-        <is>
-          <t>AcceptRate_FromPricing</t>
-        </is>
-      </c>
-      <c r="Y1" s="129" t="inlineStr">
-        <is>
-          <t>Expctd_LoanGlobalOriginal</t>
-        </is>
-      </c>
-      <c r="Z1" s="129" t="inlineStr">
-        <is>
-          <t>Expctd_LoanGlobalCurrent</t>
-        </is>
-      </c>
-      <c r="AA1" s="129" t="inlineStr">
-        <is>
-          <t>Expctd_LoanHostBankGross</t>
-        </is>
-      </c>
-      <c r="AB1" s="129" t="inlineStr">
-        <is>
-          <t>Expctd_LoanHostBankNet</t>
-        </is>
-      </c>
-      <c r="AC1" s="129" t="inlineStr">
-        <is>
-          <t>NewLoan_Pricing_Option</t>
-        </is>
-      </c>
-      <c r="AD1" s="129" t="inlineStr">
-        <is>
-          <t>Expctd_LoanCurrentBaseRate</t>
-        </is>
-      </c>
-      <c r="AE1" s="129" t="inlineStr">
-        <is>
-          <t>Expctd_LoanSpread</t>
-        </is>
-      </c>
-      <c r="AF1" s="129" t="inlineStr">
-        <is>
-          <t>Expctd_LoanAllInRate</t>
-        </is>
-      </c>
     </row>
-    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="136">
-      <c r="A2" s="133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="134" t="inlineStr">
-        <is>
-          <t>SERV40_ComprehensiveRepricing_LBT_BILAT_COMBINE_AB</t>
-        </is>
-      </c>
-      <c r="C2" s="135" t="inlineStr">
-        <is>
-          <t>Loan</t>
-        </is>
-      </c>
-      <c r="D2" s="134" t="inlineStr">
-        <is>
-          <t>60002471</t>
-        </is>
-      </c>
-      <c r="E2" s="74" t="inlineStr">
-        <is>
-          <t>505,369,000.00</t>
-        </is>
-      </c>
-      <c r="F2" s="135" t="inlineStr">
-        <is>
-          <t>Comprehensive Repricing</t>
-        </is>
-      </c>
-      <c r="G2" s="135" t="inlineStr">
-        <is>
-          <t>Auto Generate Interest Payment</t>
-        </is>
-      </c>
-      <c r="H2" s="135" t="inlineStr">
-        <is>
-          <t>BBSW - Mid</t>
-        </is>
-      </c>
-      <c r="I2" s="134" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J2" s="140" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="74" t="inlineStr">
-        <is>
-          <t>693,700.07</t>
-        </is>
-      </c>
-      <c r="L2" s="74" t="inlineStr">
-        <is>
-          <t>207,683.16</t>
-        </is>
-      </c>
-      <c r="M2" s="144" t="inlineStr">
-        <is>
-          <t>15-Jan-2020</t>
-        </is>
-      </c>
-      <c r="N2" s="83" t="inlineStr">
-        <is>
-          <t>30-Sep-2025</t>
-        </is>
-      </c>
-      <c r="O2" s="63" t="inlineStr">
-        <is>
-          <t>1 Months</t>
-        </is>
-      </c>
-      <c r="P2" s="144" t="inlineStr">
-        <is>
-          <t>17-Feb-2020</t>
-        </is>
-      </c>
-      <c r="Q2" s="136" t="inlineStr">
-        <is>
-          <t>Pay in Arrears</t>
-        </is>
-      </c>
-      <c r="R2" s="136" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="S2" s="144" t="inlineStr">
-        <is>
-          <t>17-Feb-2020</t>
-        </is>
-      </c>
-      <c r="T2" s="144" t="inlineStr">
-        <is>
-          <t>17-Feb-2020</t>
-        </is>
-      </c>
-      <c r="U2" s="136" t="inlineStr">
-        <is>
-          <t>to the adjusted due date</t>
-        </is>
-      </c>
-      <c r="V2" s="144" t="inlineStr">
-        <is>
-          <t>16-Feb-2020</t>
-        </is>
-      </c>
-      <c r="W2" s="26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="X2" s="141" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="Y2" s="74" t="inlineStr">
-        <is>
-          <t>505,369,000.00</t>
-        </is>
-      </c>
-      <c r="Z2" s="74" t="inlineStr">
-        <is>
-          <t>505,369,000.00</t>
-        </is>
-      </c>
-      <c r="AA2" s="74" t="inlineStr">
-        <is>
-          <t>505,369,000.00</t>
-        </is>
-      </c>
-      <c r="AB2" s="74" t="inlineStr">
-        <is>
-          <t>505,369,000.00</t>
-        </is>
-      </c>
-      <c r="AC2" s="136" t="inlineStr">
-        <is>
-          <t>BBSW</t>
-        </is>
-      </c>
-      <c r="AD2" s="81" t="inlineStr">
-        <is>
-          <t>0.851500%</t>
-        </is>
-      </c>
-      <c r="AE2" s="81" t="inlineStr">
-        <is>
-          <t>1.300000%</t>
-        </is>
-      </c>
-      <c r="AF2" s="81" t="inlineStr">
-        <is>
-          <t>2.151500%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="E3" s="138" t="n"/>
-      <c r="G3" s="139" t="n"/>
-      <c r="J3" s="138" t="n"/>
-    </row>
-    <row r="5">
-      <c r="C5" s="134" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="85" t="inlineStr">
-        <is>
-          <t>Need to update with the values below</t>
+    <row r="12">
+      <c r="B12" s="62" t="inlineStr">
+        <is>
+          <t>row1</t>
+        </is>
+      </c>
+      <c r="C12" s="83" t="inlineStr">
+        <is>
+          <t>30-Sep-2021</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="90" t="inlineStr">
-        <is>
-          <t>rows</t>
-        </is>
-      </c>
-      <c r="C13" s="131" t="inlineStr">
-        <is>
-          <t>Maturity_Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="62" t="inlineStr">
-        <is>
-          <t>row1</t>
-        </is>
-      </c>
-      <c r="C14" s="83" t="inlineStr">
+      <c r="B13" s="62" t="inlineStr">
+        <is>
+          <t>row2</t>
+        </is>
+      </c>
+      <c r="C13" s="83" t="inlineStr">
         <is>
           <t>30-Sep-2021</t>
         </is>
@@ -3972,10 +4146,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4337,7 +4511,7 @@
           <t>2.149600%</t>
         </is>
       </c>
-      <c r="AG2" s="145" t="inlineStr">
+      <c r="AG2" s="142" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -4504,7 +4678,7 @@
           <t>2.149600%</t>
         </is>
       </c>
-      <c r="AG3" s="145" t="inlineStr">
+      <c r="AG3" s="142" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -4671,7 +4845,7 @@
           <t>2.149600%</t>
         </is>
       </c>
-      <c r="AG4" s="145" t="inlineStr">
+      <c r="AG4" s="142" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -4838,7 +5012,7 @@
           <t>2.151500%</t>
         </is>
       </c>
-      <c r="AG5" s="145" t="inlineStr">
+      <c r="AG5" s="142" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -5172,18 +5346,12 @@
           <t>1.855000%</t>
         </is>
       </c>
-      <c r="AG7" s="145" t="inlineStr">
+      <c r="AG7" s="142" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="85" t="inlineStr">
         <is>
@@ -5191,7 +5359,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="B16" s="90" t="inlineStr">
         <is>
@@ -5315,10 +5482,32 @@
       </c>
       <c r="D21" s="83" t="inlineStr">
         <is>
+          <t>17-Feb-2020</t>
+        </is>
+      </c>
+      <c r="E21" s="83" t="inlineStr">
+        <is>
+          <t>16-Feb-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="88" t="inlineStr">
+        <is>
+          <t>row6</t>
+        </is>
+      </c>
+      <c r="C22" s="87" t="inlineStr">
+        <is>
+          <t>30-Sep-2021</t>
+        </is>
+      </c>
+      <c r="D22" s="83" t="inlineStr">
+        <is>
           <t>16-Mar-2020</t>
         </is>
       </c>
-      <c r="E21" s="83" t="inlineStr">
+      <c r="E22" s="83" t="inlineStr">
         <is>
           <t>15-Mar-2020</t>
         </is>
@@ -6393,8 +6582,8 @@
     <col width="21.42578125" bestFit="1" customWidth="1" style="120" min="26" max="26"/>
     <col width="27.140625" bestFit="1" customWidth="1" style="120" min="27" max="27"/>
     <col width="15" bestFit="1" customWidth="1" style="120" min="28" max="29"/>
-    <col width="9.140625" customWidth="1" style="120" min="30" max="41"/>
-    <col width="9.140625" customWidth="1" style="120" min="42" max="16384"/>
+    <col width="9.140625" customWidth="1" style="120" min="30" max="42"/>
+    <col width="9.140625" customWidth="1" style="120" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="113">

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="877" firstSheet="1" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="877" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,11 +29,18 @@
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -313,128 +320,128 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -446,57 +453,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -505,128 +512,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="7">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1832,7 +1856,7 @@
   </sheetPr>
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N26" sqref="N26:O26"/>
     </sheetView>
   </sheetViews>
@@ -1869,8 +1893,8 @@
     <col width="34.42578125" customWidth="1" style="136" min="32" max="32"/>
     <col width="23.85546875" customWidth="1" style="136" min="33" max="33"/>
     <col width="22.5703125" customWidth="1" style="136" min="34" max="34"/>
-    <col width="9.140625" customWidth="1" style="136" min="35" max="38"/>
-    <col width="9.140625" customWidth="1" style="136" min="39" max="16384"/>
+    <col width="9.140625" customWidth="1" style="136" min="35" max="39"/>
+    <col width="9.140625" customWidth="1" style="136" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customFormat="1" customHeight="1" s="129">
@@ -2369,11 +2393,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
     <row r="9">
       <c r="B9" s="85" t="inlineStr">
         <is>
@@ -2381,7 +2400,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="B11" s="90" t="inlineStr">
         <is>
@@ -2525,8 +2543,8 @@
     <col width="18.85546875" customWidth="1" style="1" min="87" max="87"/>
     <col width="26.28515625" customWidth="1" style="7" min="88" max="88"/>
     <col width="31.140625" customWidth="1" style="7" min="89" max="90"/>
-    <col width="40.7109375" bestFit="1" customWidth="1" min="91" max="91"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="92" max="92"/>
+    <col width="40.7109375" bestFit="1" customWidth="1" style="145" min="91" max="91"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" style="145" min="92" max="92"/>
     <col width="20.42578125" customWidth="1" style="7" min="93" max="93"/>
     <col width="27.140625" customWidth="1" style="7" min="94" max="94"/>
     <col width="21.140625" customWidth="1" style="7" min="95" max="95"/>
@@ -2982,17 +3000,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="31.42578125" customWidth="1" min="2" max="2"/>
-    <col width="31.140625" customWidth="1" min="3" max="3"/>
-    <col width="31.28515625" customWidth="1" min="4" max="4"/>
-    <col width="14.140625" customWidth="1" min="5" max="5"/>
-    <col width="23.140625" customWidth="1" min="6" max="6"/>
-    <col width="14.28515625" customWidth="1" min="7" max="7"/>
-    <col width="27.42578125" customWidth="1" min="8" max="8"/>
-    <col width="18.28515625" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="15.85546875" customWidth="1" min="15" max="15"/>
-    <col width="15.85546875" customWidth="1" min="17" max="17"/>
+    <col width="31.42578125" customWidth="1" style="145" min="2" max="2"/>
+    <col width="31.140625" customWidth="1" style="145" min="3" max="3"/>
+    <col width="31.28515625" customWidth="1" style="145" min="4" max="4"/>
+    <col width="14.140625" customWidth="1" style="145" min="5" max="5"/>
+    <col width="23.140625" customWidth="1" style="145" min="6" max="6"/>
+    <col width="14.28515625" customWidth="1" style="145" min="7" max="7"/>
+    <col width="27.42578125" customWidth="1" style="145" min="8" max="8"/>
+    <col width="18.28515625" customWidth="1" style="145" min="10" max="10"/>
+    <col width="16" customWidth="1" style="145" min="11" max="11"/>
+    <col width="15.85546875" customWidth="1" style="145" min="15" max="15"/>
+    <col width="15.85546875" customWidth="1" style="145" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3236,27 +3254,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="23.42578125" customWidth="1" min="4" max="6"/>
-    <col width="20.42578125" customWidth="1" min="8" max="10"/>
-    <col width="18.42578125" customWidth="1" min="11" max="11"/>
-    <col width="20.42578125" customWidth="1" min="12" max="13"/>
-    <col width="21.85546875" customWidth="1" min="14" max="15"/>
-    <col width="18.42578125" customWidth="1" min="16" max="28"/>
-    <col width="22.5703125" customWidth="1" min="29" max="30"/>
-    <col width="23.85546875" customWidth="1" min="31" max="31"/>
-    <col width="20.5703125" customWidth="1" min="32" max="42"/>
-    <col width="23.28515625" customWidth="1" min="43" max="43"/>
-    <col width="24.28515625" customWidth="1" min="44" max="44"/>
-    <col width="24.5703125" customWidth="1" min="45" max="45"/>
-    <col width="25" customWidth="1" min="46" max="46"/>
-    <col width="31.42578125" customWidth="1" min="47" max="47"/>
-    <col width="23.5703125" customWidth="1" min="48" max="48"/>
-    <col width="19" customWidth="1" min="49" max="49"/>
-    <col width="14.7109375" customWidth="1" min="50" max="50"/>
+    <col width="28" customWidth="1" style="145" min="3" max="3"/>
+    <col width="23.42578125" customWidth="1" style="145" min="4" max="6"/>
+    <col width="20.42578125" customWidth="1" style="145" min="8" max="10"/>
+    <col width="18.42578125" customWidth="1" style="145" min="11" max="11"/>
+    <col width="20.42578125" customWidth="1" style="145" min="12" max="13"/>
+    <col width="21.85546875" customWidth="1" style="145" min="14" max="15"/>
+    <col width="18.42578125" customWidth="1" style="145" min="16" max="28"/>
+    <col width="22.5703125" customWidth="1" style="145" min="29" max="30"/>
+    <col width="23.85546875" customWidth="1" style="145" min="31" max="31"/>
+    <col width="20.5703125" customWidth="1" style="145" min="32" max="42"/>
+    <col width="23.28515625" customWidth="1" style="145" min="43" max="43"/>
+    <col width="24.28515625" customWidth="1" style="145" min="44" max="44"/>
+    <col width="24.5703125" customWidth="1" style="145" min="45" max="45"/>
+    <col width="25" customWidth="1" style="145" min="46" max="46"/>
+    <col width="31.42578125" customWidth="1" style="145" min="47" max="47"/>
+    <col width="23.5703125" customWidth="1" style="145" min="48" max="48"/>
+    <col width="19" customWidth="1" style="145" min="49" max="49"/>
+    <col width="14.7109375" customWidth="1" style="145" min="50" max="50"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
+    <row r="1" ht="25.5" customHeight="1" s="145">
       <c r="A1" s="16" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -3898,10 +3916,10 @@
     <col width="19.42578125" customWidth="1" style="7" min="9" max="9"/>
     <col width="21.140625" customWidth="1" style="7" min="10" max="11"/>
     <col width="29.140625" customWidth="1" style="7" min="12" max="16"/>
-    <col width="18" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="18" customWidth="1" min="18" max="18"/>
+    <col width="18" bestFit="1" customWidth="1" style="145" min="17" max="17"/>
+    <col width="18" customWidth="1" style="145" min="18" max="18"/>
     <col width="17.5703125" customWidth="1" style="7" min="19" max="19"/>
-    <col width="25.7109375" customWidth="1" min="20" max="20"/>
+    <col width="25.7109375" customWidth="1" style="145" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="60">
@@ -4146,41 +4164,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="51.7109375" customWidth="1" min="2" max="5"/>
-    <col width="17.5703125" customWidth="1" min="6" max="6"/>
-    <col width="29.140625" customWidth="1" min="7" max="7"/>
-    <col width="21.140625" customWidth="1" min="8" max="8"/>
-    <col width="27.5703125" customWidth="1" min="9" max="9"/>
-    <col width="19.85546875" customWidth="1" min="10" max="10"/>
-    <col width="20.42578125" customWidth="1" min="11" max="11"/>
-    <col width="19.5703125" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.7109375" customWidth="1" min="14" max="14"/>
-    <col width="21.42578125" customWidth="1" min="15" max="15"/>
-    <col width="21.7109375" customWidth="1" min="16" max="17"/>
-    <col width="23.42578125" customWidth="1" min="18" max="18"/>
-    <col width="22.28515625" customWidth="1" min="19" max="19"/>
-    <col width="25.140625" customWidth="1" min="20" max="20"/>
-    <col width="17.5703125" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="26.7109375" customWidth="1" min="23" max="23"/>
-    <col width="22.5703125" customWidth="1" min="25" max="25"/>
-    <col width="25.7109375" customWidth="1" min="26" max="26"/>
-    <col width="32.28515625" customWidth="1" min="27" max="27"/>
-    <col width="27.140625" customWidth="1" min="28" max="28"/>
-    <col width="30" customWidth="1" min="29" max="29"/>
-    <col width="31.42578125" customWidth="1" min="30" max="30"/>
-    <col width="21.85546875" customWidth="1" min="31" max="31"/>
-    <col width="21.7109375" customWidth="1" min="32" max="32"/>
-    <col width="14.7109375" customWidth="1" min="33" max="33"/>
+    <col width="51.7109375" customWidth="1" style="145" min="2" max="5"/>
+    <col width="17.5703125" customWidth="1" style="145" min="6" max="6"/>
+    <col width="29.140625" customWidth="1" style="145" min="7" max="7"/>
+    <col width="21.140625" customWidth="1" style="145" min="8" max="8"/>
+    <col width="27.5703125" customWidth="1" style="145" min="9" max="9"/>
+    <col width="19.85546875" customWidth="1" style="145" min="10" max="10"/>
+    <col width="20.42578125" customWidth="1" style="145" min="11" max="11"/>
+    <col width="19.5703125" customWidth="1" style="145" min="12" max="12"/>
+    <col width="24" customWidth="1" style="145" min="13" max="13"/>
+    <col width="25.7109375" customWidth="1" style="145" min="14" max="14"/>
+    <col width="21.42578125" customWidth="1" style="145" min="15" max="15"/>
+    <col width="21.7109375" customWidth="1" style="145" min="16" max="17"/>
+    <col width="23.42578125" customWidth="1" style="145" min="18" max="18"/>
+    <col width="22.28515625" customWidth="1" style="145" min="19" max="19"/>
+    <col width="25.140625" customWidth="1" style="145" min="20" max="20"/>
+    <col width="17.5703125" customWidth="1" style="145" min="21" max="21"/>
+    <col width="15" customWidth="1" style="145" min="22" max="22"/>
+    <col width="26.7109375" customWidth="1" style="145" min="23" max="23"/>
+    <col width="22.5703125" customWidth="1" style="145" min="25" max="25"/>
+    <col width="25.7109375" customWidth="1" style="145" min="26" max="26"/>
+    <col width="32.28515625" customWidth="1" style="145" min="27" max="27"/>
+    <col width="27.140625" customWidth="1" style="145" min="28" max="28"/>
+    <col width="30" customWidth="1" style="145" min="29" max="29"/>
+    <col width="31.42578125" customWidth="1" style="145" min="30" max="30"/>
+    <col width="21.85546875" customWidth="1" style="145" min="31" max="31"/>
+    <col width="21.7109375" customWidth="1" style="145" min="32" max="32"/>
+    <col width="14.7109375" customWidth="1" style="145" min="33" max="33"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="71">
@@ -5352,6 +5370,202 @@
         </is>
       </c>
     </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="26">
+      <c r="A8" s="62" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="62" t="inlineStr">
+        <is>
+          <t>SERV01_LoanDrawdown_LBT_BILAT_OUTSTANDING_F</t>
+        </is>
+      </c>
+      <c r="C8" s="31" t="inlineStr">
+        <is>
+          <t>LBT BILAT DEAL AUD 1.0B 18MAR1845113</t>
+        </is>
+      </c>
+      <c r="D8" s="26" t="inlineStr">
+        <is>
+          <t>CLASS_A_NOTE_FAC_53129</t>
+        </is>
+      </c>
+      <c r="E8" s="79" t="inlineStr">
+        <is>
+          <t>LBT TRUST 1115737</t>
+        </is>
+      </c>
+      <c r="F8" s="79" t="inlineStr">
+        <is>
+          <t>60002733</t>
+        </is>
+      </c>
+      <c r="G8" s="62" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="H8" s="62" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I8" s="74" t="inlineStr">
+        <is>
+          <t>100,125,000.00</t>
+        </is>
+      </c>
+      <c r="J8" s="63" t="inlineStr">
+        <is>
+          <t>16-Mar-2020</t>
+        </is>
+      </c>
+      <c r="K8" s="82" t="inlineStr">
+        <is>
+          <t>30-Sep-2025</t>
+        </is>
+      </c>
+      <c r="L8" s="62" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="M8" s="76" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="N8" s="62" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="O8" s="83" t="inlineStr">
+        <is>
+          <t>15-Apr-2024</t>
+        </is>
+      </c>
+      <c r="P8" s="83" t="inlineStr">
+        <is>
+          <t>15-Apr-2024</t>
+        </is>
+      </c>
+      <c r="Q8" s="63" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="R8" s="62" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="S8" s="62" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="T8" s="75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U8" s="62" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V8" s="62" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="W8" s="76" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="X8" s="84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y8" s="84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Z8" s="74" t="inlineStr">
+        <is>
+          <t>100,125,000.00</t>
+        </is>
+      </c>
+      <c r="AA8" s="74" t="inlineStr">
+        <is>
+          <t>100,125,000.00</t>
+        </is>
+      </c>
+      <c r="AB8" s="74" t="inlineStr">
+        <is>
+          <t>100,125,000.00</t>
+        </is>
+      </c>
+      <c r="AC8" s="74" t="inlineStr">
+        <is>
+          <t>100,125,000.00</t>
+        </is>
+      </c>
+      <c r="AD8" s="81" t="inlineStr">
+        <is>
+          <t>0.585100%</t>
+        </is>
+      </c>
+      <c r="AE8" s="81" t="inlineStr">
+        <is>
+          <t>1.050000%</t>
+        </is>
+      </c>
+      <c r="AF8" s="81" t="inlineStr">
+        <is>
+          <t>1.635100%</t>
+        </is>
+      </c>
+      <c r="AG8" s="142" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="145">
+      <c r="B9" s="146" t="n"/>
+      <c r="C9" s="146" t="n"/>
+      <c r="D9" s="146" t="n"/>
+      <c r="E9" s="146" t="n"/>
+      <c r="G9" s="146" t="n"/>
+      <c r="H9" s="146" t="n"/>
+      <c r="I9" s="147" t="n"/>
+      <c r="J9" s="148" t="n"/>
+      <c r="K9" s="149" t="n"/>
+      <c r="L9" s="146" t="n"/>
+      <c r="M9" s="150" t="n"/>
+      <c r="N9" s="146" t="n"/>
+      <c r="O9" s="146" t="n"/>
+      <c r="P9" s="146" t="n"/>
+      <c r="Q9" s="148" t="n"/>
+      <c r="R9" s="148" t="n"/>
+      <c r="S9" s="148" t="n"/>
+      <c r="T9" s="148" t="n"/>
+      <c r="U9" s="148" t="n"/>
+      <c r="V9" s="148" t="n"/>
+      <c r="W9" s="150" t="n"/>
+      <c r="X9" s="151" t="n"/>
+      <c r="Y9" s="151" t="n"/>
+    </row>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
     <row r="14">
       <c r="B14" s="85" t="inlineStr">
         <is>
@@ -5359,6 +5573,7 @@
         </is>
       </c>
     </row>
+    <row r="15"/>
     <row r="16">
       <c r="B16" s="90" t="inlineStr">
         <is>
@@ -5510,6 +5725,28 @@
       <c r="E22" s="83" t="inlineStr">
         <is>
           <t>15-Mar-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="88" t="inlineStr">
+        <is>
+          <t>row7</t>
+        </is>
+      </c>
+      <c r="C23" s="87" t="inlineStr">
+        <is>
+          <t>30-Sep-2021</t>
+        </is>
+      </c>
+      <c r="D23" s="83" t="inlineStr">
+        <is>
+          <t>15-Apr-2020</t>
+        </is>
+      </c>
+      <c r="E23" s="83" t="inlineStr">
+        <is>
+          <t>15-Apr-2020</t>
         </is>
       </c>
     </row>
@@ -5533,16 +5770,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="44.140625" customWidth="1" min="2" max="2"/>
-    <col width="17.42578125" customWidth="1" min="3" max="3"/>
-    <col width="38.28515625" customWidth="1" min="4" max="4"/>
-    <col width="41" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="28" customWidth="1" min="7" max="7"/>
-    <col width="26.28515625" customWidth="1" min="8" max="14"/>
-    <col width="22" customWidth="1" min="15" max="15"/>
-    <col width="30.28515625" customWidth="1" min="16" max="16"/>
-    <col width="23.140625" customWidth="1" min="17" max="17"/>
+    <col width="44.140625" customWidth="1" style="145" min="2" max="2"/>
+    <col width="17.42578125" customWidth="1" style="145" min="3" max="3"/>
+    <col width="38.28515625" customWidth="1" style="145" min="4" max="4"/>
+    <col width="41" customWidth="1" style="145" min="5" max="5"/>
+    <col width="25" customWidth="1" style="145" min="6" max="6"/>
+    <col width="28" customWidth="1" style="145" min="7" max="7"/>
+    <col width="26.28515625" customWidth="1" style="145" min="8" max="14"/>
+    <col width="22" customWidth="1" style="145" min="15" max="15"/>
+    <col width="30.28515625" customWidth="1" style="145" min="16" max="16"/>
+    <col width="23.140625" customWidth="1" style="145" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5720,11 +5957,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="J9" s="103" t="n"/>
-      <c r="K9" s="103" t="n"/>
-      <c r="L9" s="103" t="n"/>
-      <c r="M9" s="103" t="n"/>
-      <c r="N9" s="103" t="n"/>
+      <c r="J9" s="148" t="n"/>
+      <c r="K9" s="148" t="n"/>
+      <c r="L9" s="148" t="n"/>
+      <c r="M9" s="148" t="n"/>
+      <c r="N9" s="148" t="n"/>
     </row>
     <row r="10">
       <c r="I10" s="102" t="n"/>
@@ -5753,36 +5990,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="48.140625" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="4"/>
-    <col width="16.7109375" customWidth="1" min="5" max="5"/>
-    <col width="17.140625" customWidth="1" min="6" max="6"/>
-    <col width="18.7109375" customWidth="1" min="7" max="7"/>
-    <col width="22.140625" customWidth="1" min="8" max="8"/>
-    <col width="19.28515625" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
-    <col width="20.7109375" customWidth="1" min="11" max="11"/>
-    <col width="31.7109375" customWidth="1" min="12" max="12"/>
-    <col width="21.85546875" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="28.42578125" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="17.28515625" customWidth="1" min="19" max="19"/>
-    <col width="44.7109375" customWidth="1" min="20" max="20"/>
-    <col width="43.28515625" customWidth="1" min="21" max="21"/>
-    <col width="30.42578125" customWidth="1" min="22" max="22"/>
-    <col width="29.7109375" customWidth="1" min="23" max="23"/>
-    <col width="18.42578125" customWidth="1" min="24" max="24"/>
-    <col width="7.5703125" customWidth="1" min="25" max="25"/>
-    <col width="25.5703125" customWidth="1" min="26" max="26"/>
-    <col width="29.7109375" customWidth="1" min="27" max="27"/>
-    <col width="17.7109375" customWidth="1" min="28" max="28"/>
-    <col width="11" customWidth="1" min="35" max="35"/>
-    <col width="15.5703125" customWidth="1" min="36" max="36"/>
-    <col width="17.7109375" customWidth="1" min="38" max="38"/>
-    <col width="16.5703125" customWidth="1" min="39" max="39"/>
-    <col width="11.85546875" customWidth="1" min="40" max="40"/>
-    <col width="11.7109375" customWidth="1" min="44" max="44"/>
-    <col width="13.42578125" customWidth="1" min="45" max="45"/>
+    <col width="48.140625" customWidth="1" style="145" min="2" max="2"/>
+    <col width="17" customWidth="1" style="145" min="3" max="4"/>
+    <col width="16.7109375" customWidth="1" style="145" min="5" max="5"/>
+    <col width="17.140625" customWidth="1" style="145" min="6" max="6"/>
+    <col width="18.7109375" customWidth="1" style="145" min="7" max="7"/>
+    <col width="22.140625" customWidth="1" style="145" min="8" max="8"/>
+    <col width="19.28515625" customWidth="1" style="145" min="9" max="9"/>
+    <col width="18" customWidth="1" style="145" min="10" max="10"/>
+    <col width="20.7109375" customWidth="1" style="145" min="11" max="11"/>
+    <col width="31.7109375" customWidth="1" style="145" min="12" max="12"/>
+    <col width="21.85546875" bestFit="1" customWidth="1" style="145" min="13" max="13"/>
+    <col width="28.42578125" customWidth="1" style="145" min="14" max="14"/>
+    <col width="20" customWidth="1" style="145" min="15" max="15"/>
+    <col width="17.28515625" customWidth="1" style="145" min="19" max="19"/>
+    <col width="44.7109375" customWidth="1" style="145" min="20" max="20"/>
+    <col width="43.28515625" customWidth="1" style="145" min="21" max="21"/>
+    <col width="30.42578125" customWidth="1" style="145" min="22" max="22"/>
+    <col width="29.7109375" customWidth="1" style="145" min="23" max="23"/>
+    <col width="18.42578125" customWidth="1" style="145" min="24" max="24"/>
+    <col width="7.5703125" customWidth="1" style="145" min="25" max="25"/>
+    <col width="25.5703125" customWidth="1" style="145" min="26" max="26"/>
+    <col width="29.7109375" customWidth="1" style="145" min="27" max="27"/>
+    <col width="17.7109375" customWidth="1" style="145" min="28" max="28"/>
+    <col width="11" customWidth="1" style="145" min="35" max="35"/>
+    <col width="15.5703125" customWidth="1" style="145" min="36" max="36"/>
+    <col width="17.7109375" customWidth="1" style="145" min="38" max="38"/>
+    <col width="16.5703125" customWidth="1" style="145" min="39" max="39"/>
+    <col width="11.85546875" customWidth="1" style="145" min="40" max="40"/>
+    <col width="11.7109375" customWidth="1" style="145" min="44" max="44"/>
+    <col width="13.42578125" customWidth="1" style="145" min="45" max="45"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="99">
@@ -6573,17 +6810,17 @@
     <col width="30.5703125" bestFit="1" customWidth="1" style="120" min="15" max="15"/>
     <col width="28.7109375" bestFit="1" customWidth="1" style="120" min="16" max="16"/>
     <col width="29.85546875" bestFit="1" customWidth="1" style="120" min="17" max="17"/>
-    <col width="25.7109375" customWidth="1" min="18" max="18"/>
-    <col width="32.28515625" customWidth="1" min="19" max="19"/>
-    <col width="27.140625" customWidth="1" min="20" max="20"/>
-    <col width="30" customWidth="1" min="21" max="23"/>
+    <col width="25.7109375" customWidth="1" style="145" min="18" max="18"/>
+    <col width="32.28515625" customWidth="1" style="145" min="19" max="19"/>
+    <col width="27.140625" customWidth="1" style="145" min="20" max="20"/>
+    <col width="30" customWidth="1" style="145" min="21" max="23"/>
     <col width="18" bestFit="1" customWidth="1" style="120" min="24" max="24"/>
     <col width="28" bestFit="1" customWidth="1" style="120" min="25" max="25"/>
     <col width="21.42578125" bestFit="1" customWidth="1" style="120" min="26" max="26"/>
     <col width="27.140625" bestFit="1" customWidth="1" style="120" min="27" max="27"/>
     <col width="15" bestFit="1" customWidth="1" style="120" min="28" max="29"/>
-    <col width="9.140625" customWidth="1" style="120" min="30" max="42"/>
-    <col width="9.140625" customWidth="1" style="120" min="43" max="16384"/>
+    <col width="9.140625" customWidth="1" style="120" min="30" max="43"/>
+    <col width="9.140625" customWidth="1" style="120" min="44" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="113">

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="877" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,6 +34,13 @@
       <name val="Arial"/>
       <charset val="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -176,11 +183,6 @@
       <color theme="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <sz val="8"/>
-    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -320,128 +322,128 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -453,57 +455,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="11" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -512,145 +514,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="7">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="12" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1854,238 +1854,248 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26:O26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.5703125" bestFit="1" customWidth="1" style="136" min="1" max="1"/>
-    <col width="31.42578125" bestFit="1" customWidth="1" style="136" min="2" max="2"/>
-    <col width="26.5703125" bestFit="1" customWidth="1" style="136" min="3" max="3"/>
-    <col width="16.42578125" bestFit="1" customWidth="1" style="136" min="4" max="4"/>
-    <col width="19.42578125" bestFit="1" customWidth="1" style="136" min="5" max="5"/>
-    <col width="26" bestFit="1" customWidth="1" style="136" min="6" max="6"/>
-    <col width="31.7109375" bestFit="1" customWidth="1" style="136" min="7" max="7"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" style="136" min="8" max="8"/>
-    <col width="12" bestFit="1" customWidth="1" style="136" min="9" max="9"/>
-    <col width="31.42578125" customWidth="1" style="136" min="10" max="10"/>
-    <col width="39.5703125" customWidth="1" style="136" min="11" max="14"/>
-    <col width="19.42578125" customWidth="1" style="136" min="15" max="15"/>
-    <col width="18" customWidth="1" style="136" min="16" max="16"/>
-    <col width="25.5703125" customWidth="1" style="136" min="17" max="17"/>
-    <col width="26.28515625" customWidth="1" style="136" min="18" max="18"/>
-    <col width="15.85546875" customWidth="1" style="136" min="19" max="19"/>
-    <col width="17.140625" customWidth="1" style="136" min="20" max="20"/>
-    <col width="24.5703125" customWidth="1" style="136" min="21" max="21"/>
-    <col width="20.140625" customWidth="1" style="136" min="22" max="22"/>
-    <col width="23.140625" customWidth="1" style="136" min="23" max="23"/>
-    <col width="16.42578125" customWidth="1" style="136" min="24" max="24"/>
-    <col width="22.28515625" customWidth="1" style="136" min="25" max="25"/>
-    <col width="25.5703125" customWidth="1" style="136" min="26" max="26"/>
-    <col width="30.140625" customWidth="1" style="136" min="27" max="27"/>
-    <col width="28.28515625" customWidth="1" style="136" min="28" max="28"/>
-    <col width="28.5703125" customWidth="1" style="136" min="29" max="29"/>
-    <col width="29.140625" customWidth="1" style="136" min="30" max="30"/>
-    <col width="26.7109375" customWidth="1" style="136" min="31" max="31"/>
-    <col width="34.42578125" customWidth="1" style="136" min="32" max="32"/>
-    <col width="23.85546875" customWidth="1" style="136" min="33" max="33"/>
-    <col width="22.5703125" customWidth="1" style="136" min="34" max="34"/>
-    <col width="9.140625" customWidth="1" style="136" min="35" max="39"/>
-    <col width="9.140625" customWidth="1" style="136" min="40" max="16384"/>
+    <col width="6.5703125" bestFit="1" customWidth="1" style="135" min="1" max="1"/>
+    <col width="31.42578125" bestFit="1" customWidth="1" style="135" min="2" max="2"/>
+    <col width="26.5703125" bestFit="1" customWidth="1" style="135" min="3" max="3"/>
+    <col width="16.42578125" bestFit="1" customWidth="1" style="135" min="4" max="4"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" style="135" min="5" max="5"/>
+    <col width="26" bestFit="1" customWidth="1" style="135" min="6" max="6"/>
+    <col width="31.7109375" bestFit="1" customWidth="1" style="135" min="7" max="7"/>
+    <col width="16.28515625" bestFit="1" customWidth="1" style="135" min="8" max="8"/>
+    <col width="12" bestFit="1" customWidth="1" style="135" min="9" max="9"/>
+    <col width="31.42578125" customWidth="1" style="135" min="10" max="10"/>
+    <col width="39.5703125" customWidth="1" style="135" min="11" max="16"/>
+    <col width="19.42578125" customWidth="1" style="135" min="17" max="17"/>
+    <col width="18" customWidth="1" style="135" min="18" max="18"/>
+    <col width="25.5703125" customWidth="1" style="135" min="19" max="19"/>
+    <col width="26.28515625" customWidth="1" style="135" min="20" max="20"/>
+    <col width="15.85546875" customWidth="1" style="135" min="21" max="21"/>
+    <col width="17.140625" customWidth="1" style="135" min="22" max="22"/>
+    <col width="24.5703125" customWidth="1" style="135" min="23" max="23"/>
+    <col width="20.140625" customWidth="1" style="135" min="24" max="24"/>
+    <col width="23.140625" customWidth="1" style="135" min="25" max="25"/>
+    <col width="16.42578125" customWidth="1" style="135" min="26" max="26"/>
+    <col width="22.28515625" customWidth="1" style="135" min="27" max="27"/>
+    <col width="25.5703125" customWidth="1" style="135" min="28" max="28"/>
+    <col width="30.140625" customWidth="1" style="135" min="29" max="29"/>
+    <col width="28.28515625" customWidth="1" style="135" min="30" max="30"/>
+    <col width="28.5703125" customWidth="1" style="135" min="31" max="31"/>
+    <col width="29.140625" customWidth="1" style="135" min="32" max="32"/>
+    <col width="26.7109375" customWidth="1" style="135" min="33" max="33"/>
+    <col width="34.42578125" customWidth="1" style="135" min="34" max="34"/>
+    <col width="23.85546875" customWidth="1" style="135" min="35" max="35"/>
+    <col width="22.5703125" customWidth="1" style="135" min="36" max="36"/>
+    <col width="9.140625" customWidth="1" style="135" min="37" max="43"/>
+    <col width="9.140625" customWidth="1" style="135" min="44" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customFormat="1" customHeight="1" s="129">
-      <c r="A1" s="129" t="inlineStr">
+    <row r="1" ht="16.5" customFormat="1" customHeight="1" s="128">
+      <c r="A1" s="128" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="129" t="inlineStr">
+      <c r="B1" s="128" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="129" t="inlineStr">
+      <c r="C1" s="128" t="inlineStr">
         <is>
           <t>OutstandingSelect_Type</t>
         </is>
       </c>
-      <c r="D1" s="130" t="inlineStr">
+      <c r="D1" s="129" t="inlineStr">
         <is>
           <t>NewLoan_Alias</t>
         </is>
       </c>
-      <c r="E1" s="131" t="inlineStr">
+      <c r="E1" s="130" t="inlineStr">
         <is>
           <t>NewLoan_Amount</t>
         </is>
       </c>
-      <c r="F1" s="129" t="inlineStr">
+      <c r="F1" s="128" t="inlineStr">
         <is>
           <t>Repricing_Type</t>
         </is>
       </c>
-      <c r="G1" s="129" t="inlineStr">
+      <c r="G1" s="128" t="inlineStr">
         <is>
           <t>Interest_Repricing_Option</t>
         </is>
       </c>
-      <c r="H1" s="129" t="inlineStr">
+      <c r="H1" s="128" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="I1" s="129" t="inlineStr">
+      <c r="I1" s="128" t="inlineStr">
         <is>
           <t>Base_Rate</t>
         </is>
       </c>
-      <c r="J1" s="129" t="inlineStr">
+      <c r="J1" s="128" t="inlineStr">
         <is>
           <t>Expected_InterestAmt_LoanB</t>
         </is>
       </c>
-      <c r="K1" s="129" t="inlineStr">
+      <c r="K1" s="128" t="inlineStr">
         <is>
           <t>Expected_InterestAmt_LoanA</t>
         </is>
       </c>
-      <c r="L1" s="129" t="inlineStr">
+      <c r="L1" s="128" t="inlineStr">
         <is>
           <t>Expected_InterestAmt_LoanAB</t>
         </is>
       </c>
-      <c r="M1" s="129" t="inlineStr">
+      <c r="M1" s="128" t="inlineStr">
         <is>
           <t>Expected_InterestAmt_LoanC</t>
         </is>
       </c>
-      <c r="N1" s="129" t="inlineStr">
+      <c r="N1" s="128" t="inlineStr">
         <is>
           <t>Expected_InterestAmt_LoanD</t>
         </is>
       </c>
-      <c r="O1" s="131" t="inlineStr">
+      <c r="O1" s="128" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanABCD</t>
+        </is>
+      </c>
+      <c r="P1" s="128" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanE</t>
+        </is>
+      </c>
+      <c r="Q1" s="130" t="inlineStr">
         <is>
           <t>Effective_Date</t>
         </is>
       </c>
-      <c r="P1" s="131" t="inlineStr">
+      <c r="R1" s="130" t="inlineStr">
         <is>
           <t>Maturity_Date</t>
         </is>
       </c>
-      <c r="Q1" s="131" t="inlineStr">
+      <c r="S1" s="130" t="inlineStr">
         <is>
           <t>Repricing_Frequency</t>
         </is>
       </c>
-      <c r="R1" s="129" t="inlineStr">
+      <c r="T1" s="128" t="inlineStr">
         <is>
           <t>Repricing_Date</t>
         </is>
       </c>
-      <c r="S1" s="129" t="inlineStr">
+      <c r="U1" s="128" t="inlineStr">
         <is>
           <t>Payment_Mode</t>
         </is>
       </c>
-      <c r="T1" s="129" t="inlineStr">
+      <c r="V1" s="128" t="inlineStr">
         <is>
           <t>Int_Cycle_Freq</t>
         </is>
       </c>
-      <c r="U1" s="129" t="inlineStr">
+      <c r="W1" s="128" t="inlineStr">
         <is>
           <t>Actual_Due_Date</t>
         </is>
       </c>
-      <c r="V1" s="129" t="inlineStr">
+      <c r="X1" s="128" t="inlineStr">
         <is>
           <t>Adjusted_Due_Date</t>
         </is>
       </c>
-      <c r="W1" s="129" t="inlineStr">
+      <c r="Y1" s="128" t="inlineStr">
         <is>
           <t>Accrue</t>
         </is>
       </c>
-      <c r="X1" s="129" t="inlineStr">
+      <c r="Z1" s="128" t="inlineStr">
         <is>
           <t>Accrual_End_Date</t>
         </is>
       </c>
-      <c r="Y1" s="139" t="inlineStr">
+      <c r="AA1" s="138" t="inlineStr">
         <is>
           <t>BorrowerBaseRate</t>
         </is>
       </c>
-      <c r="Z1" s="140" t="inlineStr">
+      <c r="AB1" s="139" t="inlineStr">
         <is>
           <t>AcceptRate_FromPricing</t>
         </is>
       </c>
-      <c r="AA1" s="129" t="inlineStr">
+      <c r="AC1" s="128" t="inlineStr">
         <is>
           <t>Expctd_LoanGlobalOriginal</t>
         </is>
       </c>
-      <c r="AB1" s="129" t="inlineStr">
+      <c r="AD1" s="128" t="inlineStr">
         <is>
           <t>Expctd_LoanGlobalCurrent</t>
         </is>
       </c>
-      <c r="AC1" s="129" t="inlineStr">
+      <c r="AE1" s="128" t="inlineStr">
         <is>
           <t>Expctd_LoanHostBankGross</t>
         </is>
       </c>
-      <c r="AD1" s="129" t="inlineStr">
+      <c r="AF1" s="128" t="inlineStr">
         <is>
           <t>Expctd_LoanHostBankNet</t>
         </is>
       </c>
-      <c r="AE1" s="129" t="inlineStr">
+      <c r="AG1" s="128" t="inlineStr">
         <is>
           <t>NewLoan_Pricing_Option</t>
         </is>
       </c>
-      <c r="AF1" s="129" t="inlineStr">
+      <c r="AH1" s="128" t="inlineStr">
         <is>
           <t>Expctd_LoanCurrentBaseRate</t>
         </is>
       </c>
-      <c r="AG1" s="129" t="inlineStr">
+      <c r="AI1" s="128" t="inlineStr">
         <is>
           <t>Expctd_LoanSpread</t>
         </is>
       </c>
-      <c r="AH1" s="129" t="inlineStr">
+      <c r="AJ1" s="128" t="inlineStr">
         <is>
           <t>Expctd_LoanAllInRate</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="135">
-      <c r="A2" s="132" t="inlineStr">
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="134">
+      <c r="A2" s="131" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="133" t="inlineStr">
+      <c r="B2" s="132" t="inlineStr">
         <is>
           <t>SERV40_ComprehensiveRepricing_LBT_BILAT_COMBINE_AB</t>
         </is>
       </c>
-      <c r="C2" s="134" t="inlineStr">
+      <c r="C2" s="133" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="D2" s="133" t="inlineStr">
+      <c r="D2" s="132" t="inlineStr">
         <is>
           <t>60002471</t>
         </is>
@@ -2095,22 +2105,22 @@
           <t>505,369,000.00</t>
         </is>
       </c>
-      <c r="F2" s="134" t="inlineStr">
+      <c r="F2" s="133" t="inlineStr">
         <is>
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="G2" s="134" t="inlineStr">
+      <c r="G2" s="133" t="inlineStr">
         <is>
           <t>Auto Generate Interest Payment</t>
         </is>
       </c>
-      <c r="H2" s="134" t="inlineStr">
+      <c r="H2" s="133" t="inlineStr">
         <is>
           <t>BBSW - Mid</t>
         </is>
       </c>
-      <c r="I2" s="137" t="inlineStr">
+      <c r="I2" s="136" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2125,127 +2135,129 @@
           <t>207,683.16</t>
         </is>
       </c>
-      <c r="L2" s="144" t="n"/>
-      <c r="M2" s="144" t="n"/>
-      <c r="N2" s="144" t="n"/>
-      <c r="O2" s="141" t="inlineStr">
+      <c r="L2" s="143" t="n"/>
+      <c r="M2" s="143" t="n"/>
+      <c r="N2" s="143" t="n"/>
+      <c r="O2" s="143" t="n"/>
+      <c r="P2" s="143" t="n"/>
+      <c r="Q2" s="140" t="inlineStr">
         <is>
           <t>15-Jan-2020</t>
         </is>
       </c>
-      <c r="P2" s="83" t="inlineStr">
+      <c r="R2" s="83" t="inlineStr">
         <is>
           <t>30-Sep-2025</t>
         </is>
       </c>
-      <c r="Q2" s="63" t="inlineStr">
+      <c r="S2" s="63" t="inlineStr">
         <is>
           <t>1 Months</t>
         </is>
       </c>
-      <c r="R2" s="141" t="inlineStr">
+      <c r="T2" s="140" t="inlineStr">
         <is>
           <t>17-Feb-2020</t>
         </is>
       </c>
-      <c r="S2" s="135" t="inlineStr">
+      <c r="U2" s="134" t="inlineStr">
         <is>
           <t>Pay in Arrears</t>
         </is>
       </c>
-      <c r="T2" s="135" t="inlineStr">
+      <c r="V2" s="134" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="U2" s="141" t="inlineStr">
+      <c r="W2" s="140" t="inlineStr">
         <is>
           <t>17-Feb-2020</t>
         </is>
       </c>
-      <c r="V2" s="141" t="inlineStr">
+      <c r="X2" s="140" t="inlineStr">
         <is>
           <t>17-Feb-2020</t>
         </is>
       </c>
-      <c r="W2" s="135" t="inlineStr">
+      <c r="Y2" s="134" t="inlineStr">
         <is>
           <t>to the adjusted due date</t>
         </is>
       </c>
-      <c r="X2" s="141" t="inlineStr">
+      <c r="Z2" s="140" t="inlineStr">
         <is>
           <t>16-Feb-2020</t>
         </is>
       </c>
-      <c r="Y2" s="26" t="inlineStr">
+      <c r="AA2" s="26" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Z2" s="138" t="inlineStr">
+      <c r="AB2" s="137" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AA2" s="74" t="inlineStr">
+      <c r="AC2" s="74" t="inlineStr">
         <is>
           <t>505,369,000.00</t>
         </is>
       </c>
-      <c r="AB2" s="74" t="inlineStr">
+      <c r="AD2" s="74" t="inlineStr">
         <is>
           <t>505,369,000.00</t>
         </is>
       </c>
-      <c r="AC2" s="74" t="inlineStr">
+      <c r="AE2" s="74" t="inlineStr">
         <is>
           <t>505,369,000.00</t>
         </is>
       </c>
-      <c r="AD2" s="74" t="inlineStr">
+      <c r="AF2" s="74" t="inlineStr">
         <is>
           <t>505,369,000.00</t>
         </is>
       </c>
-      <c r="AE2" s="135" t="inlineStr">
+      <c r="AG2" s="134" t="inlineStr">
         <is>
           <t>BBSW</t>
         </is>
       </c>
-      <c r="AF2" s="81" t="inlineStr">
+      <c r="AH2" s="81" t="inlineStr">
         <is>
           <t>0.851500%</t>
         </is>
       </c>
-      <c r="AG2" s="81" t="inlineStr">
+      <c r="AI2" s="81" t="inlineStr">
         <is>
           <t>1.300000%</t>
         </is>
       </c>
-      <c r="AH2" s="81" t="inlineStr">
+      <c r="AJ2" s="81" t="inlineStr">
         <is>
           <t>2.151500%</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="14.25" customFormat="1" customHeight="1" s="135">
-      <c r="A3" s="132" t="inlineStr">
+    <row r="3" ht="14.25" customFormat="1" customHeight="1" s="134">
+      <c r="A3" s="131" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="133" t="inlineStr">
+      <c r="B3" s="132" t="inlineStr">
         <is>
           <t>SERV40_ComprehensiveRepricing_LBT_BILAT_COMBINE_ABCD</t>
         </is>
       </c>
-      <c r="C3" s="134" t="inlineStr">
+      <c r="C3" s="133" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="D3" s="133" t="inlineStr">
+      <c r="D3" s="132" t="inlineStr">
         <is>
           <t>60002684</t>
         </is>
@@ -2255,28 +2267,28 @@
           <t>789,797,000.00</t>
         </is>
       </c>
-      <c r="F3" s="134" t="inlineStr">
+      <c r="F3" s="133" t="inlineStr">
         <is>
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="G3" s="134" t="inlineStr">
+      <c r="G3" s="133" t="inlineStr">
         <is>
           <t>Auto Generate Interest Payment</t>
         </is>
       </c>
-      <c r="H3" s="134" t="inlineStr">
+      <c r="H3" s="133" t="inlineStr">
         <is>
           <t>BBSW - Mid</t>
         </is>
       </c>
-      <c r="I3" s="137" t="inlineStr">
+      <c r="I3" s="136" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J3" s="143" t="n"/>
-      <c r="K3" s="143" t="n"/>
+      <c r="J3" s="142" t="n"/>
+      <c r="K3" s="142" t="n"/>
       <c r="L3" s="74" t="inlineStr">
         <is>
           <t>900,796.01</t>
@@ -2292,107 +2304,305 @@
           <t>154,735.58</t>
         </is>
       </c>
-      <c r="O3" s="141" t="inlineStr">
+      <c r="O3" s="74" t="n"/>
+      <c r="P3" s="74" t="n"/>
+      <c r="Q3" s="140" t="inlineStr">
         <is>
           <t>17-Feb-2020</t>
         </is>
       </c>
-      <c r="P3" s="83" t="inlineStr">
+      <c r="R3" s="83" t="inlineStr">
         <is>
           <t>30-Sep-2025</t>
         </is>
       </c>
-      <c r="Q3" s="63" t="inlineStr">
+      <c r="S3" s="63" t="inlineStr">
         <is>
           <t>1 Months</t>
         </is>
       </c>
-      <c r="R3" s="141" t="inlineStr">
+      <c r="T3" s="140" t="inlineStr">
         <is>
           <t>16-Mar-2020</t>
         </is>
       </c>
-      <c r="S3" s="135" t="inlineStr">
+      <c r="U3" s="134" t="inlineStr">
         <is>
           <t>Pay in Arrears</t>
         </is>
       </c>
-      <c r="T3" s="135" t="inlineStr">
+      <c r="V3" s="134" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="U3" s="141" t="inlineStr">
+      <c r="W3" s="140" t="inlineStr">
         <is>
           <t>16-Mar-2020</t>
         </is>
       </c>
-      <c r="V3" s="141" t="inlineStr">
+      <c r="X3" s="140" t="inlineStr">
         <is>
           <t>16-Mar-2020</t>
         </is>
       </c>
-      <c r="W3" s="135" t="inlineStr">
+      <c r="Y3" s="134" t="inlineStr">
         <is>
           <t>to the adjusted due date</t>
         </is>
       </c>
-      <c r="X3" s="141" t="inlineStr">
+      <c r="Z3" s="140" t="inlineStr">
         <is>
           <t>15-Mar-2020</t>
         </is>
       </c>
-      <c r="Y3" s="26" t="inlineStr">
+      <c r="AA3" s="26" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Z3" s="138" t="inlineStr">
+      <c r="AB3" s="137" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AA3" s="74" t="inlineStr">
+      <c r="AC3" s="74" t="inlineStr">
         <is>
           <t>789,797,000.00</t>
         </is>
       </c>
-      <c r="AB3" s="74" t="inlineStr">
+      <c r="AD3" s="74" t="inlineStr">
         <is>
           <t>789,797,000.00</t>
         </is>
       </c>
-      <c r="AC3" s="74" t="inlineStr">
+      <c r="AE3" s="74" t="inlineStr">
         <is>
           <t>789,797,000.00</t>
         </is>
       </c>
-      <c r="AD3" s="74" t="inlineStr">
+      <c r="AF3" s="74" t="inlineStr">
         <is>
           <t>789,797,000.00</t>
         </is>
       </c>
-      <c r="AE3" s="135" t="inlineStr">
+      <c r="AG3" s="134" t="inlineStr">
         <is>
           <t>BBSW</t>
         </is>
       </c>
-      <c r="AF3" s="81" t="inlineStr">
+      <c r="AH3" s="81" t="inlineStr">
         <is>
           <t>0.805000%</t>
         </is>
       </c>
-      <c r="AG3" s="81" t="inlineStr">
+      <c r="AI3" s="81" t="inlineStr">
         <is>
           <t>1.050000%</t>
         </is>
       </c>
-      <c r="AH3" s="81" t="inlineStr">
+      <c r="AJ3" s="81" t="inlineStr">
         <is>
           <t>1.855000%</t>
         </is>
       </c>
     </row>
+    <row r="4" ht="14.25" customFormat="1" customHeight="1" s="134">
+      <c r="A4" s="131" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="132" t="inlineStr">
+        <is>
+          <t>SERV40_ComprehensiveRepricing_LBT_BILAT_COMBINE_ABCDE</t>
+        </is>
+      </c>
+      <c r="C4" s="133" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="D4" s="132" t="inlineStr">
+        <is>
+          <t>60002768</t>
+        </is>
+      </c>
+      <c r="E4" s="74" t="inlineStr">
+        <is>
+          <t>853,535,000.00</t>
+        </is>
+      </c>
+      <c r="F4" s="133" t="inlineStr">
+        <is>
+          <t>Comprehensive Repricing</t>
+        </is>
+      </c>
+      <c r="G4" s="133" t="inlineStr">
+        <is>
+          <t>Auto Generate Interest Payment</t>
+        </is>
+      </c>
+      <c r="H4" s="133" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I4" s="136" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J4" s="142" t="n"/>
+      <c r="K4" s="142" t="n"/>
+      <c r="L4" s="142" t="n"/>
+      <c r="M4" s="142" t="n"/>
+      <c r="N4" s="142" t="n"/>
+      <c r="O4" s="74" t="inlineStr">
+        <is>
+          <t>1,123,891.95</t>
+        </is>
+      </c>
+      <c r="P4" s="74" t="inlineStr">
+        <is>
+          <t>103,428.90</t>
+        </is>
+      </c>
+      <c r="Q4" s="140" t="inlineStr">
+        <is>
+          <t>16-Mar-2020</t>
+        </is>
+      </c>
+      <c r="R4" s="83" t="inlineStr">
+        <is>
+          <t>30-Sep-2025</t>
+        </is>
+      </c>
+      <c r="S4" s="63" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="T4" s="140" t="inlineStr">
+        <is>
+          <t>15-Apr-2020</t>
+        </is>
+      </c>
+      <c r="U4" s="134" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="V4" s="134" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="W4" s="140" t="inlineStr">
+        <is>
+          <t>15-Apr-2020</t>
+        </is>
+      </c>
+      <c r="X4" s="140" t="inlineStr">
+        <is>
+          <t>15-Apr-2020</t>
+        </is>
+      </c>
+      <c r="Y4" s="134" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="Z4" s="140" t="inlineStr">
+        <is>
+          <t>14-Apr-2020</t>
+        </is>
+      </c>
+      <c r="AA4" s="26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AB4" s="137" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AC4" s="74" t="inlineStr">
+        <is>
+          <t>853,535,000.00</t>
+        </is>
+      </c>
+      <c r="AD4" s="74" t="inlineStr">
+        <is>
+          <t>853,535,000.00</t>
+        </is>
+      </c>
+      <c r="AE4" s="74" t="inlineStr">
+        <is>
+          <t>853,535,000.00</t>
+        </is>
+      </c>
+      <c r="AF4" s="74" t="inlineStr">
+        <is>
+          <t>853,535,000.00</t>
+        </is>
+      </c>
+      <c r="AG4" s="134" t="inlineStr">
+        <is>
+          <t>BBSW</t>
+        </is>
+      </c>
+      <c r="AH4" s="81" t="inlineStr">
+        <is>
+          <t>0.585100%</t>
+        </is>
+      </c>
+      <c r="AI4" s="81" t="inlineStr">
+        <is>
+          <t>1.050000%</t>
+        </is>
+      </c>
+      <c r="AJ4" s="81" t="inlineStr">
+        <is>
+          <t>1.635100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="151" t="n"/>
+      <c r="C5" s="151" t="n"/>
+      <c r="E5" s="151" t="n"/>
+      <c r="F5" s="151" t="n"/>
+      <c r="G5" s="151" t="n"/>
+      <c r="H5" s="151" t="n"/>
+      <c r="I5" s="151" t="n"/>
+      <c r="O5" s="151" t="n"/>
+      <c r="P5" s="151" t="n"/>
+      <c r="Q5" s="151" t="n"/>
+      <c r="R5" s="151" t="n"/>
+      <c r="S5" s="151" t="n"/>
+      <c r="T5" s="151" t="n"/>
+      <c r="U5" s="151" t="n"/>
+      <c r="V5" s="151" t="n"/>
+      <c r="W5" s="151" t="n"/>
+      <c r="X5" s="151" t="n"/>
+      <c r="Y5" s="151" t="n"/>
+      <c r="Z5" s="151" t="n"/>
+      <c r="AA5" s="151" t="n"/>
+      <c r="AB5" s="151" t="n"/>
+      <c r="AC5" s="151" t="n"/>
+      <c r="AD5" s="151" t="n"/>
+      <c r="AE5" s="151" t="n"/>
+      <c r="AF5" s="151" t="n"/>
+      <c r="AG5" s="151" t="n"/>
+      <c r="AH5" s="151" t="n"/>
+      <c r="AI5" s="151" t="n"/>
+      <c r="AJ5" s="151" t="n"/>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
     <row r="9">
       <c r="B9" s="85" t="inlineStr">
         <is>
@@ -2400,13 +2610,14 @@
         </is>
       </c>
     </row>
+    <row r="10"/>
     <row r="11">
       <c r="B11" s="90" t="inlineStr">
         <is>
           <t>rows</t>
         </is>
       </c>
-      <c r="C11" s="131" t="inlineStr">
+      <c r="C11" s="130" t="inlineStr">
         <is>
           <t>Maturity_Date</t>
         </is>
@@ -2431,6 +2642,18 @@
         </is>
       </c>
       <c r="C13" s="83" t="inlineStr">
+        <is>
+          <t>30-Sep-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="62" t="inlineStr">
+        <is>
+          <t>row3</t>
+        </is>
+      </c>
+      <c r="C14" s="83" t="inlineStr">
         <is>
           <t>30-Sep-2021</t>
         </is>
@@ -2543,8 +2766,8 @@
     <col width="18.85546875" customWidth="1" style="1" min="87" max="87"/>
     <col width="26.28515625" customWidth="1" style="7" min="88" max="88"/>
     <col width="31.140625" customWidth="1" style="7" min="89" max="90"/>
-    <col width="40.7109375" bestFit="1" customWidth="1" style="145" min="91" max="91"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" style="145" min="92" max="92"/>
+    <col width="40.7109375" bestFit="1" customWidth="1" style="144" min="91" max="91"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" style="144" min="92" max="92"/>
     <col width="20.42578125" customWidth="1" style="7" min="93" max="93"/>
     <col width="27.140625" customWidth="1" style="7" min="94" max="94"/>
     <col width="21.140625" customWidth="1" style="7" min="95" max="95"/>
@@ -3000,17 +3223,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="31.42578125" customWidth="1" style="145" min="2" max="2"/>
-    <col width="31.140625" customWidth="1" style="145" min="3" max="3"/>
-    <col width="31.28515625" customWidth="1" style="145" min="4" max="4"/>
-    <col width="14.140625" customWidth="1" style="145" min="5" max="5"/>
-    <col width="23.140625" customWidth="1" style="145" min="6" max="6"/>
-    <col width="14.28515625" customWidth="1" style="145" min="7" max="7"/>
-    <col width="27.42578125" customWidth="1" style="145" min="8" max="8"/>
-    <col width="18.28515625" customWidth="1" style="145" min="10" max="10"/>
-    <col width="16" customWidth="1" style="145" min="11" max="11"/>
-    <col width="15.85546875" customWidth="1" style="145" min="15" max="15"/>
-    <col width="15.85546875" customWidth="1" style="145" min="17" max="17"/>
+    <col width="31.42578125" customWidth="1" style="144" min="2" max="2"/>
+    <col width="31.140625" customWidth="1" style="144" min="3" max="3"/>
+    <col width="31.28515625" customWidth="1" style="144" min="4" max="4"/>
+    <col width="14.140625" customWidth="1" style="144" min="5" max="5"/>
+    <col width="23.140625" customWidth="1" style="144" min="6" max="6"/>
+    <col width="14.28515625" customWidth="1" style="144" min="7" max="7"/>
+    <col width="27.42578125" customWidth="1" style="144" min="8" max="8"/>
+    <col width="18.28515625" customWidth="1" style="144" min="10" max="10"/>
+    <col width="16" customWidth="1" style="144" min="11" max="11"/>
+    <col width="15.85546875" customWidth="1" style="144" min="15" max="15"/>
+    <col width="15.85546875" customWidth="1" style="144" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3254,27 +3477,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="28" customWidth="1" style="145" min="3" max="3"/>
-    <col width="23.42578125" customWidth="1" style="145" min="4" max="6"/>
-    <col width="20.42578125" customWidth="1" style="145" min="8" max="10"/>
-    <col width="18.42578125" customWidth="1" style="145" min="11" max="11"/>
-    <col width="20.42578125" customWidth="1" style="145" min="12" max="13"/>
-    <col width="21.85546875" customWidth="1" style="145" min="14" max="15"/>
-    <col width="18.42578125" customWidth="1" style="145" min="16" max="28"/>
-    <col width="22.5703125" customWidth="1" style="145" min="29" max="30"/>
-    <col width="23.85546875" customWidth="1" style="145" min="31" max="31"/>
-    <col width="20.5703125" customWidth="1" style="145" min="32" max="42"/>
-    <col width="23.28515625" customWidth="1" style="145" min="43" max="43"/>
-    <col width="24.28515625" customWidth="1" style="145" min="44" max="44"/>
-    <col width="24.5703125" customWidth="1" style="145" min="45" max="45"/>
-    <col width="25" customWidth="1" style="145" min="46" max="46"/>
-    <col width="31.42578125" customWidth="1" style="145" min="47" max="47"/>
-    <col width="23.5703125" customWidth="1" style="145" min="48" max="48"/>
-    <col width="19" customWidth="1" style="145" min="49" max="49"/>
-    <col width="14.7109375" customWidth="1" style="145" min="50" max="50"/>
+    <col width="28" customWidth="1" style="144" min="3" max="3"/>
+    <col width="23.42578125" customWidth="1" style="144" min="4" max="6"/>
+    <col width="20.42578125" customWidth="1" style="144" min="8" max="10"/>
+    <col width="18.42578125" customWidth="1" style="144" min="11" max="11"/>
+    <col width="20.42578125" customWidth="1" style="144" min="12" max="13"/>
+    <col width="21.85546875" customWidth="1" style="144" min="14" max="15"/>
+    <col width="18.42578125" customWidth="1" style="144" min="16" max="28"/>
+    <col width="22.5703125" customWidth="1" style="144" min="29" max="30"/>
+    <col width="23.85546875" customWidth="1" style="144" min="31" max="31"/>
+    <col width="20.5703125" customWidth="1" style="144" min="32" max="42"/>
+    <col width="23.28515625" customWidth="1" style="144" min="43" max="43"/>
+    <col width="24.28515625" customWidth="1" style="144" min="44" max="44"/>
+    <col width="24.5703125" customWidth="1" style="144" min="45" max="45"/>
+    <col width="25" customWidth="1" style="144" min="46" max="46"/>
+    <col width="31.42578125" customWidth="1" style="144" min="47" max="47"/>
+    <col width="23.5703125" customWidth="1" style="144" min="48" max="48"/>
+    <col width="19" customWidth="1" style="144" min="49" max="49"/>
+    <col width="14.7109375" customWidth="1" style="144" min="50" max="50"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1" s="145">
+    <row r="1" ht="25.5" customHeight="1" s="144">
       <c r="A1" s="16" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -3916,10 +4139,10 @@
     <col width="19.42578125" customWidth="1" style="7" min="9" max="9"/>
     <col width="21.140625" customWidth="1" style="7" min="10" max="11"/>
     <col width="29.140625" customWidth="1" style="7" min="12" max="16"/>
-    <col width="18" bestFit="1" customWidth="1" style="145" min="17" max="17"/>
-    <col width="18" customWidth="1" style="145" min="18" max="18"/>
+    <col width="18" bestFit="1" customWidth="1" style="144" min="17" max="17"/>
+    <col width="18" customWidth="1" style="144" min="18" max="18"/>
     <col width="17.5703125" customWidth="1" style="7" min="19" max="19"/>
-    <col width="25.7109375" customWidth="1" style="145" min="20" max="20"/>
+    <col width="25.7109375" customWidth="1" style="144" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="60">
@@ -4167,38 +4390,38 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="51.7109375" customWidth="1" style="145" min="2" max="5"/>
-    <col width="17.5703125" customWidth="1" style="145" min="6" max="6"/>
-    <col width="29.140625" customWidth="1" style="145" min="7" max="7"/>
-    <col width="21.140625" customWidth="1" style="145" min="8" max="8"/>
-    <col width="27.5703125" customWidth="1" style="145" min="9" max="9"/>
-    <col width="19.85546875" customWidth="1" style="145" min="10" max="10"/>
-    <col width="20.42578125" customWidth="1" style="145" min="11" max="11"/>
-    <col width="19.5703125" customWidth="1" style="145" min="12" max="12"/>
-    <col width="24" customWidth="1" style="145" min="13" max="13"/>
-    <col width="25.7109375" customWidth="1" style="145" min="14" max="14"/>
-    <col width="21.42578125" customWidth="1" style="145" min="15" max="15"/>
-    <col width="21.7109375" customWidth="1" style="145" min="16" max="17"/>
-    <col width="23.42578125" customWidth="1" style="145" min="18" max="18"/>
-    <col width="22.28515625" customWidth="1" style="145" min="19" max="19"/>
-    <col width="25.140625" customWidth="1" style="145" min="20" max="20"/>
-    <col width="17.5703125" customWidth="1" style="145" min="21" max="21"/>
-    <col width="15" customWidth="1" style="145" min="22" max="22"/>
-    <col width="26.7109375" customWidth="1" style="145" min="23" max="23"/>
-    <col width="22.5703125" customWidth="1" style="145" min="25" max="25"/>
-    <col width="25.7109375" customWidth="1" style="145" min="26" max="26"/>
-    <col width="32.28515625" customWidth="1" style="145" min="27" max="27"/>
-    <col width="27.140625" customWidth="1" style="145" min="28" max="28"/>
-    <col width="30" customWidth="1" style="145" min="29" max="29"/>
-    <col width="31.42578125" customWidth="1" style="145" min="30" max="30"/>
-    <col width="21.85546875" customWidth="1" style="145" min="31" max="31"/>
-    <col width="21.7109375" customWidth="1" style="145" min="32" max="32"/>
-    <col width="14.7109375" customWidth="1" style="145" min="33" max="33"/>
+    <col width="51.7109375" customWidth="1" style="144" min="2" max="5"/>
+    <col width="17.5703125" customWidth="1" style="144" min="6" max="6"/>
+    <col width="29.140625" customWidth="1" style="144" min="7" max="7"/>
+    <col width="21.140625" customWidth="1" style="144" min="8" max="8"/>
+    <col width="27.5703125" customWidth="1" style="144" min="9" max="9"/>
+    <col width="19.85546875" customWidth="1" style="144" min="10" max="10"/>
+    <col width="20.42578125" customWidth="1" style="144" min="11" max="11"/>
+    <col width="19.5703125" customWidth="1" style="144" min="12" max="12"/>
+    <col width="24" customWidth="1" style="144" min="13" max="13"/>
+    <col width="25.7109375" customWidth="1" style="144" min="14" max="14"/>
+    <col width="21.42578125" customWidth="1" style="144" min="15" max="15"/>
+    <col width="21.7109375" customWidth="1" style="144" min="16" max="17"/>
+    <col width="23.42578125" customWidth="1" style="144" min="18" max="18"/>
+    <col width="22.28515625" customWidth="1" style="144" min="19" max="19"/>
+    <col width="25.140625" customWidth="1" style="144" min="20" max="20"/>
+    <col width="17.5703125" customWidth="1" style="144" min="21" max="21"/>
+    <col width="15" customWidth="1" style="144" min="22" max="22"/>
+    <col width="26.7109375" customWidth="1" style="144" min="23" max="23"/>
+    <col width="22.5703125" customWidth="1" style="144" min="25" max="25"/>
+    <col width="25.7109375" customWidth="1" style="144" min="26" max="26"/>
+    <col width="32.28515625" customWidth="1" style="144" min="27" max="27"/>
+    <col width="27.140625" customWidth="1" style="144" min="28" max="28"/>
+    <col width="30" customWidth="1" style="144" min="29" max="29"/>
+    <col width="31.42578125" customWidth="1" style="144" min="30" max="30"/>
+    <col width="21.85546875" customWidth="1" style="144" min="31" max="31"/>
+    <col width="21.7109375" customWidth="1" style="144" min="32" max="32"/>
+    <col width="14.7109375" customWidth="1" style="144" min="33" max="33"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="71">
@@ -4529,7 +4752,7 @@
           <t>2.149600%</t>
         </is>
       </c>
-      <c r="AG2" s="142" t="inlineStr">
+      <c r="AG2" s="141" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -4696,7 +4919,7 @@
           <t>2.149600%</t>
         </is>
       </c>
-      <c r="AG3" s="142" t="inlineStr">
+      <c r="AG3" s="141" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -4863,7 +5086,7 @@
           <t>2.149600%</t>
         </is>
       </c>
-      <c r="AG4" s="142" t="inlineStr">
+      <c r="AG4" s="141" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -5030,7 +5253,7 @@
           <t>2.151500%</t>
         </is>
       </c>
-      <c r="AG5" s="142" t="inlineStr">
+      <c r="AG5" s="141" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -5364,7 +5587,7 @@
           <t>1.855000%</t>
         </is>
       </c>
-      <c r="AG7" s="142" t="inlineStr">
+      <c r="AG7" s="141" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
@@ -5531,41 +5754,37 @@
           <t>1.635100%</t>
         </is>
       </c>
-      <c r="AG8" s="142" t="inlineStr">
+      <c r="AG8" s="141" t="inlineStr">
         <is>
           <t>OFF</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="145">
-      <c r="B9" s="146" t="n"/>
-      <c r="C9" s="146" t="n"/>
-      <c r="D9" s="146" t="n"/>
-      <c r="E9" s="146" t="n"/>
-      <c r="G9" s="146" t="n"/>
-      <c r="H9" s="146" t="n"/>
-      <c r="I9" s="147" t="n"/>
-      <c r="J9" s="148" t="n"/>
-      <c r="K9" s="149" t="n"/>
-      <c r="L9" s="146" t="n"/>
-      <c r="M9" s="150" t="n"/>
-      <c r="N9" s="146" t="n"/>
-      <c r="O9" s="146" t="n"/>
-      <c r="P9" s="146" t="n"/>
-      <c r="Q9" s="148" t="n"/>
-      <c r="R9" s="148" t="n"/>
-      <c r="S9" s="148" t="n"/>
-      <c r="T9" s="148" t="n"/>
-      <c r="U9" s="148" t="n"/>
-      <c r="V9" s="148" t="n"/>
-      <c r="W9" s="150" t="n"/>
-      <c r="X9" s="151" t="n"/>
-      <c r="Y9" s="151" t="n"/>
+    <row r="9" ht="15" customHeight="1" s="144">
+      <c r="B9" s="145" t="n"/>
+      <c r="C9" s="145" t="n"/>
+      <c r="D9" s="145" t="n"/>
+      <c r="E9" s="145" t="n"/>
+      <c r="G9" s="145" t="n"/>
+      <c r="H9" s="145" t="n"/>
+      <c r="I9" s="146" t="n"/>
+      <c r="J9" s="147" t="n"/>
+      <c r="K9" s="148" t="n"/>
+      <c r="L9" s="145" t="n"/>
+      <c r="M9" s="149" t="n"/>
+      <c r="N9" s="145" t="n"/>
+      <c r="O9" s="145" t="n"/>
+      <c r="P9" s="145" t="n"/>
+      <c r="Q9" s="147" t="n"/>
+      <c r="R9" s="147" t="n"/>
+      <c r="S9" s="147" t="n"/>
+      <c r="T9" s="147" t="n"/>
+      <c r="U9" s="147" t="n"/>
+      <c r="V9" s="147" t="n"/>
+      <c r="W9" s="149" t="n"/>
+      <c r="X9" s="150" t="n"/>
+      <c r="Y9" s="150" t="n"/>
     </row>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="85" t="inlineStr">
         <is>
@@ -5573,7 +5792,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="B16" s="90" t="inlineStr">
         <is>
@@ -5770,16 +5988,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="44.140625" customWidth="1" style="145" min="2" max="2"/>
-    <col width="17.42578125" customWidth="1" style="145" min="3" max="3"/>
-    <col width="38.28515625" customWidth="1" style="145" min="4" max="4"/>
-    <col width="41" customWidth="1" style="145" min="5" max="5"/>
-    <col width="25" customWidth="1" style="145" min="6" max="6"/>
-    <col width="28" customWidth="1" style="145" min="7" max="7"/>
-    <col width="26.28515625" customWidth="1" style="145" min="8" max="14"/>
-    <col width="22" customWidth="1" style="145" min="15" max="15"/>
-    <col width="30.28515625" customWidth="1" style="145" min="16" max="16"/>
-    <col width="23.140625" customWidth="1" style="145" min="17" max="17"/>
+    <col width="44.140625" customWidth="1" style="144" min="2" max="2"/>
+    <col width="17.42578125" customWidth="1" style="144" min="3" max="3"/>
+    <col width="38.28515625" customWidth="1" style="144" min="4" max="4"/>
+    <col width="41" customWidth="1" style="144" min="5" max="5"/>
+    <col width="25" customWidth="1" style="144" min="6" max="6"/>
+    <col width="28" customWidth="1" style="144" min="7" max="7"/>
+    <col width="26.28515625" customWidth="1" style="144" min="8" max="14"/>
+    <col width="22" customWidth="1" style="144" min="15" max="15"/>
+    <col width="30.28515625" customWidth="1" style="144" min="16" max="16"/>
+    <col width="23.140625" customWidth="1" style="144" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5957,11 +6175,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="J9" s="148" t="n"/>
-      <c r="K9" s="148" t="n"/>
-      <c r="L9" s="148" t="n"/>
-      <c r="M9" s="148" t="n"/>
-      <c r="N9" s="148" t="n"/>
+      <c r="J9" s="147" t="n"/>
+      <c r="K9" s="147" t="n"/>
+      <c r="L9" s="147" t="n"/>
+      <c r="M9" s="147" t="n"/>
+      <c r="N9" s="147" t="n"/>
     </row>
     <row r="10">
       <c r="I10" s="102" t="n"/>
@@ -5990,36 +6208,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="48.140625" customWidth="1" style="145" min="2" max="2"/>
-    <col width="17" customWidth="1" style="145" min="3" max="4"/>
-    <col width="16.7109375" customWidth="1" style="145" min="5" max="5"/>
-    <col width="17.140625" customWidth="1" style="145" min="6" max="6"/>
-    <col width="18.7109375" customWidth="1" style="145" min="7" max="7"/>
-    <col width="22.140625" customWidth="1" style="145" min="8" max="8"/>
-    <col width="19.28515625" customWidth="1" style="145" min="9" max="9"/>
-    <col width="18" customWidth="1" style="145" min="10" max="10"/>
-    <col width="20.7109375" customWidth="1" style="145" min="11" max="11"/>
-    <col width="31.7109375" customWidth="1" style="145" min="12" max="12"/>
-    <col width="21.85546875" bestFit="1" customWidth="1" style="145" min="13" max="13"/>
-    <col width="28.42578125" customWidth="1" style="145" min="14" max="14"/>
-    <col width="20" customWidth="1" style="145" min="15" max="15"/>
-    <col width="17.28515625" customWidth="1" style="145" min="19" max="19"/>
-    <col width="44.7109375" customWidth="1" style="145" min="20" max="20"/>
-    <col width="43.28515625" customWidth="1" style="145" min="21" max="21"/>
-    <col width="30.42578125" customWidth="1" style="145" min="22" max="22"/>
-    <col width="29.7109375" customWidth="1" style="145" min="23" max="23"/>
-    <col width="18.42578125" customWidth="1" style="145" min="24" max="24"/>
-    <col width="7.5703125" customWidth="1" style="145" min="25" max="25"/>
-    <col width="25.5703125" customWidth="1" style="145" min="26" max="26"/>
-    <col width="29.7109375" customWidth="1" style="145" min="27" max="27"/>
-    <col width="17.7109375" customWidth="1" style="145" min="28" max="28"/>
-    <col width="11" customWidth="1" style="145" min="35" max="35"/>
-    <col width="15.5703125" customWidth="1" style="145" min="36" max="36"/>
-    <col width="17.7109375" customWidth="1" style="145" min="38" max="38"/>
-    <col width="16.5703125" customWidth="1" style="145" min="39" max="39"/>
-    <col width="11.85546875" customWidth="1" style="145" min="40" max="40"/>
-    <col width="11.7109375" customWidth="1" style="145" min="44" max="44"/>
-    <col width="13.42578125" customWidth="1" style="145" min="45" max="45"/>
+    <col width="48.140625" customWidth="1" style="144" min="2" max="2"/>
+    <col width="17" customWidth="1" style="144" min="3" max="4"/>
+    <col width="16.7109375" customWidth="1" style="144" min="5" max="5"/>
+    <col width="17.140625" customWidth="1" style="144" min="6" max="6"/>
+    <col width="18.7109375" customWidth="1" style="144" min="7" max="7"/>
+    <col width="22.140625" customWidth="1" style="144" min="8" max="8"/>
+    <col width="19.28515625" customWidth="1" style="144" min="9" max="9"/>
+    <col width="18" customWidth="1" style="144" min="10" max="10"/>
+    <col width="20.7109375" customWidth="1" style="144" min="11" max="11"/>
+    <col width="31.7109375" customWidth="1" style="144" min="12" max="12"/>
+    <col width="21.85546875" bestFit="1" customWidth="1" style="144" min="13" max="13"/>
+    <col width="28.42578125" customWidth="1" style="144" min="14" max="14"/>
+    <col width="20" customWidth="1" style="144" min="15" max="15"/>
+    <col width="17.28515625" customWidth="1" style="144" min="19" max="19"/>
+    <col width="44.7109375" customWidth="1" style="144" min="20" max="20"/>
+    <col width="43.28515625" customWidth="1" style="144" min="21" max="21"/>
+    <col width="30.42578125" customWidth="1" style="144" min="22" max="22"/>
+    <col width="29.7109375" customWidth="1" style="144" min="23" max="23"/>
+    <col width="18.42578125" customWidth="1" style="144" min="24" max="24"/>
+    <col width="7.5703125" customWidth="1" style="144" min="25" max="25"/>
+    <col width="25.5703125" customWidth="1" style="144" min="26" max="26"/>
+    <col width="29.7109375" customWidth="1" style="144" min="27" max="27"/>
+    <col width="17.7109375" customWidth="1" style="144" min="28" max="28"/>
+    <col width="11" customWidth="1" style="144" min="35" max="35"/>
+    <col width="15.5703125" customWidth="1" style="144" min="36" max="36"/>
+    <col width="17.7109375" customWidth="1" style="144" min="38" max="38"/>
+    <col width="16.5703125" customWidth="1" style="144" min="39" max="39"/>
+    <col width="11.85546875" customWidth="1" style="144" min="40" max="40"/>
+    <col width="11.7109375" customWidth="1" style="144" min="44" max="44"/>
+    <col width="13.42578125" customWidth="1" style="144" min="45" max="45"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="99">
@@ -6378,7 +6596,7 @@
           <t>Paper Clip Intent Notice</t>
         </is>
       </c>
-      <c r="H2" s="104" t="inlineStr">
+      <c r="H2" s="103" t="inlineStr">
         <is>
           <t>LBT TRUST 1115737</t>
         </is>
@@ -6403,7 +6621,7 @@
           <t>LIQ-C(EMOU8O-C(EMOU4E-2</t>
         </is>
       </c>
-      <c r="M2" s="109" t="n">
+      <c r="M2" s="108" t="n">
         <v>44945</v>
       </c>
       <c r="N2" s="100" t="inlineStr">
@@ -6411,12 +6629,12 @@
           <t>2018-09-02 00:00:00.000</t>
         </is>
       </c>
-      <c r="O2" s="105" t="inlineStr">
+      <c r="O2" s="104" t="inlineStr">
         <is>
           <t>Notice Identifier</t>
         </is>
       </c>
-      <c r="P2" s="105" t="inlineStr">
+      <c r="P2" s="104" t="inlineStr">
         <is>
           <t>CBA Email with PDF Attachment</t>
         </is>
@@ -6431,66 +6649,66 @@
           <t>2021-01-13 16:11:12.710</t>
         </is>
       </c>
-      <c r="S2" s="105" t="inlineStr">
+      <c r="S2" s="104" t="inlineStr">
         <is>
           <t>Legal Name</t>
         </is>
       </c>
-      <c r="T2" s="105" t="inlineStr">
+      <c r="T2" s="104" t="inlineStr">
         <is>
           <t>C:\Users\u724659\AppData\Local\Temp\</t>
         </is>
       </c>
-      <c r="U2" s="105" t="inlineStr">
+      <c r="U2" s="104" t="inlineStr">
         <is>
           <t>\DataSet\Integration_DataSet\API\Input\Correspondence</t>
         </is>
       </c>
-      <c r="V2" s="105" t="inlineStr">
+      <c r="V2" s="104" t="inlineStr">
         <is>
           <t>API_COR_TC01</t>
         </is>
       </c>
-      <c r="W2" s="105" t="inlineStr">
+      <c r="W2" s="104" t="inlineStr">
         <is>
           <t>TEMP_API_COR_TC01</t>
         </is>
       </c>
-      <c r="X2" s="105" t="inlineStr">
+      <c r="X2" s="104" t="inlineStr">
         <is>
           <t>INPUT_API_COR_TC01</t>
         </is>
       </c>
-      <c r="Y2" s="105" t="inlineStr">
+      <c r="Y2" s="104" t="inlineStr">
         <is>
           <t>EXP_API_COR_TC01</t>
         </is>
       </c>
-      <c r="Z2" s="105" t="inlineStr">
+      <c r="Z2" s="104" t="inlineStr">
         <is>
           <t>\DataSet\Integration_DataSet\API\Output\Correspondence</t>
         </is>
       </c>
-      <c r="AA2" s="105" t="inlineStr">
+      <c r="AA2" s="104" t="inlineStr">
         <is>
           <t>correlationId</t>
         </is>
       </c>
-      <c r="AB2" s="105" t="inlineStr">
+      <c r="AB2" s="104" t="inlineStr">
         <is>
           <t>API_COR_RESPONSE_TC1</t>
         </is>
       </c>
-      <c r="AC2" s="105" t="n"/>
-      <c r="AD2" s="105" t="inlineStr">
+      <c r="AC2" s="104" t="n"/>
+      <c r="AD2" s="104" t="inlineStr">
         <is>
           <t>SENT</t>
         </is>
       </c>
-      <c r="AE2" s="105" t="n"/>
-      <c r="AF2" s="106" t="n"/>
+      <c r="AE2" s="104" t="n"/>
+      <c r="AF2" s="105" t="n"/>
       <c r="AG2" s="100" t="n"/>
-      <c r="AH2" s="105" t="inlineStr">
+      <c r="AH2" s="104" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
@@ -6507,39 +6725,39 @@
           <t>Commitment Fee</t>
         </is>
       </c>
-      <c r="AM2" s="107" t="n">
+      <c r="AM2" s="106" t="n">
         <v>1171049.45</v>
       </c>
-      <c r="AN2" s="104" t="inlineStr">
+      <c r="AN2" s="103" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
       </c>
-      <c r="AO2" s="108" t="n">
+      <c r="AO2" s="107" t="n">
         <v>885.51</v>
       </c>
-      <c r="AP2" s="125" t="n"/>
-      <c r="AQ2" s="126" t="n"/>
-      <c r="AR2" s="127" t="n"/>
-      <c r="AS2" s="125" t="n"/>
-      <c r="AT2" s="126" t="n"/>
-      <c r="AU2" s="126" t="n"/>
-      <c r="AV2" s="126" t="n"/>
-      <c r="AW2" s="126" t="n"/>
-      <c r="AX2" s="126" t="n"/>
-      <c r="AY2" s="128" t="n"/>
-      <c r="AZ2" s="126" t="n"/>
-      <c r="BA2" s="126" t="n"/>
-      <c r="BB2" s="126" t="n"/>
-      <c r="BC2" s="126" t="n"/>
-      <c r="BD2" s="126" t="n"/>
-      <c r="BE2" s="126" t="n"/>
-      <c r="BF2" s="126" t="n"/>
-      <c r="BG2" s="126" t="n"/>
-      <c r="BH2" s="126" t="n"/>
-      <c r="BI2" s="126" t="n"/>
-      <c r="BJ2" s="126" t="n"/>
-      <c r="BK2" s="126" t="n"/>
+      <c r="AP2" s="124" t="n"/>
+      <c r="AQ2" s="125" t="n"/>
+      <c r="AR2" s="126" t="n"/>
+      <c r="AS2" s="124" t="n"/>
+      <c r="AT2" s="125" t="n"/>
+      <c r="AU2" s="125" t="n"/>
+      <c r="AV2" s="125" t="n"/>
+      <c r="AW2" s="125" t="n"/>
+      <c r="AX2" s="125" t="n"/>
+      <c r="AY2" s="127" t="n"/>
+      <c r="AZ2" s="125" t="n"/>
+      <c r="BA2" s="125" t="n"/>
+      <c r="BB2" s="125" t="n"/>
+      <c r="BC2" s="125" t="n"/>
+      <c r="BD2" s="125" t="n"/>
+      <c r="BE2" s="125" t="n"/>
+      <c r="BF2" s="125" t="n"/>
+      <c r="BG2" s="125" t="n"/>
+      <c r="BH2" s="125" t="n"/>
+      <c r="BI2" s="125" t="n"/>
+      <c r="BJ2" s="125" t="n"/>
+      <c r="BK2" s="125" t="n"/>
       <c r="BL2" s="100" t="inlineStr">
         <is>
           <t>AUD</t>
@@ -6580,7 +6798,7 @@
           <t>Event Fee Payment</t>
         </is>
       </c>
-      <c r="H3" s="104" t="inlineStr">
+      <c r="H3" s="103" t="inlineStr">
         <is>
           <t>LBT Trust 1115737</t>
         </is>
@@ -6615,12 +6833,12 @@
           <t>2018-01-14 00:00:00.000</t>
         </is>
       </c>
-      <c r="O3" s="105" t="inlineStr">
+      <c r="O3" s="104" t="inlineStr">
         <is>
           <t>Notice Identifier</t>
         </is>
       </c>
-      <c r="P3" s="105" t="inlineStr">
+      <c r="P3" s="104" t="inlineStr">
         <is>
           <t>CBA Email with PDF Attachment</t>
         </is>
@@ -6635,66 +6853,66 @@
           <t>2021-01-18 10:40:21.966</t>
         </is>
       </c>
-      <c r="S3" s="105" t="inlineStr">
+      <c r="S3" s="104" t="inlineStr">
         <is>
           <t>Legal Name</t>
         </is>
       </c>
-      <c r="T3" s="105" t="inlineStr">
+      <c r="T3" s="104" t="inlineStr">
         <is>
           <t>C:\Users\u724659\AppData\Local\Temp\</t>
         </is>
       </c>
-      <c r="U3" s="105" t="inlineStr">
+      <c r="U3" s="104" t="inlineStr">
         <is>
           <t>\DataSet\Integration_DataSet\API\Input\Correspondence</t>
         </is>
       </c>
-      <c r="V3" s="105" t="inlineStr">
+      <c r="V3" s="104" t="inlineStr">
         <is>
           <t>API_COR_TC01</t>
         </is>
       </c>
-      <c r="W3" s="105" t="inlineStr">
+      <c r="W3" s="104" t="inlineStr">
         <is>
           <t>TEMP_API_COR_TC01</t>
         </is>
       </c>
-      <c r="X3" s="105" t="inlineStr">
+      <c r="X3" s="104" t="inlineStr">
         <is>
           <t>INPUT_API_COR_TC01</t>
         </is>
       </c>
-      <c r="Y3" s="105" t="inlineStr">
+      <c r="Y3" s="104" t="inlineStr">
         <is>
           <t>EXP_API_COR_TC01</t>
         </is>
       </c>
-      <c r="Z3" s="105" t="inlineStr">
+      <c r="Z3" s="104" t="inlineStr">
         <is>
           <t>\DataSet\Integration_DataSet\API\Output\Correspondence</t>
         </is>
       </c>
-      <c r="AA3" s="105" t="inlineStr">
+      <c r="AA3" s="104" t="inlineStr">
         <is>
           <t>correlationId</t>
         </is>
       </c>
-      <c r="AB3" s="105" t="inlineStr">
+      <c r="AB3" s="104" t="inlineStr">
         <is>
           <t>API_COR_RESPONSE_TC1</t>
         </is>
       </c>
-      <c r="AC3" s="105" t="n"/>
-      <c r="AD3" s="105" t="inlineStr">
+      <c r="AC3" s="104" t="n"/>
+      <c r="AD3" s="104" t="inlineStr">
         <is>
           <t>SENT</t>
         </is>
       </c>
-      <c r="AE3" s="105" t="n"/>
-      <c r="AF3" s="106" t="n"/>
+      <c r="AE3" s="104" t="n"/>
+      <c r="AF3" s="105" t="n"/>
       <c r="AG3" s="100" t="n"/>
-      <c r="AH3" s="105" t="inlineStr">
+      <c r="AH3" s="104" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
@@ -6707,69 +6925,69 @@
       </c>
       <c r="AK3" s="100" t="n"/>
       <c r="AL3" s="100" t="n"/>
-      <c r="AM3" s="107" t="n"/>
-      <c r="AN3" s="104" t="n"/>
-      <c r="AO3" s="122" t="n">
+      <c r="AM3" s="106" t="n"/>
+      <c r="AN3" s="103" t="n"/>
+      <c r="AO3" s="121" t="n">
         <v>12</v>
       </c>
-      <c r="AP3" s="125" t="inlineStr">
+      <c r="AP3" s="124" t="inlineStr">
         <is>
           <t>1.043200%</t>
         </is>
       </c>
-      <c r="AQ3" s="126" t="inlineStr">
+      <c r="AQ3" s="125" t="inlineStr">
         <is>
           <t>1.650000%</t>
         </is>
       </c>
-      <c r="AR3" s="127" t="inlineStr">
+      <c r="AR3" s="126" t="inlineStr">
         <is>
           <t>2.693200%</t>
         </is>
       </c>
-      <c r="AS3" s="125" t="inlineStr">
+      <c r="AS3" s="124" t="inlineStr">
         <is>
           <t>25,563.89</t>
         </is>
       </c>
-      <c r="AT3" s="126" t="inlineStr">
+      <c r="AT3" s="125" t="inlineStr">
         <is>
           <t>31-Dec-2019</t>
         </is>
       </c>
-      <c r="AU3" s="126" t="inlineStr">
+      <c r="AU3" s="125" t="inlineStr">
         <is>
           <t>27-Dec-2023</t>
         </is>
       </c>
-      <c r="AV3" s="126" t="inlineStr">
+      <c r="AV3" s="125" t="inlineStr">
         <is>
           <t>3,854,928.29</t>
         </is>
       </c>
-      <c r="AW3" s="126" t="inlineStr">
+      <c r="AW3" s="125" t="inlineStr">
         <is>
           <t>31-Dec-2019</t>
         </is>
       </c>
-      <c r="AX3" s="126" t="inlineStr">
+      <c r="AX3" s="125" t="inlineStr">
         <is>
           <t>31-Mar-2020</t>
         </is>
       </c>
-      <c r="AY3" s="128" t="n"/>
-      <c r="AZ3" s="126" t="n"/>
-      <c r="BA3" s="126" t="n"/>
-      <c r="BB3" s="126" t="n"/>
-      <c r="BC3" s="126" t="n"/>
-      <c r="BD3" s="126" t="n"/>
-      <c r="BE3" s="126" t="n"/>
-      <c r="BF3" s="126" t="n"/>
-      <c r="BG3" s="126" t="n"/>
-      <c r="BH3" s="126" t="n"/>
-      <c r="BI3" s="126" t="n"/>
-      <c r="BJ3" s="126" t="n"/>
-      <c r="BK3" s="126" t="n"/>
+      <c r="AY3" s="127" t="n"/>
+      <c r="AZ3" s="125" t="n"/>
+      <c r="BA3" s="125" t="n"/>
+      <c r="BB3" s="125" t="n"/>
+      <c r="BC3" s="125" t="n"/>
+      <c r="BD3" s="125" t="n"/>
+      <c r="BE3" s="125" t="n"/>
+      <c r="BF3" s="125" t="n"/>
+      <c r="BG3" s="125" t="n"/>
+      <c r="BH3" s="125" t="n"/>
+      <c r="BI3" s="125" t="n"/>
+      <c r="BJ3" s="125" t="n"/>
+      <c r="BK3" s="125" t="n"/>
       <c r="BL3" s="100" t="inlineStr">
         <is>
           <t>AUD</t>
@@ -6796,50 +7014,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.140625" bestFit="1" customWidth="1" style="120" min="1" max="1"/>
-    <col width="42.85546875" customWidth="1" style="120" min="2" max="2"/>
-    <col width="19.85546875" customWidth="1" style="120" min="3" max="3"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" style="120" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="120" min="5" max="8"/>
-    <col width="34.140625" bestFit="1" customWidth="1" style="120" min="9" max="9"/>
-    <col width="9.140625" bestFit="1" customWidth="1" style="120" min="10" max="10"/>
-    <col width="36.28515625" bestFit="1" customWidth="1" style="120" min="11" max="11"/>
-    <col width="20.42578125" bestFit="1" customWidth="1" style="120" min="12" max="12"/>
-    <col width="26.42578125" bestFit="1" customWidth="1" style="120" min="13" max="13"/>
-    <col width="29.42578125" bestFit="1" customWidth="1" style="120" min="14" max="14"/>
-    <col width="30.5703125" bestFit="1" customWidth="1" style="120" min="15" max="15"/>
-    <col width="28.7109375" bestFit="1" customWidth="1" style="120" min="16" max="16"/>
-    <col width="29.85546875" bestFit="1" customWidth="1" style="120" min="17" max="17"/>
-    <col width="25.7109375" customWidth="1" style="145" min="18" max="18"/>
-    <col width="32.28515625" customWidth="1" style="145" min="19" max="19"/>
-    <col width="27.140625" customWidth="1" style="145" min="20" max="20"/>
-    <col width="30" customWidth="1" style="145" min="21" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" style="120" min="24" max="24"/>
-    <col width="28" bestFit="1" customWidth="1" style="120" min="25" max="25"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" style="120" min="26" max="26"/>
-    <col width="27.140625" bestFit="1" customWidth="1" style="120" min="27" max="27"/>
-    <col width="15" bestFit="1" customWidth="1" style="120" min="28" max="29"/>
-    <col width="9.140625" customWidth="1" style="120" min="30" max="43"/>
-    <col width="9.140625" customWidth="1" style="120" min="44" max="16384"/>
+    <col width="6.140625" bestFit="1" customWidth="1" style="119" min="1" max="1"/>
+    <col width="42.85546875" customWidth="1" style="119" min="2" max="2"/>
+    <col width="19.85546875" customWidth="1" style="119" min="3" max="3"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" style="119" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="119" min="5" max="8"/>
+    <col width="34.140625" bestFit="1" customWidth="1" style="119" min="9" max="9"/>
+    <col width="9.140625" bestFit="1" customWidth="1" style="119" min="10" max="10"/>
+    <col width="36.28515625" bestFit="1" customWidth="1" style="119" min="11" max="11"/>
+    <col width="20.42578125" bestFit="1" customWidth="1" style="119" min="12" max="12"/>
+    <col width="26.42578125" bestFit="1" customWidth="1" style="119" min="13" max="13"/>
+    <col width="29.42578125" bestFit="1" customWidth="1" style="119" min="14" max="14"/>
+    <col width="30.5703125" bestFit="1" customWidth="1" style="119" min="15" max="15"/>
+    <col width="28.7109375" bestFit="1" customWidth="1" style="119" min="16" max="16"/>
+    <col width="29.85546875" bestFit="1" customWidth="1" style="119" min="17" max="17"/>
+    <col width="25.7109375" customWidth="1" style="144" min="18" max="18"/>
+    <col width="32.28515625" customWidth="1" style="144" min="19" max="19"/>
+    <col width="27.140625" customWidth="1" style="144" min="20" max="20"/>
+    <col width="30" customWidth="1" style="144" min="21" max="23"/>
+    <col width="18" bestFit="1" customWidth="1" style="119" min="24" max="24"/>
+    <col width="28" bestFit="1" customWidth="1" style="119" min="25" max="25"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" style="119" min="26" max="26"/>
+    <col width="27.140625" bestFit="1" customWidth="1" style="119" min="27" max="27"/>
+    <col width="15" bestFit="1" customWidth="1" style="119" min="28" max="29"/>
+    <col width="9.140625" customWidth="1" style="119" min="30" max="45"/>
+    <col width="9.140625" customWidth="1" style="119" min="46" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="113">
-      <c r="A1" s="110" t="inlineStr">
+    <row r="1" ht="12.75" customFormat="1" customHeight="1" s="112">
+      <c r="A1" s="109" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="110" t="inlineStr">
+      <c r="B1" s="109" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="110" t="inlineStr">
+      <c r="C1" s="109" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" s="121" t="inlineStr">
+      <c r="D1" s="120" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
@@ -6849,62 +7067,62 @@
           <t>Search_By</t>
         </is>
       </c>
-      <c r="F1" s="121" t="inlineStr">
+      <c r="F1" s="120" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="G1" s="121" t="inlineStr">
+      <c r="G1" s="120" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="H1" s="110" t="inlineStr">
+      <c r="H1" s="109" t="inlineStr">
         <is>
           <t>Inactive</t>
         </is>
       </c>
-      <c r="I1" s="110" t="inlineStr">
+      <c r="I1" s="109" t="inlineStr">
         <is>
           <t>Pricing_Option_From_Breakfunding</t>
         </is>
       </c>
-      <c r="J1" s="110" t="inlineStr">
+      <c r="J1" s="109" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
-      <c r="K1" s="110" t="inlineStr">
+      <c r="K1" s="109" t="inlineStr">
         <is>
           <t>Legal_Entity</t>
         </is>
       </c>
-      <c r="L1" s="110" t="inlineStr">
+      <c r="L1" s="109" t="inlineStr">
         <is>
           <t>Legal_Entity_Amount</t>
         </is>
       </c>
-      <c r="M1" s="111" t="inlineStr">
+      <c r="M1" s="110" t="inlineStr">
         <is>
           <t>Expense_Code</t>
         </is>
       </c>
-      <c r="N1" s="112" t="inlineStr">
+      <c r="N1" s="111" t="inlineStr">
         <is>
           <t>WIP_TransactionType</t>
         </is>
       </c>
-      <c r="O1" s="112" t="inlineStr">
+      <c r="O1" s="111" t="inlineStr">
         <is>
           <t>WIP_AwaitingApprovalStatus</t>
         </is>
       </c>
-      <c r="P1" s="112" t="inlineStr">
+      <c r="P1" s="111" t="inlineStr">
         <is>
           <t>WIP_OutstandingType</t>
         </is>
       </c>
-      <c r="Q1" s="112" t="inlineStr">
+      <c r="Q1" s="111" t="inlineStr">
         <is>
           <t>WIP_AwaitingReleaseStatus</t>
         </is>
@@ -6939,101 +7157,101 @@
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="X1" s="110" t="inlineStr">
+      <c r="X1" s="109" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="Y1" s="112" t="inlineStr">
+      <c r="Y1" s="111" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="Z1" s="112" t="inlineStr">
+      <c r="Z1" s="111" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="AA1" s="112" t="inlineStr">
+      <c r="AA1" s="111" t="inlineStr">
         <is>
           <t>Notice_Status</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="119">
-      <c r="A2" s="114" t="inlineStr">
+    <row r="2" customFormat="1" s="118">
+      <c r="A2" s="113" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="115" t="inlineStr">
+      <c r="B2" s="114" t="inlineStr">
         <is>
           <t>SERV40_BreakFunding_LBT_BILAT_OUTSTANDING_Z</t>
         </is>
       </c>
-      <c r="C2" s="124" t="inlineStr">
+      <c r="C2" s="123" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="D2" s="123" t="n"/>
+      <c r="D2" s="122" t="n"/>
       <c r="E2" s="74" t="inlineStr">
         <is>
           <t>Deal/Facility</t>
         </is>
       </c>
-      <c r="F2" s="123" t="n"/>
-      <c r="G2" s="120" t="inlineStr">
+      <c r="F2" s="122" t="n"/>
+      <c r="G2" s="119" t="inlineStr">
         <is>
           <t>60001972</t>
         </is>
       </c>
-      <c r="H2" s="116" t="inlineStr">
+      <c r="H2" s="115" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I2" s="116" t="inlineStr">
+      <c r="I2" s="115" t="inlineStr">
         <is>
           <t>BBSW</t>
         </is>
       </c>
-      <c r="J2" s="116" t="inlineStr">
+      <c r="J2" s="115" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="K2" s="117" t="inlineStr">
+      <c r="K2" s="116" t="inlineStr">
         <is>
           <t>COMMONWEALTHBANKOFAUSTCB001</t>
         </is>
       </c>
-      <c r="L2" s="114" t="inlineStr">
+      <c r="L2" s="113" t="inlineStr">
         <is>
           <t>800.00</t>
         </is>
       </c>
-      <c r="M2" s="114" t="inlineStr">
+      <c r="M2" s="113" t="inlineStr">
         <is>
           <t>DM_CFS-CFS General Warehouses</t>
         </is>
       </c>
-      <c r="N2" s="114" t="inlineStr">
+      <c r="N2" s="113" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="O2" s="114" t="inlineStr">
+      <c r="O2" s="113" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="P2" s="114" t="inlineStr">
+      <c r="P2" s="113" t="inlineStr">
         <is>
           <t xml:space="preserve">Break Cost Fee </t>
         </is>
       </c>
-      <c r="Q2" s="118" t="inlineStr">
+      <c r="Q2" s="117" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
@@ -7068,34 +7286,34 @@
           <t>DDA</t>
         </is>
       </c>
-      <c r="X2" s="124" t="inlineStr">
+      <c r="X2" s="123" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Y2" s="124" t="inlineStr">
+      <c r="Y2" s="123" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="Z2" s="124" t="inlineStr">
+      <c r="Z2" s="123" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="AA2" s="124" t="inlineStr">
+      <c r="AA2" s="123" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="R3" s="120" t="n"/>
-      <c r="S3" s="120" t="n"/>
-      <c r="T3" s="120" t="n"/>
-      <c r="U3" s="120" t="n"/>
-      <c r="V3" s="120" t="n"/>
-      <c r="W3" s="120" t="n"/>
+      <c r="R3" s="119" t="n"/>
+      <c r="S3" s="119" t="n"/>
+      <c r="T3" s="119" t="n"/>
+      <c r="U3" s="119" t="n"/>
+      <c r="V3" s="119" t="n"/>
+      <c r="W3" s="119" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE321EA2-D973-41D6-8A7F-A4977E153F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1882535-12EF-4535-9792-4C7A0BAB82A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="877" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,25 @@
     <sheet name="SERV11_LoanMerge" sheetId="10" r:id="rId10"/>
     <sheet name="MTAM06_AccrualsAdjustment" sheetId="11" r:id="rId11"/>
     <sheet name="SERV21_FeePayment" sheetId="12" r:id="rId12"/>
+    <sheet name="AMCH5_FacilityChangeTransaction" sheetId="13" r:id="rId13"/>
+    <sheet name="AMCH06_PricingChangeTransaction" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="655">
   <si>
     <t>rowid</t>
   </si>
@@ -1906,6 +1918,96 @@
   </si>
   <si>
     <t>AfterPayment_Projected_EOCDue</t>
+  </si>
+  <si>
+    <t>AMCH5_FacilityChangeTransaction_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>New_ExpiryDate</t>
+  </si>
+  <si>
+    <t>MaturityDate</t>
+  </si>
+  <si>
+    <t>AMCH06_PricingChangeTransaction_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>PricingChange_TransactionNo</t>
+  </si>
+  <si>
+    <t>PricingChange_EffectiveDate</t>
+  </si>
+  <si>
+    <t>PricingChange_Desc</t>
+  </si>
+  <si>
+    <t>Update ongoing fee pricing (facility extension)</t>
+  </si>
+  <si>
+    <t>Facility_Item</t>
+  </si>
+  <si>
+    <t>Facility_Item_After</t>
+  </si>
+  <si>
+    <t>Facility_Percent</t>
+  </si>
+  <si>
+    <t>0.410000</t>
+  </si>
+  <si>
+    <t>OngoingFee_NewRate</t>
+  </si>
+  <si>
+    <t>0.41%</t>
+  </si>
+  <si>
+    <t>Unutilized  X Rate (0.41%)</t>
+  </si>
+  <si>
+    <t>PricingFormula_InEffect</t>
+  </si>
+  <si>
+    <t>Current_Rate</t>
+  </si>
+  <si>
+    <t>0.410000%</t>
+  </si>
+  <si>
+    <t>CommitmentFee_Amendment_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>New_ActualDueDate</t>
+  </si>
+  <si>
+    <t>New_AdjustedDueDate</t>
+  </si>
+  <si>
+    <t>New_Accrue</t>
+  </si>
+  <si>
+    <t>New_AccrualEndDate</t>
+  </si>
+  <si>
+    <t>New_CycleFrequency</t>
+  </si>
+  <si>
+    <t>15-May-2023</t>
+  </si>
+  <si>
+    <t>15-May-2019</t>
+  </si>
+  <si>
+    <t>14-May-2023</t>
+  </si>
+  <si>
+    <t>14-May-2019</t>
+  </si>
+  <si>
+    <t>New_EffectiveDate</t>
+  </si>
+  <si>
+    <t>StartDate</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +2019,7 @@
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2083,6 +2185,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2230,7 +2337,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2557,6 +2664,17 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2885,8 +3003,8 @@
   <dimension ref="A1:CX11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN1" sqref="AN1"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4133,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60D4C65-EE5F-400B-9331-53B33679E253}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4226,6 +4344,294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3BEDDB-0147-4BDF-B885-D6884E6AA02D}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="128" t="s">
+        <v>626</v>
+      </c>
+      <c r="D1" s="128" t="s">
+        <v>627</v>
+      </c>
+      <c r="E1" s="128" t="s">
+        <v>644</v>
+      </c>
+      <c r="F1" s="128" t="s">
+        <v>645</v>
+      </c>
+      <c r="G1" s="128" t="s">
+        <v>646</v>
+      </c>
+      <c r="H1" s="128" t="s">
+        <v>647</v>
+      </c>
+      <c r="I1" s="128" t="s">
+        <v>648</v>
+      </c>
+      <c r="J1" s="128" t="s">
+        <v>653</v>
+      </c>
+      <c r="K1" s="128" t="s">
+        <v>603</v>
+      </c>
+      <c r="L1" s="128" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="131" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="132" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="G3" s="156" t="s">
+        <v>355</v>
+      </c>
+      <c r="H3" s="157" t="s">
+        <v>651</v>
+      </c>
+      <c r="I3" s="156" t="s">
+        <v>354</v>
+      </c>
+      <c r="J3" s="156" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="159" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="90" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="128" t="s">
+        <v>626</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>627</v>
+      </c>
+      <c r="E13" s="128" t="s">
+        <v>644</v>
+      </c>
+      <c r="F13" s="128" t="s">
+        <v>645</v>
+      </c>
+      <c r="G13" s="128" t="s">
+        <v>647</v>
+      </c>
+      <c r="I13" s="144"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="I14" s="144"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="62" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="82" t="s">
+        <v>650</v>
+      </c>
+      <c r="F15" s="82" t="s">
+        <v>650</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>652</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1096B-A9B4-484E-ABE1-8CDDD69771E0}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="128" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1" s="128" t="s">
+        <v>630</v>
+      </c>
+      <c r="E1" s="128" t="s">
+        <v>631</v>
+      </c>
+      <c r="F1" s="128" t="s">
+        <v>633</v>
+      </c>
+      <c r="G1" s="128" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="128" t="s">
+        <v>477</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>628</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>642</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -4235,8 +4641,8 @@
   <dimension ref="A1:CT3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4608,7 +5014,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4620,6 +5026,7 @@
     <col min="6" max="6" width="23.140625" style="144" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="144" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" style="144" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" style="144" customWidth="1"/>
     <col min="11" max="11" width="16" style="144" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" style="144" customWidth="1"/>
@@ -4773,8 +5180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5233,7 +5640,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -5409,7 +5816,7 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B16" sqref="B16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1882535-12EF-4535-9792-4C7A0BAB82A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5563570-1737-4602-BEC8-57494BF0C327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="SERV21_FeePayment" sheetId="12" r:id="rId12"/>
     <sheet name="AMCH5_FacilityChangeTransaction" sheetId="13" r:id="rId13"/>
     <sheet name="AMCH06_PricingChangeTransaction" sheetId="14" r:id="rId14"/>
+    <sheet name="CRED07_UpfrontFee_Payment" sheetId="15" r:id="rId15"/>
+    <sheet name="TRPO12_PortfolioSettledDisc" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="669">
   <si>
     <t>rowid</t>
   </si>
@@ -2008,6 +2010,48 @@
   </si>
   <si>
     <t>StartDate</t>
+  </si>
+  <si>
+    <t>CRED07_UpfrontFee_Payment_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>UpfrontFee_Amount</t>
+  </si>
+  <si>
+    <t>UpfrontFee_EffectiveDate</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_Comment</t>
+  </si>
+  <si>
+    <t>450,000.00</t>
+  </si>
+  <si>
+    <t>Establishment/Extension Fee</t>
+  </si>
+  <si>
+    <t>Collect Extension Fee</t>
+  </si>
+  <si>
+    <t>AdjustmentSelection</t>
+  </si>
+  <si>
+    <t>GL_ShortName</t>
+  </si>
+  <si>
+    <t>GL_Offset_Type</t>
+  </si>
+  <si>
+    <t>Portfolio Settled Discount Change</t>
+  </si>
+  <si>
+    <t>Fees Held Awaiting Dispos.</t>
+  </si>
+  <si>
+    <t>Existing WIP</t>
+  </si>
+  <si>
+    <t>TRPO12_PortfolioSettledDisc_LBT_BILAT</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2063,7 @@
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2190,6 +2234,13 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2327,7 +2378,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
@@ -2336,8 +2387,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2676,8 +2728,24 @@
     <xf numFmtId="49" fontId="16" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2686,6 +2754,7 @@
     <cellStyle name="Normal 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 6" xfId="8" xr:uid="{F88E38C1-A251-473A-A7E8-BE434913932D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4252,7 +4321,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C17" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4348,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3BEDDB-0147-4BDF-B885-D6884E6AA02D}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4521,10 +4590,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1096B-A9B4-484E-ABE1-8CDDD69771E0}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4539,11 +4608,11 @@
     <col min="9" max="9" width="23.140625" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
@@ -4568,23 +4637,28 @@
       <c r="H1" s="128" t="s">
         <v>477</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="160" t="s">
         <v>634</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="160" t="s">
         <v>635</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="160" t="s">
         <v>637</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="160" t="s">
         <v>640</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="160" t="s">
         <v>641</v>
       </c>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
     </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
         <v>73</v>
       </c>
@@ -4629,6 +4703,135 @@
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E0E58B-C532-4A3E-ABA6-43ABFFAB6AFB}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="128" t="s">
+        <v>656</v>
+      </c>
+      <c r="D1" s="128" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1" s="128" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1" s="128" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" s="162" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" s="164" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49E67AD-F387-4F11-86AD-4FE612201347}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="173" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="173" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="173" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="173" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="173" customWidth="1"/>
+    <col min="6" max="48" width="8.7109375" style="173" customWidth="1"/>
+    <col min="49" max="16384" width="8.7109375" style="173"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="170" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="169" t="s">
+        <v>662</v>
+      </c>
+      <c r="D1" s="170" t="s">
+        <v>663</v>
+      </c>
+      <c r="E1" s="170" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="171" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="172" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" s="172" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="173" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2" s="173" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4641,8 +4844,8 @@
   <dimension ref="A1:CT3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO2" sqref="AO2"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4677,9 +4880,9 @@
     <col min="31" max="31" width="23" style="7" customWidth="1"/>
     <col min="32" max="32" width="20.42578125" style="7" customWidth="1"/>
     <col min="33" max="33" width="27.140625" style="7" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" style="7" customWidth="1"/>
-    <col min="35" max="35" width="19.28515625" style="7" customWidth="1"/>
-    <col min="36" max="36" width="24.7109375" style="7" customWidth="1"/>
+    <col min="34" max="34" width="25.5703125" style="7" customWidth="1"/>
+    <col min="35" max="35" width="38.42578125" style="7" customWidth="1"/>
+    <col min="36" max="36" width="40.28515625" style="7" customWidth="1"/>
     <col min="37" max="37" width="25" style="7" customWidth="1"/>
     <col min="38" max="38" width="24.42578125" style="7" customWidth="1"/>
     <col min="39" max="39" width="43.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -4741,131 +4944,131 @@
     <col min="98" max="98" width="23.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:42" s="166" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="166" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="166" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="166" t="s">
         <v>148</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="166" t="s">
         <v>150</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AG1" s="166" t="s">
         <v>155</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AH1" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AI1" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AJ1" s="166" t="s">
         <v>158</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AL1" s="166" t="s">
         <v>160</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="168" t="s">
         <v>161</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="168" t="s">
         <v>162</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="168" t="s">
         <v>163</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="168" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5005,7 +5208,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5014,7 +5217,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5640,8 +5843,8 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N12" sqref="N12"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7490,8 +7693,8 @@
   </sheetPr>
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5563570-1737-4602-BEC8-57494BF0C327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD5B24-F46C-45E0-94AB-C953BC401AF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,12 @@
     <sheet name="CRED07_UpfrontFee_Payment" sheetId="15" r:id="rId15"/>
     <sheet name="TRPO12_PortfolioSettledDisc" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="679">
   <si>
     <t>rowid</t>
   </si>
@@ -1763,6 +1753,12 @@
     <t>Expected_InterestAmt_LoanE</t>
   </si>
   <si>
+    <t>Expected_InterestAmt_LoanABCDE</t>
+  </si>
+  <si>
+    <t>Expected_InterestAmt_LoanF</t>
+  </si>
+  <si>
     <t>Effective_Date</t>
   </si>
   <si>
@@ -1853,177 +1849,201 @@
     <t>14-Apr-2020</t>
   </si>
   <si>
+    <t>SERV40_ComprehensiveRepricing_LBT_BILAT_COMBINE_ABCDEF</t>
+  </si>
+  <si>
+    <t>935,900,000.00</t>
+  </si>
+  <si>
+    <t>1,147,080.89</t>
+  </si>
+  <si>
+    <t>134,559.77</t>
+  </si>
+  <si>
+    <t>15-May-2020</t>
+  </si>
+  <si>
+    <t>14-May-2020</t>
+  </si>
+  <si>
+    <t>0.142500%</t>
+  </si>
+  <si>
+    <t>1.192500%</t>
+  </si>
+  <si>
+    <t>Cycle_No</t>
+  </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>Current_Cycle_Due</t>
+  </si>
+  <si>
+    <t>Projected_Cycle_Due</t>
+  </si>
+  <si>
+    <t>Requested_Amount</t>
+  </si>
+  <si>
+    <t>Accrual_Comment</t>
+  </si>
+  <si>
+    <t>WIPTransaction_Type</t>
+  </si>
+  <si>
+    <t>FacilitiesTransaction_Type</t>
+  </si>
+  <si>
     <t>MTAM06_AccrualsAdjustment_LBT_BILAT</t>
   </si>
   <si>
-    <t>Cycle_No</t>
-  </si>
-  <si>
-    <t>Start_Date</t>
-  </si>
-  <si>
-    <t>End_Date</t>
-  </si>
-  <si>
-    <t>Current_Cycle_Due</t>
-  </si>
-  <si>
-    <t>Projected_Cycle_Due</t>
-  </si>
-  <si>
     <t>5,830,548.49</t>
   </si>
   <si>
-    <t>Requested_Amount</t>
-  </si>
-  <si>
-    <t>Accrual_Comment</t>
-  </si>
-  <si>
     <t>-5,589,974.67</t>
   </si>
   <si>
     <t>Accrual Share Adjustment (Fee is calculated based on average utilisation)</t>
   </si>
   <si>
-    <t>WIPTransaction_Type</t>
-  </si>
-  <si>
-    <t>FacilitiesTransaction_Type</t>
-  </si>
-  <si>
     <t>Facilities</t>
   </si>
   <si>
     <t>Fee Accrual Shares Adjustment</t>
   </si>
   <si>
+    <t>ExpectedCycleDueAmt</t>
+  </si>
+  <si>
+    <t>AfterPayment_CycleDueAmt</t>
+  </si>
+  <si>
+    <t>AfterPayment_PaidToDate</t>
+  </si>
+  <si>
+    <t>AfterPayment_Projected_EOCAccrual</t>
+  </si>
+  <si>
+    <t>AfterPayment_Projected_EOCDue</t>
+  </si>
+  <si>
     <t>SERV21_FeePayment_LBT_BILAT</t>
   </si>
   <si>
     <t>Fee Payment</t>
   </si>
   <si>
-    <t>ExpectedCycleDueAmt</t>
-  </si>
-  <si>
     <t>240,573.82</t>
   </si>
   <si>
-    <t>AfterPayment_CycleDueAmt</t>
-  </si>
-  <si>
-    <t>AfterPayment_PaidToDate</t>
-  </si>
-  <si>
-    <t>AfterPayment_Projected_EOCAccrual</t>
-  </si>
-  <si>
-    <t>AfterPayment_Projected_EOCDue</t>
+    <t>New_ExpiryDate</t>
+  </si>
+  <si>
+    <t>MaturityDate</t>
+  </si>
+  <si>
+    <t>New_ActualDueDate</t>
+  </si>
+  <si>
+    <t>New_AdjustedDueDate</t>
+  </si>
+  <si>
+    <t>New_Accrue</t>
+  </si>
+  <si>
+    <t>New_AccrualEndDate</t>
+  </si>
+  <si>
+    <t>New_CycleFrequency</t>
+  </si>
+  <si>
+    <t>New_EffectiveDate</t>
+  </si>
+  <si>
+    <t>StartDate</t>
   </si>
   <si>
     <t>AMCH5_FacilityChangeTransaction_LBT_BILAT</t>
   </si>
   <si>
-    <t>New_ExpiryDate</t>
-  </si>
-  <si>
-    <t>MaturityDate</t>
+    <t>CommitmentFee_Amendment_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>15-May-2023</t>
+  </si>
+  <si>
+    <t>14-May-2023</t>
+  </si>
+  <si>
+    <t>15-May-2019</t>
+  </si>
+  <si>
+    <t>14-May-2019</t>
+  </si>
+  <si>
+    <t>PricingChange_TransactionNo</t>
+  </si>
+  <si>
+    <t>PricingChange_EffectiveDate</t>
+  </si>
+  <si>
+    <t>PricingChange_Desc</t>
+  </si>
+  <si>
+    <t>Facility_Item</t>
+  </si>
+  <si>
+    <t>Facility_Item_After</t>
+  </si>
+  <si>
+    <t>Facility_Percent</t>
+  </si>
+  <si>
+    <t>OngoingFee_NewRate</t>
+  </si>
+  <si>
+    <t>PricingFormula_InEffect</t>
+  </si>
+  <si>
+    <t>Current_Rate</t>
   </si>
   <si>
     <t>AMCH06_PricingChangeTransaction_LBT_BILAT</t>
   </si>
   <si>
-    <t>PricingChange_TransactionNo</t>
-  </si>
-  <si>
-    <t>PricingChange_EffectiveDate</t>
-  </si>
-  <si>
-    <t>PricingChange_Desc</t>
-  </si>
-  <si>
     <t>Update ongoing fee pricing (facility extension)</t>
   </si>
   <si>
-    <t>Facility_Item</t>
-  </si>
-  <si>
-    <t>Facility_Item_After</t>
-  </si>
-  <si>
-    <t>Facility_Percent</t>
-  </si>
-  <si>
     <t>0.410000</t>
   </si>
   <si>
-    <t>OngoingFee_NewRate</t>
-  </si>
-  <si>
     <t>0.41%</t>
   </si>
   <si>
     <t>Unutilized  X Rate (0.41%)</t>
   </si>
   <si>
-    <t>PricingFormula_InEffect</t>
-  </si>
-  <si>
-    <t>Current_Rate</t>
-  </si>
-  <si>
     <t>0.410000%</t>
   </si>
   <si>
-    <t>CommitmentFee_Amendment_LBT_BILAT</t>
-  </si>
-  <si>
-    <t>New_ActualDueDate</t>
-  </si>
-  <si>
-    <t>New_AdjustedDueDate</t>
-  </si>
-  <si>
-    <t>New_Accrue</t>
-  </si>
-  <si>
-    <t>New_AccrualEndDate</t>
-  </si>
-  <si>
-    <t>New_CycleFrequency</t>
-  </si>
-  <si>
-    <t>15-May-2023</t>
-  </si>
-  <si>
-    <t>15-May-2019</t>
-  </si>
-  <si>
-    <t>14-May-2023</t>
-  </si>
-  <si>
-    <t>14-May-2019</t>
-  </si>
-  <si>
-    <t>New_EffectiveDate</t>
-  </si>
-  <si>
-    <t>StartDate</t>
+    <t>UpfrontFee_Amount</t>
+  </si>
+  <si>
+    <t>UpfrontFee_EffectiveDate</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_Comment</t>
   </si>
   <si>
     <t>CRED07_UpfrontFee_Payment_LBT_BILAT</t>
   </si>
   <si>
-    <t>UpfrontFee_Amount</t>
-  </si>
-  <si>
-    <t>UpfrontFee_EffectiveDate</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_Comment</t>
-  </si>
-  <si>
     <t>450,000.00</t>
   </si>
   <si>
@@ -2042,6 +2062,9 @@
     <t>GL_Offset_Type</t>
   </si>
   <si>
+    <t>TRPO12_PortfolioSettledDisc_LBT_BILAT</t>
+  </si>
+  <si>
     <t>Portfolio Settled Discount Change</t>
   </si>
   <si>
@@ -2049,9 +2072,6 @@
   </si>
   <si>
     <t>Existing WIP</t>
-  </si>
-  <si>
-    <t>TRPO12_PortfolioSettledDisc_LBT_BILAT</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2083,7 @@
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2218,21 +2238,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -2389,7 +2399,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2496,9 +2506,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2709,9 +2716,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2740,10 +2746,11 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2754,7 +2761,7 @@
     <cellStyle name="Normal 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 6" xfId="8" xr:uid="{F88E38C1-A251-473A-A7E8-BE434913932D}"/>
+    <cellStyle name="Normal 6" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3664,526 +3671,649 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="135" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="135" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="135" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="135" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="135" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="135" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="135" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="135" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="135" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" style="135" customWidth="1"/>
-    <col min="11" max="16" width="39.5703125" style="135" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="135" customWidth="1"/>
-    <col min="18" max="18" width="18" style="135" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" style="135" customWidth="1"/>
-    <col min="20" max="20" width="26.28515625" style="135" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" style="135" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" style="135" customWidth="1"/>
-    <col min="23" max="23" width="24.5703125" style="135" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" style="135" customWidth="1"/>
-    <col min="25" max="25" width="23.140625" style="135" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" style="135" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" style="135" customWidth="1"/>
-    <col min="28" max="28" width="25.5703125" style="135" customWidth="1"/>
-    <col min="29" max="29" width="30.140625" style="135" customWidth="1"/>
-    <col min="30" max="30" width="28.28515625" style="135" customWidth="1"/>
-    <col min="31" max="31" width="28.5703125" style="135" customWidth="1"/>
-    <col min="32" max="32" width="29.140625" style="135" customWidth="1"/>
-    <col min="33" max="33" width="26.7109375" style="135" customWidth="1"/>
-    <col min="34" max="34" width="34.42578125" style="135" customWidth="1"/>
-    <col min="35" max="35" width="23.85546875" style="135" customWidth="1"/>
-    <col min="36" max="36" width="22.5703125" style="135" customWidth="1"/>
-    <col min="37" max="44" width="9.140625" style="135" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="135"/>
+    <col min="1" max="1" width="6.5703125" style="134" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="134" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="134" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="134" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="134" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="134" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" style="134" customWidth="1"/>
+    <col min="11" max="18" width="39.5703125" style="134" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" style="134" customWidth="1"/>
+    <col min="20" max="20" width="18" style="134" customWidth="1"/>
+    <col min="21" max="21" width="25.5703125" style="134" customWidth="1"/>
+    <col min="22" max="22" width="26.28515625" style="134" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="134" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" style="134" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" style="134" customWidth="1"/>
+    <col min="26" max="26" width="20.140625" style="134" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="134" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="134" customWidth="1"/>
+    <col min="29" max="29" width="22.28515625" style="134" customWidth="1"/>
+    <col min="30" max="30" width="25.5703125" style="134" customWidth="1"/>
+    <col min="31" max="31" width="30.140625" style="134" customWidth="1"/>
+    <col min="32" max="32" width="28.28515625" style="134" customWidth="1"/>
+    <col min="33" max="33" width="28.5703125" style="134" customWidth="1"/>
+    <col min="34" max="34" width="29.140625" style="134" customWidth="1"/>
+    <col min="35" max="35" width="26.7109375" style="134" customWidth="1"/>
+    <col min="36" max="36" width="34.42578125" style="134" customWidth="1"/>
+    <col min="37" max="37" width="23.85546875" style="134" customWidth="1"/>
+    <col min="38" max="38" width="22.5703125" style="134" customWidth="1"/>
+    <col min="39" max="47" width="9.140625" style="134" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="128" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:38" s="127" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="127" t="s">
         <v>559</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="128" t="s">
         <v>560</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="129" t="s">
         <v>561</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="127" t="s">
         <v>562</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="127" t="s">
         <v>563</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="127" t="s">
         <v>323</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="127" t="s">
         <v>564</v>
       </c>
-      <c r="J1" s="128" t="s">
+      <c r="J1" s="127" t="s">
         <v>565</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="127" t="s">
         <v>566</v>
       </c>
-      <c r="L1" s="128" t="s">
+      <c r="L1" s="127" t="s">
         <v>567</v>
       </c>
-      <c r="M1" s="128" t="s">
+      <c r="M1" s="127" t="s">
         <v>568</v>
       </c>
-      <c r="N1" s="128" t="s">
+      <c r="N1" s="127" t="s">
         <v>569</v>
       </c>
-      <c r="O1" s="128" t="s">
+      <c r="O1" s="127" t="s">
         <v>570</v>
       </c>
-      <c r="P1" s="128" t="s">
+      <c r="P1" s="127" t="s">
         <v>571</v>
       </c>
-      <c r="Q1" s="130" t="s">
+      <c r="Q1" s="127" t="s">
         <v>572</v>
       </c>
-      <c r="R1" s="130" t="s">
+      <c r="R1" s="127" t="s">
         <v>573</v>
       </c>
-      <c r="S1" s="130" t="s">
+      <c r="S1" s="129" t="s">
         <v>574</v>
       </c>
-      <c r="T1" s="128" t="s">
+      <c r="T1" s="129" t="s">
         <v>575</v>
       </c>
-      <c r="U1" s="128" t="s">
+      <c r="U1" s="129" t="s">
+        <v>576</v>
+      </c>
+      <c r="V1" s="127" t="s">
+        <v>577</v>
+      </c>
+      <c r="W1" s="127" t="s">
         <v>332</v>
       </c>
-      <c r="V1" s="128" t="s">
-        <v>576</v>
-      </c>
-      <c r="W1" s="128" t="s">
-        <v>577</v>
-      </c>
-      <c r="X1" s="128" t="s">
+      <c r="X1" s="127" t="s">
         <v>578</v>
       </c>
-      <c r="Y1" s="128" t="s">
+      <c r="Y1" s="127" t="s">
         <v>579</v>
       </c>
-      <c r="Z1" s="128" t="s">
+      <c r="Z1" s="127" t="s">
         <v>580</v>
       </c>
-      <c r="AA1" s="138" t="s">
+      <c r="AA1" s="127" t="s">
         <v>581</v>
       </c>
-      <c r="AB1" s="139" t="s">
+      <c r="AB1" s="127" t="s">
+        <v>582</v>
+      </c>
+      <c r="AC1" s="137" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD1" s="138" t="s">
         <v>336</v>
       </c>
-      <c r="AC1" s="128" t="s">
+      <c r="AE1" s="127" t="s">
         <v>341</v>
       </c>
-      <c r="AD1" s="128" t="s">
+      <c r="AF1" s="127" t="s">
         <v>342</v>
       </c>
-      <c r="AE1" s="128" t="s">
+      <c r="AG1" s="127" t="s">
         <v>343</v>
       </c>
-      <c r="AF1" s="128" t="s">
+      <c r="AH1" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="AG1" s="128" t="s">
-        <v>582</v>
-      </c>
-      <c r="AH1" s="128" t="s">
+      <c r="AI1" s="127" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ1" s="127" t="s">
         <v>345</v>
       </c>
-      <c r="AI1" s="128" t="s">
+      <c r="AK1" s="127" t="s">
         <v>346</v>
       </c>
-      <c r="AJ1" s="128" t="s">
+      <c r="AL1" s="127" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:38" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="132" t="s">
-        <v>583</v>
-      </c>
-      <c r="C2" s="133" t="s">
+      <c r="B2" s="131" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="132" t="s">
-        <v>584</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>585</v>
-      </c>
-      <c r="F2" s="133" t="s">
+      <c r="D2" s="131" t="s">
         <v>586</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="E2" s="151" t="s">
         <v>587</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="F2" s="132" t="s">
+        <v>588</v>
+      </c>
+      <c r="G2" s="132" t="s">
+        <v>589</v>
+      </c>
+      <c r="H2" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="151" t="s">
+        <v>590</v>
+      </c>
+      <c r="K2" s="151" t="s">
+        <v>591</v>
+      </c>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="139" t="s">
+        <v>376</v>
+      </c>
+      <c r="T2" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="U2" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="V2" s="139" t="s">
+        <v>393</v>
+      </c>
+      <c r="W2" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="X2" s="133" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y2" s="139" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z2" s="139" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA2" s="133" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB2" s="139" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC2" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="136" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE2" s="151" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF2" s="151" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG2" s="151" t="s">
+        <v>587</v>
+      </c>
+      <c r="AH2" s="151" t="s">
+        <v>587</v>
+      </c>
+      <c r="AI2" s="133" t="s">
+        <v>550</v>
+      </c>
+      <c r="AJ2" s="80" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK2" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL2" s="80" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="130" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="131" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>593</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>594</v>
+      </c>
+      <c r="F3" s="132" t="s">
         <v>588</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="G3" s="132" t="s">
         <v>589</v>
       </c>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="140" t="s">
-        <v>376</v>
-      </c>
-      <c r="R2" s="83" t="s">
+      <c r="H3" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="151" t="s">
+        <v>595</v>
+      </c>
+      <c r="M3" s="151" t="s">
+        <v>596</v>
+      </c>
+      <c r="N3" s="151" t="s">
+        <v>597</v>
+      </c>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="139" t="s">
+        <v>393</v>
+      </c>
+      <c r="T3" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="U3" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="T2" s="140" t="s">
-        <v>393</v>
-      </c>
-      <c r="U2" s="134" t="s">
+      <c r="V3" s="139" t="s">
+        <v>403</v>
+      </c>
+      <c r="W3" s="133" t="s">
         <v>358</v>
       </c>
-      <c r="V2" s="134" t="s">
+      <c r="X3" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="W2" s="140" t="s">
-        <v>393</v>
-      </c>
-      <c r="X2" s="140" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y2" s="134" t="s">
+      <c r="Y3" s="139" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z3" s="139" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA3" s="133" t="s">
         <v>355</v>
       </c>
-      <c r="Z2" s="140" t="s">
-        <v>415</v>
-      </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AB3" s="139" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC3" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" s="137" t="s">
+      <c r="AD3" s="136" t="s">
         <v>319</v>
       </c>
-      <c r="AC2" s="74" t="s">
-        <v>585</v>
-      </c>
-      <c r="AD2" s="74" t="s">
-        <v>585</v>
-      </c>
-      <c r="AE2" s="74" t="s">
-        <v>585</v>
-      </c>
-      <c r="AF2" s="74" t="s">
-        <v>585</v>
-      </c>
-      <c r="AG2" s="134" t="s">
+      <c r="AE3" s="151" t="s">
+        <v>594</v>
+      </c>
+      <c r="AF3" s="151" t="s">
+        <v>594</v>
+      </c>
+      <c r="AG3" s="151" t="s">
+        <v>594</v>
+      </c>
+      <c r="AH3" s="151" t="s">
+        <v>594</v>
+      </c>
+      <c r="AI3" s="133" t="s">
         <v>550</v>
       </c>
-      <c r="AH2" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI2" s="81" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ2" s="81" t="s">
-        <v>380</v>
+      <c r="AJ3" s="80" t="s">
+        <v>396</v>
+      </c>
+      <c r="AK3" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="AL3" s="80" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="132" t="s">
-        <v>590</v>
-      </c>
-      <c r="C3" s="133" t="s">
+    <row r="4" spans="1:38" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="130" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="132" t="s">
-        <v>591</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>592</v>
-      </c>
-      <c r="F3" s="133" t="s">
-        <v>586</v>
-      </c>
-      <c r="G3" s="133" t="s">
-        <v>587</v>
-      </c>
-      <c r="H3" s="133" t="s">
+      <c r="D4" s="131" t="s">
+        <v>599</v>
+      </c>
+      <c r="E4" s="151" t="s">
+        <v>600</v>
+      </c>
+      <c r="F4" s="132" t="s">
+        <v>588</v>
+      </c>
+      <c r="G4" s="132" t="s">
+        <v>589</v>
+      </c>
+      <c r="H4" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I4" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="74" t="s">
-        <v>593</v>
-      </c>
-      <c r="M3" s="74" t="s">
-        <v>594</v>
-      </c>
-      <c r="N3" s="74" t="s">
-        <v>595</v>
-      </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="140" t="s">
-        <v>393</v>
-      </c>
-      <c r="R3" s="83" t="s">
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="151" t="s">
+        <v>601</v>
+      </c>
+      <c r="P4" s="151" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="139" t="s">
+        <v>403</v>
+      </c>
+      <c r="T4" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="S3" s="63" t="s">
+      <c r="U4" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="T3" s="140" t="s">
-        <v>403</v>
-      </c>
-      <c r="U3" s="134" t="s">
+      <c r="V4" s="139" t="s">
+        <v>420</v>
+      </c>
+      <c r="W4" s="133" t="s">
         <v>358</v>
       </c>
-      <c r="V3" s="134" t="s">
+      <c r="X4" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="W3" s="140" t="s">
-        <v>403</v>
-      </c>
-      <c r="X3" s="140" t="s">
-        <v>403</v>
-      </c>
-      <c r="Y3" s="134" t="s">
+      <c r="Y4" s="139" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z4" s="139" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA4" s="133" t="s">
         <v>355</v>
       </c>
-      <c r="Z3" s="140" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AB4" s="139" t="s">
+        <v>603</v>
+      </c>
+      <c r="AC4" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AB3" s="137" t="s">
+      <c r="AD4" s="136" t="s">
         <v>319</v>
       </c>
-      <c r="AC3" s="74" t="s">
-        <v>592</v>
-      </c>
-      <c r="AD3" s="74" t="s">
-        <v>592</v>
-      </c>
-      <c r="AE3" s="74" t="s">
-        <v>592</v>
-      </c>
-      <c r="AF3" s="74" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG3" s="134" t="s">
+      <c r="AE4" s="151" t="s">
+        <v>600</v>
+      </c>
+      <c r="AF4" s="151" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG4" s="151" t="s">
+        <v>600</v>
+      </c>
+      <c r="AH4" s="151" t="s">
+        <v>600</v>
+      </c>
+      <c r="AI4" s="133" t="s">
         <v>550</v>
       </c>
-      <c r="AH3" s="81" t="s">
-        <v>396</v>
-      </c>
-      <c r="AI3" s="81" t="s">
+      <c r="AJ4" s="80" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK4" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="AJ3" s="81" t="s">
-        <v>398</v>
+      <c r="AL4" s="80" t="s">
+        <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="134" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>596</v>
-      </c>
-      <c r="C4" s="133" t="s">
+    <row r="5" spans="1:38" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="130" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>604</v>
+      </c>
+      <c r="C5" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="132" t="s">
-        <v>597</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>598</v>
-      </c>
-      <c r="F4" s="133" t="s">
-        <v>586</v>
-      </c>
-      <c r="G4" s="133" t="s">
-        <v>587</v>
-      </c>
-      <c r="H4" s="133" t="s">
+      <c r="D5" s="131">
+        <v>60003040</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" s="132" t="s">
+        <v>588</v>
+      </c>
+      <c r="G5" s="132" t="s">
+        <v>589</v>
+      </c>
+      <c r="H5" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="136" t="s">
+      <c r="I5" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="74" t="s">
-        <v>599</v>
-      </c>
-      <c r="P4" s="74" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q4" s="140" t="s">
-        <v>403</v>
-      </c>
-      <c r="R4" s="83" t="s">
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="151" t="s">
+        <v>606</v>
+      </c>
+      <c r="R5" s="151" t="s">
+        <v>607</v>
+      </c>
+      <c r="S5" s="139" t="s">
+        <v>420</v>
+      </c>
+      <c r="T5" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="U5" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="T4" s="140" t="s">
-        <v>420</v>
-      </c>
-      <c r="U4" s="134" t="s">
+      <c r="V5" s="139" t="s">
+        <v>608</v>
+      </c>
+      <c r="W5" s="133" t="s">
         <v>358</v>
       </c>
-      <c r="V4" s="134" t="s">
+      <c r="X5" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="W4" s="140" t="s">
-        <v>420</v>
-      </c>
-      <c r="X4" s="140" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y4" s="134" t="s">
+      <c r="Y5" s="139" t="s">
+        <v>608</v>
+      </c>
+      <c r="Z5" s="139" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA5" s="133" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" s="140" t="s">
-        <v>601</v>
-      </c>
-      <c r="AA4" s="26" t="s">
+      <c r="AB5" s="139" t="s">
+        <v>609</v>
+      </c>
+      <c r="AC5" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AB4" s="137" t="s">
+      <c r="AD5" s="136" t="s">
         <v>319</v>
       </c>
-      <c r="AC4" s="74" t="s">
-        <v>598</v>
-      </c>
-      <c r="AD4" s="74" t="s">
-        <v>598</v>
-      </c>
-      <c r="AE4" s="74" t="s">
-        <v>598</v>
-      </c>
-      <c r="AF4" s="74" t="s">
-        <v>598</v>
-      </c>
-      <c r="AG4" s="134" t="s">
+      <c r="AE5" s="151" t="s">
+        <v>605</v>
+      </c>
+      <c r="AF5" s="151" t="s">
+        <v>605</v>
+      </c>
+      <c r="AG5" s="151" t="s">
+        <v>605</v>
+      </c>
+      <c r="AH5" s="151" t="s">
+        <v>605</v>
+      </c>
+      <c r="AI5" s="133" t="s">
         <v>550</v>
       </c>
-      <c r="AH4" s="81" t="s">
-        <v>405</v>
-      </c>
-      <c r="AI4" s="81" t="s">
+      <c r="AJ5" s="80" t="s">
+        <v>610</v>
+      </c>
+      <c r="AK5" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="AJ4" s="81" t="s">
-        <v>406</v>
+      <c r="AL5" s="80" t="s">
+        <v>611</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="151"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="151"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="151"/>
-      <c r="AE5" s="151"/>
-      <c r="AF5" s="151"/>
-      <c r="AG5" s="151"/>
-      <c r="AH5" s="151"/>
-      <c r="AI5" s="151"/>
-      <c r="AJ5" s="151"/>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="172"/>
+      <c r="Y6" s="172"/>
+      <c r="Z6" s="172"/>
+      <c r="AA6" s="172"/>
+      <c r="AB6" s="172"/>
+      <c r="AC6" s="172"/>
+      <c r="AD6" s="172"/>
+      <c r="AE6" s="172"/>
+      <c r="AF6" s="172"/>
+      <c r="AG6" s="172"/>
+      <c r="AH6" s="172"/>
+      <c r="AI6" s="172"/>
+      <c r="AJ6" s="172"/>
+      <c r="AK6" s="172"/>
+      <c r="AL6" s="172"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B9" s="85" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B9" s="84" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B11" s="90" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B11" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="C11" s="130" t="s">
-        <v>573</v>
+      <c r="C11" s="129" t="s">
+        <v>575</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B12" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="82" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B13" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="82" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B14" s="62" t="s">
         <v>413</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="82" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B15" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="82" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4194,7 +4324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B496FDB7-3D0D-4B65-860F-A273DA2E3E61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4203,66 +4333,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="144" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="144" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="143" customWidth="1"/>
+    <col min="3" max="4" width="27.7109375" style="143" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" style="143" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="143" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="143" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" style="143" customWidth="1"/>
+    <col min="10" max="11" width="24.7109375" style="143" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" style="143" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="128" t="s">
-        <v>603</v>
-      </c>
-      <c r="E1" s="128" t="s">
-        <v>604</v>
-      </c>
-      <c r="F1" s="128" t="s">
-        <v>605</v>
-      </c>
-      <c r="G1" s="128" t="s">
-        <v>606</v>
-      </c>
-      <c r="H1" s="128" t="s">
-        <v>607</v>
-      </c>
-      <c r="I1" s="128" t="s">
-        <v>609</v>
-      </c>
-      <c r="J1" s="128" t="s">
-        <v>610</v>
-      </c>
-      <c r="K1" s="128" t="s">
-        <v>572</v>
-      </c>
-      <c r="L1" s="152" t="s">
+      <c r="D1" s="127" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1" s="127" t="s">
         <v>613</v>
       </c>
-      <c r="M1" s="152" t="s">
+      <c r="F1" s="127" t="s">
         <v>614</v>
       </c>
+      <c r="G1" s="127" t="s">
+        <v>615</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>616</v>
+      </c>
+      <c r="I1" s="127" t="s">
+        <v>617</v>
+      </c>
+      <c r="J1" s="127" t="s">
+        <v>618</v>
+      </c>
+      <c r="K1" s="127" t="s">
+        <v>574</v>
+      </c>
+      <c r="L1" s="150" t="s">
+        <v>619</v>
+      </c>
+      <c r="M1" s="150" t="s">
+        <v>620</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="132" t="s">
-        <v>602</v>
+      <c r="B2" s="131" t="s">
+        <v>621</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>186</v>
@@ -4270,54 +4398,46 @@
       <c r="D2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="140" t="s">
+      <c r="E2" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="139" t="s">
         <v>296</v>
       </c>
-      <c r="G2" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="H2" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="I2" s="74" t="s">
-        <v>611</v>
-      </c>
-      <c r="J2" s="153" t="s">
-        <v>612</v>
-      </c>
-      <c r="K2" s="140" t="s">
+      <c r="G2" s="151" t="s">
+        <v>622</v>
+      </c>
+      <c r="H2" s="151" t="s">
+        <v>622</v>
+      </c>
+      <c r="I2" s="151" t="s">
+        <v>623</v>
+      </c>
+      <c r="J2" s="151" t="s">
+        <v>624</v>
+      </c>
+      <c r="K2" s="139" t="s">
         <v>296</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60D4C65-EE5F-400B-9331-53B33679E253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4326,70 +4446,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="143" customWidth="1"/>
+    <col min="3" max="3" width="26" style="143" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="143" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="143" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="143" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="143" customWidth="1"/>
+    <col min="8" max="8" width="31" style="143" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="143" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" style="143" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="127" t="s">
         <v>421</v>
       </c>
-      <c r="E1" s="128" t="s">
-        <v>619</v>
-      </c>
-      <c r="F1" s="128" t="s">
-        <v>572</v>
-      </c>
-      <c r="G1" s="128" t="s">
-        <v>603</v>
-      </c>
-      <c r="H1" s="128" t="s">
-        <v>621</v>
-      </c>
-      <c r="I1" s="128" t="s">
-        <v>622</v>
-      </c>
-      <c r="J1" s="128" t="s">
-        <v>623</v>
-      </c>
-      <c r="K1" s="128" t="s">
-        <v>624</v>
+      <c r="E1" s="127" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>574</v>
+      </c>
+      <c r="G1" s="127" t="s">
+        <v>612</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>628</v>
+      </c>
+      <c r="I1" s="127" t="s">
+        <v>629</v>
+      </c>
+      <c r="J1" s="127" t="s">
+        <v>630</v>
+      </c>
+      <c r="K1" s="127" t="s">
+        <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="132" t="s">
-        <v>617</v>
-      </c>
-      <c r="C2" s="154" t="s">
+      <c r="B2" s="131" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="154" t="s">
-        <v>618</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>620</v>
-      </c>
-      <c r="F2" s="140" t="s">
+      <c r="D2" s="152" t="s">
+        <v>633</v>
+      </c>
+      <c r="E2" s="151" t="s">
+        <v>634</v>
+      </c>
+      <c r="F2" s="139" t="s">
         <v>222</v>
       </c>
       <c r="G2" s="20" t="s">
@@ -4398,14 +4518,14 @@
       <c r="H2" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="I2" s="74" t="s">
-        <v>620</v>
-      </c>
-      <c r="J2" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="K2" s="74" t="s">
-        <v>620</v>
+      <c r="I2" s="151" t="s">
+        <v>634</v>
+      </c>
+      <c r="J2" s="151" t="s">
+        <v>622</v>
+      </c>
+      <c r="K2" s="151" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3BEDDB-0147-4BDF-B885-D6884E6AA02D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4423,173 +4543,170 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="59.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" style="143" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="143" customWidth="1"/>
+    <col min="4" max="4" width="24" style="143" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="143" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="143" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="143" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="143" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="143" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="143" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="143" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
-        <v>626</v>
-      </c>
-      <c r="D1" s="128" t="s">
-        <v>627</v>
-      </c>
-      <c r="E1" s="128" t="s">
+      <c r="C1" s="127" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1" s="127" t="s">
+        <v>636</v>
+      </c>
+      <c r="E1" s="127" t="s">
+        <v>637</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" s="127" t="s">
+        <v>639</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>640</v>
+      </c>
+      <c r="I1" s="127" t="s">
+        <v>641</v>
+      </c>
+      <c r="J1" s="127" t="s">
+        <v>642</v>
+      </c>
+      <c r="K1" s="127" t="s">
+        <v>612</v>
+      </c>
+      <c r="L1" s="127" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="131" t="s">
         <v>644</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="C2" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="130" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="131" t="s">
         <v>645</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="81" t="s">
         <v>646</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="F3" s="81" t="s">
+        <v>646</v>
+      </c>
+      <c r="G3" s="154" t="s">
+        <v>355</v>
+      </c>
+      <c r="H3" s="155" t="s">
         <v>647</v>
       </c>
-      <c r="I1" s="128" t="s">
-        <v>648</v>
-      </c>
-      <c r="J1" s="128" t="s">
-        <v>653</v>
-      </c>
-      <c r="K1" s="128" t="s">
-        <v>603</v>
-      </c>
-      <c r="L1" s="128" t="s">
-        <v>654</v>
+      <c r="I3" s="154" t="s">
+        <v>354</v>
+      </c>
+      <c r="J3" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="157" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="132" t="s">
-        <v>625</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="132" t="s">
-        <v>643</v>
-      </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="82" t="s">
-        <v>649</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>649</v>
-      </c>
-      <c r="G3" s="156" t="s">
-        <v>355</v>
-      </c>
-      <c r="H3" s="157" t="s">
-        <v>651</v>
-      </c>
-      <c r="I3" s="156" t="s">
-        <v>354</v>
-      </c>
-      <c r="J3" s="156" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="159" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="90" t="s">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="C13" s="128" t="s">
-        <v>626</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>627</v>
-      </c>
-      <c r="E13" s="128" t="s">
-        <v>644</v>
-      </c>
-      <c r="F13" s="128" t="s">
-        <v>645</v>
-      </c>
-      <c r="G13" s="128" t="s">
-        <v>647</v>
-      </c>
-      <c r="I13" s="144"/>
+      <c r="C13" s="127" t="s">
+        <v>635</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>636</v>
+      </c>
+      <c r="E13" s="127" t="s">
+        <v>637</v>
+      </c>
+      <c r="F13" s="127" t="s">
+        <v>638</v>
+      </c>
+      <c r="G13" s="127" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="I14" s="144"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="82" t="s">
-        <v>650</v>
-      </c>
-      <c r="F15" s="82" t="s">
-        <v>650</v>
-      </c>
-      <c r="G15" s="82" t="s">
-        <v>652</v>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="81" t="s">
+        <v>648</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>648</v>
+      </c>
+      <c r="G15" s="81" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D1096B-A9B4-484E-ABE1-8CDDD69771E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4598,81 +4715,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43" style="143" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="143" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="143" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="143" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="143" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="143" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="143" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="143" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="143" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="143" customWidth="1"/>
+    <col min="12" max="12" width="29" style="143" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
-        <v>629</v>
-      </c>
-      <c r="D1" s="128" t="s">
-        <v>630</v>
-      </c>
-      <c r="E1" s="128" t="s">
-        <v>631</v>
-      </c>
-      <c r="F1" s="128" t="s">
-        <v>633</v>
-      </c>
-      <c r="G1" s="128" t="s">
+      <c r="C1" s="127" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1" s="127" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1" s="127" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1" s="127" t="s">
         <v>497</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="127" t="s">
         <v>477</v>
       </c>
-      <c r="I1" s="160" t="s">
-        <v>634</v>
-      </c>
-      <c r="J1" s="160" t="s">
-        <v>635</v>
-      </c>
-      <c r="K1" s="160" t="s">
-        <v>637</v>
-      </c>
-      <c r="L1" s="160" t="s">
-        <v>640</v>
-      </c>
-      <c r="M1" s="160" t="s">
-        <v>641</v>
-      </c>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
+      <c r="I1" s="158" t="s">
+        <v>654</v>
+      </c>
+      <c r="J1" s="158" t="s">
+        <v>655</v>
+      </c>
+      <c r="K1" s="158" t="s">
+        <v>656</v>
+      </c>
+      <c r="L1" s="158" t="s">
+        <v>657</v>
+      </c>
+      <c r="M1" s="158" t="s">
+        <v>658</v>
+      </c>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="132" t="s">
-        <v>628</v>
-      </c>
-      <c r="C2" s="131" t="s">
+      <c r="B2" s="131" t="s">
+        <v>659</v>
+      </c>
+      <c r="C2" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="139" t="s">
         <v>222</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>271</v>
@@ -4687,27 +4804,26 @@
         <v>276</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E0E58B-C532-4A3E-ABA6-43ABFFAB6AFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4716,51 +4832,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40" style="143" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="143" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="143" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="143" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
-        <v>656</v>
-      </c>
-      <c r="D1" s="128" t="s">
-        <v>657</v>
-      </c>
-      <c r="E1" s="128" t="s">
+      <c r="C1" s="127" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1" s="127" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1" s="127" t="s">
         <v>497</v>
       </c>
-      <c r="F1" s="128" t="s">
-        <v>658</v>
+      <c r="F1" s="127" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="161" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>655</v>
-      </c>
-      <c r="C2" s="162" t="s">
-        <v>659</v>
-      </c>
-      <c r="D2" s="164" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" s="160" t="s">
+        <v>669</v>
+      </c>
+      <c r="D2" s="162" t="s">
         <v>222</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -4769,7 +4885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49E67AD-F387-4F11-86AD-4FE612201347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4781,53 +4897,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="173" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="173" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="173" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="173" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="173" customWidth="1"/>
-    <col min="6" max="48" width="8.7109375" style="173" customWidth="1"/>
-    <col min="49" max="16384" width="8.7109375" style="173"/>
+    <col min="1" max="1" width="5.85546875" style="171" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="171" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="171" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="171" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="171" customWidth="1"/>
+    <col min="6" max="49" width="8.7109375" style="171" customWidth="1"/>
+    <col min="50" max="16384" width="8.7109375" style="171"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="170" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+    <row r="1" spans="1:5" s="168" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="169" t="s">
-        <v>662</v>
-      </c>
-      <c r="D1" s="170" t="s">
-        <v>663</v>
-      </c>
-      <c r="E1" s="170" t="s">
-        <v>664</v>
+      <c r="C1" s="167" t="s">
+        <v>672</v>
+      </c>
+      <c r="D1" s="168" t="s">
+        <v>673</v>
+      </c>
+      <c r="E1" s="168" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="172" t="s">
-        <v>668</v>
-      </c>
-      <c r="C2" s="172" t="s">
-        <v>665</v>
-      </c>
-      <c r="D2" s="173" t="s">
-        <v>666</v>
-      </c>
-      <c r="E2" s="173" t="s">
-        <v>667</v>
+      <c r="B2" s="170" t="s">
+        <v>675</v>
+      </c>
+      <c r="C2" s="170" t="s">
+        <v>676</v>
+      </c>
+      <c r="D2" s="171" t="s">
+        <v>677</v>
+      </c>
+      <c r="E2" s="171" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4935,8 +5051,8 @@
     <col min="87" max="87" width="18.85546875" style="1" customWidth="1"/>
     <col min="88" max="88" width="26.28515625" style="7" customWidth="1"/>
     <col min="89" max="90" width="31.140625" style="7" customWidth="1"/>
-    <col min="91" max="91" width="40.7109375" style="144" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="15.85546875" style="144" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="40.7109375" style="143" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="15.85546875" style="143" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="20.42578125" style="7" customWidth="1"/>
     <col min="94" max="94" width="27.140625" style="7" customWidth="1"/>
     <col min="95" max="95" width="21.140625" style="7" customWidth="1"/>
@@ -4944,131 +5060,131 @@
     <col min="98" max="98" width="23.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="166" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+    <row r="1" spans="1:42" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="167" t="s">
+      <c r="E1" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="165" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="166" t="s">
+      <c r="G1" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="166" t="s">
+      <c r="H1" s="164" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="166" t="s">
+      <c r="I1" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="166" t="s">
+      <c r="J1" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="166" t="s">
+      <c r="K1" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="166" t="s">
+      <c r="L1" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="166" t="s">
+      <c r="M1" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="166" t="s">
+      <c r="N1" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="166" t="s">
+      <c r="O1" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="166" t="s">
+      <c r="P1" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="166" t="s">
+      <c r="Q1" s="164" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="166" t="s">
+      <c r="R1" s="164" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="166" t="s">
+      <c r="S1" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="166" t="s">
+      <c r="T1" s="164" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="166" t="s">
+      <c r="U1" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="166" t="s">
+      <c r="V1" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="166" t="s">
+      <c r="W1" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="166" t="s">
+      <c r="X1" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="Y1" s="166" t="s">
+      <c r="Y1" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="Z1" s="166" t="s">
+      <c r="Z1" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="AA1" s="166" t="s">
+      <c r="AA1" s="164" t="s">
         <v>149</v>
       </c>
-      <c r="AB1" s="166" t="s">
+      <c r="AB1" s="164" t="s">
         <v>150</v>
       </c>
-      <c r="AC1" s="166" t="s">
+      <c r="AC1" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="AD1" s="166" t="s">
+      <c r="AD1" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="AE1" s="166" t="s">
+      <c r="AE1" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="AF1" s="166" t="s">
+      <c r="AF1" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="AG1" s="166" t="s">
+      <c r="AG1" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="AH1" s="166" t="s">
+      <c r="AH1" s="164" t="s">
         <v>156</v>
       </c>
-      <c r="AI1" s="166" t="s">
+      <c r="AI1" s="164" t="s">
         <v>157</v>
       </c>
-      <c r="AJ1" s="166" t="s">
+      <c r="AJ1" s="164" t="s">
         <v>158</v>
       </c>
-      <c r="AK1" s="166" t="s">
+      <c r="AK1" s="164" t="s">
         <v>159</v>
       </c>
-      <c r="AL1" s="166" t="s">
+      <c r="AL1" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="AM1" s="168" t="s">
+      <c r="AM1" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="AN1" s="168" t="s">
+      <c r="AN1" s="166" t="s">
         <v>162</v>
       </c>
-      <c r="AO1" s="168" t="s">
+      <c r="AO1" s="166" t="s">
         <v>163</v>
       </c>
-      <c r="AP1" s="168" t="s">
+      <c r="AP1" s="166" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5208,7 +5324,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5222,18 +5338,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" style="144" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="144" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="144" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="144" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="144" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="144" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="144" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="144" customWidth="1"/>
-    <col min="11" max="11" width="16" style="144" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="144" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="144" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="143" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="143" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="143" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="143" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="143" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="143" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="143" customWidth="1"/>
+    <col min="9" max="9" width="20" style="143" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="143" customWidth="1"/>
+    <col min="11" max="11" width="16" style="143" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="143" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -5389,24 +5505,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28" style="144" customWidth="1"/>
-    <col min="4" max="6" width="23.42578125" style="144" customWidth="1"/>
-    <col min="8" max="10" width="20.42578125" style="144" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="144" customWidth="1"/>
-    <col min="12" max="13" width="20.42578125" style="144" customWidth="1"/>
-    <col min="14" max="15" width="21.85546875" style="144" customWidth="1"/>
-    <col min="16" max="28" width="18.42578125" style="144" customWidth="1"/>
-    <col min="29" max="30" width="22.5703125" style="144" customWidth="1"/>
-    <col min="31" max="31" width="23.85546875" style="144" customWidth="1"/>
-    <col min="32" max="42" width="20.5703125" style="144" customWidth="1"/>
-    <col min="43" max="43" width="23.28515625" style="144" customWidth="1"/>
-    <col min="44" max="44" width="24.28515625" style="144" customWidth="1"/>
-    <col min="45" max="45" width="24.5703125" style="144" customWidth="1"/>
-    <col min="46" max="46" width="25" style="144" customWidth="1"/>
-    <col min="47" max="47" width="31.42578125" style="144" customWidth="1"/>
-    <col min="48" max="48" width="23.5703125" style="144" customWidth="1"/>
-    <col min="49" max="49" width="19" style="144" customWidth="1"/>
-    <col min="50" max="50" width="14.7109375" style="144" customWidth="1"/>
+    <col min="3" max="3" width="28" style="143" customWidth="1"/>
+    <col min="4" max="6" width="23.42578125" style="143" customWidth="1"/>
+    <col min="8" max="10" width="20.42578125" style="143" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="143" customWidth="1"/>
+    <col min="12" max="13" width="20.42578125" style="143" customWidth="1"/>
+    <col min="14" max="15" width="21.85546875" style="143" customWidth="1"/>
+    <col min="16" max="28" width="18.42578125" style="143" customWidth="1"/>
+    <col min="29" max="30" width="22.5703125" style="143" customWidth="1"/>
+    <col min="31" max="31" width="23.85546875" style="143" customWidth="1"/>
+    <col min="32" max="42" width="20.5703125" style="143" customWidth="1"/>
+    <col min="43" max="43" width="23.28515625" style="143" customWidth="1"/>
+    <col min="44" max="44" width="24.28515625" style="143" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" style="143" customWidth="1"/>
+    <col min="46" max="46" width="25" style="143" customWidth="1"/>
+    <col min="47" max="47" width="31.42578125" style="143" customWidth="1"/>
+    <col min="48" max="48" width="23.5703125" style="143" customWidth="1"/>
+    <col min="49" max="49" width="19" style="143" customWidth="1"/>
+    <col min="50" max="50" width="14.7109375" style="143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5706,10 +5822,10 @@
       <c r="AV2" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="AW2" s="78" t="s">
+      <c r="AW2" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="AX2" s="79" t="s">
+      <c r="AX2" s="78" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5860,10 +5976,10 @@
     <col min="9" max="9" width="19.42578125" style="7" customWidth="1"/>
     <col min="10" max="11" width="21.140625" style="7" customWidth="1"/>
     <col min="12" max="16" width="29.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="18" style="144" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" style="144" customWidth="1"/>
+    <col min="17" max="17" width="18" style="143" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="143" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" style="144" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" style="143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6019,38 +6135,38 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="51.7109375" style="144" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="144" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="144" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="144" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="144" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="144" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="144" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="144" customWidth="1"/>
-    <col min="13" max="13" width="24" style="144" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="144" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="144" customWidth="1"/>
-    <col min="16" max="17" width="21.7109375" style="144" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="144" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" style="144" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" style="144" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="144" customWidth="1"/>
-    <col min="22" max="22" width="15" style="144" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="144" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" style="144" customWidth="1"/>
-    <col min="26" max="26" width="25.7109375" style="144" customWidth="1"/>
-    <col min="27" max="27" width="32.28515625" style="144" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="144" customWidth="1"/>
-    <col min="29" max="29" width="30" style="144" customWidth="1"/>
-    <col min="30" max="30" width="31.42578125" style="144" customWidth="1"/>
-    <col min="31" max="31" width="21.85546875" style="144" customWidth="1"/>
-    <col min="32" max="32" width="21.7109375" style="144" customWidth="1"/>
-    <col min="33" max="33" width="14.7109375" style="144" customWidth="1"/>
+    <col min="2" max="5" width="51.7109375" style="143" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="143" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="143" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="143" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="143" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="143" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="143" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="143" customWidth="1"/>
+    <col min="13" max="13" width="24" style="143" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="143" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="143" customWidth="1"/>
+    <col min="16" max="17" width="21.7109375" style="143" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="143" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" style="143" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" style="143" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" style="143" customWidth="1"/>
+    <col min="22" max="22" width="15" style="143" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="143" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" style="143" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" style="143" customWidth="1"/>
+    <col min="27" max="27" width="32.28515625" style="143" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="143" customWidth="1"/>
+    <col min="29" max="29" width="30" style="143" customWidth="1"/>
+    <col min="30" max="30" width="31.42578125" style="143" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" style="143" customWidth="1"/>
+    <col min="32" max="32" width="21.7109375" style="143" customWidth="1"/>
+    <col min="33" max="33" width="14.7109375" style="143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6154,7 +6270,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>73</v>
       </c>
@@ -6179,28 +6295,28 @@
       <c r="H2" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="151" t="s">
         <v>351</v>
       </c>
       <c r="J2" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="81" t="s">
         <v>215</v>
       </c>
       <c r="L2" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="75" t="s">
         <v>354</v>
       </c>
       <c r="N2" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="82" t="s">
         <v>356</v>
       </c>
-      <c r="P2" s="83" t="s">
+      <c r="P2" s="82" t="s">
         <v>357</v>
       </c>
       <c r="Q2" s="63" t="s">
@@ -6212,7 +6328,7 @@
       <c r="S2" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="74" t="s">
         <v>107</v>
       </c>
       <c r="U2" s="62" t="s">
@@ -6221,41 +6337,41 @@
       <c r="V2" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="X2" s="80" t="s">
+      <c r="X2" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="Y2" s="80" t="s">
+      <c r="Y2" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="74" t="s">
+      <c r="Z2" s="151" t="s">
         <v>351</v>
       </c>
-      <c r="AA2" s="74" t="s">
+      <c r="AA2" s="151" t="s">
         <v>351</v>
       </c>
-      <c r="AB2" s="74" t="s">
+      <c r="AB2" s="151" t="s">
         <v>351</v>
       </c>
-      <c r="AC2" s="74" t="s">
+      <c r="AC2" s="151" t="s">
         <v>351</v>
       </c>
-      <c r="AD2" s="81" t="s">
+      <c r="AD2" s="80" t="s">
         <v>360</v>
       </c>
-      <c r="AE2" s="81" t="s">
+      <c r="AE2" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="AF2" s="81" t="s">
+      <c r="AF2" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="AG2" s="141" t="s">
+      <c r="AG2" s="140" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>363</v>
       </c>
@@ -6271,7 +6387,7 @@
       <c r="E3" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="88" t="s">
         <v>365</v>
       </c>
       <c r="G3" s="62" t="s">
@@ -6280,28 +6396,28 @@
       <c r="H3" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="151" t="s">
         <v>366</v>
       </c>
       <c r="J3" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="K3" s="81" t="s">
         <v>215</v>
       </c>
       <c r="L3" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="75" t="s">
         <v>354</v>
       </c>
       <c r="N3" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="82" t="s">
         <v>357</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="82" t="s">
         <v>367</v>
       </c>
       <c r="Q3" s="63" t="s">
@@ -6313,7 +6429,7 @@
       <c r="S3" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="74" t="s">
         <v>107</v>
       </c>
       <c r="U3" s="62" t="s">
@@ -6322,37 +6438,37 @@
       <c r="V3" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="W3" s="76" t="s">
+      <c r="W3" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="X3" s="84" t="s">
+      <c r="X3" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Y3" s="84" t="s">
+      <c r="Y3" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Z3" s="74" t="s">
+      <c r="Z3" s="151" t="s">
         <v>366</v>
       </c>
-      <c r="AA3" s="74" t="s">
+      <c r="AA3" s="151" t="s">
         <v>366</v>
       </c>
-      <c r="AB3" s="74" t="s">
+      <c r="AB3" s="151" t="s">
         <v>366</v>
       </c>
-      <c r="AC3" s="74" t="s">
+      <c r="AC3" s="151" t="s">
         <v>366</v>
       </c>
-      <c r="AD3" s="81" t="s">
+      <c r="AD3" s="80" t="s">
         <v>360</v>
       </c>
-      <c r="AE3" s="81" t="s">
+      <c r="AE3" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="AF3" s="81" t="s">
+      <c r="AF3" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="AG3" s="141" t="s">
+      <c r="AG3" s="140" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6369,10 +6485,10 @@
       <c r="D4" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="78" t="s">
         <v>370</v>
       </c>
       <c r="G4" s="62" t="s">
@@ -6381,28 +6497,28 @@
       <c r="H4" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="151" t="s">
         <v>371</v>
       </c>
       <c r="J4" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>215</v>
       </c>
       <c r="L4" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="75" t="s">
         <v>354</v>
       </c>
       <c r="N4" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>357</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="82" t="s">
         <v>367</v>
       </c>
       <c r="Q4" s="63" t="s">
@@ -6414,7 +6530,7 @@
       <c r="S4" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="T4" s="75" t="s">
+      <c r="T4" s="74" t="s">
         <v>107</v>
       </c>
       <c r="U4" s="62" t="s">
@@ -6423,37 +6539,37 @@
       <c r="V4" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="X4" s="84" t="s">
+      <c r="X4" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Y4" s="84" t="s">
+      <c r="Y4" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Z4" s="74" t="s">
+      <c r="Z4" s="151" t="s">
         <v>371</v>
       </c>
-      <c r="AA4" s="74" t="s">
+      <c r="AA4" s="151" t="s">
         <v>371</v>
       </c>
-      <c r="AB4" s="74" t="s">
+      <c r="AB4" s="151" t="s">
         <v>371</v>
       </c>
-      <c r="AC4" s="74" t="s">
+      <c r="AC4" s="151" t="s">
         <v>371</v>
       </c>
-      <c r="AD4" s="81" t="s">
+      <c r="AD4" s="80" t="s">
         <v>360</v>
       </c>
-      <c r="AE4" s="81" t="s">
+      <c r="AE4" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="AF4" s="81" t="s">
+      <c r="AF4" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="AG4" s="141" t="s">
+      <c r="AG4" s="140" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6470,10 +6586,10 @@
       <c r="D5" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="78" t="s">
         <v>374</v>
       </c>
       <c r="G5" s="62" t="s">
@@ -6482,28 +6598,28 @@
       <c r="H5" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="151" t="s">
         <v>375</v>
       </c>
       <c r="J5" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="81" t="s">
         <v>215</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="M5" s="76" t="s">
+      <c r="M5" s="75" t="s">
         <v>354</v>
       </c>
       <c r="N5" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="O5" s="83" t="s">
+      <c r="O5" s="82" t="s">
         <v>377</v>
       </c>
-      <c r="P5" s="83" t="s">
+      <c r="P5" s="82" t="s">
         <v>378</v>
       </c>
       <c r="Q5" s="63" t="s">
@@ -6515,7 +6631,7 @@
       <c r="S5" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="T5" s="75" t="s">
+      <c r="T5" s="74" t="s">
         <v>107</v>
       </c>
       <c r="U5" s="62" t="s">
@@ -6524,37 +6640,37 @@
       <c r="V5" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="W5" s="76" t="s">
+      <c r="W5" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="X5" s="84" t="s">
+      <c r="X5" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Y5" s="84" t="s">
+      <c r="Y5" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Z5" s="74" t="s">
+      <c r="Z5" s="151" t="s">
         <v>375</v>
       </c>
-      <c r="AA5" s="74" t="s">
+      <c r="AA5" s="151" t="s">
         <v>375</v>
       </c>
-      <c r="AB5" s="74" t="s">
+      <c r="AB5" s="151" t="s">
         <v>375</v>
       </c>
-      <c r="AC5" s="74" t="s">
+      <c r="AC5" s="151" t="s">
         <v>375</v>
       </c>
-      <c r="AD5" s="81" t="s">
+      <c r="AD5" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="AE5" s="81" t="s">
+      <c r="AE5" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="AF5" s="81" t="s">
+      <c r="AF5" s="80" t="s">
         <v>380</v>
       </c>
-      <c r="AG5" s="141" t="s">
+      <c r="AG5" s="140" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6571,10 +6687,10 @@
       <c r="D6" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="78" t="s">
         <v>383</v>
       </c>
       <c r="G6" s="62" t="s">
@@ -6583,28 +6699,28 @@
       <c r="H6" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="151" t="s">
         <v>384</v>
       </c>
       <c r="J6" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="81" t="s">
         <v>215</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="75" t="s">
         <v>354</v>
       </c>
       <c r="N6" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="82" t="s">
         <v>377</v>
       </c>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="82" t="s">
         <v>378</v>
       </c>
       <c r="Q6" s="63" t="s">
@@ -6616,7 +6732,7 @@
       <c r="S6" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="T6" s="75" t="s">
+      <c r="T6" s="74" t="s">
         <v>107</v>
       </c>
       <c r="U6" s="62" t="s">
@@ -6625,37 +6741,37 @@
       <c r="V6" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="W6" s="76" t="s">
+      <c r="W6" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="X6" s="84" t="s">
+      <c r="X6" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Y6" s="84" t="s">
+      <c r="Y6" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Z6" s="74" t="s">
+      <c r="Z6" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="AA6" s="74" t="s">
+      <c r="AA6" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="AB6" s="74" t="s">
+      <c r="AB6" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="AC6" s="74" t="s">
+      <c r="AC6" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="AD6" s="81" t="s">
+      <c r="AD6" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="AE6" s="81" t="s">
+      <c r="AE6" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="AF6" s="81" t="s">
+      <c r="AF6" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="AG6" s="79" t="s">
+      <c r="AG6" s="78" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6672,10 +6788,10 @@
       <c r="D7" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="78" t="s">
         <v>391</v>
       </c>
       <c r="G7" s="62" t="s">
@@ -6684,28 +6800,28 @@
       <c r="H7" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="151" t="s">
         <v>392</v>
       </c>
       <c r="J7" s="63" t="s">
         <v>393</v>
       </c>
-      <c r="K7" s="82" t="s">
+      <c r="K7" s="81" t="s">
         <v>215</v>
       </c>
       <c r="L7" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="M7" s="76" t="s">
+      <c r="M7" s="75" t="s">
         <v>354</v>
       </c>
       <c r="N7" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="O7" s="83" t="s">
+      <c r="O7" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="P7" s="83" t="s">
+      <c r="P7" s="82" t="s">
         <v>395</v>
       </c>
       <c r="Q7" s="63" t="s">
@@ -6717,7 +6833,7 @@
       <c r="S7" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="T7" s="75" t="s">
+      <c r="T7" s="74" t="s">
         <v>107</v>
       </c>
       <c r="U7" s="62" t="s">
@@ -6726,37 +6842,37 @@
       <c r="V7" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="W7" s="76" t="s">
+      <c r="W7" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="X7" s="84" t="s">
+      <c r="X7" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Y7" s="84" t="s">
+      <c r="Y7" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Z7" s="74" t="s">
+      <c r="Z7" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="AA7" s="74" t="s">
+      <c r="AA7" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="AB7" s="74" t="s">
+      <c r="AB7" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="AC7" s="74" t="s">
+      <c r="AC7" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="AD7" s="81" t="s">
+      <c r="AD7" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="AE7" s="81" t="s">
+      <c r="AE7" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="AF7" s="81" t="s">
+      <c r="AF7" s="80" t="s">
         <v>398</v>
       </c>
-      <c r="AG7" s="141" t="s">
+      <c r="AG7" s="140" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6773,10 +6889,10 @@
       <c r="D8" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="78" t="s">
         <v>401</v>
       </c>
       <c r="G8" s="62" t="s">
@@ -6785,28 +6901,28 @@
       <c r="H8" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="151" t="s">
         <v>402</v>
       </c>
       <c r="J8" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="81" t="s">
         <v>215</v>
       </c>
       <c r="L8" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="M8" s="76" t="s">
+      <c r="M8" s="75" t="s">
         <v>354</v>
       </c>
       <c r="N8" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="O8" s="83" t="s">
+      <c r="O8" s="82" t="s">
         <v>404</v>
       </c>
-      <c r="P8" s="83" t="s">
+      <c r="P8" s="82" t="s">
         <v>404</v>
       </c>
       <c r="Q8" s="63" t="s">
@@ -6818,7 +6934,7 @@
       <c r="S8" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="T8" s="75" t="s">
+      <c r="T8" s="74" t="s">
         <v>107</v>
       </c>
       <c r="U8" s="62" t="s">
@@ -6827,81 +6943,81 @@
       <c r="V8" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="W8" s="76" t="s">
+      <c r="W8" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="X8" s="84" t="s">
+      <c r="X8" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Y8" s="84" t="s">
+      <c r="Y8" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="Z8" s="74" t="s">
+      <c r="Z8" s="151" t="s">
         <v>402</v>
       </c>
-      <c r="AA8" s="74" t="s">
+      <c r="AA8" s="151" t="s">
         <v>402</v>
       </c>
-      <c r="AB8" s="74" t="s">
+      <c r="AB8" s="151" t="s">
         <v>402</v>
       </c>
-      <c r="AC8" s="74" t="s">
+      <c r="AC8" s="151" t="s">
         <v>402</v>
       </c>
-      <c r="AD8" s="81" t="s">
+      <c r="AD8" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="AE8" s="81" t="s">
+      <c r="AE8" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="AF8" s="81" t="s">
+      <c r="AF8" s="80" t="s">
         <v>406</v>
       </c>
-      <c r="AG8" s="141" t="s">
+      <c r="AG8" s="140" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="150"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="146"/>
+      <c r="T9" s="146"/>
+      <c r="U9" s="146"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="84" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="85" t="s">
         <v>326</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="85" t="s">
         <v>330</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="85" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6909,97 +7025,97 @@
       <c r="B17" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="86" t="s">
         <v>410</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="86" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="87" t="s">
         <v>411</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="86" t="s">
         <v>376</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="86" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="87" t="s">
         <v>413</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="86" t="s">
         <v>376</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="86" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="87" t="s">
         <v>414</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="82" t="s">
         <v>393</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="82" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="87" t="s">
         <v>416</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="82" t="s">
         <v>393</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="82" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="87" t="s">
         <v>417</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="82" t="s">
         <v>403</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="82" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="87" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="82" t="s">
         <v>420</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="82" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7019,16 +7135,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.140625" style="144" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="144" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="144" customWidth="1"/>
-    <col min="5" max="5" width="41" style="144" customWidth="1"/>
-    <col min="6" max="6" width="25" style="144" customWidth="1"/>
-    <col min="7" max="7" width="28" style="144" customWidth="1"/>
-    <col min="8" max="14" width="26.28515625" style="144" customWidth="1"/>
-    <col min="15" max="15" width="22" style="144" customWidth="1"/>
-    <col min="16" max="16" width="30.28515625" style="144" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" style="144" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="143" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="143" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="143" customWidth="1"/>
+    <col min="5" max="5" width="41" style="143" customWidth="1"/>
+    <col min="6" max="6" width="25" style="143" customWidth="1"/>
+    <col min="7" max="7" width="28" style="143" customWidth="1"/>
+    <col min="8" max="14" width="26.28515625" style="143" customWidth="1"/>
+    <col min="15" max="15" width="22" style="143" customWidth="1"/>
+    <col min="16" max="16" width="30.28515625" style="143" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" style="143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -7056,31 +7172,31 @@
       <c r="H1" s="71" t="s">
         <v>425</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="100" t="s">
         <v>426</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="100" t="s">
         <v>427</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="100" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="100" t="s">
         <v>428</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="100" t="s">
         <v>429</v>
       </c>
-      <c r="N1" s="101" t="s">
+      <c r="N1" s="100" t="s">
         <v>430</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="O1" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="P1" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="91" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7103,13 +7219,13 @@
       <c r="F2" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="90" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="90" t="s">
         <v>437</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="90" t="s">
         <v>438</v>
       </c>
       <c r="J2" s="63" t="s">
@@ -7138,19 +7254,19 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7167,237 +7283,237 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="48.140625" style="144" customWidth="1"/>
-    <col min="3" max="4" width="17" style="144" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="144" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="144" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="144" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="144" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="144" customWidth="1"/>
-    <col min="10" max="10" width="18" style="144" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="144" customWidth="1"/>
-    <col min="12" max="12" width="31.7109375" style="144" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" style="144" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" style="144" customWidth="1"/>
-    <col min="15" max="15" width="20" style="144" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" style="144" customWidth="1"/>
-    <col min="20" max="20" width="44.7109375" style="144" customWidth="1"/>
-    <col min="21" max="21" width="43.28515625" style="144" customWidth="1"/>
-    <col min="22" max="22" width="30.42578125" style="144" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" style="144" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" style="144" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" style="144" customWidth="1"/>
-    <col min="26" max="26" width="25.5703125" style="144" customWidth="1"/>
-    <col min="27" max="27" width="29.7109375" style="144" customWidth="1"/>
-    <col min="28" max="28" width="17.7109375" style="144" customWidth="1"/>
-    <col min="35" max="35" width="11" style="144" customWidth="1"/>
-    <col min="36" max="36" width="15.5703125" style="144" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" style="144" customWidth="1"/>
-    <col min="39" max="39" width="16.5703125" style="144" customWidth="1"/>
-    <col min="40" max="40" width="11.85546875" style="144" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" style="144" customWidth="1"/>
-    <col min="45" max="45" width="13.42578125" style="144" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="143" customWidth="1"/>
+    <col min="3" max="4" width="17" style="143" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="143" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="143" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="143" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="143" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="143" customWidth="1"/>
+    <col min="10" max="10" width="18" style="143" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="143" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" style="143" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="143" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" style="143" customWidth="1"/>
+    <col min="15" max="15" width="20" style="143" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" style="143" customWidth="1"/>
+    <col min="20" max="20" width="44.7109375" style="143" customWidth="1"/>
+    <col min="21" max="21" width="43.28515625" style="143" customWidth="1"/>
+    <col min="22" max="22" width="30.42578125" style="143" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" style="143" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" style="143" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="143" customWidth="1"/>
+    <col min="26" max="26" width="25.5703125" style="143" customWidth="1"/>
+    <col min="27" max="27" width="29.7109375" style="143" customWidth="1"/>
+    <col min="28" max="28" width="17.7109375" style="143" customWidth="1"/>
+    <col min="35" max="35" width="11" style="143" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" style="143" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" style="143" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" style="143" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" style="143" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" style="143" customWidth="1"/>
+    <col min="45" max="45" width="13.42578125" style="143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="99" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:64" s="98" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="93" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="92" t="s">
         <v>444</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="94" t="s">
         <v>445</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="93" t="s">
         <v>446</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="92" t="s">
         <v>448</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="93" t="s">
         <v>449</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="93" t="s">
         <v>450</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="93" t="s">
         <v>451</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="N1" s="93" t="s">
         <v>452</v>
       </c>
-      <c r="O1" s="93" t="s">
+      <c r="O1" s="92" t="s">
         <v>453</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="93" t="s">
         <v>454</v>
       </c>
-      <c r="Q1" s="94" t="s">
+      <c r="Q1" s="93" t="s">
         <v>455</v>
       </c>
-      <c r="R1" s="94" t="s">
+      <c r="R1" s="93" t="s">
         <v>456</v>
       </c>
-      <c r="S1" s="93" t="s">
+      <c r="S1" s="92" t="s">
         <v>457</v>
       </c>
-      <c r="T1" s="93" t="s">
+      <c r="T1" s="92" t="s">
         <v>458</v>
       </c>
-      <c r="U1" s="93" t="s">
+      <c r="U1" s="92" t="s">
         <v>459</v>
       </c>
-      <c r="V1" s="93" t="s">
+      <c r="V1" s="92" t="s">
         <v>460</v>
       </c>
-      <c r="W1" s="93" t="s">
+      <c r="W1" s="92" t="s">
         <v>461</v>
       </c>
-      <c r="X1" s="93" t="s">
+      <c r="X1" s="92" t="s">
         <v>462</v>
       </c>
-      <c r="Y1" s="93" t="s">
+      <c r="Y1" s="92" t="s">
         <v>463</v>
       </c>
-      <c r="Z1" s="93" t="s">
+      <c r="Z1" s="92" t="s">
         <v>464</v>
       </c>
-      <c r="AA1" s="93" t="s">
+      <c r="AA1" s="92" t="s">
         <v>465</v>
       </c>
-      <c r="AB1" s="93" t="s">
+      <c r="AB1" s="92" t="s">
         <v>466</v>
       </c>
-      <c r="AC1" s="96" t="s">
+      <c r="AC1" s="95" t="s">
         <v>467</v>
       </c>
-      <c r="AD1" s="96" t="s">
+      <c r="AD1" s="95" t="s">
         <v>468</v>
       </c>
-      <c r="AE1" s="96" t="s">
+      <c r="AE1" s="95" t="s">
         <v>469</v>
       </c>
-      <c r="AF1" s="97" t="s">
+      <c r="AF1" s="96" t="s">
         <v>470</v>
       </c>
-      <c r="AG1" s="96" t="s">
+      <c r="AG1" s="95" t="s">
         <v>471</v>
       </c>
-      <c r="AH1" s="93" t="s">
+      <c r="AH1" s="92" t="s">
         <v>472</v>
       </c>
-      <c r="AI1" s="93" t="s">
+      <c r="AI1" s="92" t="s">
         <v>473</v>
       </c>
-      <c r="AJ1" s="98" t="s">
+      <c r="AJ1" s="97" t="s">
         <v>474</v>
       </c>
-      <c r="AK1" s="98" t="s">
+      <c r="AK1" s="97" t="s">
         <v>475</v>
       </c>
-      <c r="AL1" s="98" t="s">
+      <c r="AL1" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="AM1" s="93" t="s">
+      <c r="AM1" s="92" t="s">
         <v>476</v>
       </c>
-      <c r="AN1" s="93" t="s">
+      <c r="AN1" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="AO1" s="93" t="s">
+      <c r="AO1" s="92" t="s">
         <v>478</v>
       </c>
-      <c r="AP1" s="94" t="s">
+      <c r="AP1" s="93" t="s">
         <v>479</v>
       </c>
-      <c r="AQ1" s="94" t="s">
+      <c r="AQ1" s="93" t="s">
         <v>480</v>
       </c>
-      <c r="AR1" s="94" t="s">
+      <c r="AR1" s="93" t="s">
         <v>481</v>
       </c>
-      <c r="AS1" s="94" t="s">
+      <c r="AS1" s="93" t="s">
         <v>482</v>
       </c>
-      <c r="AT1" s="94" t="s">
+      <c r="AT1" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="AU1" s="94" t="s">
+      <c r="AU1" s="93" t="s">
         <v>326</v>
       </c>
-      <c r="AV1" s="94" t="s">
+      <c r="AV1" s="93" t="s">
         <v>483</v>
       </c>
-      <c r="AW1" s="94" t="s">
+      <c r="AW1" s="93" t="s">
         <v>484</v>
       </c>
-      <c r="AX1" s="94" t="s">
+      <c r="AX1" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="AY1" s="94" t="s">
+      <c r="AY1" s="93" t="s">
         <v>485</v>
       </c>
-      <c r="AZ1" s="93" t="s">
+      <c r="AZ1" s="92" t="s">
         <v>486</v>
       </c>
-      <c r="BA1" s="94" t="s">
+      <c r="BA1" s="93" t="s">
         <v>487</v>
       </c>
-      <c r="BB1" s="94" t="s">
+      <c r="BB1" s="93" t="s">
         <v>488</v>
       </c>
-      <c r="BC1" s="93" t="s">
+      <c r="BC1" s="92" t="s">
         <v>489</v>
       </c>
-      <c r="BD1" s="93" t="s">
+      <c r="BD1" s="92" t="s">
         <v>490</v>
       </c>
-      <c r="BE1" s="93" t="s">
+      <c r="BE1" s="92" t="s">
         <v>491</v>
       </c>
-      <c r="BF1" s="93" t="s">
+      <c r="BF1" s="92" t="s">
         <v>492</v>
       </c>
-      <c r="BG1" s="93" t="s">
+      <c r="BG1" s="92" t="s">
         <v>493</v>
       </c>
-      <c r="BH1" s="93" t="s">
+      <c r="BH1" s="92" t="s">
         <v>494</v>
       </c>
-      <c r="BI1" s="93" t="s">
+      <c r="BI1" s="92" t="s">
         <v>495</v>
       </c>
-      <c r="BJ1" s="93" t="s">
+      <c r="BJ1" s="92" t="s">
         <v>496</v>
       </c>
-      <c r="BK1" s="93" t="s">
+      <c r="BK1" s="92" t="s">
         <v>497</v>
       </c>
-      <c r="BL1" s="94" t="s">
+      <c r="BL1" s="93" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="99" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>499</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -7409,133 +7525,133 @@
       <c r="E2" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="F2" s="100">
+      <c r="F2" s="99">
         <v>1100</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="H2" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="99" t="s">
         <v>501</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="99" t="s">
         <v>502</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="99" t="s">
         <v>503</v>
       </c>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="99" t="s">
         <v>504</v>
       </c>
-      <c r="M2" s="108">
+      <c r="M2" s="107">
         <v>44945</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="99" t="s">
         <v>505</v>
       </c>
-      <c r="O2" s="104" t="s">
+      <c r="O2" s="103" t="s">
         <v>506</v>
       </c>
-      <c r="P2" s="104" t="s">
+      <c r="P2" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="100" t="s">
+      <c r="Q2" s="99" t="s">
         <v>507</v>
       </c>
-      <c r="R2" s="100" t="s">
+      <c r="R2" s="99" t="s">
         <v>507</v>
       </c>
-      <c r="S2" s="104" t="s">
+      <c r="S2" s="103" t="s">
         <v>508</v>
       </c>
-      <c r="T2" s="104" t="s">
+      <c r="T2" s="103" t="s">
         <v>509</v>
       </c>
-      <c r="U2" s="104" t="s">
+      <c r="U2" s="103" t="s">
         <v>510</v>
       </c>
-      <c r="V2" s="104" t="s">
+      <c r="V2" s="103" t="s">
         <v>511</v>
       </c>
-      <c r="W2" s="104" t="s">
+      <c r="W2" s="103" t="s">
         <v>512</v>
       </c>
-      <c r="X2" s="104" t="s">
+      <c r="X2" s="103" t="s">
         <v>513</v>
       </c>
-      <c r="Y2" s="104" t="s">
+      <c r="Y2" s="103" t="s">
         <v>514</v>
       </c>
-      <c r="Z2" s="104" t="s">
+      <c r="Z2" s="103" t="s">
         <v>515</v>
       </c>
-      <c r="AA2" s="104" t="s">
+      <c r="AA2" s="103" t="s">
         <v>516</v>
       </c>
-      <c r="AB2" s="104" t="s">
+      <c r="AB2" s="103" t="s">
         <v>517</v>
       </c>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104" t="s">
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103" t="s">
         <v>518</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="104" t="s">
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="103" t="s">
         <v>519</v>
       </c>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100" t="s">
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99" t="s">
         <v>520</v>
       </c>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100" t="s">
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="AM2" s="106">
+      <c r="AM2" s="105">
         <v>1171049.45</v>
       </c>
-      <c r="AN2" s="103" t="s">
+      <c r="AN2" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="AO2" s="107">
+      <c r="AO2" s="106">
         <v>885.51</v>
       </c>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="126"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="127"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125"/>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="125"/>
-      <c r="BK2" s="125"/>
-      <c r="BL2" s="100" t="s">
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124"/>
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="124"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="124"/>
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="124"/>
+      <c r="BF2" s="124"/>
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="124"/>
+      <c r="BJ2" s="124"/>
+      <c r="BK2" s="124"/>
+      <c r="BL2" s="99" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="99" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="99" t="s">
         <v>521</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -7547,137 +7663,137 @@
       <c r="E3" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="F3" s="100">
+      <c r="F3" s="99">
         <v>1100</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="99" t="s">
         <v>522</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="100" t="s">
+      <c r="I3" s="99" t="s">
         <v>501</v>
       </c>
-      <c r="J3" s="100" t="s">
+      <c r="J3" s="99" t="s">
         <v>502</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="K3" s="99" t="s">
         <v>523</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="99" t="s">
         <v>524</v>
       </c>
-      <c r="M3" s="100" t="s">
+      <c r="M3" s="99" t="s">
         <v>525</v>
       </c>
-      <c r="N3" s="100" t="s">
+      <c r="N3" s="99" t="s">
         <v>526</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="103" t="s">
         <v>506</v>
       </c>
-      <c r="P3" s="104" t="s">
+      <c r="P3" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="100" t="s">
+      <c r="Q3" s="99" t="s">
         <v>527</v>
       </c>
-      <c r="R3" s="100" t="s">
+      <c r="R3" s="99" t="s">
         <v>527</v>
       </c>
-      <c r="S3" s="104" t="s">
+      <c r="S3" s="103" t="s">
         <v>508</v>
       </c>
-      <c r="T3" s="104" t="s">
+      <c r="T3" s="103" t="s">
         <v>509</v>
       </c>
-      <c r="U3" s="104" t="s">
+      <c r="U3" s="103" t="s">
         <v>510</v>
       </c>
-      <c r="V3" s="104" t="s">
+      <c r="V3" s="103" t="s">
         <v>511</v>
       </c>
-      <c r="W3" s="104" t="s">
+      <c r="W3" s="103" t="s">
         <v>512</v>
       </c>
-      <c r="X3" s="104" t="s">
+      <c r="X3" s="103" t="s">
         <v>513</v>
       </c>
-      <c r="Y3" s="104" t="s">
+      <c r="Y3" s="103" t="s">
         <v>514</v>
       </c>
-      <c r="Z3" s="104" t="s">
+      <c r="Z3" s="103" t="s">
         <v>515</v>
       </c>
-      <c r="AA3" s="104" t="s">
+      <c r="AA3" s="103" t="s">
         <v>516</v>
       </c>
-      <c r="AB3" s="104" t="s">
+      <c r="AB3" s="103" t="s">
         <v>517</v>
       </c>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104" t="s">
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103" t="s">
         <v>518</v>
       </c>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="104" t="s">
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="103" t="s">
         <v>519</v>
       </c>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100" t="s">
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99" t="s">
         <v>520</v>
       </c>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="121">
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="120">
         <v>12</v>
       </c>
-      <c r="AP3" s="124" t="s">
+      <c r="AP3" s="123" t="s">
         <v>528</v>
       </c>
-      <c r="AQ3" s="125" t="s">
+      <c r="AQ3" s="124" t="s">
         <v>529</v>
       </c>
-      <c r="AR3" s="126" t="s">
+      <c r="AR3" s="125" t="s">
         <v>530</v>
       </c>
-      <c r="AS3" s="124" t="s">
+      <c r="AS3" s="123" t="s">
         <v>531</v>
       </c>
-      <c r="AT3" s="125" t="s">
+      <c r="AT3" s="124" t="s">
         <v>532</v>
       </c>
-      <c r="AU3" s="125" t="s">
+      <c r="AU3" s="124" t="s">
         <v>533</v>
       </c>
-      <c r="AV3" s="125" t="s">
+      <c r="AV3" s="124" t="s">
         <v>534</v>
       </c>
-      <c r="AW3" s="125" t="s">
+      <c r="AW3" s="124" t="s">
         <v>532</v>
       </c>
-      <c r="AX3" s="125" t="s">
+      <c r="AX3" s="124" t="s">
         <v>535</v>
       </c>
-      <c r="AY3" s="127"/>
-      <c r="AZ3" s="125"/>
-      <c r="BA3" s="125"/>
-      <c r="BB3" s="125"/>
-      <c r="BC3" s="125"/>
-      <c r="BD3" s="125"/>
-      <c r="BE3" s="125"/>
-      <c r="BF3" s="125"/>
-      <c r="BG3" s="125"/>
-      <c r="BH3" s="125"/>
-      <c r="BI3" s="125"/>
-      <c r="BJ3" s="125"/>
-      <c r="BK3" s="125"/>
-      <c r="BL3" s="100" t="s">
+      <c r="AY3" s="126"/>
+      <c r="AZ3" s="124"/>
+      <c r="BA3" s="124"/>
+      <c r="BB3" s="124"/>
+      <c r="BC3" s="124"/>
+      <c r="BD3" s="124"/>
+      <c r="BE3" s="124"/>
+      <c r="BF3" s="124"/>
+      <c r="BG3" s="124"/>
+      <c r="BH3" s="124"/>
+      <c r="BI3" s="124"/>
+      <c r="BJ3" s="124"/>
+      <c r="BK3" s="124"/>
+      <c r="BL3" s="99" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7693,90 +7809,90 @@
   </sheetPr>
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="119" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="119" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="119" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="119" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.28515625" style="119" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" style="119" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="119" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" style="119" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="119" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" style="119" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" style="119" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" style="119" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.7109375" style="119" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.85546875" style="119" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.7109375" style="144" customWidth="1"/>
-    <col min="19" max="19" width="32.28515625" style="144" customWidth="1"/>
-    <col min="20" max="20" width="27.140625" style="144" customWidth="1"/>
-    <col min="21" max="23" width="30" style="144" customWidth="1"/>
-    <col min="24" max="24" width="18" style="119" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28" style="119" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.42578125" style="119" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.140625" style="119" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.42578125" style="119" customWidth="1"/>
-    <col min="29" max="29" width="15" style="119" bestFit="1" customWidth="1"/>
-    <col min="30" max="46" width="9.140625" style="119" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="119"/>
+    <col min="1" max="1" width="6.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" style="118" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="118" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="118" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.28515625" style="118" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" style="118" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" style="118" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" style="143" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" style="143" customWidth="1"/>
+    <col min="20" max="20" width="27.140625" style="143" customWidth="1"/>
+    <col min="21" max="23" width="30" style="143" customWidth="1"/>
+    <col min="24" max="24" width="18" style="118" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28" style="118" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" style="118" customWidth="1"/>
+    <col min="29" max="29" width="15" style="118" bestFit="1" customWidth="1"/>
+    <col min="30" max="47" width="9.140625" style="118" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="118"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="112" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:27" s="111" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="100" t="s">
         <v>453</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="119" t="s">
         <v>321</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="108" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="108" t="s">
         <v>498</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="108" t="s">
         <v>539</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="108" t="s">
         <v>540</v>
       </c>
-      <c r="M1" s="110" t="s">
+      <c r="M1" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="111" t="s">
+      <c r="N1" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="O1" s="111" t="s">
+      <c r="O1" s="110" t="s">
         <v>542</v>
       </c>
-      <c r="P1" s="111" t="s">
+      <c r="P1" s="110" t="s">
         <v>543</v>
       </c>
-      <c r="Q1" s="111" t="s">
+      <c r="Q1" s="110" t="s">
         <v>544</v>
       </c>
       <c r="R1" s="71" t="s">
@@ -7791,83 +7907,83 @@
       <c r="U1" s="71" t="s">
         <v>344</v>
       </c>
-      <c r="V1" s="92" t="s">
+      <c r="V1" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="W1" s="92" t="s">
+      <c r="W1" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="X1" s="109" t="s">
+      <c r="X1" s="108" t="s">
         <v>545</v>
       </c>
-      <c r="Y1" s="111" t="s">
+      <c r="Y1" s="110" t="s">
         <v>546</v>
       </c>
-      <c r="Z1" s="111" t="s">
+      <c r="Z1" s="110" t="s">
         <v>547</v>
       </c>
-      <c r="AA1" s="111" t="s">
+      <c r="AA1" s="110" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+    <row r="2" spans="1:27" s="117" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="113" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="74" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="151" t="s">
         <v>549</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="119" t="s">
+      <c r="F2" s="121"/>
+      <c r="G2" s="118" t="s">
         <v>350</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="114" t="s">
         <v>319</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="114" t="s">
         <v>550</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="L2" s="112" t="s">
         <v>551</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="112" t="s">
         <v>552</v>
       </c>
-      <c r="N2" s="113" t="s">
+      <c r="N2" s="112" t="s">
         <v>553</v>
       </c>
-      <c r="O2" s="113" t="s">
+      <c r="O2" s="112" t="s">
         <v>554</v>
       </c>
-      <c r="P2" s="113" t="s">
+      <c r="P2" s="112" t="s">
         <v>555</v>
       </c>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="116" t="s">
         <v>556</v>
       </c>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="151" t="s">
         <v>351</v>
       </c>
-      <c r="S2" s="74" t="s">
+      <c r="S2" s="151" t="s">
         <v>557</v>
       </c>
-      <c r="T2" s="74" t="s">
+      <c r="T2" s="151" t="s">
         <v>557</v>
       </c>
-      <c r="U2" s="74" t="s">
+      <c r="U2" s="151" t="s">
         <v>557</v>
       </c>
       <c r="V2" s="62" t="s">
@@ -7876,29 +7992,29 @@
       <c r="W2" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="X2" s="123" t="s">
+      <c r="X2" s="122" t="s">
         <v>316</v>
       </c>
-      <c r="Y2" s="123" t="s">
+      <c r="Y2" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" s="123" t="s">
+      <c r="Z2" s="122" t="s">
         <v>558</v>
       </c>
-      <c r="AA2" s="123" t="s">
+      <c r="AA2" s="122" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -689,8 +689,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="8"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="8"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1895,10 +1895,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1914,28 +1914,29 @@
     <col width="12" bestFit="1" customWidth="1" style="134" min="9" max="9"/>
     <col width="31.42578125" customWidth="1" style="134" min="10" max="10"/>
     <col width="39.5703125" customWidth="1" style="134" min="11" max="18"/>
-    <col width="19.42578125" customWidth="1" style="134" min="19" max="19"/>
-    <col width="18" customWidth="1" style="134" min="20" max="20"/>
-    <col width="25.5703125" customWidth="1" style="134" min="21" max="21"/>
-    <col width="26.28515625" customWidth="1" style="134" min="22" max="22"/>
-    <col width="15.85546875" customWidth="1" style="134" min="23" max="23"/>
-    <col width="17.140625" customWidth="1" style="134" min="24" max="24"/>
-    <col width="24.5703125" customWidth="1" style="134" min="25" max="25"/>
-    <col width="20.140625" customWidth="1" style="134" min="26" max="26"/>
-    <col width="23.140625" customWidth="1" style="134" min="27" max="27"/>
-    <col width="16.42578125" customWidth="1" style="134" min="28" max="28"/>
-    <col width="22.28515625" customWidth="1" style="134" min="29" max="29"/>
-    <col width="25.5703125" customWidth="1" style="134" min="30" max="30"/>
-    <col width="30.140625" customWidth="1" style="134" min="31" max="31"/>
-    <col width="28.28515625" customWidth="1" style="134" min="32" max="32"/>
-    <col width="28.5703125" customWidth="1" style="134" min="33" max="33"/>
-    <col width="29.140625" customWidth="1" style="134" min="34" max="34"/>
-    <col width="26.7109375" customWidth="1" style="134" min="35" max="35"/>
-    <col width="34.42578125" customWidth="1" style="134" min="36" max="36"/>
-    <col width="23.85546875" customWidth="1" style="134" min="37" max="37"/>
-    <col width="22.5703125" customWidth="1" style="134" min="38" max="38"/>
-    <col width="9.140625" customWidth="1" style="134" min="39" max="47"/>
-    <col width="9.140625" customWidth="1" style="134" min="48" max="16384"/>
+    <col width="39.5703125" customWidth="1" style="168" min="19" max="20"/>
+    <col width="19.42578125" customWidth="1" style="134" min="21" max="21"/>
+    <col width="18" customWidth="1" style="134" min="22" max="22"/>
+    <col width="25.5703125" customWidth="1" style="134" min="23" max="23"/>
+    <col width="26.28515625" customWidth="1" style="134" min="24" max="24"/>
+    <col width="15.85546875" customWidth="1" style="134" min="25" max="25"/>
+    <col width="17.140625" customWidth="1" style="134" min="26" max="26"/>
+    <col width="24.5703125" customWidth="1" style="134" min="27" max="27"/>
+    <col width="20.140625" customWidth="1" style="134" min="28" max="28"/>
+    <col width="23.140625" customWidth="1" style="134" min="29" max="29"/>
+    <col width="16.42578125" customWidth="1" style="134" min="30" max="30"/>
+    <col width="22.28515625" customWidth="1" style="134" min="31" max="31"/>
+    <col width="25.5703125" customWidth="1" style="134" min="32" max="32"/>
+    <col width="30.140625" customWidth="1" style="134" min="33" max="33"/>
+    <col width="28.28515625" customWidth="1" style="134" min="34" max="34"/>
+    <col width="28.5703125" customWidth="1" style="134" min="35" max="35"/>
+    <col width="29.140625" customWidth="1" style="134" min="36" max="36"/>
+    <col width="26.7109375" customWidth="1" style="134" min="37" max="37"/>
+    <col width="34.42578125" customWidth="1" style="134" min="38" max="38"/>
+    <col width="23.85546875" customWidth="1" style="134" min="39" max="39"/>
+    <col width="22.5703125" customWidth="1" style="134" min="40" max="40"/>
+    <col width="9.140625" customWidth="1" style="134" min="41" max="50"/>
+    <col width="9.140625" customWidth="1" style="134" min="51" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customFormat="1" customHeight="1" s="127">
@@ -2029,102 +2030,112 @@
           <t>Expected_InterestAmt_LoanF</t>
         </is>
       </c>
-      <c r="S1" s="129" t="inlineStr">
+      <c r="S1" s="127" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanABCDEF</t>
+        </is>
+      </c>
+      <c r="T1" s="127" t="inlineStr">
+        <is>
+          <t>Expected_InterestAmt_LoanG</t>
+        </is>
+      </c>
+      <c r="U1" s="129" t="inlineStr">
         <is>
           <t>Effective_Date</t>
         </is>
       </c>
-      <c r="T1" s="129" t="inlineStr">
+      <c r="V1" s="129" t="inlineStr">
         <is>
           <t>Maturity_Date</t>
         </is>
       </c>
-      <c r="U1" s="129" t="inlineStr">
+      <c r="W1" s="129" t="inlineStr">
         <is>
           <t>Repricing_Frequency</t>
         </is>
       </c>
-      <c r="V1" s="127" t="inlineStr">
+      <c r="X1" s="127" t="inlineStr">
         <is>
           <t>Repricing_Date</t>
         </is>
       </c>
-      <c r="W1" s="127" t="inlineStr">
+      <c r="Y1" s="127" t="inlineStr">
         <is>
           <t>Payment_Mode</t>
         </is>
       </c>
-      <c r="X1" s="127" t="inlineStr">
+      <c r="Z1" s="127" t="inlineStr">
         <is>
           <t>Int_Cycle_Freq</t>
         </is>
       </c>
-      <c r="Y1" s="127" t="inlineStr">
+      <c r="AA1" s="127" t="inlineStr">
         <is>
           <t>Actual_Due_Date</t>
         </is>
       </c>
-      <c r="Z1" s="127" t="inlineStr">
+      <c r="AB1" s="127" t="inlineStr">
         <is>
           <t>Adjusted_Due_Date</t>
         </is>
       </c>
-      <c r="AA1" s="127" t="inlineStr">
+      <c r="AC1" s="127" t="inlineStr">
         <is>
           <t>Accrue</t>
         </is>
       </c>
-      <c r="AB1" s="127" t="inlineStr">
+      <c r="AD1" s="127" t="inlineStr">
         <is>
           <t>Accrual_End_Date</t>
         </is>
       </c>
-      <c r="AC1" s="137" t="inlineStr">
+      <c r="AE1" s="137" t="inlineStr">
         <is>
           <t>BorrowerBaseRate</t>
         </is>
       </c>
-      <c r="AD1" s="138" t="inlineStr">
+      <c r="AF1" s="138" t="inlineStr">
         <is>
           <t>AcceptRate_FromPricing</t>
         </is>
       </c>
-      <c r="AE1" s="127" t="inlineStr">
+      <c r="AG1" s="127" t="inlineStr">
         <is>
           <t>Expctd_LoanGlobalOriginal</t>
         </is>
       </c>
-      <c r="AF1" s="127" t="inlineStr">
+      <c r="AH1" s="127" t="inlineStr">
         <is>
           <t>Expctd_LoanGlobalCurrent</t>
         </is>
       </c>
-      <c r="AG1" s="127" t="inlineStr">
+      <c r="AI1" s="127" t="inlineStr">
         <is>
           <t>Expctd_LoanHostBankGross</t>
         </is>
       </c>
-      <c r="AH1" s="127" t="inlineStr">
+      <c r="AJ1" s="127" t="inlineStr">
         <is>
           <t>Expctd_LoanHostBankNet</t>
         </is>
       </c>
-      <c r="AI1" s="127" t="inlineStr">
+      <c r="AK1" s="127" t="inlineStr">
         <is>
           <t>NewLoan_Pricing_Option</t>
         </is>
       </c>
-      <c r="AJ1" s="127" t="inlineStr">
+      <c r="AL1" s="127" t="inlineStr">
         <is>
           <t>Expctd_LoanCurrentBaseRate</t>
         </is>
       </c>
-      <c r="AK1" s="127" t="inlineStr">
+      <c r="AM1" s="127" t="inlineStr">
         <is>
           <t>Expctd_LoanSpread</t>
         </is>
       </c>
-      <c r="AL1" s="127" t="inlineStr">
+      <c r="AN1" s="127" t="inlineStr">
         <is>
           <t>Expctd_LoanAllInRate</t>
         </is>
@@ -2193,102 +2204,104 @@
       <c r="P2" s="142" t="n"/>
       <c r="Q2" s="142" t="n"/>
       <c r="R2" s="142" t="n"/>
-      <c r="S2" s="139" t="inlineStr">
+      <c r="S2" s="142" t="n"/>
+      <c r="T2" s="142" t="n"/>
+      <c r="U2" s="139" t="inlineStr">
         <is>
           <t>15-Jan-2020</t>
         </is>
       </c>
-      <c r="T2" s="82" t="inlineStr">
+      <c r="V2" s="82" t="inlineStr">
         <is>
           <t>30-Sep-2025</t>
         </is>
       </c>
-      <c r="U2" s="63" t="inlineStr">
+      <c r="W2" s="63" t="inlineStr">
         <is>
           <t>1 Months</t>
         </is>
       </c>
-      <c r="V2" s="139" t="inlineStr">
+      <c r="X2" s="139" t="inlineStr">
         <is>
           <t>17-Feb-2020</t>
         </is>
       </c>
-      <c r="W2" s="133" t="inlineStr">
+      <c r="Y2" s="133" t="inlineStr">
         <is>
           <t>Pay in Arrears</t>
         </is>
       </c>
-      <c r="X2" s="133" t="inlineStr">
+      <c r="Z2" s="133" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="Y2" s="139" t="inlineStr">
+      <c r="AA2" s="139" t="inlineStr">
         <is>
           <t>17-Feb-2020</t>
         </is>
       </c>
-      <c r="Z2" s="139" t="inlineStr">
+      <c r="AB2" s="139" t="inlineStr">
         <is>
           <t>17-Feb-2020</t>
         </is>
       </c>
-      <c r="AA2" s="133" t="inlineStr">
+      <c r="AC2" s="133" t="inlineStr">
         <is>
           <t>to the adjusted due date</t>
         </is>
       </c>
-      <c r="AB2" s="139" t="inlineStr">
+      <c r="AD2" s="139" t="inlineStr">
         <is>
           <t>16-Feb-2020</t>
         </is>
       </c>
-      <c r="AC2" s="26" t="inlineStr">
+      <c r="AE2" s="26" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="AD2" s="136" t="inlineStr">
+      <c r="AF2" s="136" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AE2" s="146" t="inlineStr">
+      <c r="AG2" s="146" t="inlineStr">
         <is>
           <t>505,369,000.00</t>
         </is>
       </c>
-      <c r="AF2" s="146" t="inlineStr">
+      <c r="AH2" s="146" t="inlineStr">
         <is>
           <t>505,369,000.00</t>
         </is>
       </c>
-      <c r="AG2" s="146" t="inlineStr">
+      <c r="AI2" s="146" t="inlineStr">
         <is>
           <t>505,369,000.00</t>
         </is>
       </c>
-      <c r="AH2" s="146" t="inlineStr">
+      <c r="AJ2" s="146" t="inlineStr">
         <is>
           <t>505,369,000.00</t>
         </is>
       </c>
-      <c r="AI2" s="133" t="inlineStr">
+      <c r="AK2" s="133" t="inlineStr">
         <is>
           <t>BBSW</t>
         </is>
       </c>
-      <c r="AJ2" s="80" t="inlineStr">
+      <c r="AL2" s="80" t="inlineStr">
         <is>
           <t>0.851500%</t>
         </is>
       </c>
-      <c r="AK2" s="80" t="inlineStr">
+      <c r="AM2" s="80" t="inlineStr">
         <is>
           <t>1.300000%</t>
         </is>
       </c>
-      <c r="AL2" s="80" t="inlineStr">
+      <c r="AN2" s="80" t="inlineStr">
         <is>
           <t>2.151500%</t>
         </is>
@@ -2361,102 +2374,104 @@
       <c r="P3" s="141" t="n"/>
       <c r="Q3" s="142" t="n"/>
       <c r="R3" s="142" t="n"/>
-      <c r="S3" s="139" t="inlineStr">
+      <c r="S3" s="142" t="n"/>
+      <c r="T3" s="142" t="n"/>
+      <c r="U3" s="139" t="inlineStr">
         <is>
           <t>17-Feb-2020</t>
         </is>
       </c>
-      <c r="T3" s="82" t="inlineStr">
+      <c r="V3" s="82" t="inlineStr">
         <is>
           <t>30-Sep-2025</t>
         </is>
       </c>
-      <c r="U3" s="63" t="inlineStr">
+      <c r="W3" s="63" t="inlineStr">
         <is>
           <t>1 Months</t>
         </is>
       </c>
-      <c r="V3" s="139" t="inlineStr">
+      <c r="X3" s="139" t="inlineStr">
         <is>
           <t>16-Mar-2020</t>
         </is>
       </c>
-      <c r="W3" s="133" t="inlineStr">
+      <c r="Y3" s="133" t="inlineStr">
         <is>
           <t>Pay in Arrears</t>
         </is>
       </c>
-      <c r="X3" s="133" t="inlineStr">
+      <c r="Z3" s="133" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="Y3" s="139" t="inlineStr">
+      <c r="AA3" s="139" t="inlineStr">
         <is>
           <t>16-Mar-2020</t>
         </is>
       </c>
-      <c r="Z3" s="139" t="inlineStr">
+      <c r="AB3" s="139" t="inlineStr">
         <is>
           <t>16-Mar-2020</t>
         </is>
       </c>
-      <c r="AA3" s="133" t="inlineStr">
+      <c r="AC3" s="133" t="inlineStr">
         <is>
           <t>to the adjusted due date</t>
         </is>
       </c>
-      <c r="AB3" s="139" t="inlineStr">
+      <c r="AD3" s="139" t="inlineStr">
         <is>
           <t>15-Mar-2020</t>
         </is>
       </c>
-      <c r="AC3" s="26" t="inlineStr">
+      <c r="AE3" s="26" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="AD3" s="136" t="inlineStr">
+      <c r="AF3" s="136" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AE3" s="146" t="inlineStr">
+      <c r="AG3" s="146" t="inlineStr">
         <is>
           <t>789,797,000.00</t>
         </is>
       </c>
-      <c r="AF3" s="146" t="inlineStr">
+      <c r="AH3" s="146" t="inlineStr">
         <is>
           <t>789,797,000.00</t>
         </is>
       </c>
-      <c r="AG3" s="146" t="inlineStr">
+      <c r="AI3" s="146" t="inlineStr">
         <is>
           <t>789,797,000.00</t>
         </is>
       </c>
-      <c r="AH3" s="146" t="inlineStr">
+      <c r="AJ3" s="146" t="inlineStr">
         <is>
           <t>789,797,000.00</t>
         </is>
       </c>
-      <c r="AI3" s="133" t="inlineStr">
+      <c r="AK3" s="133" t="inlineStr">
         <is>
           <t>BBSW</t>
         </is>
       </c>
-      <c r="AJ3" s="80" t="inlineStr">
+      <c r="AL3" s="80" t="inlineStr">
         <is>
           <t>0.805000%</t>
         </is>
       </c>
-      <c r="AK3" s="80" t="inlineStr">
+      <c r="AM3" s="80" t="inlineStr">
         <is>
           <t>1.050000%</t>
         </is>
       </c>
-      <c r="AL3" s="80" t="inlineStr">
+      <c r="AN3" s="80" t="inlineStr">
         <is>
           <t>1.855000%</t>
         </is>
@@ -2525,102 +2540,104 @@
       </c>
       <c r="Q4" s="141" t="n"/>
       <c r="R4" s="141" t="n"/>
-      <c r="S4" s="139" t="inlineStr">
+      <c r="S4" s="141" t="n"/>
+      <c r="T4" s="141" t="n"/>
+      <c r="U4" s="139" t="inlineStr">
         <is>
           <t>16-Mar-2020</t>
         </is>
       </c>
-      <c r="T4" s="82" t="inlineStr">
+      <c r="V4" s="82" t="inlineStr">
         <is>
           <t>30-Sep-2025</t>
         </is>
       </c>
-      <c r="U4" s="63" t="inlineStr">
+      <c r="W4" s="63" t="inlineStr">
         <is>
           <t>1 Months</t>
         </is>
       </c>
-      <c r="V4" s="139" t="inlineStr">
+      <c r="X4" s="139" t="inlineStr">
         <is>
           <t>15-Apr-2020</t>
         </is>
       </c>
-      <c r="W4" s="133" t="inlineStr">
+      <c r="Y4" s="133" t="inlineStr">
         <is>
           <t>Pay in Arrears</t>
         </is>
       </c>
-      <c r="X4" s="133" t="inlineStr">
+      <c r="Z4" s="133" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="Y4" s="139" t="inlineStr">
+      <c r="AA4" s="139" t="inlineStr">
         <is>
           <t>15-Apr-2020</t>
         </is>
       </c>
-      <c r="Z4" s="139" t="inlineStr">
+      <c r="AB4" s="139" t="inlineStr">
         <is>
           <t>15-Apr-2020</t>
         </is>
       </c>
-      <c r="AA4" s="133" t="inlineStr">
+      <c r="AC4" s="133" t="inlineStr">
         <is>
           <t>to the adjusted due date</t>
         </is>
       </c>
-      <c r="AB4" s="139" t="inlineStr">
+      <c r="AD4" s="139" t="inlineStr">
         <is>
           <t>14-Apr-2020</t>
         </is>
       </c>
-      <c r="AC4" s="26" t="inlineStr">
+      <c r="AE4" s="26" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="AD4" s="136" t="inlineStr">
+      <c r="AF4" s="136" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AE4" s="146" t="inlineStr">
+      <c r="AG4" s="146" t="inlineStr">
         <is>
           <t>853,535,000.00</t>
         </is>
       </c>
-      <c r="AF4" s="146" t="inlineStr">
+      <c r="AH4" s="146" t="inlineStr">
         <is>
           <t>853,535,000.00</t>
         </is>
       </c>
-      <c r="AG4" s="146" t="inlineStr">
+      <c r="AI4" s="146" t="inlineStr">
         <is>
           <t>853,535,000.00</t>
         </is>
       </c>
-      <c r="AH4" s="146" t="inlineStr">
+      <c r="AJ4" s="146" t="inlineStr">
         <is>
           <t>853,535,000.00</t>
         </is>
       </c>
-      <c r="AI4" s="133" t="inlineStr">
+      <c r="AK4" s="133" t="inlineStr">
         <is>
           <t>BBSW</t>
         </is>
       </c>
-      <c r="AJ4" s="80" t="inlineStr">
+      <c r="AL4" s="80" t="inlineStr">
         <is>
           <t>0.585100%</t>
         </is>
       </c>
-      <c r="AK4" s="80" t="inlineStr">
+      <c r="AM4" s="80" t="inlineStr">
         <is>
           <t>1.050000%</t>
         </is>
       </c>
-      <c r="AL4" s="80" t="inlineStr">
+      <c r="AN4" s="80" t="inlineStr">
         <is>
           <t>1.635100%</t>
         </is>
@@ -2687,162 +2704,312 @@
           <t>134,559.77</t>
         </is>
       </c>
-      <c r="S5" s="139" t="inlineStr">
+      <c r="S5" s="141" t="n"/>
+      <c r="T5" s="141" t="n"/>
+      <c r="U5" s="139" t="inlineStr">
         <is>
           <t>15-Apr-2020</t>
         </is>
       </c>
-      <c r="T5" s="82" t="inlineStr">
+      <c r="V5" s="82" t="inlineStr">
         <is>
           <t>30-Sep-2025</t>
         </is>
       </c>
-      <c r="U5" s="63" t="inlineStr">
+      <c r="W5" s="63" t="inlineStr">
         <is>
           <t>1 Months</t>
         </is>
       </c>
-      <c r="V5" s="139" t="inlineStr">
+      <c r="X5" s="139" t="inlineStr">
         <is>
           <t>15-May-2020</t>
         </is>
       </c>
-      <c r="W5" s="133" t="inlineStr">
+      <c r="Y5" s="133" t="inlineStr">
         <is>
           <t>Pay in Arrears</t>
         </is>
       </c>
-      <c r="X5" s="133" t="inlineStr">
+      <c r="Z5" s="133" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="Y5" s="139" t="inlineStr">
+      <c r="AA5" s="139" t="inlineStr">
         <is>
           <t>15-May-2020</t>
         </is>
       </c>
-      <c r="Z5" s="139" t="inlineStr">
+      <c r="AB5" s="139" t="inlineStr">
         <is>
           <t>15-May-2020</t>
         </is>
       </c>
-      <c r="AA5" s="133" t="inlineStr">
+      <c r="AC5" s="133" t="inlineStr">
         <is>
           <t>to the adjusted due date</t>
         </is>
       </c>
-      <c r="AB5" s="139" t="inlineStr">
+      <c r="AD5" s="139" t="inlineStr">
         <is>
           <t>14-May-2020</t>
         </is>
       </c>
-      <c r="AC5" s="26" t="inlineStr">
+      <c r="AE5" s="26" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="AD5" s="136" t="inlineStr">
+      <c r="AF5" s="136" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AE5" s="146" t="inlineStr">
+      <c r="AG5" s="146" t="inlineStr">
         <is>
           <t>935,900,000.00</t>
         </is>
       </c>
-      <c r="AF5" s="146" t="inlineStr">
+      <c r="AH5" s="146" t="inlineStr">
         <is>
           <t>935,900,000.00</t>
         </is>
       </c>
-      <c r="AG5" s="146" t="inlineStr">
+      <c r="AI5" s="146" t="inlineStr">
         <is>
           <t>935,900,000.00</t>
         </is>
       </c>
-      <c r="AH5" s="146" t="inlineStr">
+      <c r="AJ5" s="146" t="inlineStr">
         <is>
           <t>935,900,000.00</t>
         </is>
       </c>
-      <c r="AI5" s="133" t="inlineStr">
+      <c r="AK5" s="133" t="inlineStr">
         <is>
           <t>BBSW</t>
         </is>
       </c>
-      <c r="AJ5" s="80" t="inlineStr">
+      <c r="AL5" s="80" t="inlineStr">
         <is>
           <t>0.142500%</t>
         </is>
       </c>
-      <c r="AK5" s="80" t="inlineStr">
+      <c r="AM5" s="80" t="inlineStr">
         <is>
           <t>1.050000%</t>
         </is>
       </c>
-      <c r="AL5" s="80" t="inlineStr">
+      <c r="AN5" s="80" t="inlineStr">
         <is>
           <t>1.192500%</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="167" t="n"/>
-      <c r="C6" s="167" t="n"/>
-      <c r="D6" s="167" t="n"/>
-      <c r="E6" s="167" t="n"/>
-      <c r="F6" s="167" t="n"/>
-      <c r="G6" s="167" t="n"/>
-      <c r="H6" s="167" t="n"/>
-      <c r="I6" s="167" t="n"/>
-      <c r="Q6" s="167" t="n"/>
-      <c r="R6" s="167" t="n"/>
-      <c r="S6" s="167" t="n"/>
-      <c r="T6" s="167" t="n"/>
-      <c r="U6" s="167" t="n"/>
-      <c r="V6" s="167" t="n"/>
-      <c r="W6" s="167" t="n"/>
-      <c r="X6" s="167" t="n"/>
-      <c r="Y6" s="167" t="n"/>
-      <c r="Z6" s="167" t="n"/>
-      <c r="AA6" s="167" t="n"/>
-      <c r="AB6" s="167" t="n"/>
-      <c r="AC6" s="167" t="n"/>
-      <c r="AD6" s="167" t="n"/>
-      <c r="AE6" s="167" t="n"/>
-      <c r="AF6" s="167" t="n"/>
-      <c r="AG6" s="167" t="n"/>
-      <c r="AH6" s="167" t="n"/>
-      <c r="AI6" s="167" t="n"/>
-      <c r="AJ6" s="167" t="n"/>
-      <c r="AK6" s="167" t="n"/>
-      <c r="AL6" s="167" t="n"/>
+    <row r="6" ht="14.25" customFormat="1" customHeight="1" s="133">
+      <c r="A6" s="130" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="131" t="inlineStr">
+        <is>
+          <t>SERV40_ComprehensiveRepricing_LBT_BILAT_COMBINE_ABCDEFG</t>
+        </is>
+      </c>
+      <c r="C6" s="132" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="D6" s="131" t="inlineStr">
+        <is>
+          <t>60003116</t>
+        </is>
+      </c>
+      <c r="E6" s="146" t="inlineStr">
+        <is>
+          <t>635,310,000.00</t>
+        </is>
+      </c>
+      <c r="F6" s="132" t="inlineStr">
+        <is>
+          <t>Comprehensive Repricing</t>
+        </is>
+      </c>
+      <c r="G6" s="132" t="inlineStr">
+        <is>
+          <t>Auto Generate Interest Payment</t>
+        </is>
+      </c>
+      <c r="H6" s="132" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I6" s="135" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J6" s="141" t="n"/>
+      <c r="K6" s="141" t="n"/>
+      <c r="L6" s="141" t="n"/>
+      <c r="M6" s="141" t="n"/>
+      <c r="N6" s="141" t="n"/>
+      <c r="O6" s="141" t="n"/>
+      <c r="P6" s="141" t="n"/>
+      <c r="Q6" s="141" t="n"/>
+      <c r="R6" s="141" t="n"/>
+      <c r="S6" s="146" t="inlineStr">
+        <is>
+          <t>917,310.21</t>
+        </is>
+      </c>
+      <c r="T6" s="146" t="inlineStr">
+        <is>
+          <t>55,818.80</t>
+        </is>
+      </c>
+      <c r="U6" s="139" t="inlineStr">
+        <is>
+          <t>15-May-2020</t>
+        </is>
+      </c>
+      <c r="V6" s="82" t="inlineStr">
+        <is>
+          <t>30-Sep-2025</t>
+        </is>
+      </c>
+      <c r="W6" s="63" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="X6" s="139" t="inlineStr">
+        <is>
+          <t>15-Jun-2020</t>
+        </is>
+      </c>
+      <c r="Y6" s="133" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="Z6" s="133" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="AA6" s="139" t="inlineStr">
+        <is>
+          <t>15-Jun-2020</t>
+        </is>
+      </c>
+      <c r="AB6" s="139" t="inlineStr">
+        <is>
+          <t>15-Jun-2020</t>
+        </is>
+      </c>
+      <c r="AC6" s="133" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="AD6" s="139" t="inlineStr">
+        <is>
+          <t>14-Jun-2020</t>
+        </is>
+      </c>
+      <c r="AE6" s="26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF6" s="136" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AG6" s="146" t="inlineStr">
+        <is>
+          <t>635,310,000.00</t>
+        </is>
+      </c>
+      <c r="AH6" s="146" t="inlineStr">
+        <is>
+          <t>635,310,000.00</t>
+        </is>
+      </c>
+      <c r="AI6" s="146" t="inlineStr">
+        <is>
+          <t>635,310,000.00</t>
+        </is>
+      </c>
+      <c r="AJ6" s="146" t="inlineStr">
+        <is>
+          <t>635,310,000.00</t>
+        </is>
+      </c>
+      <c r="AK6" s="133" t="inlineStr">
+        <is>
+          <t>BBSW</t>
+        </is>
+      </c>
+      <c r="AL6" s="80" t="inlineStr">
+        <is>
+          <t>0.090000%</t>
+        </is>
+      </c>
+      <c r="AM6" s="80" t="inlineStr">
+        <is>
+          <t>1.200000%</t>
+        </is>
+      </c>
+      <c r="AN6" s="80" t="inlineStr">
+        <is>
+          <t>1.290000%</t>
+        </is>
+      </c>
     </row>
-    <row r="9">
-      <c r="B9" s="84" t="inlineStr">
+    <row r="7"/>
+    <row r="8">
+      <c r="B8" s="84" t="inlineStr">
         <is>
           <t>Need to update with the values below</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="B10" s="89" t="inlineStr">
+        <is>
+          <t>rows</t>
+        </is>
+      </c>
+      <c r="C10" s="129" t="inlineStr">
+        <is>
+          <t>Maturity_Date</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="89" t="inlineStr">
-        <is>
-          <t>rows</t>
-        </is>
-      </c>
-      <c r="C11" s="129" t="inlineStr">
-        <is>
-          <t>Maturity_Date</t>
+      <c r="B11" s="62" t="inlineStr">
+        <is>
+          <t>row1</t>
+        </is>
+      </c>
+      <c r="C11" s="82" t="inlineStr">
+        <is>
+          <t>30-Sep-2021</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="62" t="inlineStr">
         <is>
-          <t>row1</t>
+          <t>row2</t>
         </is>
       </c>
       <c r="C12" s="82" t="inlineStr">
@@ -2854,7 +3021,7 @@
     <row r="13">
       <c r="B13" s="62" t="inlineStr">
         <is>
-          <t>row2</t>
+          <t>row3</t>
         </is>
       </c>
       <c r="C13" s="82" t="inlineStr">
@@ -2866,7 +3033,7 @@
     <row r="14">
       <c r="B14" s="62" t="inlineStr">
         <is>
-          <t>row3</t>
+          <t>row4</t>
         </is>
       </c>
       <c r="C14" s="82" t="inlineStr">
@@ -2878,7 +3045,7 @@
     <row r="15">
       <c r="B15" s="62" t="inlineStr">
         <is>
-          <t>row4</t>
+          <t>row5</t>
         </is>
       </c>
       <c r="C15" s="82" t="inlineStr">
@@ -3744,8 +3911,8 @@
     <col width="29.42578125" customWidth="1" style="166" min="3" max="3"/>
     <col width="24.28515625" bestFit="1" customWidth="1" style="166" min="4" max="4"/>
     <col width="20.5703125" customWidth="1" style="166" min="5" max="5"/>
-    <col width="8.7109375" customWidth="1" style="166" min="6" max="49"/>
-    <col width="8.7109375" customWidth="1" style="166" min="50" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="166" min="6" max="50"/>
+    <col width="8.7109375" customWidth="1" style="166" min="51" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="163">
@@ -5538,8 +5705,8 @@
   </sheetPr>
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -7025,12 +7192,12 @@
           <t>AUD</t>
         </is>
       </c>
-      <c r="X9" s="168" t="inlineStr">
+      <c r="X9" s="167" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Y9" s="168" t="inlineStr">
+      <c r="Y9" s="167" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -7076,10 +7243,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="84" t="inlineStr">
         <is>
@@ -7087,7 +7250,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="B16" s="89" t="inlineStr">
         <is>
@@ -7242,7 +7404,7 @@
         </is>
       </c>
     </row>
-    <row r="23" s="143">
+    <row r="23">
       <c r="B23" s="87" t="inlineStr">
         <is>
           <t>row7</t>
@@ -7264,7 +7426,7 @@
         </is>
       </c>
     </row>
-    <row r="24" s="143">
+    <row r="24">
       <c r="B24" s="87" t="inlineStr">
         <is>
           <t>row8</t>
@@ -8356,8 +8518,8 @@
     <col width="27.140625" bestFit="1" customWidth="1" style="118" min="27" max="27"/>
     <col width="20.42578125" customWidth="1" style="118" min="28" max="28"/>
     <col width="15" bestFit="1" customWidth="1" style="118" min="29" max="29"/>
-    <col width="9.140625" customWidth="1" style="118" min="30" max="47"/>
-    <col width="9.140625" customWidth="1" style="118" min="48" max="16384"/>
+    <col width="9.140625" customWidth="1" style="118" min="30" max="48"/>
+    <col width="9.140625" customWidth="1" style="118" min="49" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="111">

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051A2DF1-B3C1-48C0-8916-502D09462FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4F170D-DC59-4C90-ABAD-140A1A0F5313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="724">
   <si>
     <t>rowid</t>
   </si>
@@ -1982,9 +1982,6 @@
     <t>Fee Accrual Shares Adjustment</t>
   </si>
   <si>
-    <t>ExpectedCycleDueAmt</t>
-  </si>
-  <si>
     <t>AfterPayment_CycleDueAmt</t>
   </si>
   <si>
@@ -2196,6 +2193,30 @@
   </si>
   <si>
     <t>126,992.05</t>
+  </si>
+  <si>
+    <t>-8,655.83</t>
+  </si>
+  <si>
+    <t>Expected_CurrentCycleDue</t>
+  </si>
+  <si>
+    <t>Expected_ProjectedCycleDue</t>
+  </si>
+  <si>
+    <t>Expected_RequestedAmt</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Collect fee (3/4/2020 - 15/5/2020)</t>
+  </si>
+  <si>
+    <t>ONG000000001612</t>
+  </si>
+  <si>
+    <t>Fee_Alias</t>
   </si>
 </sst>
 </file>
@@ -2552,7 +2573,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2947,6 +2968,12 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4730,10 +4757,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4742,15 +4769,18 @@
     <col min="3" max="3" width="26" style="133" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="133" customWidth="1"/>
     <col min="5" max="5" width="26.140625" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="133" customWidth="1"/>
-    <col min="8" max="8" width="31" style="133" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="133" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" style="133" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="133" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="133" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="133" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="133" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="133" customWidth="1"/>
+    <col min="10" max="10" width="31" style="133" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" style="133" customWidth="1"/>
+    <col min="12" max="12" width="39.7109375" style="133" customWidth="1"/>
+    <col min="13" max="13" width="36" style="133" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
@@ -4764,103 +4794,122 @@
         <v>432</v>
       </c>
       <c r="E1" s="117" t="s">
+        <v>719</v>
+      </c>
+      <c r="F1" s="117" t="s">
+        <v>717</v>
+      </c>
+      <c r="G1" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1" s="117" t="s">
+        <v>587</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>630</v>
+      </c>
+      <c r="J1" s="117" t="s">
         <v>645</v>
       </c>
-      <c r="F1" s="117" t="s">
-        <v>587</v>
-      </c>
-      <c r="G1" s="117" t="s">
-        <v>630</v>
-      </c>
-      <c r="H1" s="117" t="s">
+      <c r="K1" s="117" t="s">
         <v>646</v>
       </c>
-      <c r="I1" s="117" t="s">
+      <c r="L1" s="117" t="s">
         <v>647</v>
       </c>
-      <c r="J1" s="117" t="s">
+      <c r="M1" s="117" t="s">
         <v>648</v>
       </c>
-      <c r="K1" s="117" t="s">
-        <v>649</v>
+      <c r="N1" s="117" t="s">
+        <v>720</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="120" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2" s="137" t="s">
         <v>186</v>
       </c>
       <c r="D2" s="137" t="s">
+        <v>650</v>
+      </c>
+      <c r="E2" s="136" t="s">
         <v>651</v>
       </c>
-      <c r="E2" s="136" t="s">
-        <v>652</v>
-      </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="136" t="s">
+        <v>651</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>651</v>
+      </c>
+      <c r="H2" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="I2" s="136" t="s">
-        <v>652</v>
-      </c>
-      <c r="J2" s="136" t="s">
+      <c r="K2" s="136" t="s">
+        <v>651</v>
+      </c>
+      <c r="L2" s="136" t="s">
         <v>640</v>
       </c>
-      <c r="K2" s="136" t="s">
+      <c r="M2" s="136" t="s">
         <v>568</v>
       </c>
+      <c r="N2" s="41" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="120" t="s">
         <v>361</v>
       </c>
       <c r="B3" s="121" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C3" s="137" t="s">
         <v>186</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E3" s="136" t="s">
-        <v>698</v>
-      </c>
-      <c r="F3" s="129" t="s">
+        <v>697</v>
+      </c>
+      <c r="F3" s="183" t="s">
+        <v>568</v>
+      </c>
+      <c r="G3" s="136" t="s">
+        <v>697</v>
+      </c>
+      <c r="H3" s="129" t="s">
         <v>430</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="J3" s="183" t="s">
+        <v>716</v>
+      </c>
+      <c r="K3" s="136" t="s">
+        <v>697</v>
+      </c>
+      <c r="L3" s="136" t="s">
+        <v>697</v>
+      </c>
+      <c r="M3" s="136" t="s">
         <v>568</v>
       </c>
-      <c r="I3" s="136" t="s">
-        <v>698</v>
-      </c>
-      <c r="J3" s="136" t="s">
-        <v>698</v>
-      </c>
-      <c r="K3" s="136" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F4" s="133" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="133" t="s">
-        <v>317</v>
+      <c r="N3" s="184" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -4900,34 +4949,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="117" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1" s="117" t="s">
         <v>653</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="E1" s="117" t="s">
         <v>654</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="F1" s="117" t="s">
         <v>655</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="G1" s="117" t="s">
         <v>656</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="H1" s="117" t="s">
         <v>657</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="I1" s="117" t="s">
         <v>658</v>
       </c>
-      <c r="I1" s="117" t="s">
+      <c r="J1" s="117" t="s">
         <v>659</v>
-      </c>
-      <c r="J1" s="117" t="s">
-        <v>660</v>
       </c>
       <c r="K1" s="117" t="s">
         <v>630</v>
       </c>
       <c r="L1" s="117" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4935,7 +4984,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C2" s="71" t="s">
         <v>215</v>
@@ -4957,21 +5006,21 @@
         <v>361</v>
       </c>
       <c r="B3" s="121" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C3" s="138"/>
       <c r="D3" s="138"/>
       <c r="E3" s="71" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G3" s="139" t="s">
         <v>353</v>
       </c>
       <c r="H3" s="140" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I3" s="139" t="s">
         <v>352</v>
@@ -4991,19 +5040,19 @@
         <v>416</v>
       </c>
       <c r="C13" s="117" t="s">
+        <v>652</v>
+      </c>
+      <c r="D13" s="117" t="s">
         <v>653</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="E13" s="117" t="s">
         <v>654</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="F13" s="117" t="s">
         <v>655</v>
       </c>
-      <c r="F13" s="117" t="s">
-        <v>656</v>
-      </c>
       <c r="G13" s="117" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5027,13 +5076,13 @@
       <c r="C15" s="138"/>
       <c r="D15" s="138"/>
       <c r="E15" s="71" t="s">
+        <v>665</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>665</v>
+      </c>
+      <c r="G15" s="71" t="s">
         <v>666</v>
-      </c>
-      <c r="F15" s="71" t="s">
-        <v>666</v>
-      </c>
-      <c r="G15" s="71" t="s">
-        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -5073,16 +5122,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="117" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1" s="117" t="s">
         <v>668</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="E1" s="117" t="s">
         <v>669</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="F1" s="117" t="s">
         <v>670</v>
-      </c>
-      <c r="F1" s="117" t="s">
-        <v>671</v>
       </c>
       <c r="G1" s="117" t="s">
         <v>508</v>
@@ -5091,19 +5140,19 @@
         <v>488</v>
       </c>
       <c r="I1" s="143" t="s">
+        <v>671</v>
+      </c>
+      <c r="J1" s="143" t="s">
         <v>672</v>
       </c>
-      <c r="J1" s="143" t="s">
+      <c r="K1" s="143" t="s">
         <v>673</v>
       </c>
-      <c r="K1" s="143" t="s">
+      <c r="L1" s="143" t="s">
         <v>674</v>
       </c>
-      <c r="L1" s="143" t="s">
+      <c r="M1" s="143" t="s">
         <v>675</v>
-      </c>
-      <c r="M1" s="143" t="s">
-        <v>676</v>
       </c>
       <c r="N1" s="144"/>
       <c r="O1" s="144"/>
@@ -5116,7 +5165,7 @@
         <v>73</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C2" s="120" t="s">
         <v>73</v>
@@ -5125,7 +5174,7 @@
         <v>221</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>270</v>
@@ -5140,16 +5189,16 @@
         <v>275</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>679</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="17" t="s">
         <v>681</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -5183,16 +5232,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="117" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1" s="117" t="s">
         <v>683</v>
-      </c>
-      <c r="D1" s="117" t="s">
-        <v>684</v>
       </c>
       <c r="E1" s="117" t="s">
         <v>508</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5200,19 +5249,19 @@
         <v>73</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2" s="145" t="s">
         <v>686</v>
-      </c>
-      <c r="C2" s="145" t="s">
-        <v>687</v>
       </c>
       <c r="D2" s="147" t="s">
         <v>221</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>688</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -5250,13 +5299,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="152" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="153" t="s">
         <v>690</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="E1" s="153" t="s">
         <v>691</v>
-      </c>
-      <c r="E1" s="153" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5264,16 +5313,16 @@
         <v>73</v>
       </c>
       <c r="B2" s="155" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2" s="155" t="s">
         <v>693</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="D2" s="156" t="s">
         <v>694</v>
       </c>
-      <c r="D2" s="156" t="s">
+      <c r="E2" s="156" t="s">
         <v>695</v>
-      </c>
-      <c r="E2" s="156" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5296,7 +5345,7 @@
   <dimension ref="A1:CT3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -5669,7 +5718,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5683,7 +5732,7 @@
     <col min="8" max="8" width="27.42578125" style="133" customWidth="1"/>
     <col min="9" max="9" width="20" style="133" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" style="133" customWidth="1"/>
-    <col min="11" max="11" width="16" style="133" customWidth="1"/>
+    <col min="11" max="11" width="22" style="133" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" style="133" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" style="133" customWidth="1"/>
     <col min="19" max="19" width="24.28515625" customWidth="1"/>
@@ -5749,7 +5798,7 @@
         <v>208</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -5817,7 +5866,7 @@
         <v>361</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -5879,10 +5928,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BJ13"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BK1" sqref="BK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5920,9 +5969,10 @@
     <col min="60" max="60" width="26.140625" customWidth="1"/>
     <col min="61" max="61" width="30.5703125" customWidth="1"/>
     <col min="62" max="62" width="27.5703125" customWidth="1"/>
+    <col min="63" max="63" width="23.7109375" style="133" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
@@ -6074,43 +6124,46 @@
         <v>268</v>
       </c>
       <c r="AY1" s="163" t="s">
+        <v>700</v>
+      </c>
+      <c r="AZ1" s="163" t="s">
         <v>701</v>
       </c>
-      <c r="AZ1" s="163" t="s">
-        <v>702</v>
-      </c>
       <c r="BA1" s="163" t="s">
+        <v>706</v>
+      </c>
+      <c r="BB1" s="163" t="s">
+        <v>705</v>
+      </c>
+      <c r="BC1" s="163" t="s">
         <v>707</v>
       </c>
-      <c r="BB1" s="163" t="s">
-        <v>706</v>
-      </c>
-      <c r="BC1" s="163" t="s">
+      <c r="BD1" s="163" t="s">
         <v>708</v>
       </c>
-      <c r="BD1" s="163" t="s">
+      <c r="BE1" s="163" t="s">
         <v>709</v>
       </c>
-      <c r="BE1" s="163" t="s">
+      <c r="BF1" s="163" t="s">
         <v>710</v>
       </c>
-      <c r="BF1" s="163" t="s">
+      <c r="BG1" s="163" t="s">
         <v>711</v>
       </c>
-      <c r="BG1" s="163" t="s">
+      <c r="BH1" s="163" t="s">
         <v>712</v>
       </c>
-      <c r="BH1" s="163" t="s">
+      <c r="BI1" s="163" t="s">
         <v>713</v>
       </c>
-      <c r="BI1" s="163" t="s">
+      <c r="BJ1" s="163" t="s">
         <v>714</v>
       </c>
-      <c r="BJ1" s="163" t="s">
-        <v>715</v>
+      <c r="BK1" s="118" t="s">
+        <v>723</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="166" t="s">
         <v>73</v>
       </c>
@@ -6273,13 +6326,14 @@
       <c r="BH2" s="171"/>
       <c r="BI2" s="171"/>
       <c r="BJ2" s="171"/>
+      <c r="BK2" s="181"/>
     </row>
-    <row r="3" spans="1:62" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="166" t="s">
         <v>361</v>
       </c>
       <c r="B3" s="167" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C3" s="172"/>
       <c r="D3" s="137" t="s">
@@ -6327,16 +6381,16 @@
         <v>190</v>
       </c>
       <c r="AR3" s="177" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AS3" s="177" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AT3" s="68" t="s">
         <v>289</v>
       </c>
       <c r="AU3" s="177" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AV3" s="53" t="s">
         <v>291</v>
@@ -6359,13 +6413,14 @@
       <c r="BH3" s="173"/>
       <c r="BI3" s="173"/>
       <c r="BJ3" s="173"/>
+      <c r="BK3" s="181"/>
     </row>
-    <row r="4" spans="1:62" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="166" t="s">
         <v>366</v>
       </c>
       <c r="B4" s="167" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C4" s="181"/>
       <c r="D4" s="181"/>
@@ -6445,37 +6500,40 @@
         <v>568</v>
       </c>
       <c r="BF4" s="67" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="BG4" s="67" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="BH4" s="67" t="s">
         <v>568</v>
       </c>
       <c r="BI4" s="67" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="BJ4" s="67" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="BK4" s="20" t="s">
+        <v>722</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B5" s="174"/>
       <c r="AR5" s="176"/>
       <c r="AS5" s="176"/>
       <c r="AU5" s="176"/>
       <c r="AV5" s="178"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B10" s="74" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B11" s="133"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B12" s="79" t="s">
         <v>416</v>
       </c>
@@ -6489,7 +6547,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B13" s="53" t="s">
         <v>417</v>
       </c>
@@ -6694,7 +6752,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4F170D-DC59-4C90-ABAD-140A1A0F5313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085BFF1B-559C-4C67-8C5C-80DEE8178731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2250" windowWidth="21600" windowHeight="8490" tabRatio="877" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,13 @@
     <sheet name="CRED07_UpfrontFee_Payment" sheetId="15" r:id="rId15"/>
     <sheet name="TRPO12_PortfolioSettledDisc" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="742">
   <si>
     <t>rowid</t>
   </si>
@@ -674,6 +665,9 @@
     <t>Facility_BorrowerMaturity</t>
   </si>
   <si>
+    <t>AsOf_AccrualDate</t>
+  </si>
+  <si>
     <t>CRED01_FacilitySetup_LBT_BILAT</t>
   </si>
   <si>
@@ -710,6 +704,21 @@
     <t>100.000000%</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CRED01_AsOfAccrualDateSetup_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>Need to update with the values below</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>row1</t>
+  </si>
+  <si>
     <t>03-Apr-2020</t>
   </si>
   <si>
@@ -854,6 +863,45 @@
     <t>Penalty_Status</t>
   </si>
   <si>
+    <t>Actual_ExpiryDate</t>
+  </si>
+  <si>
+    <t>Original_ExpiryDate</t>
+  </si>
+  <si>
+    <t>Cycle_Number1</t>
+  </si>
+  <si>
+    <t>Cycle_Number2</t>
+  </si>
+  <si>
+    <t>Cycle2_StartDate</t>
+  </si>
+  <si>
+    <t>Cycle2_EndDate</t>
+  </si>
+  <si>
+    <t>Cycle1_CycleDueAmt</t>
+  </si>
+  <si>
+    <t>Cycle1_Projected_EOCAccrual</t>
+  </si>
+  <si>
+    <t>Cycle1_Projected_EOCDue</t>
+  </si>
+  <si>
+    <t>Cycle2_CycleDueAmt</t>
+  </si>
+  <si>
+    <t>Cycle2_Projected_EOCAccrual</t>
+  </si>
+  <si>
+    <t>Cycle2_Projected_EOCDue</t>
+  </si>
+  <si>
+    <t>Fee_Alias</t>
+  </si>
+  <si>
     <t>CRED08_OngoingFeeSetup_LBT_BILAT</t>
   </si>
   <si>
@@ -929,9 +977,75 @@
     <t>Off</t>
   </si>
   <si>
+    <t>ONG000000001172</t>
+  </si>
+  <si>
+    <t>CRED08_OngoingFeeExpiryUpdate_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>15-Apr-2021</t>
+  </si>
+  <si>
+    <t>to the adjusted due date</t>
+  </si>
+  <si>
+    <t>14-Apr-2021</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CRED08_OngoingFeeSetup2_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>15-May-2020</t>
+  </si>
+  <si>
+    <t>14-May-2020</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>14-Jun-2020</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>8,655.83</t>
+  </si>
+  <si>
+    <t>126,992.05</t>
+  </si>
+  <si>
+    <t>ONG000000001612</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CRED08_OngoingFeeExpiryUpdate2_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>05-Apr-2021</t>
+  </si>
+  <si>
+    <t>863,013.70</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CRED08_OngoingFeeSetup3_LBT_BILAT</t>
+  </si>
+  <si>
     <t>02-Apr-2020</t>
   </si>
   <si>
+    <t>ONG000000001651</t>
+  </si>
+  <si>
     <t>Primary_Lender</t>
   </si>
   <si>
@@ -1103,12 +1217,6 @@
     <t>1 Months</t>
   </si>
   <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>to the adjusted due date</t>
-  </si>
-  <si>
     <t>16-Jan-2024</t>
   </si>
   <si>
@@ -1130,9 +1238,6 @@
     <t>2.149600%</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">SERV01_LoanDrawdown_LBT_BILAT_OUTSTANDING_A </t>
   </si>
   <si>
@@ -1145,9 +1250,6 @@
     <t>14-Jan-2024</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t xml:space="preserve">SERV01_LoanDrawdown_LBT_BILAT_OUTSTANDING_B </t>
   </si>
   <si>
@@ -1157,9 +1259,6 @@
     <t>392,632,000.00</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>SERV01_LoanDrawdown_LBT_BILAT_OUTSTANDING_C</t>
   </si>
   <si>
@@ -1184,9 +1283,6 @@
     <t>2.151500%</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>SERV01_LoanDrawdown_LBT_BILAT_OUTSTANDING_D</t>
   </si>
   <si>
@@ -1292,15 +1388,6 @@
     <t>1.192500%</t>
   </si>
   <si>
-    <t>Need to update with the values below</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
-    <t>row1</t>
-  </si>
-  <si>
     <t>16-Jan-2020</t>
   </si>
   <si>
@@ -1337,12 +1424,6 @@
     <t>row8</t>
   </si>
   <si>
-    <t>15-May-2020</t>
-  </si>
-  <si>
-    <t>14-May-2020</t>
-  </si>
-  <si>
     <t>Payment_Type</t>
   </si>
   <si>
@@ -1751,9 +1832,6 @@
     <t>Awaiting Release</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>Approved</t>
   </si>
   <si>
@@ -1925,9 +2003,6 @@
     <t>15-Jun-2020</t>
   </si>
   <si>
-    <t>14-Jun-2020</t>
-  </si>
-  <si>
     <t>0.090000%</t>
   </si>
   <si>
@@ -1964,6 +2039,12 @@
     <t>FacilitiesTransaction_Type</t>
   </si>
   <si>
+    <t>AccrualAdjustment_Amount</t>
+  </si>
+  <si>
+    <t>ManualAdjustment_Amount</t>
+  </si>
+  <si>
     <t>MTAM06_AccrualsAdjustment_LBT_BILAT</t>
   </si>
   <si>
@@ -1982,6 +2063,30 @@
     <t>Fee Accrual Shares Adjustment</t>
   </si>
   <si>
+    <t>-4,726,960.97</t>
+  </si>
+  <si>
+    <t>5,589,974.67</t>
+  </si>
+  <si>
+    <t>accrual shares adjustment to correct annual fee notebook (3/4/2019 - 3/4/2020)</t>
+  </si>
+  <si>
+    <t>14-May-2019</t>
+  </si>
+  <si>
+    <t>-4,967,534.79</t>
+  </si>
+  <si>
+    <t>Expected_RequestedAmt</t>
+  </si>
+  <si>
+    <t>Expected_CurrentCycleDue</t>
+  </si>
+  <si>
+    <t>Expected_ProjectedCycleDue</t>
+  </si>
+  <si>
     <t>AfterPayment_CycleDueAmt</t>
   </si>
   <si>
@@ -1994,6 +2099,12 @@
     <t>AfterPayment_Projected_EOCDue</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
     <t>SERV21_FeePayment_LBT_BILAT</t>
   </si>
   <si>
@@ -2003,6 +2114,21 @@
     <t>240,573.82</t>
   </si>
   <si>
+    <t>-8,655.83</t>
+  </si>
+  <si>
+    <t>Collect fee (3/4/2020 - 15/5/2020)</t>
+  </si>
+  <si>
+    <t>SERV21_ReversalPayment_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>reverse fee payment (3/4/2019 - 3/4/2020) to correct the annual fee notebook</t>
+  </si>
+  <si>
+    <t>Fee Payment Released</t>
+  </si>
+  <si>
     <t>New_ExpiryDate</t>
   </si>
   <si>
@@ -2045,9 +2171,6 @@
     <t>15-May-2019</t>
   </si>
   <si>
-    <t>14-May-2019</t>
-  </si>
-  <si>
     <t>PricingChange_TransactionNo</t>
   </si>
   <si>
@@ -2135,88 +2258,10 @@
     <t>Existing WIP</t>
   </si>
   <si>
-    <t>CRED08_OngoingFeeExpiryUpdate_LBT_BILAT</t>
-  </si>
-  <si>
-    <t>8,655.83</t>
-  </si>
-  <si>
-    <t>15-Apr-2021</t>
-  </si>
-  <si>
-    <t>14-Apr-2021</t>
-  </si>
-  <si>
-    <t>Actual_ExpiryDate</t>
-  </si>
-  <si>
-    <t>Original_ExpiryDate</t>
-  </si>
-  <si>
-    <t>AsOf_AccrualDate</t>
-  </si>
-  <si>
-    <t>CRED01_AsOfAccrualDateSetup_LBT_BILAT</t>
-  </si>
-  <si>
-    <t>CRED08_OngoingFeeSetup2_LBT_BILAT</t>
-  </si>
-  <si>
-    <t>Cycle_Number2</t>
-  </si>
-  <si>
-    <t>Cycle_Number1</t>
-  </si>
-  <si>
-    <t>Cycle2_StartDate</t>
-  </si>
-  <si>
-    <t>Cycle2_EndDate</t>
-  </si>
-  <si>
-    <t>Cycle1_CycleDueAmt</t>
-  </si>
-  <si>
-    <t>Cycle1_Projected_EOCAccrual</t>
-  </si>
-  <si>
-    <t>Cycle1_Projected_EOCDue</t>
-  </si>
-  <si>
-    <t>Cycle2_CycleDueAmt</t>
-  </si>
-  <si>
-    <t>Cycle2_Projected_EOCAccrual</t>
-  </si>
-  <si>
-    <t>Cycle2_Projected_EOCDue</t>
-  </si>
-  <si>
-    <t>126,992.05</t>
-  </si>
-  <si>
-    <t>-8,655.83</t>
-  </si>
-  <si>
-    <t>Expected_CurrentCycleDue</t>
-  </si>
-  <si>
-    <t>Expected_ProjectedCycleDue</t>
-  </si>
-  <si>
-    <t>Expected_RequestedAmt</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Collect fee (3/4/2020 - 15/5/2020)</t>
-  </si>
-  <si>
-    <t>ONG000000001612</t>
-  </si>
-  <si>
-    <t>Fee_Alias</t>
+    <t>CRED08_OngoingFeeExpiryUpdate3_LBT_BILAT</t>
+  </si>
+  <si>
+    <t>1,344,120.64</t>
   </si>
 </sst>
 </file>
@@ -2488,7 +2533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2550,17 +2595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2573,7 +2607,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2863,14 +2897,10 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2942,21 +2972,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2972,7 +2993,35 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3914,7 +3963,7 @@
     <col min="9" max="9" width="12" style="124" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.42578125" style="124" customWidth="1"/>
     <col min="11" max="18" width="39.5703125" style="124" customWidth="1"/>
-    <col min="19" max="20" width="39.5703125" style="158" customWidth="1"/>
+    <col min="19" max="20" width="39.5703125" style="156" customWidth="1"/>
     <col min="21" max="21" width="19.42578125" style="124" customWidth="1"/>
     <col min="22" max="22" width="18" style="124" customWidth="1"/>
     <col min="23" max="23" width="25.5703125" style="124" customWidth="1"/>
@@ -3935,8 +3984,8 @@
     <col min="38" max="38" width="34.42578125" style="124" customWidth="1"/>
     <col min="39" max="39" width="23.85546875" style="124" customWidth="1"/>
     <col min="40" max="40" width="22.5703125" style="124" customWidth="1"/>
-    <col min="41" max="51" width="9.140625" style="124" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="124"/>
+    <col min="41" max="53" width="9.140625" style="124" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="124"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3947,118 +3996,118 @@
         <v>1</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="D1" s="118" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="E1" s="119" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="G1" s="117" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="I1" s="117" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="J1" s="117" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="K1" s="117" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="L1" s="117" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="M1" s="117" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
       <c r="N1" s="117" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="O1" s="117" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="P1" s="117" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="Q1" s="117" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="R1" s="117" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="S1" s="117" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="T1" s="117" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="U1" s="119" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="V1" s="119" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="W1" s="119" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="X1" s="117" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="Y1" s="117" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="Z1" s="117" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="AA1" s="117" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="AB1" s="117" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="AC1" s="117" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="AD1" s="117" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="AE1" s="127" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="AF1" s="128" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="AG1" s="117" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="AH1" s="117" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="AI1" s="117" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="AJ1" s="117" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="AK1" s="117" t="s">
-        <v>597</v>
+        <v>626</v>
       </c>
       <c r="AL1" s="117" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="AM1" s="117" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="AN1" s="117" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4066,22 +4115,22 @@
         <v>73</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="C2" s="122" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D2" s="121" t="s">
-        <v>599</v>
-      </c>
-      <c r="E2" s="136" t="s">
-        <v>600</v>
+        <v>628</v>
+      </c>
+      <c r="E2" s="191" t="s">
+        <v>629</v>
       </c>
       <c r="F2" s="122" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="G2" s="122" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="H2" s="122" t="s">
         <v>177</v>
@@ -4089,11 +4138,11 @@
       <c r="I2" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="136" t="s">
-        <v>603</v>
-      </c>
-      <c r="K2" s="136" t="s">
-        <v>604</v>
+      <c r="J2" s="191" t="s">
+        <v>632</v>
+      </c>
+      <c r="K2" s="191" t="s">
+        <v>633</v>
       </c>
       <c r="L2" s="132"/>
       <c r="M2" s="132"/>
@@ -4105,87 +4154,87 @@
       <c r="S2" s="132"/>
       <c r="T2" s="132"/>
       <c r="U2" s="129" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="V2" s="72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W2" s="54" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="X2" s="129" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="Y2" s="123" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="Z2" s="123" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="AA2" s="129" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="AB2" s="129" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="AC2" s="123" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="AD2" s="129" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="AE2" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AF2" s="126" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG2" s="136" t="s">
-        <v>600</v>
-      </c>
-      <c r="AH2" s="136" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI2" s="136" t="s">
-        <v>600</v>
-      </c>
-      <c r="AJ2" s="136" t="s">
-        <v>600</v>
+        <v>358</v>
+      </c>
+      <c r="AG2" s="191" t="s">
+        <v>629</v>
+      </c>
+      <c r="AH2" s="191" t="s">
+        <v>629</v>
+      </c>
+      <c r="AI2" s="191" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ2" s="191" t="s">
+        <v>629</v>
       </c>
       <c r="AK2" s="123" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="AL2" s="70" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="AM2" s="70" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="AN2" s="70" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="120" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="B3" s="121" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="C3" s="122" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" s="121" t="s">
-        <v>606</v>
-      </c>
-      <c r="E3" s="136" t="s">
-        <v>607</v>
+        <v>635</v>
+      </c>
+      <c r="E3" s="191" t="s">
+        <v>636</v>
       </c>
       <c r="F3" s="122" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="G3" s="122" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="H3" s="122" t="s">
         <v>177</v>
@@ -4195,14 +4244,14 @@
       </c>
       <c r="J3" s="131"/>
       <c r="K3" s="131"/>
-      <c r="L3" s="136" t="s">
-        <v>608</v>
-      </c>
-      <c r="M3" s="136" t="s">
-        <v>609</v>
-      </c>
-      <c r="N3" s="136" t="s">
-        <v>610</v>
+      <c r="L3" s="191" t="s">
+        <v>637</v>
+      </c>
+      <c r="M3" s="191" t="s">
+        <v>638</v>
+      </c>
+      <c r="N3" s="191" t="s">
+        <v>639</v>
       </c>
       <c r="O3" s="131"/>
       <c r="P3" s="131"/>
@@ -4211,87 +4260,87 @@
       <c r="S3" s="132"/>
       <c r="T3" s="132"/>
       <c r="U3" s="129" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="V3" s="72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W3" s="54" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="X3" s="129" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="Y3" s="123" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="Z3" s="123" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="AA3" s="129" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="AB3" s="129" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="AC3" s="123" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="AD3" s="129" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="AE3" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AF3" s="126" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG3" s="136" t="s">
-        <v>607</v>
-      </c>
-      <c r="AH3" s="136" t="s">
-        <v>607</v>
-      </c>
-      <c r="AI3" s="136" t="s">
-        <v>607</v>
-      </c>
-      <c r="AJ3" s="136" t="s">
-        <v>607</v>
+        <v>358</v>
+      </c>
+      <c r="AG3" s="191" t="s">
+        <v>636</v>
+      </c>
+      <c r="AH3" s="191" t="s">
+        <v>636</v>
+      </c>
+      <c r="AI3" s="191" t="s">
+        <v>636</v>
+      </c>
+      <c r="AJ3" s="191" t="s">
+        <v>636</v>
       </c>
       <c r="AK3" s="123" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="AL3" s="70" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="AM3" s="70" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="AN3" s="70" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="120" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="C4" s="122" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D4" s="121" t="s">
-        <v>612</v>
-      </c>
-      <c r="E4" s="136" t="s">
-        <v>613</v>
+        <v>641</v>
+      </c>
+      <c r="E4" s="191" t="s">
+        <v>642</v>
       </c>
       <c r="F4" s="122" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="G4" s="122" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="H4" s="122" t="s">
         <v>177</v>
@@ -4304,98 +4353,98 @@
       <c r="L4" s="131"/>
       <c r="M4" s="131"/>
       <c r="N4" s="131"/>
-      <c r="O4" s="136" t="s">
-        <v>614</v>
-      </c>
-      <c r="P4" s="136" t="s">
-        <v>615</v>
+      <c r="O4" s="191" t="s">
+        <v>643</v>
+      </c>
+      <c r="P4" s="191" t="s">
+        <v>644</v>
       </c>
       <c r="Q4" s="131"/>
       <c r="R4" s="131"/>
       <c r="S4" s="131"/>
       <c r="T4" s="131"/>
       <c r="U4" s="129" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="V4" s="72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W4" s="54" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="X4" s="129" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="Y4" s="123" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="Z4" s="123" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="AA4" s="129" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="AB4" s="129" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="AC4" s="123" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="AD4" s="129" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="AE4" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AF4" s="126" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG4" s="136" t="s">
-        <v>613</v>
-      </c>
-      <c r="AH4" s="136" t="s">
-        <v>613</v>
-      </c>
-      <c r="AI4" s="136" t="s">
-        <v>613</v>
-      </c>
-      <c r="AJ4" s="136" t="s">
-        <v>613</v>
+        <v>358</v>
+      </c>
+      <c r="AG4" s="191" t="s">
+        <v>642</v>
+      </c>
+      <c r="AH4" s="191" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI4" s="191" t="s">
+        <v>642</v>
+      </c>
+      <c r="AJ4" s="191" t="s">
+        <v>642</v>
       </c>
       <c r="AK4" s="123" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="AL4" s="70" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="AM4" s="70" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="AN4" s="70" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="120" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="B5" s="121" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="C5" s="122" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D5" s="121">
         <v>60003040</v>
       </c>
-      <c r="E5" s="136" t="s">
-        <v>617</v>
+      <c r="E5" s="191" t="s">
+        <v>646</v>
       </c>
       <c r="F5" s="122" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="G5" s="122" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="H5" s="122" t="s">
         <v>177</v>
@@ -4410,96 +4459,96 @@
       <c r="N5" s="131"/>
       <c r="O5" s="131"/>
       <c r="P5" s="131"/>
-      <c r="Q5" s="136" t="s">
-        <v>618</v>
-      </c>
-      <c r="R5" s="136" t="s">
-        <v>619</v>
+      <c r="Q5" s="191" t="s">
+        <v>647</v>
+      </c>
+      <c r="R5" s="191" t="s">
+        <v>648</v>
       </c>
       <c r="S5" s="131"/>
       <c r="T5" s="131"/>
       <c r="U5" s="129" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="V5" s="72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W5" s="54" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="X5" s="129" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="Y5" s="123" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="Z5" s="123" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="AA5" s="129" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="AB5" s="129" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="AC5" s="123" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="AD5" s="129" t="s">
-        <v>431</v>
+        <v>321</v>
       </c>
       <c r="AE5" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AF5" s="126" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG5" s="136" t="s">
-        <v>617</v>
-      </c>
-      <c r="AH5" s="136" t="s">
-        <v>617</v>
-      </c>
-      <c r="AI5" s="136" t="s">
-        <v>617</v>
-      </c>
-      <c r="AJ5" s="136" t="s">
-        <v>617</v>
+        <v>358</v>
+      </c>
+      <c r="AG5" s="191" t="s">
+        <v>646</v>
+      </c>
+      <c r="AH5" s="191" t="s">
+        <v>646</v>
+      </c>
+      <c r="AI5" s="191" t="s">
+        <v>646</v>
+      </c>
+      <c r="AJ5" s="191" t="s">
+        <v>646</v>
       </c>
       <c r="AK5" s="123" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="AL5" s="70" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="AM5" s="70" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="AN5" s="70" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:40" s="123" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="120" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="B6" s="121" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="C6" s="122" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D6" s="121" t="s">
-        <v>621</v>
-      </c>
-      <c r="E6" s="136" t="s">
-        <v>622</v>
+        <v>650</v>
+      </c>
+      <c r="E6" s="191" t="s">
+        <v>651</v>
       </c>
       <c r="F6" s="122" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="G6" s="122" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="H6" s="122" t="s">
         <v>177</v>
@@ -4516,124 +4565,124 @@
       <c r="P6" s="131"/>
       <c r="Q6" s="131"/>
       <c r="R6" s="131"/>
-      <c r="S6" s="136" t="s">
-        <v>623</v>
-      </c>
-      <c r="T6" s="136" t="s">
-        <v>624</v>
+      <c r="S6" s="191" t="s">
+        <v>652</v>
+      </c>
+      <c r="T6" s="191" t="s">
+        <v>653</v>
       </c>
       <c r="U6" s="129" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="V6" s="72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W6" s="54" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="X6" s="129" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="Y6" s="123" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="Z6" s="123" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="AA6" s="129" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="AB6" s="129" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="AC6" s="123" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="AD6" s="129" t="s">
-        <v>626</v>
+        <v>323</v>
       </c>
       <c r="AE6" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AF6" s="126" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG6" s="136" t="s">
-        <v>622</v>
-      </c>
-      <c r="AH6" s="136" t="s">
-        <v>622</v>
-      </c>
-      <c r="AI6" s="136" t="s">
-        <v>622</v>
-      </c>
-      <c r="AJ6" s="136" t="s">
-        <v>622</v>
+        <v>358</v>
+      </c>
+      <c r="AG6" s="191" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH6" s="191" t="s">
+        <v>651</v>
+      </c>
+      <c r="AI6" s="191" t="s">
+        <v>651</v>
+      </c>
+      <c r="AJ6" s="191" t="s">
+        <v>651</v>
       </c>
       <c r="AK6" s="123" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="AL6" s="70" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="AM6" s="70" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="AN6" s="70" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B8" s="74" t="s">
-        <v>415</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B10" s="79" t="s">
-        <v>416</v>
+        <v>225</v>
       </c>
       <c r="C10" s="119" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
-        <v>417</v>
+        <v>226</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13" s="53" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4644,26 +4693,28 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.42578125" style="133" customWidth="1"/>
-    <col min="3" max="4" width="27.7109375" style="133" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" style="133" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="133" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="133" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" style="133" customWidth="1"/>
-    <col min="10" max="11" width="24.7109375" style="133" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" style="133" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="133" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="190" customWidth="1"/>
+    <col min="3" max="4" width="27.7109375" style="190" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" style="190" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="190" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="190" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" style="190" customWidth="1"/>
+    <col min="10" max="11" width="24.7109375" style="190" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" style="190" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="190" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" style="190" customWidth="1"/>
+    <col min="15" max="15" width="23" style="190" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
@@ -4671,45 +4722,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="G1" s="117" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="I1" s="117" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="J1" s="117" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="K1" s="117" t="s">
-        <v>587</v>
-      </c>
-      <c r="L1" s="135" t="s">
-        <v>637</v>
-      </c>
-      <c r="M1" s="135" t="s">
-        <v>638</v>
+        <v>616</v>
+      </c>
+      <c r="L1" s="134" t="s">
+        <v>665</v>
+      </c>
+      <c r="M1" s="134" t="s">
+        <v>666</v>
+      </c>
+      <c r="N1" s="134" t="s">
+        <v>667</v>
+      </c>
+      <c r="O1" s="134" t="s">
+        <v>668</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="120" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>186</v>
@@ -4721,33 +4778,111 @@
         <v>190</v>
       </c>
       <c r="F2" s="129" t="s">
-        <v>294</v>
-      </c>
-      <c r="G2" s="136" t="s">
-        <v>640</v>
-      </c>
-      <c r="H2" s="136" t="s">
-        <v>640</v>
-      </c>
-      <c r="I2" s="136" t="s">
-        <v>641</v>
-      </c>
-      <c r="J2" s="136" t="s">
-        <v>642</v>
+        <v>334</v>
+      </c>
+      <c r="G2" s="191" t="s">
+        <v>670</v>
+      </c>
+      <c r="H2" s="191" t="s">
+        <v>670</v>
+      </c>
+      <c r="I2" s="191" t="s">
+        <v>671</v>
+      </c>
+      <c r="J2" s="191" t="s">
+        <v>672</v>
       </c>
       <c r="K2" s="129" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>644</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="120" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="129" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="180"/>
+      <c r="G3" s="191" t="s">
+        <v>675</v>
+      </c>
+      <c r="H3" s="191" t="s">
+        <v>675</v>
+      </c>
+      <c r="I3" s="191" t="s">
+        <v>676</v>
+      </c>
+      <c r="J3" s="191" t="s">
+        <v>677</v>
+      </c>
+      <c r="K3" s="129" t="s">
+        <v>678</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="N3" s="191" t="s">
+        <v>679</v>
+      </c>
+      <c r="O3" s="191" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J4" t="s">
+        <v>358</v>
+      </c>
+      <c r="K4" t="s">
+        <v>358</v>
+      </c>
+      <c r="L4" t="s">
+        <v>358</v>
+      </c>
+      <c r="M4" t="s">
+        <v>358</v>
+      </c>
+      <c r="N4" t="s">
+        <v>358</v>
+      </c>
+      <c r="O4" t="s">
+        <v>358</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4757,30 +4892,31 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.140625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="26" style="133" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="133" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="133" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="133" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="133" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="133" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="133" customWidth="1"/>
-    <col min="10" max="10" width="31" style="133" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" style="133" customWidth="1"/>
-    <col min="12" max="12" width="39.7109375" style="133" customWidth="1"/>
-    <col min="13" max="13" width="36" style="133" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="190" customWidth="1"/>
+    <col min="3" max="3" width="26" style="190" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="190" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="190" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="190" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="190" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="190" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="190" customWidth="1"/>
+    <col min="10" max="10" width="31" style="190" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" style="190" customWidth="1"/>
+    <col min="12" max="12" width="39.7109375" style="190" customWidth="1"/>
+    <col min="13" max="13" width="36" style="190" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="190" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" style="190" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
@@ -4788,133 +4924,175 @@
         <v>1</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>719</v>
+        <v>680</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
       <c r="G1" s="117" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="I1" s="117" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="J1" s="117" t="s">
-        <v>645</v>
+        <v>683</v>
       </c>
       <c r="K1" s="117" t="s">
-        <v>646</v>
+        <v>684</v>
       </c>
       <c r="L1" s="117" t="s">
-        <v>647</v>
+        <v>685</v>
       </c>
       <c r="M1" s="117" t="s">
-        <v>648</v>
+        <v>686</v>
       </c>
       <c r="N1" s="117" t="s">
-        <v>720</v>
+        <v>687</v>
+      </c>
+      <c r="O1" s="117" t="s">
+        <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="120" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>649</v>
-      </c>
-      <c r="C2" s="137" t="s">
+        <v>689</v>
+      </c>
+      <c r="C2" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="137" t="s">
-        <v>650</v>
-      </c>
-      <c r="E2" s="136" t="s">
-        <v>651</v>
-      </c>
-      <c r="F2" s="136" t="s">
-        <v>651</v>
-      </c>
-      <c r="G2" s="136" t="s">
-        <v>651</v>
+      <c r="D2" s="135" t="s">
+        <v>690</v>
+      </c>
+      <c r="E2" s="191" t="s">
+        <v>691</v>
+      </c>
+      <c r="F2" s="191" t="s">
+        <v>691</v>
+      </c>
+      <c r="G2" s="191" t="s">
+        <v>691</v>
       </c>
       <c r="H2" s="129" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="K2" s="136" t="s">
-        <v>651</v>
-      </c>
-      <c r="L2" s="136" t="s">
-        <v>640</v>
-      </c>
-      <c r="M2" s="136" t="s">
-        <v>568</v>
+      <c r="J2" s="135" t="s">
+        <v>324</v>
+      </c>
+      <c r="K2" s="191" t="s">
+        <v>691</v>
+      </c>
+      <c r="L2" s="191" t="s">
+        <v>670</v>
+      </c>
+      <c r="M2" s="191" t="s">
+        <v>324</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>107</v>
       </c>
+      <c r="O2" s="180"/>
     </row>
-    <row r="3" spans="1:14" s="133" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
-        <v>361</v>
-      </c>
-      <c r="B3" s="121" t="s">
-        <v>649</v>
-      </c>
-      <c r="C3" s="137" t="s">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="183" t="s">
+        <v>689</v>
+      </c>
+      <c r="C3" s="184" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="137" t="s">
-        <v>650</v>
-      </c>
-      <c r="E3" s="136" t="s">
-        <v>697</v>
-      </c>
-      <c r="F3" s="183" t="s">
-        <v>568</v>
-      </c>
-      <c r="G3" s="136" t="s">
-        <v>697</v>
-      </c>
-      <c r="H3" s="129" t="s">
-        <v>430</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="D3" s="184" t="s">
+        <v>690</v>
+      </c>
+      <c r="E3" s="185" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="186" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="185" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" s="187" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="188" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="183" t="s">
-        <v>716</v>
-      </c>
-      <c r="K3" s="136" t="s">
-        <v>697</v>
-      </c>
-      <c r="L3" s="136" t="s">
-        <v>697</v>
-      </c>
-      <c r="M3" s="136" t="s">
-        <v>568</v>
-      </c>
-      <c r="N3" s="184" t="s">
-        <v>721</v>
+      <c r="J3" s="186" t="s">
+        <v>692</v>
+      </c>
+      <c r="K3" s="185" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" s="185" t="s">
+        <v>325</v>
+      </c>
+      <c r="M3" s="185" t="s">
+        <v>324</v>
+      </c>
+      <c r="N3" s="185" t="s">
+        <v>693</v>
+      </c>
+      <c r="O3" s="180"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="120" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="121" t="s">
+        <v>694</v>
+      </c>
+      <c r="C4" s="135" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="171"/>
+      <c r="E4" s="191" t="s">
+        <v>691</v>
+      </c>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="129" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="189" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="178" t="s">
+        <v>675</v>
+      </c>
+      <c r="K4" s="135" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="181" t="s">
+        <v>695</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -4928,17 +5106,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="59.140625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="133" customWidth="1"/>
-    <col min="4" max="4" width="24" style="133" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="133" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="133" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="133" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="133" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="133" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="133" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" style="190" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="190" customWidth="1"/>
+    <col min="4" max="4" width="24" style="190" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="190" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="190" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="190" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="190" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="190" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="190" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="190" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="190" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4949,34 +5127,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="G1" s="117" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="I1" s="117" t="s">
+        <v>703</v>
+      </c>
+      <c r="J1" s="117" t="s">
+        <v>704</v>
+      </c>
+      <c r="K1" s="117" t="s">
         <v>658</v>
       </c>
-      <c r="J1" s="117" t="s">
-        <v>659</v>
-      </c>
-      <c r="K1" s="117" t="s">
-        <v>630</v>
-      </c>
       <c r="L1" s="117" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4984,105 +5162,105 @@
         <v>73</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="C2" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
+        <v>216</v>
+      </c>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="120" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="B3" s="121" t="s">
-        <v>662</v>
-      </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
+        <v>707</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="71" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>663</v>
-      </c>
-      <c r="G3" s="139" t="s">
-        <v>353</v>
-      </c>
-      <c r="H3" s="140" t="s">
-        <v>664</v>
-      </c>
-      <c r="I3" s="139" t="s">
-        <v>352</v>
-      </c>
-      <c r="J3" s="139" t="s">
+        <v>708</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="138" t="s">
+        <v>709</v>
+      </c>
+      <c r="I3" s="137" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" s="137" t="s">
         <v>107</v>
       </c>
       <c r="K3" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="142" t="s">
+      <c r="L3" s="140" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="79" t="s">
-        <v>416</v>
+        <v>225</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c r="E13" s="117" t="s">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="F13" s="117" t="s">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="G13" s="117" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="53" t="s">
-        <v>417</v>
+        <v>226</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D14" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
+        <v>228</v>
+      </c>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="53" t="s">
-        <v>419</v>
-      </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
+        <v>451</v>
+      </c>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="71" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -5100,18 +5278,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43" style="133" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="133" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="133" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="133" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="133" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="133" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="133" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" style="133" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="133" customWidth="1"/>
-    <col min="12" max="12" width="29" style="133" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="43" style="190" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="190" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="190" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="190" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="190" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="190" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="190" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="190" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="190" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="190" customWidth="1"/>
+    <col min="12" max="12" width="29" style="190" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="190" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5122,83 +5300,83 @@
         <v>1</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>667</v>
+        <v>711</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>668</v>
+        <v>712</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>669</v>
+        <v>713</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>670</v>
+        <v>714</v>
       </c>
       <c r="G1" s="117" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>488</v>
-      </c>
-      <c r="I1" s="143" t="s">
-        <v>671</v>
-      </c>
-      <c r="J1" s="143" t="s">
-        <v>672</v>
-      </c>
-      <c r="K1" s="143" t="s">
-        <v>673</v>
-      </c>
-      <c r="L1" s="143" t="s">
-        <v>674</v>
-      </c>
-      <c r="M1" s="143" t="s">
-        <v>675</v>
-      </c>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
+        <v>518</v>
+      </c>
+      <c r="I1" s="141" t="s">
+        <v>715</v>
+      </c>
+      <c r="J1" s="141" t="s">
+        <v>716</v>
+      </c>
+      <c r="K1" s="141" t="s">
+        <v>717</v>
+      </c>
+      <c r="L1" s="141" t="s">
+        <v>718</v>
+      </c>
+      <c r="M1" s="141" t="s">
+        <v>719</v>
+      </c>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="120" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>676</v>
+        <v>720</v>
       </c>
       <c r="C2" s="120" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="129" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>186</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>678</v>
+        <v>722</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>679</v>
+        <v>723</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>680</v>
+        <v>724</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>681</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -5217,11 +5395,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40" style="133" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="133" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" style="133" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="133" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="40" style="190" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="190" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="190" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="190" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="190" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5232,36 +5410,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>682</v>
+        <v>726</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="E1" s="117" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="F1" s="117" t="s">
-        <v>684</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="144" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="C2" s="145" t="s">
-        <v>686</v>
-      </c>
-      <c r="D2" s="147" t="s">
-        <v>221</v>
+        <v>729</v>
+      </c>
+      <c r="C2" s="143" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2" s="145" t="s">
+        <v>227</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>688</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -5282,53 +5460,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="156" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="156" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="156" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="156" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="156" customWidth="1"/>
-    <col min="6" max="51" width="8.7109375" style="156" customWidth="1"/>
-    <col min="52" max="16384" width="8.7109375" style="156"/>
+    <col min="1" max="1" width="5.85546875" style="154" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="154" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="154" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="154" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="154" customWidth="1"/>
+    <col min="6" max="53" width="8.7109375" style="154" customWidth="1"/>
+    <col min="54" max="16384" width="8.7109375" style="154"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="153" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:5" s="151" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="152" t="s">
-        <v>689</v>
-      </c>
-      <c r="D1" s="153" t="s">
-        <v>690</v>
-      </c>
-      <c r="E1" s="153" t="s">
-        <v>691</v>
+      <c r="C1" s="150" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1" s="151" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1" s="151" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="155" t="s">
-        <v>692</v>
-      </c>
-      <c r="C2" s="155" t="s">
-        <v>693</v>
-      </c>
-      <c r="D2" s="156" t="s">
-        <v>694</v>
-      </c>
-      <c r="E2" s="156" t="s">
-        <v>695</v>
+      <c r="B2" s="153" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2" s="153" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2" s="154" t="s">
+        <v>738</v>
+      </c>
+      <c r="E2" s="154" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="154"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5436,8 +5614,8 @@
     <col min="87" max="87" width="18.85546875" style="1" customWidth="1"/>
     <col min="88" max="88" width="26.28515625" style="7" customWidth="1"/>
     <col min="89" max="90" width="31.140625" style="7" customWidth="1"/>
-    <col min="91" max="91" width="40.7109375" style="133" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="15.85546875" style="133" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="40.7109375" style="190" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="15.85546875" style="190" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="20.42578125" style="7" customWidth="1"/>
     <col min="94" max="94" width="27.140625" style="7" customWidth="1"/>
     <col min="95" max="95" width="21.140625" style="7" customWidth="1"/>
@@ -5445,131 +5623,131 @@
     <col min="98" max="98" width="23.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="149" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+    <row r="1" spans="1:42" s="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="149" t="s">
+      <c r="H1" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="149" t="s">
+      <c r="I1" s="147" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="149" t="s">
+      <c r="J1" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="149" t="s">
+      <c r="K1" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="149" t="s">
+      <c r="L1" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="147" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="149" t="s">
+      <c r="N1" s="147" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="149" t="s">
+      <c r="O1" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="149" t="s">
+      <c r="P1" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="149" t="s">
+      <c r="Q1" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="149" t="s">
+      <c r="R1" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="149" t="s">
+      <c r="S1" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="149" t="s">
+      <c r="T1" s="147" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="149" t="s">
+      <c r="U1" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="149" t="s">
+      <c r="V1" s="147" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="149" t="s">
+      <c r="W1" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="149" t="s">
+      <c r="X1" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="Y1" s="149" t="s">
+      <c r="Y1" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="Z1" s="149" t="s">
+      <c r="Z1" s="147" t="s">
         <v>148</v>
       </c>
-      <c r="AA1" s="149" t="s">
+      <c r="AA1" s="147" t="s">
         <v>149</v>
       </c>
-      <c r="AB1" s="149" t="s">
+      <c r="AB1" s="147" t="s">
         <v>150</v>
       </c>
-      <c r="AC1" s="149" t="s">
+      <c r="AC1" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="AD1" s="149" t="s">
+      <c r="AD1" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="AE1" s="149" t="s">
+      <c r="AE1" s="147" t="s">
         <v>153</v>
       </c>
-      <c r="AF1" s="149" t="s">
+      <c r="AF1" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="AG1" s="149" t="s">
+      <c r="AG1" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="AH1" s="149" t="s">
+      <c r="AH1" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="AI1" s="149" t="s">
+      <c r="AI1" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="AJ1" s="149" t="s">
+      <c r="AJ1" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="AK1" s="149" t="s">
+      <c r="AK1" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="AL1" s="149" t="s">
+      <c r="AL1" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="AM1" s="151" t="s">
+      <c r="AM1" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="AN1" s="151" t="s">
+      <c r="AN1" s="149" t="s">
         <v>162</v>
       </c>
-      <c r="AO1" s="151" t="s">
+      <c r="AO1" s="149" t="s">
         <v>163</v>
       </c>
-      <c r="AP1" s="151" t="s">
+      <c r="AP1" s="149" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5723,20 +5901,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.28515625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="133" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="133" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="133" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="133" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="133" customWidth="1"/>
-    <col min="9" max="9" width="20" style="133" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="133" customWidth="1"/>
-    <col min="11" max="11" width="22" style="133" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="133" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="133" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" customWidth="1"/>
-    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="190" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="190" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="190" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="190" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="190" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="190" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="190" customWidth="1"/>
+    <col min="9" max="9" width="20" style="190" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="190" customWidth="1"/>
+    <col min="11" max="11" width="22" style="190" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="190" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="190" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" style="190" customWidth="1"/>
+    <col min="20" max="20" width="20" style="190" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -5798,7 +5976,7 @@
         <v>208</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>702</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -5806,19 +5984,19 @@
         <v>73</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>115</v>
@@ -5830,43 +6008,43 @@
         <v>174</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N2" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="20" t="s">
-        <v>217</v>
-      </c>
       <c r="P2" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q2" s="20" t="s">
         <v>171</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="T2" s="173"/>
+        <v>218</v>
+      </c>
+      <c r="T2" s="171"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>703</v>
+        <v>223</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -5891,12 +6069,12 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="74" t="s">
-        <v>415</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="79" t="s">
-        <v>416</v>
+        <v>225</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>199</v>
@@ -5907,17 +6085,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="53" t="s">
-        <v>417</v>
+        <v>226</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="Date Format" prompt="ddmmyy" sqref="H2:J2 C13" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
@@ -5931,307 +6108,307 @@
   <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BK1" sqref="BK1"/>
+      <selection activeCell="BH9" sqref="BH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28" style="133" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="133" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="133" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="10" width="20.42578125" style="133" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="133" customWidth="1"/>
-    <col min="12" max="13" width="20.42578125" style="133" customWidth="1"/>
-    <col min="14" max="15" width="21.85546875" style="133" customWidth="1"/>
-    <col min="16" max="28" width="18.42578125" style="133" customWidth="1"/>
-    <col min="29" max="30" width="22.5703125" style="133" customWidth="1"/>
-    <col min="31" max="31" width="23.85546875" style="133" customWidth="1"/>
-    <col min="32" max="42" width="20.5703125" style="133" customWidth="1"/>
-    <col min="43" max="43" width="23.28515625" style="133" customWidth="1"/>
-    <col min="44" max="44" width="24.28515625" style="133" customWidth="1"/>
-    <col min="45" max="45" width="24.5703125" style="133" customWidth="1"/>
-    <col min="46" max="46" width="25" style="133" customWidth="1"/>
-    <col min="47" max="47" width="31.42578125" style="133" customWidth="1"/>
-    <col min="48" max="48" width="23.5703125" style="133" customWidth="1"/>
-    <col min="49" max="49" width="19" style="133" customWidth="1"/>
-    <col min="50" max="50" width="14.7109375" style="133" customWidth="1"/>
-    <col min="51" max="51" width="19" customWidth="1"/>
-    <col min="52" max="52" width="19.28515625" customWidth="1"/>
-    <col min="53" max="53" width="11.7109375" customWidth="1"/>
-    <col min="55" max="55" width="16.42578125" customWidth="1"/>
-    <col min="56" max="56" width="15.5703125" customWidth="1"/>
-    <col min="57" max="57" width="20" customWidth="1"/>
-    <col min="58" max="58" width="30.85546875" customWidth="1"/>
-    <col min="59" max="59" width="26.28515625" customWidth="1"/>
-    <col min="60" max="60" width="26.140625" customWidth="1"/>
-    <col min="61" max="61" width="30.5703125" customWidth="1"/>
-    <col min="62" max="62" width="27.5703125" customWidth="1"/>
-    <col min="63" max="63" width="23.7109375" style="133" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="190" customWidth="1"/>
+    <col min="3" max="3" width="28" style="190" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="190" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="190" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="190" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="190" customWidth="1"/>
+    <col min="8" max="10" width="20.42578125" style="190" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="190" customWidth="1"/>
+    <col min="12" max="13" width="20.42578125" style="190" customWidth="1"/>
+    <col min="14" max="15" width="21.85546875" style="190" customWidth="1"/>
+    <col min="16" max="28" width="18.42578125" style="190" customWidth="1"/>
+    <col min="29" max="30" width="22.5703125" style="190" customWidth="1"/>
+    <col min="31" max="31" width="23.85546875" style="190" customWidth="1"/>
+    <col min="32" max="42" width="20.5703125" style="190" customWidth="1"/>
+    <col min="43" max="43" width="23.28515625" style="190" customWidth="1"/>
+    <col min="44" max="44" width="24.28515625" style="190" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" style="190" customWidth="1"/>
+    <col min="46" max="46" width="25" style="190" customWidth="1"/>
+    <col min="47" max="47" width="31.42578125" style="190" customWidth="1"/>
+    <col min="48" max="48" width="23.5703125" style="190" customWidth="1"/>
+    <col min="49" max="49" width="19" style="190" customWidth="1"/>
+    <col min="50" max="50" width="14.7109375" style="190" customWidth="1"/>
+    <col min="51" max="51" width="19" style="190" customWidth="1"/>
+    <col min="52" max="52" width="19.28515625" style="190" customWidth="1"/>
+    <col min="53" max="53" width="11.7109375" style="190" customWidth="1"/>
+    <col min="55" max="55" width="16.42578125" style="190" customWidth="1"/>
+    <col min="56" max="56" width="15.5703125" style="190" customWidth="1"/>
+    <col min="57" max="57" width="20" style="190" customWidth="1"/>
+    <col min="58" max="58" width="30.85546875" style="190" customWidth="1"/>
+    <col min="59" max="59" width="26.28515625" style="190" customWidth="1"/>
+    <col min="60" max="60" width="26.140625" style="190" customWidth="1"/>
+    <col min="61" max="61" width="30.5703125" style="190" customWidth="1"/>
+    <col min="62" max="62" width="27.5703125" style="190" customWidth="1"/>
+    <col min="63" max="63" width="23.7109375" style="190" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:63" s="163" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="163" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="163" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="164" t="s">
+      <c r="C1" s="161" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="161" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="164" t="s">
+      <c r="F1" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="163" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="163" t="s">
-        <v>228</v>
-      </c>
-      <c r="K1" s="163" t="s">
-        <v>229</v>
-      </c>
-      <c r="L1" s="163" t="s">
-        <v>230</v>
-      </c>
-      <c r="M1" s="163" t="s">
+      <c r="G1" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="163" t="s">
+      <c r="H1" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="O1" s="163" t="s">
+      <c r="I1" s="161" t="s">
         <v>233</v>
       </c>
-      <c r="P1" s="163" t="s">
+      <c r="J1" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="Q1" s="163" t="s">
+      <c r="K1" s="161" t="s">
         <v>235</v>
       </c>
-      <c r="R1" s="163" t="s">
+      <c r="L1" s="161" t="s">
         <v>236</v>
       </c>
-      <c r="S1" s="163" t="s">
+      <c r="M1" s="161" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="163" t="s">
+      <c r="N1" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="163" t="s">
+      <c r="O1" s="161" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="163" t="s">
+      <c r="P1" s="161" t="s">
         <v>240</v>
       </c>
-      <c r="W1" s="163" t="s">
+      <c r="Q1" s="161" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="163" t="s">
+      <c r="R1" s="161" t="s">
         <v>242</v>
       </c>
-      <c r="Y1" s="163" t="s">
+      <c r="S1" s="161" t="s">
         <v>243</v>
       </c>
-      <c r="Z1" s="163" t="s">
+      <c r="T1" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="AA1" s="163" t="s">
+      <c r="U1" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="AB1" s="163" t="s">
+      <c r="V1" s="161" t="s">
         <v>246</v>
       </c>
-      <c r="AC1" s="163" t="s">
+      <c r="W1" s="161" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="163" t="s">
+      <c r="X1" s="161" t="s">
         <v>248</v>
       </c>
-      <c r="AE1" s="163" t="s">
+      <c r="Y1" s="161" t="s">
         <v>249</v>
       </c>
-      <c r="AF1" s="163" t="s">
+      <c r="Z1" s="161" t="s">
         <v>250</v>
       </c>
-      <c r="AG1" s="163" t="s">
+      <c r="AA1" s="161" t="s">
         <v>251</v>
       </c>
-      <c r="AH1" s="163" t="s">
+      <c r="AB1" s="161" t="s">
         <v>252</v>
       </c>
-      <c r="AI1" s="163" t="s">
+      <c r="AC1" s="161" t="s">
         <v>253</v>
       </c>
-      <c r="AJ1" s="163" t="s">
+      <c r="AD1" s="161" t="s">
         <v>254</v>
       </c>
-      <c r="AK1" s="163" t="s">
+      <c r="AE1" s="161" t="s">
         <v>255</v>
       </c>
-      <c r="AL1" s="163" t="s">
+      <c r="AF1" s="161" t="s">
         <v>256</v>
       </c>
-      <c r="AM1" s="163" t="s">
+      <c r="AG1" s="161" t="s">
         <v>257</v>
       </c>
-      <c r="AN1" s="163" t="s">
+      <c r="AH1" s="161" t="s">
         <v>258</v>
       </c>
-      <c r="AO1" s="163" t="s">
+      <c r="AI1" s="161" t="s">
         <v>259</v>
       </c>
-      <c r="AP1" s="163" t="s">
+      <c r="AJ1" s="161" t="s">
         <v>260</v>
       </c>
-      <c r="AQ1" s="163" t="s">
+      <c r="AK1" s="161" t="s">
         <v>261</v>
       </c>
-      <c r="AR1" s="163" t="s">
+      <c r="AL1" s="161" t="s">
         <v>262</v>
       </c>
-      <c r="AS1" s="163" t="s">
+      <c r="AM1" s="161" t="s">
         <v>263</v>
       </c>
-      <c r="AT1" s="163" t="s">
+      <c r="AN1" s="161" t="s">
         <v>264</v>
       </c>
-      <c r="AU1" s="163" t="s">
+      <c r="AO1" s="161" t="s">
         <v>265</v>
       </c>
-      <c r="AV1" s="161" t="s">
+      <c r="AP1" s="161" t="s">
         <v>266</v>
       </c>
-      <c r="AW1" s="161" t="s">
+      <c r="AQ1" s="161" t="s">
         <v>267</v>
       </c>
-      <c r="AX1" s="161" t="s">
+      <c r="AR1" s="161" t="s">
         <v>268</v>
       </c>
-      <c r="AY1" s="163" t="s">
-        <v>700</v>
-      </c>
-      <c r="AZ1" s="163" t="s">
-        <v>701</v>
-      </c>
-      <c r="BA1" s="163" t="s">
-        <v>706</v>
-      </c>
-      <c r="BB1" s="163" t="s">
-        <v>705</v>
-      </c>
-      <c r="BC1" s="163" t="s">
-        <v>707</v>
-      </c>
-      <c r="BD1" s="163" t="s">
-        <v>708</v>
-      </c>
-      <c r="BE1" s="163" t="s">
-        <v>709</v>
-      </c>
-      <c r="BF1" s="163" t="s">
-        <v>710</v>
-      </c>
-      <c r="BG1" s="163" t="s">
-        <v>711</v>
-      </c>
-      <c r="BH1" s="163" t="s">
-        <v>712</v>
-      </c>
-      <c r="BI1" s="163" t="s">
-        <v>713</v>
-      </c>
-      <c r="BJ1" s="163" t="s">
-        <v>714</v>
+      <c r="AS1" s="161" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT1" s="161" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU1" s="161" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV1" s="159" t="s">
+        <v>272</v>
+      </c>
+      <c r="AW1" s="159" t="s">
+        <v>273</v>
+      </c>
+      <c r="AX1" s="159" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY1" s="161" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ1" s="161" t="s">
+        <v>276</v>
+      </c>
+      <c r="BA1" s="161" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB1" s="161" t="s">
+        <v>278</v>
+      </c>
+      <c r="BC1" s="161" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD1" s="161" t="s">
+        <v>280</v>
+      </c>
+      <c r="BE1" s="161" t="s">
+        <v>281</v>
+      </c>
+      <c r="BF1" s="161" t="s">
+        <v>282</v>
+      </c>
+      <c r="BG1" s="161" t="s">
+        <v>283</v>
+      </c>
+      <c r="BH1" s="161" t="s">
+        <v>284</v>
+      </c>
+      <c r="BI1" s="161" t="s">
+        <v>285</v>
+      </c>
+      <c r="BJ1" s="161" t="s">
+        <v>286</v>
       </c>
       <c r="BK1" s="118" t="s">
-        <v>723</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:63" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="167" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="137" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="137" t="s">
+      <c r="B2" s="165" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="137" t="s">
+      <c r="E2" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="137" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="137" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="137" t="s">
-        <v>272</v>
-      </c>
-      <c r="I2" s="137" t="s">
-        <v>273</v>
-      </c>
-      <c r="J2" s="137" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" s="137" t="s">
+      <c r="F2" s="135" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="135" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="135" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="135" t="s">
+        <v>292</v>
+      </c>
+      <c r="J2" s="135" t="s">
+        <v>293</v>
+      </c>
+      <c r="K2" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="137" t="s">
-        <v>275</v>
-      </c>
-      <c r="M2" s="137" t="s">
-        <v>276</v>
-      </c>
-      <c r="N2" s="168" t="s">
-        <v>277</v>
-      </c>
-      <c r="O2" s="168" t="s">
-        <v>278</v>
-      </c>
-      <c r="P2" s="137" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q2" s="137" t="s">
-        <v>280</v>
-      </c>
-      <c r="R2" s="137" t="s">
-        <v>272</v>
+      <c r="L2" s="135" t="s">
+        <v>294</v>
+      </c>
+      <c r="M2" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="N2" s="166" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="166" t="s">
+        <v>297</v>
+      </c>
+      <c r="P2" s="135" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q2" s="135" t="s">
+        <v>299</v>
+      </c>
+      <c r="R2" s="135" t="s">
+        <v>291</v>
       </c>
       <c r="S2" s="77" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="T2" s="77" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="U2" s="77" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="V2" s="77" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="W2" s="77" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="X2" s="77" t="s">
         <v>116</v>
@@ -6246,22 +6423,22 @@
         <v>55</v>
       </c>
       <c r="AB2" s="77" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC2" s="137" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC2" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="AD2" s="137" t="s">
+      <c r="AD2" s="135" t="s">
         <v>177</v>
       </c>
       <c r="AE2" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF2" s="169">
+        <v>290</v>
+      </c>
+      <c r="AF2" s="167">
         <v>1.3</v>
       </c>
       <c r="AG2" s="77" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="AH2" s="77">
         <v>55</v>
@@ -6269,7 +6446,7 @@
       <c r="AI2" s="77">
         <v>65</v>
       </c>
-      <c r="AJ2" s="169">
+      <c r="AJ2" s="167">
         <v>1.2</v>
       </c>
       <c r="AK2" s="77">
@@ -6278,287 +6455,550 @@
       <c r="AL2" s="77">
         <v>75</v>
       </c>
-      <c r="AM2" s="169">
+      <c r="AM2" s="167">
         <v>1.1200000000000001</v>
       </c>
       <c r="AN2" s="77">
         <v>75</v>
       </c>
       <c r="AO2" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="AP2" s="169">
+        <v>307</v>
+      </c>
+      <c r="AP2" s="167">
         <v>1.05</v>
       </c>
-      <c r="AQ2" s="170" t="s">
+      <c r="AQ2" s="168" t="s">
         <v>190</v>
       </c>
       <c r="AR2" s="76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AS2" s="76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AT2" s="68" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="AU2" s="76" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="AV2" s="53" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="AW2" s="67" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="AX2" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="AY2" s="171"/>
-      <c r="AZ2" s="171"/>
-      <c r="BA2" s="171"/>
-      <c r="BB2" s="171"/>
-      <c r="BC2" s="171"/>
-      <c r="BD2" s="171"/>
-      <c r="BE2" s="171"/>
-      <c r="BF2" s="171"/>
-      <c r="BG2" s="171"/>
-      <c r="BH2" s="171"/>
-      <c r="BI2" s="171"/>
-      <c r="BJ2" s="171"/>
-      <c r="BK2" s="181"/>
+        <v>312</v>
+      </c>
+      <c r="AY2" s="169"/>
+      <c r="AZ2" s="169"/>
+      <c r="BA2" s="169"/>
+      <c r="BB2" s="169"/>
+      <c r="BC2" s="169"/>
+      <c r="BD2" s="169"/>
+      <c r="BE2" s="169"/>
+      <c r="BF2" s="169"/>
+      <c r="BG2" s="169"/>
+      <c r="BH2" s="169"/>
+      <c r="BI2" s="169"/>
+      <c r="BJ2" s="169"/>
+      <c r="BK2" s="179" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="3" spans="1:63" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="166" t="s">
-        <v>361</v>
-      </c>
-      <c r="B3" s="167" t="s">
-        <v>696</v>
-      </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="137" t="s">
+      <c r="A3" s="164" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="165" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="170"/>
+      <c r="D3" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="172"/>
-      <c r="AK3" s="172"/>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="172"/>
-      <c r="AN3" s="172"/>
-      <c r="AO3" s="172"/>
-      <c r="AP3" s="172"/>
-      <c r="AQ3" s="170" t="s">
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="170"/>
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="AR3" s="177" t="s">
-        <v>698</v>
-      </c>
-      <c r="AS3" s="177" t="s">
-        <v>698</v>
+      <c r="AR3" s="173" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS3" s="173" t="s">
+        <v>315</v>
       </c>
       <c r="AT3" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="AU3" s="177" t="s">
-        <v>699</v>
+        <v>316</v>
+      </c>
+      <c r="AU3" s="173" t="s">
+        <v>317</v>
       </c>
       <c r="AV3" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="AW3" s="172"/>
-      <c r="AX3" s="172"/>
-      <c r="AY3" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ3" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="BA3" s="173"/>
-      <c r="BB3" s="173"/>
-      <c r="BC3" s="173"/>
-      <c r="BD3" s="173"/>
-      <c r="BE3" s="173"/>
-      <c r="BF3" s="173"/>
-      <c r="BG3" s="173"/>
-      <c r="BH3" s="173"/>
-      <c r="BI3" s="173"/>
-      <c r="BJ3" s="173"/>
-      <c r="BK3" s="181"/>
+        <v>310</v>
+      </c>
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="170"/>
+      <c r="AY3" s="168" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ3" s="168" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA3" s="171"/>
+      <c r="BB3" s="171"/>
+      <c r="BC3" s="171"/>
+      <c r="BD3" s="171"/>
+      <c r="BE3" s="171"/>
+      <c r="BF3" s="171"/>
+      <c r="BG3" s="171"/>
+      <c r="BH3" s="171"/>
+      <c r="BI3" s="171"/>
+      <c r="BJ3" s="171"/>
+      <c r="BK3" s="176"/>
     </row>
     <row r="4" spans="1:63" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="166" t="s">
-        <v>366</v>
-      </c>
-      <c r="B4" s="167" t="s">
-        <v>704</v>
-      </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="181"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="180"/>
-      <c r="Y4" s="180"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="181"/>
-      <c r="AD4" s="181"/>
-      <c r="AE4" s="180"/>
-      <c r="AF4" s="179"/>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="179"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="180"/>
-      <c r="AM4" s="179"/>
-      <c r="AN4" s="180"/>
-      <c r="AO4" s="180"/>
-      <c r="AP4" s="179"/>
-      <c r="AQ4" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="AR4" s="175" t="s">
-        <v>430</v>
-      </c>
-      <c r="AS4" s="175" t="s">
-        <v>430</v>
+      <c r="A4" s="164" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="165" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="175"/>
+      <c r="Z4" s="175"/>
+      <c r="AA4" s="175"/>
+      <c r="AB4" s="175"/>
+      <c r="AC4" s="176"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="175"/>
+      <c r="AF4" s="174"/>
+      <c r="AG4" s="175"/>
+      <c r="AH4" s="175"/>
+      <c r="AI4" s="175"/>
+      <c r="AJ4" s="174"/>
+      <c r="AK4" s="175"/>
+      <c r="AL4" s="175"/>
+      <c r="AM4" s="174"/>
+      <c r="AN4" s="175"/>
+      <c r="AO4" s="175"/>
+      <c r="AP4" s="174"/>
+      <c r="AQ4" s="168" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR4" s="172" t="s">
+        <v>320</v>
+      </c>
+      <c r="AS4" s="172" t="s">
+        <v>320</v>
       </c>
       <c r="AT4" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="AU4" s="175" t="s">
-        <v>431</v>
+        <v>316</v>
+      </c>
+      <c r="AU4" s="172" t="s">
+        <v>321</v>
       </c>
       <c r="AV4" s="53" t="s">
-        <v>352</v>
-      </c>
-      <c r="AW4" s="171"/>
-      <c r="AX4" s="171"/>
-      <c r="AY4" s="171"/>
-      <c r="AZ4" s="171"/>
+        <v>322</v>
+      </c>
+      <c r="AW4" s="169"/>
+      <c r="AX4" s="169"/>
+      <c r="AY4" s="169"/>
+      <c r="AZ4" s="169"/>
       <c r="BA4" s="68">
         <v>1</v>
       </c>
       <c r="BB4" s="68">
         <v>2</v>
       </c>
-      <c r="BC4" s="175" t="s">
-        <v>430</v>
-      </c>
-      <c r="BD4" s="175" t="s">
-        <v>626</v>
+      <c r="BC4" s="172" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD4" s="172" t="s">
+        <v>323</v>
       </c>
       <c r="BE4" s="67" t="s">
-        <v>568</v>
+        <v>324</v>
       </c>
       <c r="BF4" s="67" t="s">
-        <v>697</v>
+        <v>325</v>
       </c>
       <c r="BG4" s="67" t="s">
-        <v>697</v>
+        <v>325</v>
       </c>
       <c r="BH4" s="67" t="s">
-        <v>568</v>
+        <v>324</v>
       </c>
       <c r="BI4" s="67" t="s">
-        <v>715</v>
+        <v>326</v>
       </c>
       <c r="BJ4" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="BK4" s="20" t="s">
-        <v>722</v>
+        <v>326</v>
+      </c>
+      <c r="BK4" s="68" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="B5" s="174"/>
-      <c r="AR5" s="176"/>
-      <c r="AS5" s="176"/>
-      <c r="AU5" s="176"/>
-      <c r="AV5" s="178"/>
+      <c r="A5" s="164" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="165" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="176"/>
+      <c r="Y5" s="176"/>
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="176"/>
+      <c r="AB5" s="176"/>
+      <c r="AC5" s="176"/>
+      <c r="AD5" s="176"/>
+      <c r="AE5" s="176"/>
+      <c r="AF5" s="176"/>
+      <c r="AG5" s="176"/>
+      <c r="AH5" s="176"/>
+      <c r="AI5" s="176"/>
+      <c r="AJ5" s="176"/>
+      <c r="AK5" s="176"/>
+      <c r="AL5" s="176"/>
+      <c r="AM5" s="176"/>
+      <c r="AN5" s="176"/>
+      <c r="AO5" s="176"/>
+      <c r="AP5" s="176"/>
+      <c r="AQ5" s="168" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR5" s="173" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS5" s="173" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT5" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU5" s="173" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV5" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW5" s="169"/>
+      <c r="AX5" s="169"/>
+      <c r="AY5" s="168" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ5" s="168" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA5" s="68">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="68">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="172" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD5" s="172" t="s">
+        <v>330</v>
+      </c>
+      <c r="BE5" s="167" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF5" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="BG5" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH5" s="171"/>
+      <c r="BI5" s="171"/>
+      <c r="BJ5" s="171"/>
+      <c r="BK5" s="171"/>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A6" s="164" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="165" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="176"/>
+      <c r="X6" s="176"/>
+      <c r="Y6" s="176"/>
+      <c r="Z6" s="176"/>
+      <c r="AA6" s="176"/>
+      <c r="AB6" s="176"/>
+      <c r="AC6" s="176"/>
+      <c r="AD6" s="176"/>
+      <c r="AE6" s="176"/>
+      <c r="AF6" s="176"/>
+      <c r="AG6" s="176"/>
+      <c r="AH6" s="176"/>
+      <c r="AI6" s="176"/>
+      <c r="AJ6" s="176"/>
+      <c r="AK6" s="176"/>
+      <c r="AL6" s="176"/>
+      <c r="AM6" s="176"/>
+      <c r="AN6" s="176"/>
+      <c r="AO6" s="176"/>
+      <c r="AP6" s="176"/>
+      <c r="AQ6" s="168" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR6" s="173" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS6" s="173" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT6" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU6" s="173" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV6" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW6" s="169"/>
+      <c r="AX6" s="169"/>
+      <c r="AY6" s="169"/>
+      <c r="AZ6" s="169"/>
+      <c r="BA6" s="68">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="169"/>
+      <c r="BC6" s="169"/>
+      <c r="BD6" s="169"/>
+      <c r="BE6" s="169"/>
+      <c r="BF6" s="169"/>
+      <c r="BG6" s="169"/>
+      <c r="BH6" s="169"/>
+      <c r="BI6" s="169"/>
+      <c r="BJ6" s="169"/>
+      <c r="BK6" s="20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A7" s="164" t="s">
+        <v>422</v>
+      </c>
+      <c r="B7" s="165" t="s">
+        <v>740</v>
+      </c>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="176"/>
+      <c r="Y7" s="176"/>
+      <c r="Z7" s="176"/>
+      <c r="AA7" s="176"/>
+      <c r="AB7" s="176"/>
+      <c r="AC7" s="176"/>
+      <c r="AD7" s="176"/>
+      <c r="AE7" s="176"/>
+      <c r="AF7" s="176"/>
+      <c r="AG7" s="176"/>
+      <c r="AH7" s="176"/>
+      <c r="AI7" s="176"/>
+      <c r="AJ7" s="176"/>
+      <c r="AK7" s="176"/>
+      <c r="AL7" s="176"/>
+      <c r="AM7" s="176"/>
+      <c r="AN7" s="176"/>
+      <c r="AO7" s="176"/>
+      <c r="AP7" s="176"/>
+      <c r="AQ7" s="169"/>
+      <c r="AR7" s="169"/>
+      <c r="AS7" s="169"/>
+      <c r="AT7" s="169"/>
+      <c r="AU7" s="169"/>
+      <c r="AV7" s="169"/>
+      <c r="AW7" s="169"/>
+      <c r="AX7" s="169"/>
+      <c r="AY7" s="168" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="68">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="68">
+        <v>2</v>
+      </c>
+      <c r="BC7" s="169"/>
+      <c r="BD7" s="169"/>
+      <c r="BE7" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="BF7" s="67" t="s">
+        <v>670</v>
+      </c>
+      <c r="BG7" s="67" t="s">
+        <v>670</v>
+      </c>
+      <c r="BH7" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="BI7" s="67" t="s">
+        <v>741</v>
+      </c>
+      <c r="BJ7" s="67" t="s">
+        <v>741</v>
+      </c>
+      <c r="BK7" s="171"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B10" s="74" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="B11" s="133"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B12" s="79" t="s">
-        <v>416</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="160" t="s">
-        <v>263</v>
-      </c>
-      <c r="E12" s="160" t="s">
-        <v>265</v>
+        <v>225</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="158" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="158" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B13" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="C13" s="159" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="159" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="159" t="s">
-        <v>294</v>
+        <v>226</v>
+      </c>
+      <c r="C13" s="157" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="157" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="157" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6593,10 +7033,10 @@
     <col min="9" max="9" width="19.42578125" style="7" customWidth="1"/>
     <col min="10" max="11" width="21.140625" style="7" customWidth="1"/>
     <col min="12" max="16" width="29.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="18" style="133" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" style="133" customWidth="1"/>
+    <col min="17" max="17" width="18" style="190" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="190" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" style="133" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" style="190" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6613,52 +7053,52 @@
         <v>193</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="J1" s="58" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="L1" s="58" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="M1" s="58" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="N1" s="58" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="O1" s="59" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="P1" s="59" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="Q1" s="59" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="R1" s="59" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="S1" s="59" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="T1" s="60" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -6666,13 +7106,13 @@
         <v>73</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>170</v>
@@ -6684,13 +7124,13 @@
         <v>97</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>174</v>
@@ -6705,13 +7145,13 @@
         <v>174</v>
       </c>
       <c r="O2" s="53" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="P2" s="53" t="s">
         <v>95</v>
       </c>
       <c r="Q2" s="53" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="R2" s="54" t="s">
         <v>174</v>
@@ -6725,16 +7165,16 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="K3" s="7" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -6757,33 +7197,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="51.7109375" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="133" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="133" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="133" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="133" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="133" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="133" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="133" customWidth="1"/>
-    <col min="13" max="13" width="24" style="133" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="133" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="133" customWidth="1"/>
-    <col min="16" max="17" width="21.7109375" style="133" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="133" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" style="133" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" style="133" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="133" customWidth="1"/>
-    <col min="22" max="22" width="15" style="133" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="133" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" style="133" customWidth="1"/>
-    <col min="26" max="26" width="25.7109375" style="133" customWidth="1"/>
-    <col min="27" max="27" width="32.28515625" style="133" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="133" customWidth="1"/>
-    <col min="29" max="29" width="30" style="133" customWidth="1"/>
-    <col min="30" max="30" width="31.42578125" style="133" customWidth="1"/>
-    <col min="31" max="31" width="21.85546875" style="133" customWidth="1"/>
-    <col min="32" max="32" width="21.7109375" style="133" customWidth="1"/>
-    <col min="33" max="33" width="14.7109375" style="133" customWidth="1"/>
+    <col min="2" max="5" width="51.7109375" style="190" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="190" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="190" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="190" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="190" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="190" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="190" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="190" customWidth="1"/>
+    <col min="13" max="13" width="24" style="190" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="190" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="190" customWidth="1"/>
+    <col min="16" max="17" width="21.7109375" style="190" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="190" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" style="190" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" style="190" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" style="190" customWidth="1"/>
+    <col min="22" max="22" width="15" style="190" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="190" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" style="190" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" style="190" customWidth="1"/>
+    <col min="27" max="27" width="32.28515625" style="190" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="190" customWidth="1"/>
+    <col min="29" max="29" width="30" style="190" customWidth="1"/>
+    <col min="30" max="30" width="31.42578125" style="190" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" style="190" customWidth="1"/>
+    <col min="32" max="32" width="21.7109375" style="190" customWidth="1"/>
+    <col min="33" max="33" width="14.7109375" style="190" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="61" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6800,91 +7240,91 @@
         <v>193</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="K1" s="63" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="M1" s="61" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="N1" s="61" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="O1" s="61" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="P1" s="61" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="Q1" s="61" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="R1" s="63" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="S1" s="63" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="T1" s="63" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="U1" s="63" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="V1" s="63" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="W1" s="61" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="Z1" s="61" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="AA1" s="61" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="AB1" s="61" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="AC1" s="61" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="AD1" s="61" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="AE1" s="61" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="AF1" s="61" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="AG1" s="61" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6892,52 +7332,52 @@
         <v>73</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="I2" s="136" t="s">
-        <v>349</v>
+      <c r="I2" s="191" t="s">
+        <v>390</v>
       </c>
       <c r="J2" s="54" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="K2" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M2" s="65" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="N2" s="53" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O2" s="72" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="P2" s="72" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="Q2" s="54" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="R2" s="53" t="s">
         <v>120</v>
@@ -6949,10 +7389,10 @@
         <v>107</v>
       </c>
       <c r="U2" s="53" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="V2" s="53" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="W2" s="65" t="s">
         <v>115</v>
@@ -6963,26 +7403,26 @@
       <c r="Y2" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="136" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA2" s="136" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB2" s="136" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC2" s="136" t="s">
-        <v>349</v>
+      <c r="Z2" s="191" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA2" s="191" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB2" s="191" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC2" s="191" t="s">
+        <v>390</v>
       </c>
       <c r="AD2" s="70" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="AE2" s="70" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="AF2" s="70" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="AG2" s="130" t="s">
         <v>116</v>
@@ -6990,55 +7430,55 @@
     </row>
     <row r="3" spans="1:33" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H3" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="I3" s="136" t="s">
-        <v>364</v>
+      <c r="I3" s="191" t="s">
+        <v>402</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="K3" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L3" s="53" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M3" s="65" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="N3" s="53" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O3" s="72" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="P3" s="72" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="Q3" s="54" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="R3" s="53" t="s">
         <v>120</v>
@@ -7050,10 +7490,10 @@
         <v>107</v>
       </c>
       <c r="U3" s="53" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="V3" s="53" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="W3" s="65" t="s">
         <v>115</v>
@@ -7064,26 +7504,26 @@
       <c r="Y3" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="Z3" s="136" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA3" s="136" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB3" s="136" t="s">
-        <v>364</v>
-      </c>
-      <c r="AC3" s="136" t="s">
-        <v>364</v>
+      <c r="Z3" s="191" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA3" s="191" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB3" s="191" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC3" s="191" t="s">
+        <v>402</v>
       </c>
       <c r="AD3" s="70" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="AE3" s="70" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="AF3" s="70" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="AG3" s="130" t="s">
         <v>116</v>
@@ -7091,55 +7531,55 @@
     </row>
     <row r="4" spans="1:33" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E4" s="68" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="136" t="s">
-        <v>369</v>
+      <c r="I4" s="191" t="s">
+        <v>406</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M4" s="65" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O4" s="72" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="P4" s="72" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="54" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="R4" s="53" t="s">
         <v>120</v>
@@ -7151,10 +7591,10 @@
         <v>107</v>
       </c>
       <c r="U4" s="53" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="V4" s="53" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="W4" s="65" t="s">
         <v>115</v>
@@ -7165,26 +7605,26 @@
       <c r="Y4" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="Z4" s="136" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA4" s="136" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB4" s="136" t="s">
-        <v>369</v>
-      </c>
-      <c r="AC4" s="136" t="s">
-        <v>369</v>
+      <c r="Z4" s="191" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA4" s="191" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB4" s="191" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC4" s="191" t="s">
+        <v>406</v>
       </c>
       <c r="AD4" s="70" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="AE4" s="70" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="AF4" s="70" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="AG4" s="130" t="s">
         <v>116</v>
@@ -7192,55 +7632,55 @@
     </row>
     <row r="5" spans="1:33" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="136" t="s">
-        <v>373</v>
+      <c r="I5" s="191" t="s">
+        <v>409</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M5" s="65" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="N5" s="53" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O5" s="72" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="P5" s="72" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="R5" s="53" t="s">
         <v>120</v>
@@ -7252,10 +7692,10 @@
         <v>107</v>
       </c>
       <c r="U5" s="53" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="V5" s="53" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="W5" s="65" t="s">
         <v>115</v>
@@ -7266,26 +7706,26 @@
       <c r="Y5" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="Z5" s="136" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA5" s="136" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB5" s="136" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC5" s="136" t="s">
-        <v>373</v>
+      <c r="Z5" s="191" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA5" s="191" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB5" s="191" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC5" s="191" t="s">
+        <v>409</v>
       </c>
       <c r="AD5" s="70" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="AE5" s="70" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="AF5" s="70" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="AG5" s="130" t="s">
         <v>116</v>
@@ -7293,55 +7733,55 @@
     </row>
     <row r="6" spans="1:33" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E6" s="68" t="s">
         <v>102</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="I6" s="136" t="s">
-        <v>382</v>
+      <c r="I6" s="191" t="s">
+        <v>417</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L6" s="53" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M6" s="65" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="N6" s="53" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O6" s="72" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="P6" s="72" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="Q6" s="54" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="R6" s="53" t="s">
         <v>120</v>
@@ -7353,10 +7793,10 @@
         <v>107</v>
       </c>
       <c r="U6" s="53" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="V6" s="53" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="W6" s="65" t="s">
         <v>115</v>
@@ -7367,26 +7807,26 @@
       <c r="Y6" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="Z6" s="136" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA6" s="136" t="s">
-        <v>382</v>
-      </c>
-      <c r="AB6" s="136" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC6" s="136" t="s">
-        <v>382</v>
+      <c r="Z6" s="191" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA6" s="191" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB6" s="191" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC6" s="191" t="s">
+        <v>417</v>
       </c>
       <c r="AD6" s="70" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="AE6" s="70" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="AF6" s="70" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="AG6" s="68" t="s">
         <v>111</v>
@@ -7394,55 +7834,55 @@
     </row>
     <row r="7" spans="1:33" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E7" s="68" t="s">
         <v>102</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H7" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="136" t="s">
-        <v>390</v>
+      <c r="I7" s="191" t="s">
+        <v>425</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M7" s="65" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="N7" s="53" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O7" s="72" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="P7" s="72" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="Q7" s="54" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="R7" s="53" t="s">
         <v>120</v>
@@ -7454,10 +7894,10 @@
         <v>107</v>
       </c>
       <c r="U7" s="53" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="V7" s="53" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="W7" s="65" t="s">
         <v>115</v>
@@ -7468,26 +7908,26 @@
       <c r="Y7" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="Z7" s="136" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA7" s="136" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB7" s="136" t="s">
-        <v>390</v>
-      </c>
-      <c r="AC7" s="136" t="s">
-        <v>390</v>
+      <c r="Z7" s="191" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA7" s="191" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB7" s="191" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC7" s="191" t="s">
+        <v>425</v>
       </c>
       <c r="AD7" s="70" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="AE7" s="70" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="AF7" s="70" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="AG7" s="130" t="s">
         <v>116</v>
@@ -7495,55 +7935,55 @@
     </row>
     <row r="8" spans="1:33" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E8" s="68" t="s">
         <v>102</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H8" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="136" t="s">
-        <v>400</v>
+      <c r="I8" s="191" t="s">
+        <v>435</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="K8" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L8" s="53" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M8" s="65" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="N8" s="53" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O8" s="72" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="P8" s="72" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="Q8" s="54" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="R8" s="53" t="s">
         <v>120</v>
@@ -7555,10 +7995,10 @@
         <v>107</v>
       </c>
       <c r="U8" s="53" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="V8" s="53" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="W8" s="65" t="s">
         <v>115</v>
@@ -7569,26 +8009,26 @@
       <c r="Y8" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="Z8" s="136" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA8" s="136" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB8" s="136" t="s">
-        <v>400</v>
-      </c>
-      <c r="AC8" s="136" t="s">
-        <v>400</v>
+      <c r="Z8" s="191" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA8" s="191" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB8" s="191" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC8" s="191" t="s">
+        <v>435</v>
       </c>
       <c r="AD8" s="70" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="AE8" s="70" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="AF8" s="70" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="AG8" s="130" t="s">
         <v>116</v>
@@ -7596,55 +8036,55 @@
     </row>
     <row r="9" spans="1:33" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E9" s="68" t="s">
         <v>102</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H9" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="I9" s="136" t="s">
-        <v>409</v>
+      <c r="I9" s="191" t="s">
+        <v>444</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L9" s="53" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M9" s="65" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="N9" s="53" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O9" s="72" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="P9" s="72" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="Q9" s="54" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="R9" s="53" t="s">
         <v>120</v>
@@ -7656,40 +8096,40 @@
         <v>107</v>
       </c>
       <c r="U9" s="53" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="V9" s="53" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="W9" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="X9" s="157" t="s">
+      <c r="X9" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="Y9" s="157" t="s">
+      <c r="Y9" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="Z9" s="136" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA9" s="136" t="s">
-        <v>409</v>
-      </c>
-      <c r="AB9" s="136" t="s">
-        <v>409</v>
-      </c>
-      <c r="AC9" s="136" t="s">
-        <v>409</v>
+      <c r="Z9" s="191" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA9" s="191" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB9" s="191" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC9" s="191" t="s">
+        <v>444</v>
       </c>
       <c r="AD9" s="70" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="AE9" s="70" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="AF9" s="70" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="AG9" s="130" t="s">
         <v>116</v>
@@ -7697,133 +8137,133 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B14" s="74" t="s">
-        <v>415</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="79" t="s">
-        <v>416</v>
+        <v>225</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="53" t="s">
-        <v>417</v>
+        <v>226</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="77" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="77" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="77" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="77" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="77" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="77" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="E23" s="72" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="77" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="E24" s="72" t="s">
-        <v>431</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -7842,16 +8282,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.140625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="133" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="133" customWidth="1"/>
-    <col min="5" max="5" width="41" style="133" customWidth="1"/>
-    <col min="6" max="6" width="25" style="133" customWidth="1"/>
-    <col min="7" max="7" width="28" style="133" customWidth="1"/>
-    <col min="8" max="14" width="26.28515625" style="133" customWidth="1"/>
-    <col min="15" max="15" width="22" style="133" customWidth="1"/>
-    <col min="16" max="16" width="30.28515625" style="133" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="190" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="190" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="190" customWidth="1"/>
+    <col min="5" max="5" width="41" style="190" customWidth="1"/>
+    <col min="6" max="6" width="25" style="190" customWidth="1"/>
+    <col min="7" max="7" width="28" style="190" customWidth="1"/>
+    <col min="8" max="14" width="26.28515625" style="190" customWidth="1"/>
+    <col min="15" max="15" width="22" style="190" customWidth="1"/>
+    <col min="16" max="16" width="30.28515625" style="190" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" style="190" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -7862,49 +8302,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="J1" s="90" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="L1" s="90" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="M1" s="90" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="N1" s="90" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="O1" s="81" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="P1" s="81" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="Q1" s="81" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -7912,43 +8352,43 @@
         <v>73</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="G2" s="80" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="H2" s="80" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="I2" s="80" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="J2" s="54" t="s">
         <v>73</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="L2" s="54" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="O2" s="53" t="s">
         <v>120</v>
@@ -7957,15 +8397,15 @@
         <v>120</v>
       </c>
       <c r="Q2" s="53" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I10" s="91"/>
@@ -7990,36 +8430,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="48.140625" style="133" customWidth="1"/>
-    <col min="3" max="4" width="17" style="133" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="133" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="133" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="133" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="133" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="133" customWidth="1"/>
-    <col min="10" max="10" width="18" style="133" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="133" customWidth="1"/>
-    <col min="12" max="12" width="31.7109375" style="133" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" style="133" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" style="133" customWidth="1"/>
-    <col min="15" max="15" width="20" style="133" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" style="133" customWidth="1"/>
-    <col min="20" max="20" width="44.7109375" style="133" customWidth="1"/>
-    <col min="21" max="21" width="43.28515625" style="133" customWidth="1"/>
-    <col min="22" max="22" width="30.42578125" style="133" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" style="133" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" style="133" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" style="133" customWidth="1"/>
-    <col min="26" max="26" width="25.5703125" style="133" customWidth="1"/>
-    <col min="27" max="27" width="29.7109375" style="133" customWidth="1"/>
-    <col min="28" max="28" width="17.7109375" style="133" customWidth="1"/>
-    <col min="35" max="35" width="11" style="133" customWidth="1"/>
-    <col min="36" max="36" width="15.5703125" style="133" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" style="133" customWidth="1"/>
-    <col min="39" max="39" width="16.5703125" style="133" customWidth="1"/>
-    <col min="40" max="40" width="11.85546875" style="133" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" style="133" customWidth="1"/>
-    <col min="45" max="45" width="13.42578125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="190" customWidth="1"/>
+    <col min="3" max="4" width="17" style="190" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="190" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="190" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="190" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="190" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="190" customWidth="1"/>
+    <col min="10" max="10" width="18" style="190" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="190" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" style="190" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="190" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" style="190" customWidth="1"/>
+    <col min="15" max="15" width="20" style="190" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" style="190" customWidth="1"/>
+    <col min="20" max="20" width="44.7109375" style="190" customWidth="1"/>
+    <col min="21" max="21" width="43.28515625" style="190" customWidth="1"/>
+    <col min="22" max="22" width="30.42578125" style="190" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" style="190" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" style="190" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="190" customWidth="1"/>
+    <col min="26" max="26" width="25.5703125" style="190" customWidth="1"/>
+    <col min="27" max="27" width="29.7109375" style="190" customWidth="1"/>
+    <col min="28" max="28" width="17.7109375" style="190" customWidth="1"/>
+    <col min="35" max="35" width="11" style="190" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" style="190" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" style="190" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" style="190" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" style="190" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" style="190" customWidth="1"/>
+    <col min="45" max="45" width="13.42578125" style="190" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8036,184 +8476,184 @@
         <v>193</v>
       </c>
       <c r="E1" s="83" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="G1" s="84" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="H1" s="83" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="I1" s="84" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="J1" s="82" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="K1" s="83" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="L1" s="83" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="M1" s="83" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="N1" s="83" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="O1" s="82" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="P1" s="83" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="Q1" s="83" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="R1" s="83" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="S1" s="82" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="T1" s="82" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="U1" s="82" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="V1" s="82" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="W1" s="82" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="X1" s="82" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="Y1" s="82" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="Z1" s="82" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="AA1" s="82" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="AB1" s="82" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="AC1" s="85" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="AD1" s="85" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="AE1" s="85" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="AF1" s="86" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="AG1" s="85" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="AH1" s="82" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="AI1" s="82" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="AJ1" s="87" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="AK1" s="87" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="AL1" s="87" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AM1" s="82" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="AN1" s="82" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="AO1" s="82" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="AP1" s="83" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="AQ1" s="83" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="AR1" s="83" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="AS1" s="83" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="AT1" s="83" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="AU1" s="83" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="AV1" s="83" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="AW1" s="83" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="AX1" s="83" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="AY1" s="83" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="AZ1" s="82" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="BA1" s="83" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="BB1" s="83" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="BC1" s="82" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="BD1" s="82" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="BE1" s="82" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="BF1" s="82" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="BG1" s="82" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="BH1" s="82" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="BI1" s="82" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="BJ1" s="82" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="BK1" s="82" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="BL1" s="83" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:64" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8221,99 +8661,99 @@
         <v>73</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="F2" s="89">
         <v>1100</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="H2" s="92" t="s">
         <v>102</v>
       </c>
       <c r="I2" s="89" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="J2" s="89" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="K2" s="89" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="L2" s="89" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="M2" s="97">
         <v>44945</v>
       </c>
       <c r="N2" s="89" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="O2" s="93" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="P2" s="93" t="s">
         <v>109</v>
       </c>
       <c r="Q2" s="89" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="R2" s="89" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="S2" s="93" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="T2" s="93" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="U2" s="93" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="V2" s="93" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="W2" s="93" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="X2" s="93" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="Y2" s="93" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="Z2" s="93" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="AA2" s="93" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="AB2" s="93" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="AC2" s="93"/>
       <c r="AD2" s="93" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="AE2" s="93"/>
       <c r="AF2" s="94"/>
       <c r="AG2" s="89"/>
       <c r="AH2" s="93" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="AI2" s="89"/>
       <c r="AJ2" s="89" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="AK2" s="89"/>
       <c r="AL2" s="89" t="s">
@@ -8323,7 +8763,7 @@
         <v>1171049.45</v>
       </c>
       <c r="AN2" s="92" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="AO2" s="96">
         <v>885.51</v>
@@ -8356,102 +8796,102 @@
     </row>
     <row r="3" spans="1:64" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>168</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="F3" s="89">
         <v>1100</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="H3" s="92" t="s">
         <v>101</v>
       </c>
       <c r="I3" s="89" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="J3" s="89" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="K3" s="89" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="L3" s="89" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="M3" s="89" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="N3" s="89" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="O3" s="93" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="P3" s="93" t="s">
         <v>109</v>
       </c>
       <c r="Q3" s="89" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="R3" s="89" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="S3" s="93" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="T3" s="93" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="U3" s="93" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="V3" s="93" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="W3" s="93" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="X3" s="93" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="Y3" s="93" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="Z3" s="93" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="AA3" s="93" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="AB3" s="93" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="AC3" s="93"/>
       <c r="AD3" s="93" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="AE3" s="93"/>
       <c r="AF3" s="94"/>
       <c r="AG3" s="89"/>
       <c r="AH3" s="93" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="AI3" s="89"/>
       <c r="AJ3" s="89" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="AK3" s="89"/>
       <c r="AL3" s="89"/>
@@ -8461,31 +8901,31 @@
         <v>12</v>
       </c>
       <c r="AP3" s="113" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="AQ3" s="114" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="AR3" s="115" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
       <c r="AS3" s="113" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="AT3" s="114" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="AU3" s="114" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="AV3" s="114" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="AW3" s="114" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="AX3" s="114" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="AY3" s="116"/>
       <c r="AZ3" s="114"/>
@@ -8536,18 +8976,18 @@
     <col min="15" max="15" width="30.5703125" style="108" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.7109375" style="108" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.7109375" style="133" customWidth="1"/>
-    <col min="19" max="19" width="32.28515625" style="133" customWidth="1"/>
-    <col min="20" max="20" width="27.140625" style="133" customWidth="1"/>
-    <col min="21" max="23" width="30" style="133" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" style="190" customWidth="1"/>
+    <col min="19" max="19" width="32.28515625" style="190" customWidth="1"/>
+    <col min="20" max="20" width="27.140625" style="190" customWidth="1"/>
+    <col min="21" max="23" width="30" style="190" customWidth="1"/>
     <col min="24" max="24" width="18" style="108" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" style="108" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21.42578125" style="108" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="27.140625" style="108" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20.42578125" style="108" customWidth="1"/>
     <col min="29" max="29" width="15" style="108" bestFit="1" customWidth="1"/>
-    <col min="30" max="49" width="9.140625" style="108" customWidth="1"/>
-    <col min="50" max="16384" width="9.140625" style="108"/>
+    <col min="30" max="51" width="9.140625" style="108" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="101" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8558,79 +8998,79 @@
         <v>1</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="D1" s="109" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="F1" s="109" t="s">
         <v>193</v>
       </c>
       <c r="G1" s="109" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="H1" s="98" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="I1" s="98" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="J1" s="98" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="K1" s="98" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="L1" s="98" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="M1" s="99" t="s">
         <v>33</v>
       </c>
       <c r="N1" s="100" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="O1" s="100" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="P1" s="100" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="Q1" s="100" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="R1" s="61" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="S1" s="61" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="T1" s="61" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="U1" s="61" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="V1" s="81" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="W1" s="81" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="X1" s="98" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="Y1" s="100" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="Z1" s="100" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="AA1" s="100" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="107" customFormat="1" x14ac:dyDescent="0.25">
@@ -8638,24 +9078,24 @@
         <v>73</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D2" s="111"/>
-      <c r="E2" s="136" t="s">
-        <v>560</v>
+      <c r="E2" s="191" t="s">
+        <v>590</v>
       </c>
       <c r="F2" s="111"/>
       <c r="G2" s="108" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="H2" s="104" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="I2" s="104" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="J2" s="104" t="s">
         <v>115</v>
@@ -8664,34 +9104,34 @@
         <v>170</v>
       </c>
       <c r="L2" s="102" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="M2" s="102" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="N2" s="102" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="O2" s="102" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="P2" s="102" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="Q2" s="106" t="s">
-        <v>567</v>
-      </c>
-      <c r="R2" s="136" t="s">
-        <v>349</v>
-      </c>
-      <c r="S2" s="136" t="s">
-        <v>568</v>
-      </c>
-      <c r="T2" s="136" t="s">
-        <v>568</v>
-      </c>
-      <c r="U2" s="136" t="s">
-        <v>568</v>
+        <v>597</v>
+      </c>
+      <c r="R2" s="191" t="s">
+        <v>390</v>
+      </c>
+      <c r="S2" s="191" t="s">
+        <v>324</v>
+      </c>
+      <c r="T2" s="191" t="s">
+        <v>324</v>
+      </c>
+      <c r="U2" s="191" t="s">
+        <v>324</v>
       </c>
       <c r="V2" s="53" t="s">
         <v>120</v>
@@ -8700,16 +9140,16 @@
         <v>120</v>
       </c>
       <c r="X2" s="112" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="Y2" s="112" t="s">
         <v>115</v>
       </c>
       <c r="Z2" s="112" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="AA2" s="112" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">

--- a/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_LBT_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085BFF1B-559C-4C67-8C5C-80DEE8178731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013AC828-CEA6-4BDD-88C2-F73B90998142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2250" windowWidth="21600" windowHeight="8490" tabRatio="877" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <sheet name="TRPO12_PortfolioSettledDisc" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4894,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6107,8 +6106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BH9" sqref="BH9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BF4" sqref="BF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
